--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -367,7 +367,7 @@
     <t>Lead_Advisor_Space_Experience_Design</t>
   </si>
   <si>
-    <t>Lead_Content_Marketing_Planning</t>
+    <t>Lead_Content _Marketing_Planning</t>
   </si>
   <si>
     <t>Lead_Service_Advisor</t>
@@ -376,7 +376,7 @@
     <t>Manager_Community_Germany</t>
   </si>
   <si>
-    <t>Manager_User_Representative</t>
+    <t>Manager_User_Representative_</t>
   </si>
   <si>
     <t>NIO_House_Manager_Frankfurt_am_Main</t>
@@ -1342,7 +1342,7 @@
     <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,User_calls_hotline_to_claim_NIO_points,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
-    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
+    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
   </si>
   <si>
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -1348,7 +1348,7 @@
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
   </si>
   <si>
-    <t>Deal_with_any_subscription_cars_delivery-related_issues_with_RDC,Receive_subscription_order_from_user,Get_vehicles_from_CN_or_EU_hub_to_RDC,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
+    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Receive_subscription_order_from_user,Get_vehicles_from_CN_or_EU_hub_to_RDC,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
   </si>
 </sst>
 </file>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="462">
   <si>
     <t>Role</t>
   </si>
@@ -670,6 +670,24 @@
     <t>Vehicle_manager</t>
   </si>
   <si>
+    <t>NIO_Life_Specialist</t>
+  </si>
+  <si>
+    <t>sales_planning_manager</t>
+  </si>
+  <si>
+    <t>Everybody_in_EU</t>
+  </si>
+  <si>
+    <t>L3_Leaders</t>
+  </si>
+  <si>
+    <t>L2_Leaders</t>
+  </si>
+  <si>
+    <t>Data_Protection_Manager</t>
+  </si>
+  <si>
     <t>Europe, SME</t>
   </si>
   <si>
@@ -1051,7 +1069,7 @@
     <t>ranee_miao</t>
   </si>
   <si>
-    <t>sarah_opfer,zoey_li1,qianling_duan,wanli_ren,hun_huang</t>
+    <t>sarah_opfer,qianling_duan,wanli_ren,hun_huang,zoey_li1</t>
   </si>
   <si>
     <t>juliane_weinschenk,kasper_klint,melissa_cs,richard_vermeulen,daniel_wijers,daniel_nielsen,erik_penning</t>
@@ -1324,13 +1342,37 @@
     <t>minko_sijpestein,christian_neergaard,minh_tran,daniel_erdtman</t>
   </si>
   <si>
-    <t>Agent_Performance_Review</t>
+    <t>love_preet</t>
+  </si>
+  <si>
+    <t>zoey_li1</t>
+  </si>
+  <si>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,daniel_gao,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,ranee_miao,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,0,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,0,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,0,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,Helen_Baerbock,Luis_Portas,Johan_Emanuelsson,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye,finn_xue,moritz_wefelscheid,_henry_shen,love_preet</t>
+  </si>
+  <si>
+    <t>yu_huang6,wenlu_ma,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ranee_miao,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,daniel_gao,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,_henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,Helen_Baerbock</t>
+  </si>
+  <si>
+    <t>shaohua_guo,marius_hayler,mattias_lundgren,ruben_keuter,martin_rieder,akos_kiss,matt_galvin,gerald_krainer,thijs_meijling</t>
+  </si>
+  <si>
+    <t>Agent_Performance_Review,test14_process</t>
   </si>
   <si>
     <t>Daily_NH_Store_Closing_SOP</t>
   </si>
   <si>
-    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,User_calls_hotline_to_claim_NIO_points,User_contacts_SCR_to_delete_NIO_account</t>
+    <t>Daily_NH_Store_Closing_SOP,test14_process</t>
+  </si>
+  <si>
+    <t>Fellow_complete_testdrive_process,test_process</t>
+  </si>
+  <si>
+    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
+  </si>
+  <si>
+    <t>Fellow_complete_testdrive_process</t>
   </si>
   <si>
     <t>User_Purchase_car_after_delivery</t>
@@ -1339,16 +1381,25 @@
     <t>Get_vehicles_from_CN_or_EU_hub_to_RDC</t>
   </si>
   <si>
-    <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,User_calls_hotline_to_claim_NIO_points,User_contacts_SCR_to_delete_NIO_account</t>
-  </si>
-  <si>
-    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
-  </si>
-  <si>
-    <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
+    <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
+  </si>
+  <si>
+    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,test_process,Fellow_handles_a_Testdrive_Process</t>
+  </si>
+  <si>
+    <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Fellow_handles_a_Testdrive_Process</t>
   </si>
   <si>
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Receive_subscription_order_from_user,Get_vehicles_from_CN_or_EU_hub_to_RDC,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
+  </si>
+  <si>
+    <t>Maintenance of Register of Processing Activities (RoPA),Purchasing_process</t>
+  </si>
+  <si>
+    <t>Privacy Impact Assessment (PIA)</t>
+  </si>
+  <si>
+    <t>Maintenance of Register of Processing Activities (RoPA)</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1737,13 +1788,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1754,13 +1805,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1771,10 +1822,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1785,13 +1836,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1802,10 +1853,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1816,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1830,10 +1881,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1844,10 +1895,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1858,10 +1909,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1872,10 +1923,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="F11" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1886,10 +1940,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1900,13 +1954,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1917,10 +1971,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1931,10 +1985,13 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>242</v>
+      </c>
+      <c r="F15" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1945,10 +2002,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1959,10 +2016,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1973,10 +2030,10 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1987,10 +2044,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2001,10 +2058,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2015,10 +2072,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2029,10 +2086,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2043,10 +2100,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2057,10 +2114,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2071,10 +2128,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2085,10 +2142,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2099,10 +2156,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2113,10 +2170,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2127,10 +2184,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2141,10 +2198,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2155,13 +2212,13 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F31" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2172,10 +2229,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2186,10 +2243,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2200,10 +2257,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2214,10 +2271,10 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2228,10 +2285,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2242,10 +2299,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2256,10 +2313,10 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2270,10 +2327,10 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2284,10 +2341,10 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2298,10 +2355,10 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2312,10 +2369,10 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2326,10 +2383,10 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2340,10 +2397,10 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2354,10 +2411,10 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2368,10 +2425,10 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2382,10 +2439,10 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E47" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2396,10 +2453,10 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2410,10 +2467,10 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2424,10 +2481,10 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2438,10 +2495,10 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2452,10 +2509,10 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E52" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2466,10 +2523,10 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2480,10 +2537,10 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2494,10 +2551,10 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2508,10 +2565,10 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2522,10 +2579,10 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2536,10 +2593,10 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2550,10 +2607,10 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2564,10 +2621,10 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2578,10 +2635,10 @@
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2592,10 +2649,10 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2606,10 +2663,10 @@
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2620,10 +2677,10 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2634,10 +2691,10 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2648,10 +2705,10 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2662,10 +2719,10 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2676,10 +2733,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2690,10 +2747,10 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2704,10 +2761,10 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2718,10 +2775,13 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>298</v>
+      </c>
+      <c r="F71" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2732,10 +2792,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2746,13 +2806,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E73" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2763,10 +2823,10 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2777,10 +2837,10 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2791,10 +2851,10 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E76" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2805,13 +2865,13 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2822,10 +2882,10 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E78" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2836,13 +2896,13 @@
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E79" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F79" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2853,10 +2913,10 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E80" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2867,10 +2927,10 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E81" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2881,10 +2941,10 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2895,10 +2955,10 @@
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2909,10 +2969,10 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E84" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2923,10 +2983,10 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E85" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2937,10 +2997,10 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E86" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2951,10 +3011,10 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E87" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2965,10 +3025,10 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E88" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2979,10 +3039,10 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E89" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2993,10 +3053,10 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E90" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3007,10 +3067,10 @@
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E91" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3021,10 +3081,10 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E92" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3035,10 +3095,10 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3049,10 +3109,10 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3063,10 +3123,10 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3077,13 +3137,13 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3091,13 +3151,13 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E97" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3105,13 +3165,13 @@
         <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3119,13 +3179,13 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E99" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3133,13 +3193,13 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E100" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3147,13 +3207,13 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E101" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3161,13 +3221,13 @@
         <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E102" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3175,13 +3235,13 @@
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E103" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3189,13 +3249,13 @@
         <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E104" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3203,13 +3263,13 @@
         <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E105" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3217,13 +3277,13 @@
         <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E106" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3231,13 +3291,13 @@
         <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E107" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3245,13 +3305,13 @@
         <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3259,13 +3319,16 @@
         <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E109" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>336</v>
+      </c>
+      <c r="F109" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3273,13 +3336,13 @@
         <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E110" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3287,13 +3350,13 @@
         <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E111" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3301,10 +3364,10 @@
         <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E112" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3315,10 +3378,10 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E113" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3329,10 +3392,10 @@
         <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E114" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3343,10 +3406,10 @@
         <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E115" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3357,10 +3420,10 @@
         <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E116" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3371,13 +3434,13 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D117" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E117" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3388,10 +3451,10 @@
         <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E118" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3402,10 +3465,10 @@
         <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E119" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3416,10 +3479,10 @@
         <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E120" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3430,10 +3493,10 @@
         <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E121" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3444,13 +3507,13 @@
         <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E122" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F122" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3461,10 +3524,10 @@
         <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E123" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3475,10 +3538,10 @@
         <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E124" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3489,13 +3552,13 @@
         <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E125" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F125" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3506,13 +3569,13 @@
         <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E126" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F126" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3523,10 +3586,10 @@
         <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E127" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3537,10 +3600,10 @@
         <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E128" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3551,10 +3614,10 @@
         <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E129" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3565,10 +3628,10 @@
         <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E130" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3579,10 +3642,10 @@
         <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E131" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3593,10 +3656,10 @@
         <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E132" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3607,10 +3670,10 @@
         <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E133" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3621,10 +3684,10 @@
         <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E134" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3635,10 +3698,10 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E135" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3649,10 +3712,10 @@
         <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E136" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3663,10 +3726,10 @@
         <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E137" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3677,10 +3740,10 @@
         <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E138" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3691,10 +3754,10 @@
         <v>142</v>
       </c>
       <c r="D139" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E139" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3705,10 +3768,10 @@
         <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E140" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3719,10 +3782,10 @@
         <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E141" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3733,10 +3796,10 @@
         <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E142" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3747,10 +3810,10 @@
         <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E143" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3761,10 +3824,10 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E144" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3775,10 +3838,10 @@
         <v>148</v>
       </c>
       <c r="D145" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E145" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3789,10 +3852,10 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E146" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3803,10 +3866,10 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E147" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3817,10 +3880,10 @@
         <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E148" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3831,10 +3894,10 @@
         <v>152</v>
       </c>
       <c r="D149" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E149" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3845,10 +3908,10 @@
         <v>153</v>
       </c>
       <c r="D150" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E150" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3859,10 +3922,10 @@
         <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E151" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3873,10 +3936,10 @@
         <v>155</v>
       </c>
       <c r="D152" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E152" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3887,13 +3950,13 @@
         <v>156</v>
       </c>
       <c r="D153" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E153" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F153" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3904,10 +3967,10 @@
         <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E154" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3918,10 +3981,10 @@
         <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E155" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3932,10 +3995,10 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E156" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3946,10 +4009,10 @@
         <v>160</v>
       </c>
       <c r="D157" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E157" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3960,10 +4023,10 @@
         <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3974,10 +4037,10 @@
         <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E159" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3988,13 +4051,13 @@
         <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E160" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4002,13 +4065,13 @@
         <v>164</v>
       </c>
       <c r="D161" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E161" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4016,13 +4079,13 @@
         <v>165</v>
       </c>
       <c r="D162" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E162" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4030,13 +4093,13 @@
         <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E163" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4044,13 +4107,13 @@
         <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E164" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4058,13 +4121,13 @@
         <v>168</v>
       </c>
       <c r="D165" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E165" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4072,13 +4135,16 @@
         <v>169</v>
       </c>
       <c r="D166" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E166" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>393</v>
+      </c>
+      <c r="F166" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4086,13 +4152,13 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E167" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4100,13 +4166,13 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E168" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4114,13 +4180,13 @@
         <v>113</v>
       </c>
       <c r="D169" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E169" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4128,13 +4194,13 @@
         <v>172</v>
       </c>
       <c r="D170" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E170" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4142,13 +4208,13 @@
         <v>173</v>
       </c>
       <c r="D171" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E171" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4156,13 +4222,13 @@
         <v>174</v>
       </c>
       <c r="D172" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E172" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4170,13 +4236,13 @@
         <v>175</v>
       </c>
       <c r="D173" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E173" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4184,13 +4250,13 @@
         <v>176</v>
       </c>
       <c r="D174" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E174" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4198,13 +4264,13 @@
         <v>177</v>
       </c>
       <c r="D175" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E175" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4212,10 +4278,10 @@
         <v>178</v>
       </c>
       <c r="D176" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E176" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4226,16 +4292,16 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D177" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E177" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F177" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4246,10 +4312,10 @@
         <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E178" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4260,10 +4326,10 @@
         <v>181</v>
       </c>
       <c r="D179" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E179" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4274,10 +4340,10 @@
         <v>182</v>
       </c>
       <c r="D180" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E180" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4288,10 +4354,10 @@
         <v>183</v>
       </c>
       <c r="D181" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E181" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4302,10 +4368,10 @@
         <v>184</v>
       </c>
       <c r="D182" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E182" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4316,10 +4382,10 @@
         <v>185</v>
       </c>
       <c r="D183" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E183" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4330,10 +4396,10 @@
         <v>186</v>
       </c>
       <c r="D184" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E184" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4344,10 +4410,10 @@
         <v>187</v>
       </c>
       <c r="D185" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E185" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4358,10 +4424,10 @@
         <v>188</v>
       </c>
       <c r="D186" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E186" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4372,10 +4438,10 @@
         <v>189</v>
       </c>
       <c r="D187" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E187" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4386,10 +4452,10 @@
         <v>190</v>
       </c>
       <c r="D188" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E188" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4400,13 +4466,13 @@
         <v>191</v>
       </c>
       <c r="D189" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E189" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F189" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4417,13 +4483,13 @@
         <v>192</v>
       </c>
       <c r="D190" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E190" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F190" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4434,10 +4500,10 @@
         <v>193</v>
       </c>
       <c r="D191" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E191" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4448,10 +4514,10 @@
         <v>194</v>
       </c>
       <c r="D192" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E192" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4462,10 +4528,10 @@
         <v>195</v>
       </c>
       <c r="D193" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E193" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4476,10 +4542,10 @@
         <v>196</v>
       </c>
       <c r="D194" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E194" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4490,10 +4556,10 @@
         <v>197</v>
       </c>
       <c r="D195" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E195" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4504,10 +4570,10 @@
         <v>198</v>
       </c>
       <c r="D196" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E196" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4518,13 +4584,13 @@
         <v>199</v>
       </c>
       <c r="D197" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E197" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F197" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4535,10 +4601,10 @@
         <v>200</v>
       </c>
       <c r="D198" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E198" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4549,10 +4615,10 @@
         <v>201</v>
       </c>
       <c r="D199" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E199" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4563,10 +4629,10 @@
         <v>202</v>
       </c>
       <c r="D200" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E200" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4577,10 +4643,10 @@
         <v>203</v>
       </c>
       <c r="D201" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E201" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4591,10 +4657,10 @@
         <v>204</v>
       </c>
       <c r="D202" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E202" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4605,10 +4671,10 @@
         <v>205</v>
       </c>
       <c r="D203" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E203" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4619,13 +4685,13 @@
         <v>206</v>
       </c>
       <c r="D204" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E204" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F204" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4636,10 +4702,10 @@
         <v>207</v>
       </c>
       <c r="D205" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E205" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4650,10 +4716,10 @@
         <v>208</v>
       </c>
       <c r="D206" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E206" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4664,10 +4730,10 @@
         <v>209</v>
       </c>
       <c r="D207" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E207" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4678,10 +4744,10 @@
         <v>210</v>
       </c>
       <c r="D208" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E208" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4692,10 +4758,10 @@
         <v>211</v>
       </c>
       <c r="D209" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E209" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4706,10 +4772,10 @@
         <v>212</v>
       </c>
       <c r="D210" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E210" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4720,10 +4786,10 @@
         <v>213</v>
       </c>
       <c r="D211" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E211" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4734,10 +4800,10 @@
         <v>214</v>
       </c>
       <c r="D212" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E212" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4748,10 +4814,10 @@
         <v>215</v>
       </c>
       <c r="D213" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E213" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4762,7 +4828,7 @@
         <v>216</v>
       </c>
       <c r="D214" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4773,24 +4839,109 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D215" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E215" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F215" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>214</v>
       </c>
+      <c r="B216" t="s">
+        <v>218</v>
+      </c>
       <c r="D216" t="s">
+        <v>228</v>
+      </c>
+      <c r="E216" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>219</v>
+      </c>
+      <c r="D217" t="s">
+        <v>228</v>
+      </c>
+      <c r="E217" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>220</v>
+      </c>
+      <c r="D218" t="s">
+        <v>228</v>
+      </c>
+      <c r="E218" t="s">
+        <v>444</v>
+      </c>
+      <c r="F218" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+      <c r="D219" t="s">
+        <v>228</v>
+      </c>
+      <c r="E219" t="s">
+        <v>445</v>
+      </c>
+      <c r="F219" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
         <v>222</v>
+      </c>
+      <c r="D220" t="s">
+        <v>228</v>
+      </c>
+      <c r="E220" t="s">
+        <v>446</v>
+      </c>
+      <c r="F220" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>223</v>
+      </c>
+      <c r="D221" t="s">
+        <v>228</v>
+      </c>
+      <c r="F221" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -664,7 +664,7 @@
     <t>Warranty_Specialist_Sweden</t>
   </si>
   <si>
-    <t>External_Employee_Proxy</t>
+    <t>External_Employee_(Proxy)</t>
   </si>
   <si>
     <t>Vehicle_manager</t>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="461">
   <si>
     <t>Role</t>
   </si>
@@ -355,183 +355,183 @@
     <t>Head_of_User_Operation_Sweden</t>
   </si>
   <si>
+    <t>Key_Account_Manager</t>
+  </si>
+  <si>
+    <t>Lead_Advisor_Mobile_Technician</t>
+  </si>
+  <si>
+    <t>Lead_Advisor_Space_Experience_Design</t>
+  </si>
+  <si>
+    <t>Lead_Content _Marketing_Planning</t>
+  </si>
+  <si>
+    <t>Lead_Service_Advisor</t>
+  </si>
+  <si>
+    <t>Manager_Community_Germany</t>
+  </si>
+  <si>
+    <t>Manager_User_Representative_</t>
+  </si>
+  <si>
+    <t>NIO_House_Manager_Frankfurt_am_Main</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>Project_Management_-_User_Development</t>
+  </si>
+  <si>
+    <t>Regional_Technician</t>
+  </si>
+  <si>
+    <t>SCR_English_Agent</t>
+  </si>
+  <si>
+    <t>Head_of_Business_Development_Team_&amp;_Lead_Business_Development</t>
+  </si>
+  <si>
+    <t>Senior_PMO</t>
+  </si>
+  <si>
+    <t>Service_Coordinator_Representative</t>
+  </si>
+  <si>
+    <t>Service_Representative</t>
+  </si>
+  <si>
+    <t>Spare_Parts_&amp;_Accessories_Manager_Netherlands</t>
+  </si>
+  <si>
+    <t>Specialist_Fleet_Management</t>
+  </si>
+  <si>
+    <t>Specialist_Vehicle_Operation</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Training_Operations_Specialist</t>
+  </si>
+  <si>
+    <t>User_Relationship_Manager_Sweden</t>
+  </si>
+  <si>
+    <t>Workshop_Supervisor</t>
+  </si>
+  <si>
+    <t>Europe_Parts_Planning_&amp;_Logistics_Senior_Manager</t>
+  </si>
+  <si>
+    <t>Head_of_Design_Management_Europe</t>
+  </si>
+  <si>
+    <t>Parts_Specialist</t>
+  </si>
+  <si>
+    <t>Lead_Advisor_Europe_Parts_Planning_&amp;_Logistics</t>
+  </si>
+  <si>
+    <t>Lead_Advisor_Warranty</t>
+  </si>
+  <si>
+    <t>City_Manager_Rotterdam</t>
+  </si>
+  <si>
+    <t>Commercial_and_Subscription_Manager</t>
+  </si>
+  <si>
+    <t>Advisor_Fleet_Operation</t>
+  </si>
+  <si>
+    <t>Analyst_Business_Planning</t>
+  </si>
+  <si>
+    <t>Associate_PMO</t>
+  </si>
+  <si>
+    <t>Business_Development_Consultant</t>
+  </si>
+  <si>
+    <t>City_Manager_Berlin</t>
+  </si>
+  <si>
+    <t>Content_Manager_Sweden</t>
+  </si>
+  <si>
+    <t>Cost_Manager</t>
+  </si>
+  <si>
+    <t>Country_General_Manager_Sweden_Company</t>
+  </si>
+  <si>
+    <t>Country_General_Manager_Germany_Company</t>
+  </si>
+  <si>
+    <t>Digital_Marketing_Specialist_User_Development</t>
+  </si>
+  <si>
+    <t>Event_&amp;_User_Relationship_Manager_Denmark</t>
+  </si>
+  <si>
+    <t>Expert_Business_Planning</t>
+  </si>
+  <si>
+    <t>Fellow</t>
+  </si>
+  <si>
+    <t>Fleet_Account_and_Company_Car_Specialist</t>
+  </si>
+  <si>
+    <t>Fleet_Operation_Manager-Denmark</t>
+  </si>
+  <si>
+    <t>Fleet_Planning_Specialist</t>
+  </si>
+  <si>
+    <t>Head_of_Europe_Commercial_Operation_Department</t>
+  </si>
+  <si>
+    <t>Head_of_Fleet_Operations</t>
+  </si>
+  <si>
+    <t>Head_of_Market_Expansion_Planning_&amp;_Expert_Program_Management</t>
+  </si>
+  <si>
+    <t>Head_of_PMO_Infrastructure_Team_&amp;_Lead_Program_Management</t>
+  </si>
+  <si>
+    <t>Head_of_Revenue_Management</t>
+  </si>
+  <si>
+    <t>Head_of_Service_Operation_Germany</t>
+  </si>
+  <si>
+    <t>Head_of_Service_Operation_Team_Sweden_Company</t>
+  </si>
+  <si>
+    <t>Head_of_User_Development_Netherlands</t>
+  </si>
+  <si>
+    <t>Head_of_User_Development_Germany</t>
+  </si>
+  <si>
+    <t>Head_of_User_Operation_Germany</t>
+  </si>
+  <si>
+    <t>Head_of_User_Relations_Team_&amp;_Lead_Analyst_Market_&amp;_User_Research</t>
+  </si>
+  <si>
+    <t>Infrastructure_Project_Management_Specialist</t>
+  </si>
+  <si>
     <t>Intern</t>
   </si>
   <si>
-    <t>Key_Account_Manager</t>
-  </si>
-  <si>
-    <t>Lead_Advisor_Mobile_Technician</t>
-  </si>
-  <si>
-    <t>Lead_Advisor_Space_Experience_Design</t>
-  </si>
-  <si>
-    <t>Lead_Content _Marketing_Planning</t>
-  </si>
-  <si>
-    <t>Lead_Service_Advisor</t>
-  </si>
-  <si>
-    <t>Manager_Community_Germany</t>
-  </si>
-  <si>
-    <t>Manager_User_Representative_</t>
-  </si>
-  <si>
-    <t>NIO_House_Manager_Frankfurt_am_Main</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>Project_Management_-_User_Development</t>
-  </si>
-  <si>
-    <t>Regional_Technician</t>
-  </si>
-  <si>
-    <t>SCR_English_Agent</t>
-  </si>
-  <si>
-    <t>Head_of_Business_Development_Team_&amp;_Lead_Business_Development</t>
-  </si>
-  <si>
-    <t>Senior_PMO</t>
-  </si>
-  <si>
-    <t>Service_Coordinator_Representative</t>
-  </si>
-  <si>
-    <t>Service_Representative</t>
-  </si>
-  <si>
-    <t>Spare_Parts_&amp;_Accessories_Manager_Netherlands</t>
-  </si>
-  <si>
-    <t>Specialist_Fleet_Management</t>
-  </si>
-  <si>
-    <t>Specialist_Vehicle_Operation</t>
-  </si>
-  <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>Training_Operations_Specialist</t>
-  </si>
-  <si>
-    <t>User_Relationship_Manager_Sweden</t>
-  </si>
-  <si>
-    <t>Workshop_Supervisor</t>
-  </si>
-  <si>
-    <t>Europe_Parts_Planning_&amp;_Logistics_Senior_Manager</t>
-  </si>
-  <si>
-    <t>Head_of_Design_Management_Europe</t>
-  </si>
-  <si>
-    <t>Parts_Specialist</t>
-  </si>
-  <si>
-    <t>Lead_Advisor_Europe_Parts_Planning_&amp;_Logistics</t>
-  </si>
-  <si>
-    <t>Lead_Advisor_Warranty</t>
-  </si>
-  <si>
-    <t>City_Manager_Rotterdam</t>
-  </si>
-  <si>
-    <t>Commercial_and_Subscription_Manager</t>
-  </si>
-  <si>
-    <t>Advisor_Fleet_Operation</t>
-  </si>
-  <si>
-    <t>Analyst_Business_Planning</t>
-  </si>
-  <si>
-    <t>Associate_PMO</t>
-  </si>
-  <si>
-    <t>Business_Development_Consultant</t>
-  </si>
-  <si>
-    <t>City_Manager_Berlin</t>
-  </si>
-  <si>
-    <t>Content_Manager_Sweden</t>
-  </si>
-  <si>
-    <t>Cost_Manager</t>
-  </si>
-  <si>
-    <t>Country_General_Manager_Sweden_Company</t>
-  </si>
-  <si>
-    <t>Country_General_Manager_Germany_Company</t>
-  </si>
-  <si>
-    <t>Digital_Marketing_Specialist_User_Development</t>
-  </si>
-  <si>
-    <t>Event_&amp;_User_Relationship_Manager_Denmark</t>
-  </si>
-  <si>
-    <t>Expert_Business_Planning</t>
-  </si>
-  <si>
-    <t>Fellow</t>
-  </si>
-  <si>
-    <t>Fleet_Account_and_Company_Car_Specialist</t>
-  </si>
-  <si>
-    <t>Fleet_Operation_Manager-Denmark</t>
-  </si>
-  <si>
-    <t>Fleet_Planning_Specialist</t>
-  </si>
-  <si>
-    <t>Head_of_Europe_Commercial_Operation_Department</t>
-  </si>
-  <si>
-    <t>Head_of_Fleet_Operations</t>
-  </si>
-  <si>
-    <t>Head_of_Market_Expansion_Planning_&amp;_Expert_Program_Management</t>
-  </si>
-  <si>
-    <t>Head_of_PMO_Infrastructure_Team_&amp;_Lead_Program_Management</t>
-  </si>
-  <si>
-    <t>Head_of_Revenue_Management</t>
-  </si>
-  <si>
-    <t>Head_of_Service_Operation_Germany</t>
-  </si>
-  <si>
-    <t>Head_of_Service_Operation_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>Head_of_User_Development_Netherlands</t>
-  </si>
-  <si>
-    <t>Head_of_User_Development_Germany</t>
-  </si>
-  <si>
-    <t>Head_of_User_Operation_Germany</t>
-  </si>
-  <si>
-    <t>Head_of_User_Relations_Team_&amp;_Lead_Analyst_Market_&amp;_User_Research</t>
-  </si>
-  <si>
-    <t>Infrastructure_Project_Management_Specialist</t>
-  </si>
-  <si>
     <t>Lead_Advisor_Content_Planning_Europe</t>
   </si>
   <si>
@@ -868,7 +868,7 @@
     <t>hailee_han,effy_song,ziye_chen,caesar_qian,timo_herrmann,julie_jiang</t>
   </si>
   <si>
-    <t>roberto_pavon,josephus_padilla,jermaine_odom,0</t>
+    <t>roberto_pavon,josephus_padilla,jermaine_odom</t>
   </si>
   <si>
     <t>georg_bruce,moritz_bayer,florian_treml,florian_fischer,ole_gravenhorst,robin_haeger</t>
@@ -1027,9 +1027,6 @@
     <t>niklas_gustafson</t>
   </si>
   <si>
-    <t>kangrui_wang</t>
-  </si>
-  <si>
     <t>marcel_cucu,martin_hock,nick_nielsen,ackis_grammenidis,maarten_mulder,koen_swennen</t>
   </si>
   <si>
@@ -1075,7 +1072,7 @@
     <t>juliane_weinschenk,kasper_klint,melissa_cs,richard_vermeulen,daniel_wijers,daniel_nielsen,erik_penning</t>
   </si>
   <si>
-    <t>sammy_hussain,0,martin_widing,william_tjaum,andreas_kyriakou1,adem_yerlikaya,per_brandvik</t>
+    <t>sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,adem_yerlikaya,per_brandvik</t>
   </si>
   <si>
     <t>nadim_mohammad</t>
@@ -1204,7 +1201,7 @@
     <t>clare_mummery</t>
   </si>
   <si>
-    <t>wenchao_cui1,joy_zhu1,chutong_liu,echo_zeng,anastasia_yu,sami_li,daisy_xiao,eunice_ho,sherry_li3,jerry_liu3</t>
+    <t>wenchao_cui1,joy_zhu1,chutong_liu,echo_zeng,anastasia_yu,sami_li,daisy_xiao,eunice_ho,sherry_li3,jerry_liu3,kangrui_wang</t>
   </si>
   <si>
     <t>alissia_lehle</t>
@@ -1288,7 +1285,7 @@
     <t>mathias_lindbeck</t>
   </si>
   <si>
-    <t>0,kristiane_larsson</t>
+    <t>kristiane_larsson</t>
   </si>
   <si>
     <t>marco_verweij</t>
@@ -1348,7 +1345,7 @@
     <t>zoey_li1</t>
   </si>
   <si>
-    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,daniel_gao,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,ranee_miao,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,0,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,0,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,0,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,Helen_Baerbock,Luis_Portas,Johan_Emanuelsson,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye,finn_xue,moritz_wefelscheid,_henry_shen,love_preet</t>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,daniel_gao,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,ranee_miao,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,Helen_Baerbock,Luis_Portas,Johan_Emanuelsson,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye,finn_xue,moritz_wefelscheid,_henry_shen,love_preet</t>
   </si>
   <si>
     <t>yu_huang6,wenlu_ma,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ranee_miao,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,daniel_gao,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,_henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,Helen_Baerbock</t>
@@ -1366,15 +1363,15 @@
     <t>Daily_NH_Store_Closing_SOP,test14_process</t>
   </si>
   <si>
-    <t>Fellow_complete_testdrive_process,test_process</t>
+    <t>hr test_process</t>
+  </si>
+  <si>
+    <t>Fellow_complete_testdrive_process</t>
   </si>
   <si>
     <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
-    <t>Fellow_complete_testdrive_process</t>
-  </si>
-  <si>
     <t>User_Purchase_car_after_delivery</t>
   </si>
   <si>
@@ -1384,7 +1381,7 @@
     <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
-    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,test_process,Fellow_handles_a_Testdrive_Process</t>
+    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process</t>
   </si>
   <si>
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Fellow_handles_a_Testdrive_Process</t>
@@ -1757,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1794,7 +1791,7 @@
         <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1811,7 +1808,7 @@
         <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1842,7 +1839,7 @@
         <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1900,6 +1897,9 @@
       <c r="E9" t="s">
         <v>236</v>
       </c>
+      <c r="F9" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
@@ -1991,7 +1991,7 @@
         <v>242</v>
       </c>
       <c r="F15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2218,7 +2218,7 @@
         <v>258</v>
       </c>
       <c r="F31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2781,7 +2781,7 @@
         <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2871,7 +2871,7 @@
         <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2902,7 +2902,7 @@
         <v>306</v>
       </c>
       <c r="F79" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3325,7 +3325,7 @@
         <v>336</v>
       </c>
       <c r="F109" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3419,6 +3419,9 @@
       <c r="B116" t="s">
         <v>119</v>
       </c>
+      <c r="C116" t="s">
+        <v>225</v>
+      </c>
       <c r="D116" t="s">
         <v>228</v>
       </c>
@@ -3433,9 +3436,6 @@
       <c r="B117" t="s">
         <v>120</v>
       </c>
-      <c r="C117" t="s">
-        <v>225</v>
-      </c>
       <c r="D117" t="s">
         <v>228</v>
       </c>
@@ -3498,6 +3498,9 @@
       <c r="E121" t="s">
         <v>348</v>
       </c>
+      <c r="F121" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
@@ -3512,9 +3515,6 @@
       <c r="E122" t="s">
         <v>349</v>
       </c>
-      <c r="F122" t="s">
-        <v>451</v>
-      </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
@@ -3543,6 +3543,9 @@
       <c r="E124" t="s">
         <v>351</v>
       </c>
+      <c r="F124" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
@@ -3574,9 +3577,6 @@
       <c r="E126" t="s">
         <v>353</v>
       </c>
-      <c r="F126" t="s">
-        <v>451</v>
-      </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
@@ -3941,6 +3941,9 @@
       <c r="E152" t="s">
         <v>379</v>
       </c>
+      <c r="F152" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
@@ -3955,9 +3958,6 @@
       <c r="E153" t="s">
         <v>380</v>
       </c>
-      <c r="F153" t="s">
-        <v>456</v>
-      </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
@@ -4126,6 +4126,9 @@
       <c r="E165" t="s">
         <v>392</v>
       </c>
+      <c r="F165" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
@@ -4140,9 +4143,6 @@
       <c r="E166" t="s">
         <v>393</v>
       </c>
-      <c r="F166" t="s">
-        <v>452</v>
-      </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
@@ -4177,7 +4177,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D169" t="s">
         <v>228</v>
@@ -4191,7 +4191,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D170" t="s">
         <v>228</v>
@@ -4205,7 +4205,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D171" t="s">
         <v>228</v>
@@ -4219,7 +4219,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D172" t="s">
         <v>228</v>
@@ -4233,7 +4233,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D173" t="s">
         <v>228</v>
@@ -4247,7 +4247,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D174" t="s">
         <v>228</v>
@@ -4261,7 +4261,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D175" t="s">
         <v>228</v>
@@ -4275,13 +4275,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="C176" t="s">
+        <v>226</v>
       </c>
       <c r="D176" t="s">
         <v>228</v>
       </c>
       <c r="E176" t="s">
         <v>403</v>
+      </c>
+      <c r="F176" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4289,19 +4295,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="D177" t="s">
         <v>228</v>
       </c>
       <c r="E177" t="s">
         <v>404</v>
-      </c>
-      <c r="F177" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4309,7 +4309,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D178" t="s">
         <v>228</v>
@@ -4323,7 +4323,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D179" t="s">
         <v>228</v>
@@ -4337,7 +4337,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D180" t="s">
         <v>228</v>
@@ -4351,7 +4351,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D181" t="s">
         <v>228</v>
@@ -4365,7 +4365,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D182" t="s">
         <v>228</v>
@@ -4379,7 +4379,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D183" t="s">
         <v>228</v>
@@ -4393,7 +4393,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D184" t="s">
         <v>228</v>
@@ -4407,7 +4407,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D185" t="s">
         <v>228</v>
@@ -4421,7 +4421,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D186" t="s">
         <v>228</v>
@@ -4435,7 +4435,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D187" t="s">
         <v>228</v>
@@ -4449,13 +4449,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D188" t="s">
         <v>228</v>
       </c>
       <c r="E188" t="s">
         <v>415</v>
+      </c>
+      <c r="F188" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4463,7 +4466,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D189" t="s">
         <v>228</v>
@@ -4480,16 +4483,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D190" t="s">
         <v>228</v>
       </c>
       <c r="E190" t="s">
         <v>417</v>
-      </c>
-      <c r="F190" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4497,7 +4497,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D191" t="s">
         <v>228</v>
@@ -4511,7 +4511,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D192" t="s">
         <v>228</v>
@@ -4525,7 +4525,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D193" t="s">
         <v>228</v>
@@ -4539,7 +4539,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D194" t="s">
         <v>228</v>
@@ -4553,7 +4553,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D195" t="s">
         <v>228</v>
@@ -4567,13 +4567,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D196" t="s">
         <v>228</v>
       </c>
       <c r="E196" t="s">
         <v>423</v>
+      </c>
+      <c r="F196" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4581,16 +4584,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D197" t="s">
         <v>228</v>
       </c>
       <c r="E197" t="s">
         <v>424</v>
-      </c>
-      <c r="F197" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4598,7 +4598,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D198" t="s">
         <v>228</v>
@@ -4612,7 +4612,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D199" t="s">
         <v>228</v>
@@ -4626,7 +4626,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D200" t="s">
         <v>228</v>
@@ -4640,7 +4640,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D201" t="s">
         <v>228</v>
@@ -4654,7 +4654,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D202" t="s">
         <v>228</v>
@@ -4668,13 +4668,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D203" t="s">
         <v>228</v>
       </c>
       <c r="E203" t="s">
         <v>430</v>
+      </c>
+      <c r="F203" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4682,16 +4685,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D204" t="s">
         <v>228</v>
       </c>
       <c r="E204" t="s">
         <v>431</v>
-      </c>
-      <c r="F204" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4699,7 +4699,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D205" t="s">
         <v>228</v>
@@ -4713,7 +4713,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D206" t="s">
         <v>228</v>
@@ -4727,7 +4727,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D207" t="s">
         <v>228</v>
@@ -4741,7 +4741,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D208" t="s">
         <v>228</v>
@@ -4755,7 +4755,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D209" t="s">
         <v>228</v>
@@ -4769,7 +4769,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D210" t="s">
         <v>228</v>
@@ -4783,7 +4783,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D211" t="s">
         <v>228</v>
@@ -4797,7 +4797,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D212" t="s">
         <v>228</v>
@@ -4811,13 +4811,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D213" t="s">
         <v>228</v>
-      </c>
-      <c r="E213" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4825,10 +4822,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="C214" t="s">
+        <v>227</v>
       </c>
       <c r="D214" t="s">
         <v>228</v>
+      </c>
+      <c r="E214" t="s">
+        <v>440</v>
+      </c>
+      <c r="F214" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4836,19 +4842,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
-      </c>
-      <c r="C215" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D215" t="s">
         <v>228</v>
       </c>
       <c r="E215" t="s">
         <v>441</v>
-      </c>
-      <c r="F215" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4856,7 +4856,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D216" t="s">
         <v>228</v>
@@ -4870,13 +4870,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D217" t="s">
         <v>228</v>
       </c>
       <c r="E217" t="s">
         <v>443</v>
+      </c>
+      <c r="F217" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4884,7 +4887,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D218" t="s">
         <v>228</v>
@@ -4901,7 +4904,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D219" t="s">
         <v>228</v>
@@ -4910,7 +4913,7 @@
         <v>445</v>
       </c>
       <c r="F219" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4918,30 +4921,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D220" t="s">
         <v>228</v>
-      </c>
-      <c r="E220" t="s">
-        <v>446</v>
       </c>
       <c r="F220" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>223</v>
-      </c>
-      <c r="D221" t="s">
-        <v>228</v>
-      </c>
-      <c r="F221" t="s">
-        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="465">
   <si>
     <t>Role</t>
   </si>
@@ -688,6 +688,9 @@
     <t>Data_Protection_Manager</t>
   </si>
   <si>
+    <t>caesar_one_person_one_role</t>
+  </si>
+  <si>
     <t>Europe, SME</t>
   </si>
   <si>
@@ -700,7 +703,7 @@
     <t>Taking the response of managing vehicle for specific countries like NL/GE/SE/DK... also, help to deal with any issues related to pre-delivery.</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>chris_chen1,pawel_frackowiak</t>
@@ -1354,6 +1357,9 @@
     <t>shaohua_guo,marius_hayler,mattias_lundgren,ruben_keuter,martin_rieder,akos_kiss,matt_galvin,gerald_krainer,thijs_meijling</t>
   </si>
   <si>
+    <t>caesar_qian</t>
+  </si>
+  <si>
     <t>Agent_Performance_Review,test14_process</t>
   </si>
   <si>
@@ -1375,13 +1381,19 @@
     <t>User_Purchase_car_after_delivery</t>
   </si>
   <si>
+    <t>ud_publishes_a_pgc</t>
+  </si>
+  <si>
     <t>Get_vehicles_from_CN_or_EU_hub_to_RDC</t>
   </si>
   <si>
     <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
-    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process</t>
+    <t>Network_development_manager_selects_design_vendor</t>
+  </si>
+  <si>
+    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop</t>
   </si>
   <si>
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Fellow_handles_a_Testdrive_Process</t>
@@ -1754,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1785,13 +1797,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1802,13 +1814,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1819,10 +1831,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1833,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1850,10 +1862,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1864,10 +1876,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1878,10 +1890,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1892,13 +1904,13 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1909,10 +1921,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1923,13 +1935,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1940,10 +1952,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1954,13 +1966,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1971,10 +1983,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1985,13 +1997,13 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2002,10 +2014,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2016,10 +2028,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2030,10 +2042,10 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2044,10 +2056,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2058,10 +2070,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2072,10 +2084,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2086,10 +2098,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2100,10 +2112,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2114,10 +2126,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2128,10 +2140,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2142,10 +2154,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2156,10 +2168,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2170,10 +2182,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2184,10 +2196,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2198,10 +2210,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2212,13 +2224,13 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2229,10 +2241,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2243,10 +2255,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2257,10 +2269,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2271,10 +2283,10 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2285,10 +2297,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2299,10 +2311,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2313,10 +2325,10 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2327,10 +2339,10 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2341,10 +2353,10 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2355,10 +2367,10 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2369,10 +2381,10 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2383,10 +2395,10 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2397,10 +2409,10 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2411,10 +2423,10 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2425,10 +2437,10 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2439,10 +2451,10 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2453,13 +2465,13 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2467,13 +2479,13 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2481,13 +2493,13 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2495,13 +2507,13 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2509,13 +2521,13 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2523,13 +2535,16 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>281</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2537,13 +2552,13 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2551,13 +2566,13 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2565,13 +2580,13 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2579,13 +2594,13 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2593,13 +2608,13 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2607,13 +2622,13 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2621,13 +2636,13 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2635,13 +2650,13 @@
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2649,13 +2664,13 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E62" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2663,13 +2678,13 @@
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2677,10 +2692,10 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2691,10 +2706,10 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2705,10 +2720,10 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2719,10 +2734,10 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2733,10 +2748,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2747,10 +2762,10 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2761,10 +2776,10 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2775,13 +2790,13 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F71" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2792,10 +2807,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E72" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2806,13 +2821,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2823,10 +2838,10 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2837,10 +2852,10 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2851,10 +2866,10 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2865,13 +2880,13 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2882,10 +2897,10 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2896,13 +2911,13 @@
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F79" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2913,10 +2928,10 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2927,10 +2942,10 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2941,10 +2956,10 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2955,10 +2970,10 @@
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2969,10 +2984,10 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2983,10 +2998,10 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2997,10 +3012,10 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3011,10 +3026,10 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E87" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3025,10 +3040,10 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3054,10 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3053,10 +3068,10 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3067,10 +3082,10 @@
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3081,10 +3096,10 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3095,10 +3110,10 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E93" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3109,10 +3124,10 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E94" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3123,10 +3138,10 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3137,10 +3152,10 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E96" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3151,10 +3166,10 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E97" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3165,10 +3180,10 @@
         <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3179,10 +3194,10 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3193,10 +3208,10 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E100" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3207,10 +3222,10 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E101" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3221,10 +3236,10 @@
         <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E102" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3235,10 +3250,10 @@
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E103" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3249,10 +3264,10 @@
         <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E104" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3278,10 @@
         <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E105" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3277,10 +3292,10 @@
         <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3291,10 +3306,10 @@
         <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E107" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3305,10 +3320,10 @@
         <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E108" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3319,13 +3334,13 @@
         <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E109" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F109" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3336,10 +3351,10 @@
         <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E110" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3350,10 +3365,10 @@
         <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E111" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3364,10 +3379,13 @@
         <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E112" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="F112" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3378,10 +3396,10 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3392,10 +3410,10 @@
         <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3406,10 +3424,10 @@
         <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E115" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3420,13 +3438,13 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E116" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3437,10 +3455,10 @@
         <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E117" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3451,10 +3469,10 @@
         <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3465,10 +3483,10 @@
         <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E119" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3479,10 +3497,10 @@
         <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E120" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3493,13 +3511,13 @@
         <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E121" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F121" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3510,10 +3528,10 @@
         <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E122" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3524,10 +3542,10 @@
         <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E123" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3538,13 +3556,13 @@
         <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E124" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F124" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3555,13 +3573,13 @@
         <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E125" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F125" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3572,10 +3590,10 @@
         <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E126" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3586,10 +3604,10 @@
         <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E127" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3600,10 +3618,10 @@
         <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E128" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3614,10 +3632,10 @@
         <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E129" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3628,10 +3646,10 @@
         <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E130" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3642,10 +3660,10 @@
         <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E131" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3656,10 +3674,10 @@
         <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E132" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3670,10 +3688,10 @@
         <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E133" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3684,10 +3702,10 @@
         <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E134" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3698,10 +3716,10 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E135" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3712,10 +3730,10 @@
         <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E136" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3726,10 +3744,10 @@
         <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E137" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3740,10 +3758,10 @@
         <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E138" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3754,10 +3772,10 @@
         <v>142</v>
       </c>
       <c r="D139" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3768,10 +3786,10 @@
         <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E140" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3782,10 +3800,10 @@
         <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E141" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3796,10 +3814,10 @@
         <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E142" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3810,10 +3828,10 @@
         <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E143" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3824,10 +3842,10 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E144" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3838,10 +3856,10 @@
         <v>148</v>
       </c>
       <c r="D145" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E145" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3852,10 +3870,10 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E146" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3866,10 +3884,10 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E147" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3880,10 +3898,10 @@
         <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E148" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3894,10 +3912,10 @@
         <v>152</v>
       </c>
       <c r="D149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E149" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3908,10 +3926,10 @@
         <v>153</v>
       </c>
       <c r="D150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E150" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3922,10 +3940,10 @@
         <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E151" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3936,13 +3954,13 @@
         <v>155</v>
       </c>
       <c r="D152" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E152" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F152" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3953,10 +3971,10 @@
         <v>156</v>
       </c>
       <c r="D153" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E153" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3967,10 +3985,10 @@
         <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E154" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3981,10 +3999,10 @@
         <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E155" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3995,10 +4013,10 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E156" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4009,10 +4027,10 @@
         <v>160</v>
       </c>
       <c r="D157" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E157" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4023,10 +4041,10 @@
         <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E158" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4037,10 +4055,10 @@
         <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E159" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4051,10 +4069,10 @@
         <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E160" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4065,10 +4083,10 @@
         <v>164</v>
       </c>
       <c r="D161" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E161" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4079,10 +4097,10 @@
         <v>165</v>
       </c>
       <c r="D162" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E162" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4093,10 +4111,10 @@
         <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E163" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4107,10 +4125,10 @@
         <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E164" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4121,13 +4139,13 @@
         <v>168</v>
       </c>
       <c r="D165" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E165" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F165" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4138,10 +4156,10 @@
         <v>169</v>
       </c>
       <c r="D166" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E166" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4152,10 +4170,10 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E167" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4166,10 +4184,10 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E168" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4180,10 +4198,10 @@
         <v>172</v>
       </c>
       <c r="D169" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E169" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4194,10 +4212,10 @@
         <v>173</v>
       </c>
       <c r="D170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E170" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4208,10 +4226,10 @@
         <v>174</v>
       </c>
       <c r="D171" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E171" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4222,10 +4240,10 @@
         <v>175</v>
       </c>
       <c r="D172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E172" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4236,10 +4254,10 @@
         <v>176</v>
       </c>
       <c r="D173" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E173" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4250,10 +4268,10 @@
         <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E174" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4264,10 +4282,10 @@
         <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E175" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4278,16 +4296,16 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D176" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E176" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F176" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4298,10 +4316,10 @@
         <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E177" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4312,10 +4330,10 @@
         <v>181</v>
       </c>
       <c r="D178" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E178" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4326,10 +4344,10 @@
         <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E179" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4340,10 +4358,10 @@
         <v>183</v>
       </c>
       <c r="D180" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4354,10 +4372,10 @@
         <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E181" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4368,10 +4386,10 @@
         <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E182" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4382,10 +4400,10 @@
         <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E183" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4396,10 +4414,10 @@
         <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E184" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4410,10 +4428,10 @@
         <v>188</v>
       </c>
       <c r="D185" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E185" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4424,10 +4442,10 @@
         <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E186" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4438,10 +4456,10 @@
         <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E187" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4452,13 +4470,13 @@
         <v>191</v>
       </c>
       <c r="D188" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E188" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F188" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4469,13 +4487,13 @@
         <v>192</v>
       </c>
       <c r="D189" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E189" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F189" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4486,10 +4504,10 @@
         <v>193</v>
       </c>
       <c r="D190" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E190" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4500,10 +4518,10 @@
         <v>194</v>
       </c>
       <c r="D191" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E191" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4514,10 +4532,10 @@
         <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E192" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4528,10 +4546,10 @@
         <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E193" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4542,10 +4560,10 @@
         <v>197</v>
       </c>
       <c r="D194" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E194" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4556,10 +4574,10 @@
         <v>198</v>
       </c>
       <c r="D195" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E195" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4570,13 +4588,13 @@
         <v>199</v>
       </c>
       <c r="D196" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E196" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F196" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4587,10 +4605,10 @@
         <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E197" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4601,10 +4619,10 @@
         <v>201</v>
       </c>
       <c r="D198" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E198" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4615,10 +4633,10 @@
         <v>202</v>
       </c>
       <c r="D199" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E199" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4629,10 +4647,10 @@
         <v>203</v>
       </c>
       <c r="D200" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E200" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4643,10 +4661,10 @@
         <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E201" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4657,10 +4675,10 @@
         <v>205</v>
       </c>
       <c r="D202" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E202" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4671,13 +4689,13 @@
         <v>206</v>
       </c>
       <c r="D203" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E203" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F203" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4688,10 +4706,10 @@
         <v>207</v>
       </c>
       <c r="D204" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E204" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4702,10 +4720,10 @@
         <v>208</v>
       </c>
       <c r="D205" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E205" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4716,10 +4734,10 @@
         <v>209</v>
       </c>
       <c r="D206" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E206" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4730,10 +4748,10 @@
         <v>210</v>
       </c>
       <c r="D207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E207" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4744,10 +4762,10 @@
         <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E208" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4758,10 +4776,10 @@
         <v>212</v>
       </c>
       <c r="D209" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E209" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4772,10 +4790,10 @@
         <v>213</v>
       </c>
       <c r="D210" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E210" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4786,10 +4804,10 @@
         <v>214</v>
       </c>
       <c r="D211" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E211" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4800,10 +4818,10 @@
         <v>215</v>
       </c>
       <c r="D212" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E212" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4814,7 +4832,7 @@
         <v>216</v>
       </c>
       <c r="D213" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4825,16 +4843,16 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D214" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E214" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F214" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4845,10 +4863,10 @@
         <v>218</v>
       </c>
       <c r="D215" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E215" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4859,10 +4877,10 @@
         <v>219</v>
       </c>
       <c r="D216" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E216" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4873,13 +4891,13 @@
         <v>220</v>
       </c>
       <c r="D217" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E217" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F217" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4890,13 +4908,13 @@
         <v>221</v>
       </c>
       <c r="D218" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E218" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F218" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4907,13 +4925,13 @@
         <v>222</v>
       </c>
       <c r="D219" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E219" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F219" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4924,10 +4942,24 @@
         <v>223</v>
       </c>
       <c r="D220" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F220" t="s">
-        <v>460</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221" t="s">
+        <v>229</v>
+      </c>
+      <c r="E221" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="540">
   <si>
     <t>Role</t>
   </si>
@@ -691,6 +691,102 @@
     <t>caesar_one_person_one_role</t>
   </si>
   <si>
+    <t>EU_Buyer</t>
+  </si>
+  <si>
+    <t>EU_Power_Country_Team</t>
+  </si>
+  <si>
+    <t>EU_PUS_LTO_Teams</t>
+  </si>
+  <si>
+    <t>EU_offline_store_team</t>
+  </si>
+  <si>
+    <t>Revenue_&amp;_Pricing_Manager_Europe</t>
+  </si>
+  <si>
+    <t>EU_Internal_Usage_Application_Team</t>
+  </si>
+  <si>
+    <t>Head_of_User_Development</t>
+  </si>
+  <si>
+    <t>EU_Product_launch_Team</t>
+  </si>
+  <si>
+    <t>EU_After_sales_Team</t>
+  </si>
+  <si>
+    <t>Operations_Management</t>
+  </si>
+  <si>
+    <t>Lead_Advisor_Marketing_Communications</t>
+  </si>
+  <si>
+    <t>EU_Supply_Chain_Operations_Specialist</t>
+  </si>
+  <si>
+    <t>Associate_Director_Service_PMO_Team_&amp;_Expert_Business_Planning</t>
+  </si>
+  <si>
+    <t>Operations_Mgmt</t>
+  </si>
+  <si>
+    <t>Head_of_User_Development_UK</t>
+  </si>
+  <si>
+    <t>Lead_Product_Manager</t>
+  </si>
+  <si>
+    <t>Director_Europe_Space_Experience_Department_&amp;_Expert_Business_Development_</t>
+  </si>
+  <si>
+    <t>Expert_Construction_and_Facilities</t>
+  </si>
+  <si>
+    <t>Lead_Advisor_App_Operation</t>
+  </si>
+  <si>
+    <t>Head_of_Business_&amp;_Partner_Development_Europe</t>
+  </si>
+  <si>
+    <t>Senior_Manager_Business_Development_Team_&amp;_Lead_Business_Development</t>
+  </si>
+  <si>
+    <t>Country_General_Manager_of_Austria_Company</t>
+  </si>
+  <si>
+    <t>E-mobility_Strategy_</t>
+  </si>
+  <si>
+    <t>SCR_Team_Lead_DACH</t>
+  </si>
+  <si>
+    <t>Head_of_User_Operations</t>
+  </si>
+  <si>
+    <t>Digital_Marketing_Manager_Europe</t>
+  </si>
+  <si>
+    <t>Head_of_Service_Operations_UK</t>
+  </si>
+  <si>
+    <t>Sparks_Intern</t>
+  </si>
+  <si>
+    <t>sales_planning_role_team</t>
+  </si>
+  <si>
+    <t>Europe_Market_Planning_team</t>
+  </si>
+  <si>
+    <t>Product_Experience_Operation_Manager</t>
+  </si>
+  <si>
+    <t>Experience_Manager</t>
+  </si>
+  <si>
     <t>Europe, SME</t>
   </si>
   <si>
@@ -721,649 +817,733 @@
     <t>matt_galvin</t>
   </si>
   <si>
+    <t>erica_blomberg</t>
+  </si>
+  <si>
+    <t>mara_pitiriciu</t>
+  </si>
+  <si>
+    <t>derk_timmer</t>
+  </si>
+  <si>
+    <t>gerald_krainer</t>
+  </si>
+  <si>
+    <t>laura_peschke</t>
+  </si>
+  <si>
+    <t>philip_aschendorf</t>
+  </si>
+  <si>
+    <t>sadia_Aden_Mohamed</t>
+  </si>
+  <si>
+    <t>tristan_hamelink</t>
+  </si>
+  <si>
+    <t>magne_heggemoen</t>
+  </si>
+  <si>
+    <t>sean_richardson</t>
+  </si>
+  <si>
+    <t>claudia_huebner</t>
+  </si>
+  <si>
+    <t>matthias_becher</t>
+  </si>
+  <si>
+    <t>andrew_parsons,michael_hathaway</t>
+  </si>
+  <si>
+    <t>yujie_jia,maxine_yu,liam_lu</t>
+  </si>
+  <si>
+    <t>vijay_sharma</t>
+  </si>
+  <si>
+    <t>waled_enani</t>
+  </si>
+  <si>
+    <t>roy_kern</t>
+  </si>
+  <si>
+    <t>francesco_mureddu,ahmad_elkadi,jacqueline_schroeder</t>
+  </si>
+  <si>
+    <t>dennis_gerhard</t>
+  </si>
+  <si>
+    <t>victor_lingfjord</t>
+  </si>
+  <si>
+    <t>andreas_nyman</t>
+  </si>
+  <si>
+    <t>benjamin_hirschfeld,stefan_pielka</t>
+  </si>
+  <si>
+    <t>manuel_endres</t>
+  </si>
+  <si>
+    <t>bent_nygaard,ola_dalby,jangir_taher,martin_nevstad,jeppe_schjerpen,thomas_davis,glenn_wallander,marius_bratli,patrik_hjelmseth,sebastian_hellerud,jonas_vaage,nicolai_dammen,otto_hansen,xuesong_chen1</t>
+  </si>
+  <si>
+    <t>meiling_wu</t>
+  </si>
+  <si>
+    <t>alexander_beier</t>
+  </si>
+  <si>
+    <t>fabian_holst</t>
+  </si>
+  <si>
+    <t>janerik_eriksson</t>
+  </si>
+  <si>
+    <t>david_jonsson</t>
+  </si>
+  <si>
+    <t>karam_alnafous,patricia_hammes</t>
+  </si>
+  <si>
+    <t>philipp_leinekugel</t>
+  </si>
+  <si>
+    <t>mikkel_knagenhjelm</t>
+  </si>
+  <si>
+    <t>gert_thomas</t>
+  </si>
+  <si>
+    <t>maxime_gottlieb</t>
+  </si>
+  <si>
+    <t>sebastian_kare,hasan_abbasi,frida_eriksson,dipak_kandel,rasmus_jorgensen,adrian_kare,yaghy_peter,elias_said,santo_bravo,daan_dorp,patrick_hogenhav,leon_reiff,jilly_hu,maximilian_sand,sedat_taspinar,philipp_maier,dennis_konieczny</t>
+  </si>
+  <si>
+    <t>daniel_erdtman</t>
+  </si>
+  <si>
+    <t>tristan_vonballuseck</t>
+  </si>
+  <si>
+    <t>belinda_ulrich</t>
+  </si>
+  <si>
+    <t>danni_dahl</t>
+  </si>
+  <si>
+    <t>isabell_delitz,simon_fiala,vlad_tarverdov</t>
+  </si>
+  <si>
+    <t>joachim_pach</t>
+  </si>
+  <si>
+    <t>johan_emanuelsson</t>
+  </si>
+  <si>
+    <t>monica_sand</t>
+  </si>
+  <si>
+    <t>mark_heiligers</t>
+  </si>
+  <si>
+    <t>marco_spiertz</t>
+  </si>
+  <si>
+    <t>evelyn_zhao,sizhe_huang,wei_qiang</t>
+  </si>
+  <si>
+    <t>stefan_gerea,stig_lura,tanja_pyka</t>
+  </si>
+  <si>
+    <t>asbjoern_mitusch</t>
+  </si>
+  <si>
+    <t>hailee_han,effy_song,ziye_chen,caesar_qian,timo_herrmann,julie_jiang,alexandre_gallo</t>
+  </si>
+  <si>
+    <t>roberto_pavon,josephus_padilla,jermaine_odom</t>
+  </si>
+  <si>
+    <t>georg_bruce,moritz_bayer,florian_treml,florian_fischer,ole_gravenhorst,robin_haeger</t>
+  </si>
+  <si>
+    <t>sven_conrad</t>
+  </si>
+  <si>
+    <t>karol_wodyk</t>
+  </si>
+  <si>
+    <t>eirik_aspaas</t>
+  </si>
+  <si>
+    <t>ruben_keuter</t>
+  </si>
+  <si>
+    <t>marina_paradiso</t>
+  </si>
+  <si>
+    <t>tobias_beier</t>
+  </si>
+  <si>
+    <t>akos_kiss</t>
+  </si>
+  <si>
+    <t>kenneth_forslund</t>
+  </si>
+  <si>
+    <t>bob_valk</t>
+  </si>
+  <si>
+    <t>dejvid_noinovic</t>
+  </si>
+  <si>
+    <t>scott_baines</t>
+  </si>
+  <si>
+    <t>rasmus_huus</t>
+  </si>
+  <si>
+    <t>an_ho</t>
+  </si>
+  <si>
+    <t>jochen_elster,ryan_stodden</t>
+  </si>
+  <si>
+    <t>arun_paragh</t>
+  </si>
+  <si>
+    <t>moritz_croessmann</t>
+  </si>
+  <si>
+    <t>sebastian_hillenbach</t>
+  </si>
+  <si>
+    <t>bingqing_tong1,joy_yin</t>
+  </si>
+  <si>
+    <t>tom_brueland</t>
+  </si>
+  <si>
+    <t>julien_jung</t>
+  </si>
+  <si>
+    <t>saeed_erfani,alexander_kern,sefa_cabar,karzan_mirza</t>
+  </si>
+  <si>
+    <t>simone_barnabei,pepijn_gregorowitsch</t>
+  </si>
+  <si>
+    <t>dawid_mindur</t>
+  </si>
+  <si>
+    <t>zitong_pan,charlotte_liu1,jing_hu,jessica_fu</t>
+  </si>
+  <si>
+    <t>robert_said</t>
+  </si>
+  <si>
+    <t>ruven_waldner</t>
+  </si>
+  <si>
+    <t>bana_boubou</t>
+  </si>
+  <si>
+    <t>chen_gong</t>
+  </si>
+  <si>
+    <t>marlies_hagenbach</t>
+  </si>
+  <si>
+    <t>roelof_kluiver</t>
+  </si>
+  <si>
+    <t>sam_lindfors</t>
+  </si>
+  <si>
+    <t>emilie_jung</t>
+  </si>
+  <si>
+    <t>marcel_bartelik</t>
+  </si>
+  <si>
+    <t>beier_zhang</t>
+  </si>
+  <si>
+    <t>rashed_almawed</t>
+  </si>
+  <si>
+    <t>maria_bonnerup</t>
+  </si>
+  <si>
+    <t>tim_noort</t>
+  </si>
+  <si>
+    <t>anastasiia_kovalenko</t>
+  </si>
+  <si>
+    <t>christian_bode</t>
+  </si>
+  <si>
+    <t>haakon_klem</t>
+  </si>
+  <si>
+    <t>julien_luijten</t>
+  </si>
+  <si>
+    <t>marius_hayler</t>
+  </si>
+  <si>
+    <t>stine_skyseth,manbir_singh,magnus_lovrod</t>
+  </si>
+  <si>
+    <t>behnoud_behmanesh</t>
+  </si>
+  <si>
+    <t>chan_jun,chan_jun</t>
+  </si>
+  <si>
+    <t>chenqi_peng</t>
+  </si>
+  <si>
+    <t>onno_duimel</t>
+  </si>
+  <si>
+    <t>anja_bruun</t>
+  </si>
+  <si>
+    <t>niklas_gustafson</t>
+  </si>
+  <si>
+    <t>marcel_cucu,martin_hock,nick_nielsen,ackis_grammenidis,maarten_mulder,koen_swennen</t>
+  </si>
+  <si>
+    <t>daniel_mergler</t>
+  </si>
+  <si>
+    <t>tim_weener,fernanda_mejia</t>
+  </si>
+  <si>
+    <t>daniel_wadle</t>
+  </si>
+  <si>
+    <t>farid_ofkir</t>
+  </si>
+  <si>
+    <t>jan_bode</t>
+  </si>
+  <si>
+    <t>sankari_hilael,stephan_schulz</t>
+  </si>
+  <si>
+    <t>stephane_burger</t>
+  </si>
+  <si>
+    <t>zakaria_khalaf</t>
+  </si>
+  <si>
+    <t>veronica_akerblad</t>
+  </si>
+  <si>
+    <t>yoram_hout,erwin_wolting</t>
+  </si>
+  <si>
+    <t>mate_mester,szilard_vass</t>
+  </si>
+  <si>
+    <t>sarah_opfer,qianling_duan,wanli_ren,hun_huang,zoey_li1,wenchao_cui1</t>
+  </si>
+  <si>
+    <t>juliane_weinschenk,kasper_klint,melissa_cs,richard_vermeulen,daniel_wijers,daniel_nielsen,erik_penning,chi_lo_o,emilia_dera_o</t>
+  </si>
+  <si>
+    <t>sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,adem_yerlikaya,per_brandvik</t>
+  </si>
+  <si>
+    <t>nadim_mohammad</t>
+  </si>
+  <si>
+    <t>antonia_hauf</t>
+  </si>
+  <si>
+    <t>minh_tran</t>
+  </si>
+  <si>
+    <t>tayyab_intasar</t>
+  </si>
+  <si>
+    <t>joris_coolen</t>
+  </si>
+  <si>
+    <t>mike_blomquist</t>
+  </si>
+  <si>
+    <t>jonchristian_aardal</t>
+  </si>
+  <si>
+    <t>johnny_cheung</t>
+  </si>
+  <si>
+    <t>luis_portas</t>
+  </si>
+  <si>
+    <t>ali_kazmi,marcel_rooijen,artem_garibian,faiz_aslam</t>
+  </si>
+  <si>
+    <t>yang_huang</t>
+  </si>
+  <si>
+    <t>andreas_sedlak</t>
+  </si>
+  <si>
+    <t>willemien_hobbelink</t>
+  </si>
+  <si>
+    <t>peter_marquard</t>
+  </si>
+  <si>
+    <t>niklas_hirth,shanan_lasrado</t>
+  </si>
+  <si>
+    <t>novak_birisic</t>
+  </si>
+  <si>
+    <t>di_hu1</t>
+  </si>
+  <si>
+    <t>hiroshi_watari</t>
+  </si>
+  <si>
+    <t>julian_schreiner</t>
+  </si>
+  <si>
+    <t>gustaf_sjoeholm</t>
+  </si>
+  <si>
+    <t>connor_mccoy</t>
+  </si>
+  <si>
+    <t>mattias_lundgren</t>
+  </si>
+  <si>
+    <t>ralph_kranz</t>
+  </si>
+  <si>
+    <t>anastasia_kozachenko</t>
+  </si>
+  <si>
+    <t>jonathan_stage</t>
+  </si>
+  <si>
+    <t>justin_chen1</t>
+  </si>
+  <si>
+    <t>mads_laustsen,johanna_nilsson,uffe_gustafsson,daniel_saxov,robin_wiman,marie_leeuwen,ekrem_tekinoez,marco_wegner,stephan_mayer,sven_muckert,yi_shen3,tom_bauer,tobias_niederhofer,jan_bierstedt,sebastian_buesing,devis_duong,silvan_mesic</t>
+  </si>
+  <si>
+    <t>louise_johansson</t>
+  </si>
+  <si>
+    <t>christian_neergaard</t>
+  </si>
+  <si>
+    <t>minko_sijpestein</t>
+  </si>
+  <si>
+    <t>thijs_meijling</t>
+  </si>
+  <si>
+    <t>jasper_deman</t>
+  </si>
+  <si>
+    <t>christian_sieling</t>
+  </si>
+  <si>
+    <t>brian_zhang</t>
+  </si>
+  <si>
+    <t>paolo_cova</t>
+  </si>
+  <si>
+    <t>andreas_roehl</t>
+  </si>
+  <si>
+    <t>andreas_loeoev</t>
+  </si>
+  <si>
+    <t>silvia_leeuw</t>
+  </si>
+  <si>
+    <t>christian_wiegand</t>
+  </si>
+  <si>
+    <t>elise_chen</t>
+  </si>
+  <si>
+    <t>hongyi_ji</t>
+  </si>
+  <si>
+    <t>clare_mummery</t>
+  </si>
+  <si>
+    <t>joy_zhu1,chutong_liu,echo_zeng,anastasia_yu,sami_li,daisy_xiao,eunice_ho,sherry_li3,jerry_liu3,kangrui_wang,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,siyang_chen2</t>
+  </si>
+  <si>
+    <t>alissia_lehle</t>
+  </si>
+  <si>
+    <t>wadim_buchmueller</t>
+  </si>
+  <si>
+    <t>daniel_sturm</t>
+  </si>
+  <si>
+    <t>simon_mueller</t>
+  </si>
+  <si>
+    <t>gregory_anderson</t>
+  </si>
+  <si>
+    <t>renate_eliesen1</t>
+  </si>
+  <si>
+    <t>romina_dehzani</t>
+  </si>
+  <si>
+    <t>tobias_elie,bjoern_baumann</t>
+  </si>
+  <si>
+    <t>julien_braunholz</t>
+  </si>
+  <si>
+    <t>carin_lundberg</t>
+  </si>
+  <si>
+    <t>jingyi_qu,sunniva_leonsen,marthe_grindalen,drazen_duric,ted_olsthoorn,simon_rask</t>
+  </si>
+  <si>
+    <t>christel_molin</t>
+  </si>
+  <si>
+    <t>christian_almind</t>
+  </si>
+  <si>
+    <t>julia_bock</t>
+  </si>
+  <si>
+    <t>haakon_klette,jawad_afzali,sebastian_huus,alexander_spiridonov,celine_knapskog</t>
+  </si>
+  <si>
+    <t>winnie_wu1</t>
+  </si>
+  <si>
+    <t>koen_peters</t>
+  </si>
+  <si>
+    <t>frederik_rorth</t>
+  </si>
+  <si>
+    <t>fab_scognamiglio,fab_scognamiglio</t>
+  </si>
+  <si>
+    <t>roland_parragh,tibor_papp,hans_beyer,andre_tollefsen,attila_hudetz,dennis_mujic,gergo_almasi,martin_olsson</t>
+  </si>
+  <si>
+    <t>alvaro_garcia</t>
+  </si>
+  <si>
+    <t>kjersti_naeringsrud,jimmy_nguyen</t>
+  </si>
+  <si>
+    <t>boris_mihailovic</t>
+  </si>
+  <si>
+    <t>stephanie_strobel</t>
+  </si>
+  <si>
+    <t>daniel_gao</t>
+  </si>
+  <si>
+    <t>harald_krist</t>
+  </si>
+  <si>
+    <t>mathias_lindbeck</t>
+  </si>
+  <si>
+    <t>kristiane_larsson</t>
+  </si>
+  <si>
+    <t>marco_verweij</t>
+  </si>
+  <si>
+    <t>pernille_vive</t>
+  </si>
+  <si>
+    <t>leonarnt_nasai,jalil_saleem,jay_murugananthan</t>
+  </si>
+  <si>
+    <t>marc_hatt</t>
+  </si>
+  <si>
+    <t>georgina_treen</t>
+  </si>
+  <si>
+    <t>jan_krueger</t>
+  </si>
+  <si>
+    <t>patrick_mitchell</t>
+  </si>
+  <si>
+    <t>claudio_felice</t>
+  </si>
+  <si>
+    <t>ronit_aggarwal,bawan_omar,morten_vorvik</t>
+  </si>
+  <si>
+    <t>kai_parsa</t>
+  </si>
+  <si>
+    <t>daniel_dalsgaard,rabih_botrous</t>
+  </si>
+  <si>
+    <t>vas_morrien</t>
+  </si>
+  <si>
+    <t>ola_smines,karolina_wolnik</t>
+  </si>
+  <si>
+    <t>robin_roosenstein</t>
+  </si>
+  <si>
+    <t>sara_meloysund</t>
+  </si>
+  <si>
+    <t>jenny_samuelsson</t>
+  </si>
+  <si>
+    <t>minko_sijpestein,christian_neergaard,minh_tran,daniel_erdtman</t>
+  </si>
+  <si>
+    <t>love_preet</t>
+  </si>
+  <si>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,daniel_gao,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,ranee_miao,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,love_preet</t>
+  </si>
+  <si>
+    <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ranee_miao,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,daniel_gao,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock</t>
+  </si>
+  <si>
+    <t>shaohua_guo,marius_hayler,mattias_lundgren,ruben_keuter,martin_rieder,akos_kiss,matt_galvin,gerald_krainer,thijs_meijling</t>
+  </si>
+  <si>
+    <t>caesar_qian</t>
+  </si>
+  <si>
+    <t>zhen_lai,Pallab_medhi,beckie_fan</t>
+  </si>
+  <si>
+    <t>marianne_moelmen,daniel_medawar,richard_wijk,_rikard_svensson,_michael_salomon,_steinar_sundelin,paula_ramirez,renata_wolak,_kajsa_ivansson,vincent_wen,sarah_ding,brandy_lu</t>
+  </si>
+  <si>
+    <t>brandy_lu,alexander_kunith,wouter_hollander,sarah_ding,Tina_FAN,shushan_khachatryan,dongxiao_sun,depraute_rene,matrai_peter,_jianwei_yin,_xilian_yu,richard_zhang1,_hao_yang1,_nicky_heidrich</t>
+  </si>
+  <si>
+    <t>Harry_Meng</t>
+  </si>
+  <si>
+    <t>robbie_maes,_lovepreet_singh,_sharon_zhou, finn_xue,amber_zhu,_berry_spee</t>
+  </si>
+  <si>
+    <t>aldo_rosales</t>
+  </si>
+  <si>
+    <t>jessie_xu,_chenfeng_zou,lina_liu</t>
+  </si>
+  <si>
+    <t>alice_bontridder</t>
+  </si>
+  <si>
+    <t>chao_li19,yongshi_xu,wouter_hollander,shushan_khachatryan</t>
+  </si>
+  <si>
+    <t>_jiajun_yuan</t>
+  </si>
+  <si>
+    <t>ana_bjelcic_o,fredrik_aslund1</t>
+  </si>
+  <si>
+    <t>anja_plank1,charilaos_kantas</t>
+  </si>
+  <si>
+    <t>wenwen_jiang</t>
+  </si>
+  <si>
+    <t>wenlu_ma</t>
+  </si>
+  <si>
+    <t>vassil_loukarsky_o,sheilla_campos_o</t>
+  </si>
+  <si>
+    <t>tom_wharfe</t>
+  </si>
+  <si>
+    <t>catherine_zhu</t>
+  </si>
+  <si>
     <t>shaohua_guo</t>
   </si>
   <si>
-    <t>erica_blomberg</t>
-  </si>
-  <si>
-    <t>mara_pitiriciu</t>
-  </si>
-  <si>
-    <t>derk_timmer</t>
-  </si>
-  <si>
-    <t>gerald_krainer</t>
-  </si>
-  <si>
-    <t>laura_peschke</t>
-  </si>
-  <si>
-    <t>philip_aschendorf</t>
-  </si>
-  <si>
-    <t>sadia_Aden_Mohamed</t>
-  </si>
-  <si>
-    <t>tristan_hamelink</t>
-  </si>
-  <si>
-    <t>magne_heggemoen</t>
-  </si>
-  <si>
-    <t>sean_richardson</t>
-  </si>
-  <si>
-    <t>claudia_huebner</t>
-  </si>
-  <si>
-    <t>matthias_becher</t>
-  </si>
-  <si>
-    <t>andrew_parsons,michael_hathaway</t>
-  </si>
-  <si>
-    <t>yujie_jia,maxine_yu,liam_lu</t>
-  </si>
-  <si>
-    <t>vijay_sharma</t>
-  </si>
-  <si>
-    <t>waled_enani</t>
-  </si>
-  <si>
-    <t>roy_kern</t>
-  </si>
-  <si>
-    <t>francesco_mureddu,ahmad_elkadi,jacqueline_schroeder</t>
-  </si>
-  <si>
-    <t>dennis_gerhard</t>
-  </si>
-  <si>
-    <t>victor_lingfjord</t>
-  </si>
-  <si>
-    <t>andreas_nyman</t>
-  </si>
-  <si>
-    <t>benjamin_hirschfeld,stefan_pielka</t>
-  </si>
-  <si>
-    <t>manuel_endres</t>
-  </si>
-  <si>
-    <t>bent_nygaard,ola_dalby,jangir_taher,martin_nevstad,jeppe_schjerpen,thomas_davis,glenn_wallander,marius_bratli,patrik_hjelmseth,sebastian_hellerud,jonas_vaage,nicolai_dammen,otto_hansen,xuesong_chen1</t>
-  </si>
-  <si>
-    <t>meiling_wu</t>
-  </si>
-  <si>
-    <t>alexander_beier</t>
-  </si>
-  <si>
-    <t>fabian_holst</t>
-  </si>
-  <si>
-    <t>janerik_eriksson</t>
-  </si>
-  <si>
-    <t>david_jonsson</t>
-  </si>
-  <si>
-    <t>karam_alnafous,patricia_hammes</t>
-  </si>
-  <si>
-    <t>philipp_leinekugel</t>
-  </si>
-  <si>
-    <t>mikkel_knagenhjelm</t>
-  </si>
-  <si>
-    <t>gert_thomas</t>
-  </si>
-  <si>
-    <t>maxime_gottlieb</t>
-  </si>
-  <si>
-    <t>sebastian_kare,hasan_abbasi,frida_eriksson,dipak_kandel,rasmus_jorgensen,adrian_kare,yaghy_peter,elias_said,santo_bravo,daan_dorp,patrick_hogenhav,leon_reiff,jilly_hu,maximilian_sand,sedat_taspinar,philipp_maier,dennis_konieczny</t>
-  </si>
-  <si>
-    <t>daniel_erdtman</t>
-  </si>
-  <si>
-    <t>tristan_vonballuseck</t>
-  </si>
-  <si>
-    <t>belinda_ulrich</t>
-  </si>
-  <si>
-    <t>danni_dahl</t>
-  </si>
-  <si>
-    <t>isabell_delitz,simon_fiala</t>
-  </si>
-  <si>
-    <t>joachim_pach</t>
-  </si>
-  <si>
-    <t>johan_emanuelsson</t>
-  </si>
-  <si>
-    <t>monica_sand</t>
-  </si>
-  <si>
-    <t>mark_heiligers</t>
-  </si>
-  <si>
-    <t>marco_spiertz</t>
-  </si>
-  <si>
-    <t>evelyn_zhao,sizhe_huang,wei_qiang</t>
-  </si>
-  <si>
-    <t>stefan_gerea,stig_lura,tanja_pyka</t>
-  </si>
-  <si>
-    <t>asbjoern_mitusch</t>
-  </si>
-  <si>
-    <t>hailee_han,effy_song,ziye_chen,caesar_qian,timo_herrmann,julie_jiang</t>
-  </si>
-  <si>
-    <t>roberto_pavon,josephus_padilla,jermaine_odom</t>
-  </si>
-  <si>
-    <t>georg_bruce,moritz_bayer,florian_treml,florian_fischer,ole_gravenhorst,robin_haeger</t>
-  </si>
-  <si>
-    <t>sven_conrad</t>
-  </si>
-  <si>
-    <t>wenlu_ma</t>
-  </si>
-  <si>
-    <t>karol_wodyk</t>
-  </si>
-  <si>
-    <t>eirik_aspaas</t>
-  </si>
-  <si>
-    <t>ruben_keuter</t>
-  </si>
-  <si>
-    <t>marina_paradiso</t>
-  </si>
-  <si>
-    <t>tobias_beier</t>
-  </si>
-  <si>
-    <t>akos_kiss</t>
-  </si>
-  <si>
-    <t>kenneth_forslund</t>
-  </si>
-  <si>
-    <t>bob_valk</t>
-  </si>
-  <si>
-    <t>dejvid_noinovic</t>
-  </si>
-  <si>
-    <t>scott_baines</t>
-  </si>
-  <si>
-    <t>rasmus_huus</t>
-  </si>
-  <si>
-    <t>an_ho</t>
-  </si>
-  <si>
-    <t>jochen_elster,ryan_stodden</t>
-  </si>
-  <si>
-    <t>arun_paragh</t>
-  </si>
-  <si>
-    <t>moritz_croessmann</t>
-  </si>
-  <si>
-    <t>sebastian_hillenbach</t>
-  </si>
-  <si>
-    <t>bingqing_tong1,joy_yin</t>
-  </si>
-  <si>
-    <t>tom_brueland</t>
-  </si>
-  <si>
-    <t>julien_jung</t>
-  </si>
-  <si>
-    <t>saeed_erfani,alexander_kern,sefa_cabar,karzan_mirza</t>
-  </si>
-  <si>
-    <t>simone_barnabei,pepijn_gregorowitsch</t>
-  </si>
-  <si>
-    <t>dawid_mindur</t>
-  </si>
-  <si>
-    <t>zitong_pan,charlotte_liu1,jing_hu,jessica_fu</t>
-  </si>
-  <si>
-    <t>robert_said</t>
-  </si>
-  <si>
-    <t>ruven_waldner</t>
-  </si>
-  <si>
-    <t>bana_boubou</t>
-  </si>
-  <si>
-    <t>chen_gong</t>
-  </si>
-  <si>
-    <t>marlies_hagenbach</t>
-  </si>
-  <si>
-    <t>roelof_kluiver</t>
-  </si>
-  <si>
-    <t>sam_lindfors</t>
-  </si>
-  <si>
-    <t>emilie_jung</t>
-  </si>
-  <si>
-    <t>marcel_bartelik</t>
-  </si>
-  <si>
-    <t>beier_zhang</t>
-  </si>
-  <si>
-    <t>rashed_almawed</t>
-  </si>
-  <si>
-    <t>maria_bonnerup</t>
-  </si>
-  <si>
-    <t>tim_noort</t>
-  </si>
-  <si>
-    <t>anastasiia_kovalenko</t>
-  </si>
-  <si>
-    <t>christian_bode</t>
-  </si>
-  <si>
-    <t>haakon_klem</t>
-  </si>
-  <si>
-    <t>julien_luijten</t>
-  </si>
-  <si>
-    <t>marius_hayler</t>
-  </si>
-  <si>
-    <t>stine_skyseth,manbir_singh,magnus_lovrod</t>
-  </si>
-  <si>
     <t>dale_li</t>
   </si>
   <si>
-    <t>behnoud_behmanesh</t>
-  </si>
-  <si>
-    <t>chan_jun</t>
-  </si>
-  <si>
-    <t>chenqi_peng</t>
-  </si>
-  <si>
-    <t>onno_duimel</t>
-  </si>
-  <si>
-    <t>anja_bruun</t>
-  </si>
-  <si>
-    <t>niklas_gustafson</t>
-  </si>
-  <si>
-    <t>marcel_cucu,martin_hock,nick_nielsen,ackis_grammenidis,maarten_mulder,koen_swennen</t>
-  </si>
-  <si>
-    <t>daniel_mergler</t>
-  </si>
-  <si>
-    <t>tim_weener,fernanda_mejia</t>
-  </si>
-  <si>
-    <t>daniel_wadle</t>
-  </si>
-  <si>
-    <t>farid_ofkir</t>
-  </si>
-  <si>
-    <t>jan_bode</t>
-  </si>
-  <si>
-    <t>sankari_hilael,stephan_schulz</t>
-  </si>
-  <si>
-    <t>stephane_burger</t>
-  </si>
-  <si>
-    <t>zakaria_khalaf</t>
-  </si>
-  <si>
-    <t>veronica_akerblad</t>
-  </si>
-  <si>
-    <t>yoram_hout,erwin_wolting</t>
-  </si>
-  <si>
-    <t>mate_mester,szilard_vass</t>
+    <t>estefania_velez</t>
+  </si>
+  <si>
+    <t>helen_baerbock</t>
   </si>
   <si>
     <t>ranee_miao</t>
   </si>
   <si>
-    <t>sarah_opfer,qianling_duan,wanli_ren,hun_huang,zoey_li1</t>
-  </si>
-  <si>
-    <t>juliane_weinschenk,kasper_klint,melissa_cs,richard_vermeulen,daniel_wijers,daniel_nielsen,erik_penning</t>
-  </si>
-  <si>
-    <t>sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,adem_yerlikaya,per_brandvik</t>
-  </si>
-  <si>
-    <t>nadim_mohammad</t>
-  </si>
-  <si>
-    <t>antonia_hauf</t>
-  </si>
-  <si>
-    <t>minh_tran</t>
-  </si>
-  <si>
-    <t>tayyab_intasar</t>
-  </si>
-  <si>
-    <t>joris_coolen</t>
-  </si>
-  <si>
-    <t>mike_blomquist</t>
-  </si>
-  <si>
-    <t>jonchristian_aardal</t>
-  </si>
-  <si>
-    <t>johnny_cheung</t>
-  </si>
-  <si>
-    <t>luis_portas</t>
-  </si>
-  <si>
-    <t>ali_kazmi,marcel_rooijen,artem_garibian,faiz_aslam</t>
-  </si>
-  <si>
-    <t>yang_huang</t>
-  </si>
-  <si>
-    <t>andreas_sedlak</t>
-  </si>
-  <si>
-    <t>willemien_hobbelink</t>
-  </si>
-  <si>
-    <t>peter_marquard</t>
-  </si>
-  <si>
-    <t>niklas_hirth,shanan_lasrado</t>
-  </si>
-  <si>
-    <t>novak_birisic</t>
-  </si>
-  <si>
-    <t>di_hu1</t>
-  </si>
-  <si>
-    <t>hiroshi_watari</t>
-  </si>
-  <si>
-    <t>julian_schreiner</t>
-  </si>
-  <si>
-    <t>gustaf_sjoeholm</t>
-  </si>
-  <si>
-    <t>connor_mccoy</t>
-  </si>
-  <si>
-    <t>mattias_lundgren</t>
-  </si>
-  <si>
-    <t>ralph_kranz</t>
-  </si>
-  <si>
-    <t>anastasia_kozachenko</t>
-  </si>
-  <si>
-    <t>jonathan_stage</t>
-  </si>
-  <si>
-    <t>justin_chen1</t>
-  </si>
-  <si>
-    <t>mads_laustsen,johanna_nilsson,uffe_gustafsson,daniel_saxov,robin_wiman,marie_leeuwen,ekrem_tekinoez,marco_wegner,stephan_mayer,sven_muckert,yi_shen3,tom_bauer,tobias_niederhofer,jan_bierstedt,sebastian_buesing,devis_duong,silvan_mesic</t>
-  </si>
-  <si>
-    <t>louise_johansson</t>
-  </si>
-  <si>
-    <t>christian_neergaard</t>
-  </si>
-  <si>
-    <t>minko_sijpestein</t>
-  </si>
-  <si>
-    <t>thijs_meijling</t>
-  </si>
-  <si>
-    <t>jasper_deman</t>
-  </si>
-  <si>
-    <t>christian_sieling</t>
-  </si>
-  <si>
-    <t>brian_zhang</t>
-  </si>
-  <si>
-    <t>paolo_cova</t>
-  </si>
-  <si>
-    <t>andreas_roehl</t>
-  </si>
-  <si>
-    <t>andreas_loeoev</t>
-  </si>
-  <si>
-    <t>silvia_leeuw</t>
-  </si>
-  <si>
-    <t>christian_wiegand</t>
-  </si>
-  <si>
-    <t>elise_chen</t>
-  </si>
-  <si>
-    <t>hongyi_ji</t>
-  </si>
-  <si>
-    <t>clare_mummery</t>
-  </si>
-  <si>
-    <t>wenchao_cui1,joy_zhu1,chutong_liu,echo_zeng,anastasia_yu,sami_li,daisy_xiao,eunice_ho,sherry_li3,jerry_liu3,kangrui_wang</t>
-  </si>
-  <si>
-    <t>alissia_lehle</t>
-  </si>
-  <si>
-    <t>wadim_buchmueller</t>
-  </si>
-  <si>
-    <t>daniel_sturm</t>
-  </si>
-  <si>
-    <t>simon_mueller</t>
-  </si>
-  <si>
-    <t>gregory_anderson</t>
-  </si>
-  <si>
-    <t>renate_eliesen1</t>
-  </si>
-  <si>
-    <t>romina_dehzani</t>
-  </si>
-  <si>
-    <t>tobias_elie,bjoern_baumann</t>
-  </si>
-  <si>
-    <t>julien_braunholz</t>
-  </si>
-  <si>
-    <t>carin_lundberg</t>
-  </si>
-  <si>
-    <t>jingyi_qu,sunniva_leonsen,marthe_grindalen,drazen_duric,ted_olsthoorn,simon_rask</t>
-  </si>
-  <si>
-    <t>christel_molin</t>
-  </si>
-  <si>
-    <t>christian_almind</t>
-  </si>
-  <si>
-    <t>julia_bock</t>
-  </si>
-  <si>
-    <t>haakon_klette,jawad_afzali,sebastian_huus,alexander_spiridonov,celine_knapskog</t>
-  </si>
-  <si>
-    <t>winnie_wu1</t>
-  </si>
-  <si>
-    <t>koen_peters</t>
-  </si>
-  <si>
-    <t>frederik_rorth</t>
-  </si>
-  <si>
-    <t>fab_scognamiglio</t>
-  </si>
-  <si>
-    <t>roland_parragh,tibor_papp,hans_beyer</t>
-  </si>
-  <si>
-    <t>alvaro_garcia</t>
-  </si>
-  <si>
-    <t>kjersti_naeringsrud,jimmy_nguyen</t>
-  </si>
-  <si>
-    <t>boris_mihailovic</t>
-  </si>
-  <si>
-    <t>stephanie_strobel</t>
-  </si>
-  <si>
-    <t>daniel_gao</t>
-  </si>
-  <si>
-    <t>harald_krist</t>
-  </si>
-  <si>
-    <t>mathias_lindbeck</t>
-  </si>
-  <si>
-    <t>kristiane_larsson</t>
-  </si>
-  <si>
-    <t>marco_verweij</t>
-  </si>
-  <si>
-    <t>pernille_vive</t>
-  </si>
-  <si>
-    <t>leonarnt_nasai,jalil_saleem,jay_murugananthan</t>
-  </si>
-  <si>
-    <t>marc_hatt</t>
-  </si>
-  <si>
-    <t>georgina_treen</t>
-  </si>
-  <si>
-    <t>jan_krueger</t>
-  </si>
-  <si>
-    <t>patrick_mitchell</t>
-  </si>
-  <si>
-    <t>claudio_felice</t>
-  </si>
-  <si>
-    <t>ronit_aggarwal,bawan_omar,morten_vorvik</t>
-  </si>
-  <si>
-    <t>kai_parsa</t>
-  </si>
-  <si>
-    <t>daniel_dalsgaard,rabih_botrous</t>
-  </si>
-  <si>
-    <t>vas_morrien</t>
-  </si>
-  <si>
-    <t>ola_smines,karolina_wolnik</t>
-  </si>
-  <si>
-    <t>robin_roosenstein</t>
-  </si>
-  <si>
-    <t>sara_meloysund</t>
-  </si>
-  <si>
-    <t>jenny_samuelsson</t>
-  </si>
-  <si>
-    <t>minko_sijpestein,christian_neergaard,minh_tran,daniel_erdtman</t>
-  </si>
-  <si>
-    <t>love_preet</t>
-  </si>
-  <si>
-    <t>zoey_li1</t>
-  </si>
-  <si>
-    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,daniel_gao,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,ranee_miao,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,Helen_Baerbock,Luis_Portas,Johan_Emanuelsson,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye,finn_xue,moritz_wefelscheid,_henry_shen,love_preet</t>
-  </si>
-  <si>
-    <t>yu_huang6,wenlu_ma,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ranee_miao,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,daniel_gao,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,_henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,Helen_Baerbock</t>
-  </si>
-  <si>
-    <t>shaohua_guo,marius_hayler,mattias_lundgren,ruben_keuter,martin_rieder,akos_kiss,matt_galvin,gerald_krainer,thijs_meijling</t>
-  </si>
-  <si>
-    <t>caesar_qian</t>
+    <t>martin_rieder</t>
+  </si>
+  <si>
+    <t>alexander_kunith</t>
+  </si>
+  <si>
+    <t>marc_bloch</t>
+  </si>
+  <si>
+    <t>loic_helleputte</t>
+  </si>
+  <si>
+    <t>julia_lichtmannecker</t>
+  </si>
+  <si>
+    <t>jon_higgins</t>
+  </si>
+  <si>
+    <t>jiabao_xu</t>
+  </si>
+  <si>
+    <t>bingqing_tong1,zoey_li1,daniela_wimmer_nio_io,yujie_jia,chengguo_shi,paolo_cova,yue_ma2,francis_ji,jackson_xu1,robert_huang,matteo_mao,zhongjie_fu,mingqiang_li,wei_li,akos_kiss,chenqi_peng,kenneth_forslund</t>
+  </si>
+  <si>
+    <t>_junye_shao, haiyun_zhou,tristan_vonballuseck</t>
+  </si>
+  <si>
+    <t>stephen_liu,benjamin_steinmetz</t>
+  </si>
+  <si>
+    <t>sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak</t>
   </si>
   <si>
     <t>Agent_Performance_Review,test14_process</t>
   </si>
   <si>
-    <t>Daily_NH_Store_Closing_SOP</t>
+    <t>Daily_NH_Store_Closing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
   </si>
   <si>
     <t>Daily_NH_Store_Closing_SOP,test14_process</t>
@@ -1378,6 +1558,9 @@
     <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
+    <t>Fellow_complete_testdrive_process,Create_a_new_promotion_</t>
+  </si>
+  <si>
     <t>User_Purchase_car_after_delivery</t>
   </si>
   <si>
@@ -1390,25 +1573,67 @@
     <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
+    <t>User_Closed-Loop</t>
+  </si>
+  <si>
     <t>Network_development_manager_selects_design_vendor</t>
   </si>
   <si>
-    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop</t>
+    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account,User_Closed-Loop</t>
+  </si>
+  <si>
+    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop,EB_quartlery_5_year_budget_planning_process</t>
   </si>
   <si>
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Fellow_handles_a_Testdrive_Process</t>
   </si>
   <si>
+    <t>MSRP_Pricing_SOP</t>
+  </si>
+  <si>
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Receive_subscription_order_from_user,Get_vehicles_from_CN_or_EU_hub_to_RDC,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
   </si>
   <si>
-    <t>Maintenance of Register of Processing Activities (RoPA),Purchasing_process</t>
+    <t>Maintenance of Register of Processing Activities (RoPA),Complete_Purchasing_process</t>
   </si>
   <si>
     <t>Privacy Impact Assessment (PIA)</t>
   </si>
   <si>
     <t>Maintenance of Register of Processing Activities (RoPA)</t>
+  </si>
+  <si>
+    <t>5yr_planning_flow</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement - Standard Process,Power_Procurement - Authorized Process</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_to_Delivery,Power_EU_Supply_Chain_Order_to_Delivery - PSS Direct to Site,Power_EU_Supply_Chain_Order_to_Delivery - Batteries Direct to Site,Power_EU_Supply_Chain_Order_to_Delivery - Internal Use,Power_EU_Supply_Chain_Order_to_Delivery - User Orders via NIO_App,Power_EU_Supply_Chain_Order_to_Delivery - Free Offer with car pool</t>
+  </si>
+  <si>
+    <t>Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation, Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Leads Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Site inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Project approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Construction Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Civil Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - PUS Ready for Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Launch,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process_</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_1900-190X - New store opening,NIO_Life_-_1900-190X - Replenishment</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_1900-190X - Internal Application</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_APP_sales - Product launch</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_APP_sales - After sales</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
+  </si>
+  <si>
+    <t>Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup</t>
+  </si>
+  <si>
+    <t>SUD_Experience_Confirmation</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1991,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1797,13 +2022,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1814,13 +2039,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1831,10 +2056,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1845,13 +2070,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1862,10 +2087,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1876,10 +2101,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1890,10 +2112,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1904,13 +2126,13 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1921,10 +2143,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1935,13 +2157,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1952,10 +2174,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1966,13 +2188,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1983,10 +2205,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1997,13 +2219,13 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2014,10 +2236,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2028,10 +2250,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2042,10 +2264,10 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2056,10 +2278,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2070,10 +2292,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2084,10 +2306,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2098,10 +2320,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2112,10 +2334,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2126,10 +2348,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2140,10 +2362,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2154,10 +2376,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2168,10 +2390,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2182,10 +2404,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2196,10 +2418,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2210,10 +2432,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E30" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2224,13 +2446,13 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="F31" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2241,10 +2463,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2255,10 +2477,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2269,10 +2491,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2283,10 +2505,10 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2297,10 +2519,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2311,10 +2533,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2325,10 +2547,10 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2339,10 +2561,10 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E39" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2353,10 +2575,10 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E40" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2367,10 +2589,10 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2381,10 +2603,10 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2395,10 +2617,10 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E43" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2409,10 +2631,10 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2423,10 +2645,10 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E45" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2437,10 +2659,10 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2451,10 +2673,10 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E47" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2465,10 +2687,10 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2479,10 +2701,10 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2493,10 +2715,10 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2507,10 +2729,10 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2521,10 +2743,10 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2535,13 +2757,13 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2552,10 +2774,10 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2566,10 +2788,10 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2580,10 +2802,10 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2594,10 +2816,10 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2608,10 +2830,10 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E58" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2622,10 +2844,10 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E59" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2636,10 +2858,7 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
-      </c>
-      <c r="E60" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2650,10 +2869,10 @@
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E61" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2664,10 +2883,10 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E62" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2678,10 +2897,10 @@
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2692,10 +2911,10 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2706,10 +2925,10 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2720,10 +2939,10 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2734,10 +2953,10 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E67" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2748,10 +2967,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E68" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2762,10 +2981,10 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2776,10 +2995,10 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E70" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2790,13 +3009,13 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E71" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="F71" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2807,10 +3026,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2821,13 +3040,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E73" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2838,10 +3057,10 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E74" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2852,10 +3071,10 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E75" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2866,10 +3085,10 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2880,13 +3099,13 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2897,10 +3116,10 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2911,13 +3130,13 @@
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E79" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="F79" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2928,13 +3147,13 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2942,13 +3161,13 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2956,13 +3175,13 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E82" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2970,13 +3189,13 @@
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E83" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2984,13 +3203,13 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E84" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2998,13 +3217,13 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3012,13 +3231,13 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3026,13 +3245,13 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3040,13 +3259,13 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3054,13 +3273,13 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E89" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3068,13 +3287,13 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E90" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3082,13 +3301,13 @@
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E91" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3096,13 +3315,13 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E92" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3110,13 +3329,13 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E93" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3124,13 +3343,13 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E94" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3138,13 +3357,16 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E95" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>353</v>
+      </c>
+      <c r="F95" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3152,10 +3374,10 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E96" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3166,10 +3388,10 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3180,10 +3402,10 @@
         <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E98" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3194,10 +3416,10 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E99" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3208,10 +3430,10 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E100" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3222,10 +3444,10 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E101" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3236,10 +3458,10 @@
         <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E102" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3250,10 +3472,7 @@
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>229</v>
-      </c>
-      <c r="E103" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3264,10 +3483,10 @@
         <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E104" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3278,10 +3497,10 @@
         <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E105" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3292,10 +3511,10 @@
         <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E106" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,10 +3525,10 @@
         <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E107" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3320,10 +3539,10 @@
         <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E108" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,13 +3553,13 @@
         <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E109" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="F109" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3351,10 +3570,10 @@
         <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E110" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3365,10 +3584,10 @@
         <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3379,13 +3598,13 @@
         <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E112" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="F112" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3396,10 +3615,10 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E113" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3410,10 +3629,10 @@
         <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E114" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3424,10 +3643,10 @@
         <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E115" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3438,13 +3657,13 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D116" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E116" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3455,10 +3674,10 @@
         <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E117" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3469,10 +3688,10 @@
         <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E118" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3483,10 +3702,10 @@
         <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E119" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3497,10 +3716,10 @@
         <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E120" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3511,13 +3730,13 @@
         <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E121" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="F121" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3528,10 +3747,7 @@
         <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>229</v>
-      </c>
-      <c r="E122" t="s">
-        <v>350</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3542,10 +3758,10 @@
         <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E123" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3556,13 +3772,13 @@
         <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E124" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F124" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3573,13 +3789,13 @@
         <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E125" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="F125" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3590,10 +3806,10 @@
         <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E126" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3604,10 +3820,10 @@
         <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E127" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3618,10 +3834,10 @@
         <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E128" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3632,10 +3848,10 @@
         <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E129" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3646,10 +3862,10 @@
         <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E130" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3660,10 +3876,10 @@
         <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E131" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3674,10 +3890,10 @@
         <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E132" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3688,10 +3904,10 @@
         <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E133" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3702,10 +3918,10 @@
         <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3716,10 +3932,10 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E135" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3730,10 +3946,10 @@
         <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E136" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3744,10 +3960,10 @@
         <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E137" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3758,10 +3974,10 @@
         <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E138" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3772,10 +3988,10 @@
         <v>142</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E139" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3786,10 +4002,10 @@
         <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E140" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3800,10 +4016,10 @@
         <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E141" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3814,10 +4030,10 @@
         <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E142" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3828,10 +4044,10 @@
         <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E143" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3842,10 +4058,10 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E144" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3856,10 +4072,10 @@
         <v>148</v>
       </c>
       <c r="D145" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E145" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3870,10 +4086,10 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E146" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3884,10 +4100,10 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E147" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3898,10 +4114,10 @@
         <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E148" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3912,10 +4128,10 @@
         <v>152</v>
       </c>
       <c r="D149" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E149" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3926,10 +4142,10 @@
         <v>153</v>
       </c>
       <c r="D150" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E150" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3940,10 +4156,10 @@
         <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E151" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3954,13 +4170,13 @@
         <v>155</v>
       </c>
       <c r="D152" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E152" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="F152" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3971,10 +4187,10 @@
         <v>156</v>
       </c>
       <c r="D153" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E153" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3985,10 +4201,10 @@
         <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E154" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3999,10 +4215,10 @@
         <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E155" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4013,10 +4229,10 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E156" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4027,10 +4243,10 @@
         <v>160</v>
       </c>
       <c r="D157" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E157" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4041,10 +4257,10 @@
         <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E158" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4055,10 +4271,10 @@
         <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E159" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4069,10 +4285,10 @@
         <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E160" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4083,10 +4299,10 @@
         <v>164</v>
       </c>
       <c r="D161" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E161" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4097,10 +4313,10 @@
         <v>165</v>
       </c>
       <c r="D162" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E162" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4111,10 +4327,10 @@
         <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E163" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4125,10 +4341,10 @@
         <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E164" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4139,13 +4355,13 @@
         <v>168</v>
       </c>
       <c r="D165" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E165" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="F165" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4156,10 +4372,10 @@
         <v>169</v>
       </c>
       <c r="D166" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E166" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4170,10 +4386,10 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E167" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4184,10 +4400,10 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E168" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4198,10 +4414,10 @@
         <v>172</v>
       </c>
       <c r="D169" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E169" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4212,10 +4428,10 @@
         <v>173</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E170" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4226,10 +4442,10 @@
         <v>174</v>
       </c>
       <c r="D171" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E171" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4240,10 +4456,10 @@
         <v>175</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E172" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4254,10 +4470,10 @@
         <v>176</v>
       </c>
       <c r="D173" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E173" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4268,10 +4484,10 @@
         <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E174" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4282,10 +4498,10 @@
         <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E175" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4296,16 +4512,16 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="D176" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E176" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="F176" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4316,10 +4532,10 @@
         <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E177" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4330,10 +4546,10 @@
         <v>181</v>
       </c>
       <c r="D178" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E178" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4344,10 +4560,10 @@
         <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E179" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4358,10 +4574,10 @@
         <v>183</v>
       </c>
       <c r="D180" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E180" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4372,10 +4588,10 @@
         <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E181" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4386,10 +4602,10 @@
         <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E182" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4400,10 +4616,10 @@
         <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E183" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4414,10 +4630,10 @@
         <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E184" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4428,10 +4644,10 @@
         <v>188</v>
       </c>
       <c r="D185" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E185" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4442,10 +4658,10 @@
         <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E186" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4456,10 +4672,10 @@
         <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E187" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4470,13 +4686,13 @@
         <v>191</v>
       </c>
       <c r="D188" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E188" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="F188" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4487,13 +4703,13 @@
         <v>192</v>
       </c>
       <c r="D189" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E189" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="F189" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4504,10 +4720,10 @@
         <v>193</v>
       </c>
       <c r="D190" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E190" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4518,10 +4734,10 @@
         <v>194</v>
       </c>
       <c r="D191" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E191" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4532,10 +4748,10 @@
         <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E192" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4546,10 +4762,10 @@
         <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E193" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4560,10 +4776,13 @@
         <v>197</v>
       </c>
       <c r="D194" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E194" t="s">
-        <v>422</v>
+        <v>450</v>
+      </c>
+      <c r="F194" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4574,10 +4793,10 @@
         <v>198</v>
       </c>
       <c r="D195" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E195" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4588,13 +4807,13 @@
         <v>199</v>
       </c>
       <c r="D196" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E196" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="F196" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4605,10 +4824,10 @@
         <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E197" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4619,10 +4838,10 @@
         <v>201</v>
       </c>
       <c r="D198" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E198" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4633,10 +4852,10 @@
         <v>202</v>
       </c>
       <c r="D199" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E199" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4647,10 +4866,10 @@
         <v>203</v>
       </c>
       <c r="D200" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E200" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4661,10 +4880,10 @@
         <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E201" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4675,10 +4894,10 @@
         <v>205</v>
       </c>
       <c r="D202" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E202" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4689,13 +4908,13 @@
         <v>206</v>
       </c>
       <c r="D203" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E203" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="F203" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4706,10 +4925,10 @@
         <v>207</v>
       </c>
       <c r="D204" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E204" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4720,10 +4939,10 @@
         <v>208</v>
       </c>
       <c r="D205" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E205" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4734,10 +4953,10 @@
         <v>209</v>
       </c>
       <c r="D206" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E206" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4748,10 +4967,10 @@
         <v>210</v>
       </c>
       <c r="D207" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E207" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4762,10 +4981,10 @@
         <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E208" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4776,10 +4995,10 @@
         <v>212</v>
       </c>
       <c r="D209" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E209" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4790,10 +5009,10 @@
         <v>213</v>
       </c>
       <c r="D210" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E210" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4804,10 +5023,10 @@
         <v>214</v>
       </c>
       <c r="D211" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E211" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4818,10 +5037,10 @@
         <v>215</v>
       </c>
       <c r="D212" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E212" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4832,7 +5051,7 @@
         <v>216</v>
       </c>
       <c r="D213" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4843,16 +5062,16 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D214" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E214" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="F214" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4863,10 +5082,10 @@
         <v>218</v>
       </c>
       <c r="D215" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E215" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4877,10 +5096,7 @@
         <v>219</v>
       </c>
       <c r="D216" t="s">
-        <v>229</v>
-      </c>
-      <c r="E216" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4891,13 +5107,13 @@
         <v>220</v>
       </c>
       <c r="D217" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E217" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="F217" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4908,13 +5124,13 @@
         <v>221</v>
       </c>
       <c r="D218" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E218" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="F218" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4925,13 +5141,13 @@
         <v>222</v>
       </c>
       <c r="D219" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E219" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="F219" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4942,10 +5158,10 @@
         <v>223</v>
       </c>
       <c r="D220" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="F220" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4956,10 +5172,521 @@
         <v>224</v>
       </c>
       <c r="D221" t="s">
+        <v>261</v>
+      </c>
+      <c r="E221" t="s">
+        <v>474</v>
+      </c>
+      <c r="F221" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>225</v>
+      </c>
+      <c r="D222" t="s">
+        <v>261</v>
+      </c>
+      <c r="E222" t="s">
+        <v>475</v>
+      </c>
+      <c r="F222" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+      <c r="D223" t="s">
+        <v>261</v>
+      </c>
+      <c r="E223" t="s">
+        <v>476</v>
+      </c>
+      <c r="F223" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224" t="s">
+        <v>261</v>
+      </c>
+      <c r="E224" t="s">
+        <v>477</v>
+      </c>
+      <c r="F224" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="D225" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="D226" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="D227" t="s">
+        <v>261</v>
+      </c>
+      <c r="E227" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>228</v>
+      </c>
+      <c r="D228" t="s">
+        <v>261</v>
+      </c>
+      <c r="E228" t="s">
+        <v>479</v>
+      </c>
+      <c r="F228" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
         <v>229</v>
       </c>
-      <c r="E221" t="s">
-        <v>447</v>
+      <c r="D229" t="s">
+        <v>261</v>
+      </c>
+      <c r="E229" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>230</v>
+      </c>
+      <c r="D230" t="s">
+        <v>261</v>
+      </c>
+      <c r="E230" t="s">
+        <v>481</v>
+      </c>
+      <c r="F230" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>231</v>
+      </c>
+      <c r="D231" t="s">
+        <v>261</v>
+      </c>
+      <c r="E231" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>232</v>
+      </c>
+      <c r="D232" t="s">
+        <v>261</v>
+      </c>
+      <c r="E232" t="s">
+        <v>483</v>
+      </c>
+      <c r="F232" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+      <c r="D233" t="s">
+        <v>261</v>
+      </c>
+      <c r="E233" t="s">
+        <v>484</v>
+      </c>
+      <c r="F233" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>234</v>
+      </c>
+      <c r="D234" t="s">
+        <v>261</v>
+      </c>
+      <c r="E234" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>235</v>
+      </c>
+      <c r="D235" t="s">
+        <v>261</v>
+      </c>
+      <c r="E235" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>236</v>
+      </c>
+      <c r="D236" t="s">
+        <v>261</v>
+      </c>
+      <c r="E236" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>237</v>
+      </c>
+      <c r="D237" t="s">
+        <v>261</v>
+      </c>
+      <c r="E237" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>238</v>
+      </c>
+      <c r="D238" t="s">
+        <v>261</v>
+      </c>
+      <c r="E238" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>239</v>
+      </c>
+      <c r="D239" t="s">
+        <v>261</v>
+      </c>
+      <c r="E239" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>240</v>
+      </c>
+      <c r="D240" t="s">
+        <v>261</v>
+      </c>
+      <c r="E240" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>241</v>
+      </c>
+      <c r="D241" t="s">
+        <v>261</v>
+      </c>
+      <c r="E241" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>242</v>
+      </c>
+      <c r="D242" t="s">
+        <v>261</v>
+      </c>
+      <c r="E242" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>243</v>
+      </c>
+      <c r="D243" t="s">
+        <v>261</v>
+      </c>
+      <c r="E243" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>244</v>
+      </c>
+      <c r="D244" t="s">
+        <v>261</v>
+      </c>
+      <c r="E244" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>245</v>
+      </c>
+      <c r="D245" t="s">
+        <v>261</v>
+      </c>
+      <c r="E245" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>246</v>
+      </c>
+      <c r="D246" t="s">
+        <v>261</v>
+      </c>
+      <c r="E246" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>247</v>
+      </c>
+      <c r="D247" t="s">
+        <v>261</v>
+      </c>
+      <c r="E247" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>248</v>
+      </c>
+      <c r="D248" t="s">
+        <v>261</v>
+      </c>
+      <c r="E248" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>249</v>
+      </c>
+      <c r="D249" t="s">
+        <v>261</v>
+      </c>
+      <c r="E249" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>250</v>
+      </c>
+      <c r="D250" t="s">
+        <v>261</v>
+      </c>
+      <c r="E250" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>251</v>
+      </c>
+      <c r="D251" t="s">
+        <v>261</v>
+      </c>
+      <c r="E251" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>252</v>
+      </c>
+      <c r="D252" t="s">
+        <v>261</v>
+      </c>
+      <c r="E252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>253</v>
+      </c>
+      <c r="D253" t="s">
+        <v>261</v>
+      </c>
+      <c r="E253" t="s">
+        <v>504</v>
+      </c>
+      <c r="F253" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>254</v>
+      </c>
+      <c r="D254" t="s">
+        <v>261</v>
+      </c>
+      <c r="E254" t="s">
+        <v>505</v>
+      </c>
+      <c r="F254" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>255</v>
+      </c>
+      <c r="D255" t="s">
+        <v>261</v>
+      </c>
+      <c r="E255" t="s">
+        <v>506</v>
+      </c>
+      <c r="F255" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>256</v>
+      </c>
+      <c r="D256" t="s">
+        <v>261</v>
+      </c>
+      <c r="E256" t="s">
+        <v>507</v>
+      </c>
+      <c r="F256" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="541">
   <si>
     <t>Role</t>
   </si>
@@ -1540,7 +1540,7 @@
     <t>sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak</t>
   </si>
   <si>
-    <t>Agent_Performance_Review,test14_process</t>
+    <t>Agent_Performance_Review,test14_process,Long_term_volume_planning_,Competitor_definition,Pricing,Option_offer,Product_briefing,GTM_cadence</t>
   </si>
   <si>
     <t>Daily_NH_Store_Closing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -1549,6 +1549,9 @@
     <t>Daily_NH_Store_Closing_SOP,test14_process</t>
   </si>
   <si>
+    <t>GTM_milestone_adjustment</t>
+  </si>
+  <si>
     <t>hr test_process</t>
   </si>
   <si>
@@ -1627,7 +1630,7 @@
     <t>NIO_Life_-_APP_sales - After sales</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
+    <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan,Pre_MP_and_launch_stock_ordering</t>
   </si>
   <si>
     <t>Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup</t>
@@ -2103,6 +2106,9 @@
       <c r="D7" t="s">
         <v>261</v>
       </c>
+      <c r="F7" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
@@ -2132,7 +2138,7 @@
         <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2163,7 +2169,7 @@
         <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2194,7 +2200,7 @@
         <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2225,7 +2231,7 @@
         <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2452,7 +2458,7 @@
         <v>290</v>
       </c>
       <c r="F31" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2763,7 +2769,7 @@
         <v>312</v>
       </c>
       <c r="F53" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3015,7 +3021,7 @@
         <v>329</v>
       </c>
       <c r="F71" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3105,7 +3111,7 @@
         <v>335</v>
       </c>
       <c r="F77" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3136,7 +3142,7 @@
         <v>337</v>
       </c>
       <c r="F79" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3363,7 +3369,7 @@
         <v>353</v>
       </c>
       <c r="F95" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3559,7 +3565,7 @@
         <v>366</v>
       </c>
       <c r="F109" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3604,7 +3610,7 @@
         <v>369</v>
       </c>
       <c r="F112" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3736,7 +3742,7 @@
         <v>378</v>
       </c>
       <c r="F121" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3778,7 +3784,7 @@
         <v>380</v>
       </c>
       <c r="F124" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3795,7 +3801,7 @@
         <v>381</v>
       </c>
       <c r="F125" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4176,7 +4182,7 @@
         <v>408</v>
       </c>
       <c r="F152" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4361,7 +4367,7 @@
         <v>421</v>
       </c>
       <c r="F165" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4521,7 +4527,7 @@
         <v>432</v>
       </c>
       <c r="F176" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4692,7 +4698,7 @@
         <v>444</v>
       </c>
       <c r="F188" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4709,7 +4715,7 @@
         <v>445</v>
       </c>
       <c r="F189" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4782,7 +4788,7 @@
         <v>450</v>
       </c>
       <c r="F194" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4813,7 +4819,7 @@
         <v>452</v>
       </c>
       <c r="F196" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4914,7 +4920,7 @@
         <v>459</v>
       </c>
       <c r="F203" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5071,7 +5077,7 @@
         <v>469</v>
       </c>
       <c r="F214" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5113,7 +5119,7 @@
         <v>471</v>
       </c>
       <c r="F217" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5130,7 +5136,7 @@
         <v>472</v>
       </c>
       <c r="F218" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5147,7 +5153,7 @@
         <v>473</v>
       </c>
       <c r="F219" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5161,7 +5167,7 @@
         <v>261</v>
       </c>
       <c r="F220" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5178,7 +5184,7 @@
         <v>474</v>
       </c>
       <c r="F221" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5195,7 +5201,7 @@
         <v>475</v>
       </c>
       <c r="F222" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5212,7 +5218,7 @@
         <v>476</v>
       </c>
       <c r="F223" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5229,7 +5235,7 @@
         <v>477</v>
       </c>
       <c r="F224" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5273,7 +5279,7 @@
         <v>479</v>
       </c>
       <c r="F228" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5304,7 +5310,7 @@
         <v>481</v>
       </c>
       <c r="F230" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5335,7 +5341,7 @@
         <v>483</v>
       </c>
       <c r="F232" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5352,7 +5358,7 @@
         <v>484</v>
       </c>
       <c r="F233" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5635,7 +5641,7 @@
         <v>504</v>
       </c>
       <c r="F253" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5652,7 +5658,7 @@
         <v>505</v>
       </c>
       <c r="F254" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5669,7 +5675,7 @@
         <v>506</v>
       </c>
       <c r="F255" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5686,7 +5692,7 @@
         <v>507</v>
       </c>
       <c r="F256" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="549">
   <si>
     <t>Role</t>
   </si>
@@ -802,7 +802,7 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>chris_chen1,pawel_frackowiak</t>
+    <t>chris_chen1</t>
   </si>
   <si>
     <t>jorry_zhou</t>
@@ -1540,7 +1540,7 @@
     <t>sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak</t>
   </si>
   <si>
-    <t>Agent_Performance_Review,test14_process,Long_term_volume_planning_,Competitor_definition,Pricing,Option_offer,Product_briefing,GTM_cadence</t>
+    <t>Agent_Performance_Review,test14_process,Long_term_volume_planning_,Competitor_definition,Pricing,Option_offer,GTM_cadence,GTM_milestone_adjustment</t>
   </si>
   <si>
     <t>Daily_NH_Store_Closing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -1558,6 +1558,9 @@
     <t>Fellow_complete_testdrive_process</t>
   </si>
   <si>
+    <t>PMK_-_EU_OTA_Process</t>
+  </si>
+  <si>
     <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
@@ -1570,12 +1573,18 @@
     <t>ud_publishes_a_pgc</t>
   </si>
   <si>
+    <t>GTM_milestone_adjustment,GTM_cadence</t>
+  </si>
+  <si>
     <t>Get_vehicles_from_CN_or_EU_hub_to_RDC</t>
   </si>
   <si>
     <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
+    <t>GTM_cadence</t>
+  </si>
+  <si>
     <t>User_Closed-Loop</t>
   </si>
   <si>
@@ -1588,10 +1597,19 @@
     <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop,EB_quartlery_5_year_budget_planning_process</t>
   </si>
   <si>
+    <t>Pre_MP_and_launch_stock_ordering</t>
+  </si>
+  <si>
+    <t>Long_term_volume_planning_</t>
+  </si>
+  <si>
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Fellow_handles_a_Testdrive_Process</t>
   </si>
   <si>
-    <t>MSRP_Pricing_SOP</t>
+    <t>Competitor_definition,Option_offer,Pricing,Product_briefing</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,Product_briefing,Pricing,Option_offer</t>
   </si>
   <si>
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Receive_subscription_order_from_user,Get_vehicles_from_CN_or_EU_hub_to_RDC,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
@@ -1624,19 +1642,25 @@
     <t>NIO_Life_-_1900-190X - Internal Application</t>
   </si>
   <si>
-    <t>NIO_Life_-_APP_sales - Product launch</t>
+    <t>NIO_Life_-_APP_sales - Product launch,PMK_-_EU_OTA_Process</t>
   </si>
   <si>
     <t>NIO_Life_-_APP_sales - After sales</t>
   </si>
   <si>
+    <t>Option_offer,Pricing,Product_briefing</t>
+  </si>
+  <si>
     <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan,Pre_MP_and_launch_stock_ordering</t>
   </si>
   <si>
     <t>Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup</t>
   </si>
   <si>
-    <t>SUD_Experience_Confirmation</t>
+    <t>User_Closed-Loop,Option_offer,Pricing,GTM_cadence,PMK_-_EU_OTA_Process</t>
+  </si>
+  <si>
+    <t>SUD_Experience_Confirmation,PMK_-_EU_OTA_Process</t>
   </si>
 </sst>
 </file>
@@ -2185,6 +2209,9 @@
       <c r="E12" t="s">
         <v>271</v>
       </c>
+      <c r="F12" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -2200,7 +2227,7 @@
         <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2231,7 +2258,7 @@
         <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2458,7 +2485,7 @@
         <v>290</v>
       </c>
       <c r="F31" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2769,7 +2796,7 @@
         <v>312</v>
       </c>
       <c r="F53" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2813,6 +2840,9 @@
       <c r="E56" t="s">
         <v>315</v>
       </c>
+      <c r="F56" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
@@ -3021,7 +3051,7 @@
         <v>329</v>
       </c>
       <c r="F71" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3111,7 +3141,7 @@
         <v>335</v>
       </c>
       <c r="F77" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3142,7 +3172,7 @@
         <v>337</v>
       </c>
       <c r="F79" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3256,6 +3286,9 @@
       <c r="E87" t="s">
         <v>345</v>
       </c>
+      <c r="F87" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
@@ -3369,7 +3402,7 @@
         <v>353</v>
       </c>
       <c r="F95" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3565,7 +3598,7 @@
         <v>366</v>
       </c>
       <c r="F109" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3610,7 +3643,7 @@
         <v>369</v>
       </c>
       <c r="F112" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3742,7 +3775,7 @@
         <v>378</v>
       </c>
       <c r="F121" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3769,6 +3802,9 @@
       <c r="E123" t="s">
         <v>379</v>
       </c>
+      <c r="F123" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
@@ -3784,7 +3820,7 @@
         <v>380</v>
       </c>
       <c r="F124" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3801,7 +3837,7 @@
         <v>381</v>
       </c>
       <c r="F125" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4182,7 +4218,7 @@
         <v>408</v>
       </c>
       <c r="F152" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4240,6 +4276,9 @@
       <c r="E156" t="s">
         <v>412</v>
       </c>
+      <c r="F156" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
@@ -4268,6 +4307,9 @@
       <c r="E158" t="s">
         <v>414</v>
       </c>
+      <c r="F158" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
@@ -4367,7 +4409,7 @@
         <v>421</v>
       </c>
       <c r="F165" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4527,7 +4569,7 @@
         <v>432</v>
       </c>
       <c r="F176" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4627,6 +4669,9 @@
       <c r="E183" t="s">
         <v>439</v>
       </c>
+      <c r="F183" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
@@ -4698,7 +4743,7 @@
         <v>444</v>
       </c>
       <c r="F188" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4715,7 +4760,7 @@
         <v>445</v>
       </c>
       <c r="F189" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4788,7 +4833,7 @@
         <v>450</v>
       </c>
       <c r="F194" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4819,7 +4864,7 @@
         <v>452</v>
       </c>
       <c r="F196" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4920,7 +4965,7 @@
         <v>459</v>
       </c>
       <c r="F203" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4964,6 +5009,9 @@
       <c r="E206" t="s">
         <v>462</v>
       </c>
+      <c r="F206" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
@@ -5077,7 +5125,7 @@
         <v>469</v>
       </c>
       <c r="F214" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5119,7 +5167,7 @@
         <v>471</v>
       </c>
       <c r="F217" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5136,7 +5184,7 @@
         <v>472</v>
       </c>
       <c r="F218" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5153,7 +5201,7 @@
         <v>473</v>
       </c>
       <c r="F219" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5167,7 +5215,7 @@
         <v>261</v>
       </c>
       <c r="F220" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5184,7 +5232,7 @@
         <v>474</v>
       </c>
       <c r="F221" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5201,7 +5249,7 @@
         <v>475</v>
       </c>
       <c r="F222" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5218,7 +5266,7 @@
         <v>476</v>
       </c>
       <c r="F223" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5235,7 +5283,7 @@
         <v>477</v>
       </c>
       <c r="F224" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5279,7 +5327,7 @@
         <v>479</v>
       </c>
       <c r="F228" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5310,7 +5358,7 @@
         <v>481</v>
       </c>
       <c r="F230" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5341,7 +5389,7 @@
         <v>483</v>
       </c>
       <c r="F232" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5358,7 +5406,7 @@
         <v>484</v>
       </c>
       <c r="F233" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5458,6 +5506,9 @@
       <c r="E240" t="s">
         <v>491</v>
       </c>
+      <c r="F240" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
@@ -5641,7 +5692,7 @@
         <v>504</v>
       </c>
       <c r="F253" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5658,7 +5709,7 @@
         <v>505</v>
       </c>
       <c r="F254" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5675,7 +5726,7 @@
         <v>506</v>
       </c>
       <c r="F255" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5692,7 +5743,7 @@
         <v>507</v>
       </c>
       <c r="F256" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="561">
   <si>
     <t>Role</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Fleet_Management_Specialist</t>
   </si>
   <si>
-    <t>Head_of_BI_&amp;_BA_Europe_Commercial_Operation</t>
+    <t>Head_of_BI_&amp;_BA_for_Europe_Commercial_Operation</t>
   </si>
   <si>
     <t>Head_of_Europe_User_Operation_Department</t>
@@ -76,7 +76,7 @@
     <t>Head_of_User_Relationships</t>
   </si>
   <si>
-    <t>Intern_NIO_House_Specialist_Berlin</t>
+    <t>Intern_of_NIO_House_Specialist_Berlin</t>
   </si>
   <si>
     <t>Lead_Advisor_Brand_Communication</t>
@@ -364,7 +364,7 @@
     <t>Lead_Advisor_Space_Experience_Design</t>
   </si>
   <si>
-    <t>Lead_Content _Marketing_Planning</t>
+    <t>Lead_Content_Marketing_Planning</t>
   </si>
   <si>
     <t>Lead_Service_Advisor</t>
@@ -373,7 +373,7 @@
     <t>Manager_Community_Germany</t>
   </si>
   <si>
-    <t>Manager_User_Representative_</t>
+    <t>Manager_User_Representative</t>
   </si>
   <si>
     <t>NIO_House_Manager_Frankfurt_am_Main</t>
@@ -664,7 +664,7 @@
     <t>Warranty_Specialist_Sweden</t>
   </si>
   <si>
-    <t>External_Employee_(Proxy)</t>
+    <t>External_Employee_Proxy</t>
   </si>
   <si>
     <t>Vehicle_manager</t>
@@ -739,7 +739,7 @@
     <t>Lead_Product_Manager</t>
   </si>
   <si>
-    <t>Director_Europe_Space_Experience_Department_&amp;_Expert_Business_Development_</t>
+    <t>Director_Europe_Space_Experience_Department_&amp;_Expert_Business_Development</t>
   </si>
   <si>
     <t>Expert_Construction_and_Facilities</t>
@@ -751,13 +751,13 @@
     <t>Head_of_Business_&amp;_Partner_Development_Europe</t>
   </si>
   <si>
-    <t>Senior_Manager_Business_Development_Team_&amp;_Lead_Business_Development</t>
+    <t>Head_of_Business_Development</t>
   </si>
   <si>
     <t>Country_General_Manager_of_Austria_Company</t>
   </si>
   <si>
-    <t>E-mobility_Strategy_</t>
+    <t>E-mobility_Strategy</t>
   </si>
   <si>
     <t>SCR_Team_Lead_DACH</t>
@@ -787,6 +787,15 @@
     <t>Experience_Manager</t>
   </si>
   <si>
+    <t>Legal_Commercial_Team</t>
+  </si>
+  <si>
+    <t>Digital_Product_Owner</t>
+  </si>
+  <si>
+    <t>Head_of_Legal_EU</t>
+  </si>
+  <si>
     <t>Europe, SME</t>
   </si>
   <si>
@@ -1429,10 +1438,10 @@
     <t>love_preet</t>
   </si>
   <si>
-    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,daniel_gao,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,ranee_miao,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,love_preet</t>
-  </si>
-  <si>
-    <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ranee_miao,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,daniel_gao,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock</t>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,daniel_gao,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,love_preet,ranee_miao</t>
+  </si>
+  <si>
+    <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,daniel_gao,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock,ranee_miao</t>
   </si>
   <si>
     <t>shaohua_guo,marius_hayler,mattias_lundgren,ruben_keuter,martin_rieder,akos_kiss,matt_galvin,gerald_krainer,thijs_meijling</t>
@@ -1444,22 +1453,22 @@
     <t>zhen_lai,Pallab_medhi,beckie_fan</t>
   </si>
   <si>
-    <t>marianne_moelmen,daniel_medawar,richard_wijk,_rikard_svensson,_michael_salomon,_steinar_sundelin,paula_ramirez,renata_wolak,_kajsa_ivansson,vincent_wen,sarah_ding,brandy_lu</t>
-  </si>
-  <si>
-    <t>brandy_lu,alexander_kunith,wouter_hollander,sarah_ding,Tina_FAN,shushan_khachatryan,dongxiao_sun,depraute_rene,matrai_peter,_jianwei_yin,_xilian_yu,richard_zhang1,_hao_yang1,_nicky_heidrich</t>
+    <t>marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,sarah_ding,brandy_lu</t>
+  </si>
+  <si>
+    <t>brandy_lu,alexander_kunith,wouter_hollander,sarah_ding,Tina_FAN,shushan_khachatryan,dongxiao_sun,depraute_rene,matrai_peter, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich</t>
   </si>
   <si>
     <t>Harry_Meng</t>
   </si>
   <si>
-    <t>robbie_maes,_lovepreet_singh,_sharon_zhou, finn_xue,amber_zhu,_berry_spee</t>
+    <t>robbie_maes, lovepreet_singh, sharon_zhou, finn_xue,amber_zhu, berry_spee</t>
   </si>
   <si>
     <t>aldo_rosales</t>
   </si>
   <si>
-    <t>jessie_xu,_chenfeng_zou,lina_liu</t>
+    <t>jessie_xu, chenfeng_zou,lina_liu</t>
   </si>
   <si>
     <t>alice_bontridder</t>
@@ -1468,7 +1477,7 @@
     <t>chao_li19,yongshi_xu,wouter_hollander,shushan_khachatryan</t>
   </si>
   <si>
-    <t>_jiajun_yuan</t>
+    <t>jiajun_yuan</t>
   </si>
   <si>
     <t>ana_bjelcic_o,fredrik_aslund1</t>
@@ -1531,7 +1540,7 @@
     <t>bingqing_tong1,zoey_li1,daniela_wimmer_nio_io,yujie_jia,chengguo_shi,paolo_cova,yue_ma2,francis_ji,jackson_xu1,robert_huang,matteo_mao,zhongjie_fu,mingqiang_li,wei_li,akos_kiss,chenqi_peng,kenneth_forslund</t>
   </si>
   <si>
-    <t>_junye_shao, haiyun_zhou,tristan_vonballuseck</t>
+    <t>junye_shao, haiyun_zhou,tristan_vonballuseck</t>
   </si>
   <si>
     <t>stephen_liu,benjamin_steinmetz</t>
@@ -1540,7 +1549,16 @@
     <t>sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak</t>
   </si>
   <si>
-    <t>Agent_Performance_Review,test14_process,Long_term_volume_planning_,Competitor_definition,Pricing,Option_offer,GTM_cadence,GTM_milestone_adjustment</t>
+    <t>lukas_storch</t>
+  </si>
+  <si>
+    <t>henry_shen</t>
+  </si>
+  <si>
+    <t>moritz_wefelscheid</t>
+  </si>
+  <si>
+    <t>Agent_Performance_Review,test14_process,Long_term_volume_planning,Competitor_definition,Pricing,Option_offer,GTM_cadence,GTM_milestone_adjustment</t>
   </si>
   <si>
     <t>Daily_NH_Store_Closing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -1552,7 +1570,7 @@
     <t>GTM_milestone_adjustment</t>
   </si>
   <si>
-    <t>hr test_process</t>
+    <t>hr_test_process</t>
   </si>
   <si>
     <t>Fellow_complete_testdrive_process</t>
@@ -1564,7 +1582,7 @@
     <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
-    <t>Fellow_complete_testdrive_process,Create_a_new_promotion_</t>
+    <t>Fellow_complete_testdrive_process,Create_a_new_promotion</t>
   </si>
   <si>
     <t>User_Purchase_car_after_delivery</t>
@@ -1582,25 +1600,31 @@
     <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
   </si>
   <si>
+    <t>GTM_cadence,Corporate_Changes</t>
+  </si>
+  <si>
+    <t>User_Closed-Loop</t>
+  </si>
+  <si>
+    <t>Network_development_manager_selects_design_vendor</t>
+  </si>
+  <si>
+    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account,User_Closed-Loop</t>
+  </si>
+  <si>
     <t>GTM_cadence</t>
   </si>
   <si>
-    <t>User_Closed-Loop</t>
-  </si>
-  <si>
-    <t>Network_development_manager_selects_design_vendor</t>
-  </si>
-  <si>
-    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account,User_Closed-Loop</t>
-  </si>
-  <si>
-    <t>User_experiences_2D_testdrive coupon,User_experiences_normal_testdrive ,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop,EB_quartlery_5_year_budget_planning_process</t>
+    <t>User_experiences_2D_testdrive_coupon,User_experiences_normal_testdrive,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop,EB_quartlery_5_year_budget_planning_process</t>
   </si>
   <si>
     <t>Pre_MP_and_launch_stock_ordering</t>
   </si>
   <si>
-    <t>Long_term_volume_planning_</t>
+    <t>Long_term_volume_planning</t>
+  </si>
+  <si>
+    <t>Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Commercial_condition_policies,Trade_Ins,RV_study_management</t>
   </si>
   <si>
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Fellow_handles_a_Testdrive_Process</t>
@@ -1618,49 +1642,61 @@
     <t>Maintenance of Register of Processing Activities (RoPA),Complete_Purchasing_process</t>
   </si>
   <si>
-    <t>Privacy Impact Assessment (PIA)</t>
-  </si>
-  <si>
-    <t>Maintenance of Register of Processing Activities (RoPA)</t>
+    <t>Privacy Impact Assessment (PIA),Creation_or_update_of_Data_Deletion_and_Retention_concept,Contract_Review</t>
+  </si>
+  <si>
+    <t>Privacy Impact Assessment (PIA),Corporate_Changes</t>
+  </si>
+  <si>
+    <t>Maintenance of Register of Processing Activities (RoPA),Creation_or_update_of_Data_Deletion_and_Retention_concept</t>
   </si>
   <si>
     <t>5yr_planning_flow</t>
   </si>
   <si>
-    <t>Power_Procurement,Power_Procurement - Standard Process,Power_Procurement - Authorized Process</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_to_Delivery,Power_EU_Supply_Chain_Order_to_Delivery - PSS Direct to Site,Power_EU_Supply_Chain_Order_to_Delivery - Batteries Direct to Site,Power_EU_Supply_Chain_Order_to_Delivery - Internal Use,Power_EU_Supply_Chain_Order_to_Delivery - User Orders via NIO_App,Power_EU_Supply_Chain_Order_to_Delivery - Free Offer with car pool</t>
-  </si>
-  <si>
-    <t>Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation, Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Leads Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Site inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Project approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Construction Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Civil Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - PUS Ready for Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Launch,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process_</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_1900-190X - New store opening,NIO_Life_-_1900-190X - Replenishment</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_1900-190X - Internal Application</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_APP_sales - Product launch,PMK_-_EU_OTA_Process</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_APP_sales - After sales</t>
+    <t>Power_Procurement,Power_Procurement_-_Standard_Process,Power_Procurement_-_Authorized_Process</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_to_Delivery,Power_EU_Supply_Chain_Order_to_Delivery_-_PSS_Direct_to_Site,Power_EU_Supply_Chain_Order_to_Delivery_-_Batteries_Direct_to_Site,Power_EU_Supply_Chain_Order_to_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App,Power_EU_Supply_Chain_Order_to_Delivery_-_Free_Offer_with_car_pool</t>
+  </si>
+  <si>
+    <t>Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_1900-190X_-_Internal_Application</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_APP_sales_-_Product_launch,PMK_-_EU_OTA_Process</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_APP_sales_-_After_sales</t>
   </si>
   <si>
     <t>Option_offer,Pricing,Product_briefing</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan,Pre_MP_and_launch_stock_ordering</t>
-  </si>
-  <si>
-    <t>Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup</t>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Pre_MP_and_launch_stock_ordering</t>
+  </si>
+  <si>
+    <t>Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup</t>
   </si>
   <si>
     <t>User_Closed-Loop,Option_offer,Pricing,GTM_cadence,PMK_-_EU_OTA_Process</t>
   </si>
   <si>
     <t>SUD_Experience_Confirmation,PMK_-_EU_OTA_Process</t>
+  </si>
+  <si>
+    <t>Corporate_Changes,Contract_Review</t>
+  </si>
+  <si>
+    <t>Creation_or_update_of_Data_Deletion_and_Retention_concept</t>
+  </si>
+  <si>
+    <t>Contract_Review</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F256"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2049,13 +2085,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2066,13 +2102,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2083,10 +2119,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2097,13 +2133,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2114,10 +2150,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2128,10 +2164,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2142,10 +2178,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2156,13 +2192,13 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F9" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2173,10 +2209,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2187,13 +2223,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2204,13 +2240,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2221,13 +2257,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F13" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2238,10 +2274,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2252,13 +2288,13 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2269,10 +2305,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2283,10 +2319,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2297,10 +2333,10 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2311,10 +2347,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2325,10 +2361,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2339,10 +2375,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2353,10 +2389,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2367,10 +2403,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2381,10 +2417,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2395,10 +2431,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2409,10 +2445,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2423,10 +2459,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2437,10 +2473,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2451,10 +2487,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2465,10 +2501,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2479,13 +2515,13 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F31" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2496,10 +2532,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2510,10 +2546,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2524,10 +2560,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2538,10 +2574,10 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2552,10 +2588,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2566,10 +2602,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2580,10 +2616,10 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2594,10 +2630,10 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2608,10 +2644,10 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2622,10 +2658,10 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2636,10 +2672,10 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2650,10 +2686,10 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E43" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2664,10 +2700,10 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E44" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2678,10 +2714,10 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2692,10 +2728,10 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2706,10 +2742,10 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2720,10 +2756,10 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2734,10 +2770,10 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2748,10 +2784,10 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2762,10 +2798,10 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2776,10 +2812,10 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E52" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2790,13 +2826,13 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F53" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2807,10 +2843,10 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E54" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2821,10 +2857,10 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2835,13 +2871,13 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F56" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2852,10 +2888,10 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E57" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2866,10 +2902,10 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2880,10 +2916,10 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2894,7 +2930,7 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2905,10 +2941,10 @@
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E61" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2919,10 +2955,10 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2933,10 +2969,10 @@
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2947,10 +2983,10 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E64" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2961,10 +2997,10 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2975,10 +3011,10 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E66" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2989,10 +3025,10 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3003,10 +3039,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3017,10 +3053,10 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3031,10 +3067,10 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E70" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3045,13 +3081,13 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E71" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F71" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3062,10 +3098,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3076,13 +3112,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E73" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3093,10 +3129,10 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E74" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3107,10 +3143,10 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E75" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3121,10 +3157,10 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3135,13 +3171,13 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F77" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3152,10 +3188,10 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E78" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3166,13 +3202,13 @@
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E79" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F79" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3183,10 +3219,10 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E80" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3197,10 +3233,10 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E81" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3211,10 +3247,10 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E82" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3225,10 +3261,10 @@
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E83" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3239,10 +3275,10 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E84" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3253,10 +3289,10 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E85" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3267,10 +3303,10 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E86" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3281,13 +3317,13 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E87" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F87" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3298,10 +3334,10 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3312,10 +3348,10 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E89" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3326,10 +3362,10 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E90" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3340,10 +3376,10 @@
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E91" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3354,10 +3390,10 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E92" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3368,10 +3404,10 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3382,10 +3418,10 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E94" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3396,13 +3432,13 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E95" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F95" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3413,10 +3449,10 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3427,10 +3463,10 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E97" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3441,10 +3477,10 @@
         <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3455,10 +3491,10 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E99" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3469,10 +3505,10 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E100" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3483,10 +3519,10 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E101" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3497,10 +3533,10 @@
         <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E102" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3511,7 +3547,7 @@
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3522,10 +3558,10 @@
         <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E104" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3536,10 +3572,10 @@
         <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E105" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3550,10 +3586,10 @@
         <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E106" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3564,10 +3600,10 @@
         <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3578,10 +3614,10 @@
         <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E108" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3592,13 +3628,13 @@
         <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F109" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3609,10 +3645,10 @@
         <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3623,10 +3659,10 @@
         <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3637,13 +3673,13 @@
         <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F112" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3654,10 +3690,10 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3668,10 +3704,10 @@
         <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3682,10 +3718,10 @@
         <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E115" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3696,13 +3732,13 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D116" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E116" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3713,10 +3749,10 @@
         <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E117" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3727,10 +3763,10 @@
         <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E118" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3741,10 +3777,10 @@
         <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E119" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3755,10 +3791,10 @@
         <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E120" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3769,13 +3805,13 @@
         <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E121" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F121" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3786,7 +3822,7 @@
         <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3797,13 +3833,13 @@
         <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E123" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F123" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3814,13 +3850,13 @@
         <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E124" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F124" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3831,13 +3867,13 @@
         <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E125" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F125" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3848,10 +3884,10 @@
         <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E126" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3862,10 +3898,10 @@
         <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E127" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3876,10 +3912,10 @@
         <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E128" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3890,10 +3926,10 @@
         <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E129" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3904,10 +3940,10 @@
         <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E130" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3918,10 +3954,10 @@
         <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E131" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3932,10 +3968,10 @@
         <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E132" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3946,10 +3982,10 @@
         <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E133" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3960,10 +3996,10 @@
         <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E134" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3974,10 +4010,10 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E135" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3988,10 +4024,10 @@
         <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E136" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4002,10 +4038,10 @@
         <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E137" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4016,10 +4052,10 @@
         <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E138" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4030,10 +4066,10 @@
         <v>142</v>
       </c>
       <c r="D139" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4044,10 +4080,10 @@
         <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E140" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4058,10 +4094,10 @@
         <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E141" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4072,10 +4108,10 @@
         <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E142" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4086,10 +4122,10 @@
         <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E143" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4100,10 +4136,10 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E144" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4114,10 +4150,10 @@
         <v>148</v>
       </c>
       <c r="D145" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E145" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4128,10 +4164,10 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E146" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4142,10 +4178,10 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E147" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4156,10 +4192,10 @@
         <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E148" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4170,10 +4206,10 @@
         <v>152</v>
       </c>
       <c r="D149" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E149" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4184,10 +4220,10 @@
         <v>153</v>
       </c>
       <c r="D150" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E150" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4198,10 +4234,10 @@
         <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E151" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4212,13 +4248,13 @@
         <v>155</v>
       </c>
       <c r="D152" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E152" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F152" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4229,10 +4265,10 @@
         <v>156</v>
       </c>
       <c r="D153" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E153" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4279,10 @@
         <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E154" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4257,10 +4293,10 @@
         <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E155" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4271,13 +4307,13 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E156" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F156" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4288,10 +4324,10 @@
         <v>160</v>
       </c>
       <c r="D157" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E157" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4302,13 +4338,13 @@
         <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E158" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F158" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4319,10 +4355,10 @@
         <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E159" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4333,10 +4369,13 @@
         <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E160" t="s">
-        <v>416</v>
+        <v>419</v>
+      </c>
+      <c r="F160" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4347,10 +4386,10 @@
         <v>164</v>
       </c>
       <c r="D161" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E161" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4361,10 +4400,10 @@
         <v>165</v>
       </c>
       <c r="D162" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E162" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4375,10 +4414,10 @@
         <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E163" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4389,10 +4428,10 @@
         <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E164" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4403,13 +4442,13 @@
         <v>168</v>
       </c>
       <c r="D165" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E165" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F165" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4420,10 +4459,10 @@
         <v>169</v>
       </c>
       <c r="D166" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E166" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4434,10 +4473,10 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E167" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4448,10 +4487,10 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E168" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4462,10 +4501,10 @@
         <v>172</v>
       </c>
       <c r="D169" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E169" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4476,10 +4515,10 @@
         <v>173</v>
       </c>
       <c r="D170" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E170" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4490,10 +4529,10 @@
         <v>174</v>
       </c>
       <c r="D171" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E171" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4504,10 +4543,10 @@
         <v>175</v>
       </c>
       <c r="D172" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E172" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4518,10 +4557,10 @@
         <v>176</v>
       </c>
       <c r="D173" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E173" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4532,10 +4571,10 @@
         <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E174" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4546,10 +4585,10 @@
         <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E175" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4560,16 +4599,16 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D176" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E176" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F176" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4580,10 +4619,10 @@
         <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E177" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4594,10 +4633,10 @@
         <v>181</v>
       </c>
       <c r="D178" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E178" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4608,10 +4647,10 @@
         <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E179" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4622,10 +4661,10 @@
         <v>183</v>
       </c>
       <c r="D180" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E180" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4636,10 +4675,10 @@
         <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E181" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4650,10 +4689,10 @@
         <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E182" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4664,13 +4703,13 @@
         <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E183" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F183" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4681,10 +4720,10 @@
         <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E184" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4695,10 +4734,10 @@
         <v>188</v>
       </c>
       <c r="D185" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E185" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4709,10 +4748,10 @@
         <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E186" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4723,10 +4762,10 @@
         <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E187" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4737,13 +4776,13 @@
         <v>191</v>
       </c>
       <c r="D188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E188" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F188" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4754,13 +4793,13 @@
         <v>192</v>
       </c>
       <c r="D189" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E189" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F189" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4771,10 +4810,10 @@
         <v>193</v>
       </c>
       <c r="D190" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E190" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4785,10 +4824,10 @@
         <v>194</v>
       </c>
       <c r="D191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E191" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4799,10 +4838,10 @@
         <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E192" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4813,10 +4852,10 @@
         <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E193" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4827,13 +4866,13 @@
         <v>197</v>
       </c>
       <c r="D194" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E194" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F194" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4844,10 +4883,10 @@
         <v>198</v>
       </c>
       <c r="D195" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E195" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4858,13 +4897,13 @@
         <v>199</v>
       </c>
       <c r="D196" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E196" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F196" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4875,10 +4914,10 @@
         <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E197" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4889,10 +4928,10 @@
         <v>201</v>
       </c>
       <c r="D198" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E198" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4903,10 +4942,10 @@
         <v>202</v>
       </c>
       <c r="D199" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E199" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4917,10 +4956,10 @@
         <v>203</v>
       </c>
       <c r="D200" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E200" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4931,10 +4970,10 @@
         <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E201" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4945,10 +4984,10 @@
         <v>205</v>
       </c>
       <c r="D202" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E202" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4959,13 +4998,13 @@
         <v>206</v>
       </c>
       <c r="D203" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E203" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F203" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4976,10 +5015,10 @@
         <v>207</v>
       </c>
       <c r="D204" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E204" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4990,10 +5029,10 @@
         <v>208</v>
       </c>
       <c r="D205" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E205" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5004,13 +5043,13 @@
         <v>209</v>
       </c>
       <c r="D206" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E206" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F206" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5021,10 +5060,10 @@
         <v>210</v>
       </c>
       <c r="D207" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E207" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5035,10 +5074,10 @@
         <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E208" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5049,10 +5088,10 @@
         <v>212</v>
       </c>
       <c r="D209" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E209" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5063,10 +5102,10 @@
         <v>213</v>
       </c>
       <c r="D210" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E210" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5077,10 +5116,10 @@
         <v>214</v>
       </c>
       <c r="D211" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E211" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5091,10 +5130,10 @@
         <v>215</v>
       </c>
       <c r="D212" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E212" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5105,7 +5144,7 @@
         <v>216</v>
       </c>
       <c r="D213" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5116,16 +5155,16 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D214" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E214" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F214" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5136,10 +5175,10 @@
         <v>218</v>
       </c>
       <c r="D215" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E215" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5150,7 +5189,7 @@
         <v>219</v>
       </c>
       <c r="D216" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5161,13 +5200,13 @@
         <v>220</v>
       </c>
       <c r="D217" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E217" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F217" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5178,13 +5217,13 @@
         <v>221</v>
       </c>
       <c r="D218" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E218" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F218" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5195,13 +5234,13 @@
         <v>222</v>
       </c>
       <c r="D219" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E219" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F219" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5212,10 +5251,10 @@
         <v>223</v>
       </c>
       <c r="D220" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F220" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5226,13 +5265,13 @@
         <v>224</v>
       </c>
       <c r="D221" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E221" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F221" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5243,13 +5282,13 @@
         <v>225</v>
       </c>
       <c r="D222" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E222" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F222" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5260,13 +5299,13 @@
         <v>226</v>
       </c>
       <c r="D223" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E223" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F223" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5277,13 +5316,13 @@
         <v>227</v>
       </c>
       <c r="D224" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E224" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F224" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5291,7 +5330,7 @@
         <v>223</v>
       </c>
       <c r="D225" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5299,7 +5338,7 @@
         <v>224</v>
       </c>
       <c r="D226" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5307,10 +5346,10 @@
         <v>225</v>
       </c>
       <c r="D227" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E227" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5321,13 +5360,13 @@
         <v>228</v>
       </c>
       <c r="D228" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E228" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F228" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5338,10 +5377,10 @@
         <v>229</v>
       </c>
       <c r="D229" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E229" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5352,13 +5391,13 @@
         <v>230</v>
       </c>
       <c r="D230" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E230" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F230" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5369,10 +5408,10 @@
         <v>231</v>
       </c>
       <c r="D231" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E231" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5383,13 +5422,13 @@
         <v>232</v>
       </c>
       <c r="D232" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E232" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F232" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5400,13 +5439,13 @@
         <v>233</v>
       </c>
       <c r="D233" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E233" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F233" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5417,10 +5456,10 @@
         <v>234</v>
       </c>
       <c r="D234" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E234" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5431,10 +5470,10 @@
         <v>235</v>
       </c>
       <c r="D235" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E235" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5445,10 +5484,10 @@
         <v>236</v>
       </c>
       <c r="D236" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E236" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5459,10 +5498,10 @@
         <v>237</v>
       </c>
       <c r="D237" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E237" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5473,10 +5512,10 @@
         <v>238</v>
       </c>
       <c r="D238" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E238" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5487,10 +5526,10 @@
         <v>239</v>
       </c>
       <c r="D239" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E239" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5501,13 +5540,13 @@
         <v>240</v>
       </c>
       <c r="D240" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E240" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F240" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5518,10 +5557,10 @@
         <v>241</v>
       </c>
       <c r="D241" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E241" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5532,10 +5571,10 @@
         <v>242</v>
       </c>
       <c r="D242" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E242" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5546,10 +5585,10 @@
         <v>243</v>
       </c>
       <c r="D243" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E243" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5560,10 +5599,10 @@
         <v>244</v>
       </c>
       <c r="D244" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E244" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5574,10 +5613,10 @@
         <v>245</v>
       </c>
       <c r="D245" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E245" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5588,10 +5627,10 @@
         <v>246</v>
       </c>
       <c r="D246" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E246" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5602,10 +5641,10 @@
         <v>247</v>
       </c>
       <c r="D247" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E247" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5616,10 +5655,10 @@
         <v>248</v>
       </c>
       <c r="D248" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E248" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5630,10 +5669,10 @@
         <v>249</v>
       </c>
       <c r="D249" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E249" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5644,10 +5683,10 @@
         <v>250</v>
       </c>
       <c r="D250" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E250" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5658,10 +5697,10 @@
         <v>251</v>
       </c>
       <c r="D251" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E251" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5672,10 +5711,10 @@
         <v>252</v>
       </c>
       <c r="D252" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E252" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5686,13 +5725,13 @@
         <v>253</v>
       </c>
       <c r="D253" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E253" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F253" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5703,13 +5742,13 @@
         <v>254</v>
       </c>
       <c r="D254" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F254" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5720,13 +5759,13 @@
         <v>255</v>
       </c>
       <c r="D255" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E255" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F255" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5737,13 +5776,64 @@
         <v>256</v>
       </c>
       <c r="D256" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F256" t="s">
-        <v>548</v>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>257</v>
+      </c>
+      <c r="D257" t="s">
+        <v>264</v>
+      </c>
+      <c r="E257" t="s">
+        <v>511</v>
+      </c>
+      <c r="F257" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>258</v>
+      </c>
+      <c r="D258" t="s">
+        <v>264</v>
+      </c>
+      <c r="E258" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>259</v>
+      </c>
+      <c r="D259" t="s">
+        <v>264</v>
+      </c>
+      <c r="E259" t="s">
+        <v>513</v>
+      </c>
+      <c r="F259" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -1642,10 +1642,10 @@
     <t>Maintenance of Register of Processing Activities (RoPA),Complete_Purchasing_process</t>
   </si>
   <si>
-    <t>Privacy Impact Assessment (PIA),Creation_or_update_of_Data_Deletion_and_Retention_concept,Contract_Review</t>
-  </si>
-  <si>
-    <t>Privacy Impact Assessment (PIA),Corporate_Changes</t>
+    <t>Privacy_Impact_Assessment_-_PIA,Creation_or_update_of_Data_Deletion_and_Retention_concept,Contract_Review</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_PIA,Corporate_Changes</t>
   </si>
   <si>
     <t>Maintenance of Register of Processing Activities (RoPA),Creation_or_update_of_Data_Deletion_and_Retention_concept</t>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="530">
   <si>
     <t>Role</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Content_Specialist</t>
   </si>
   <si>
-    <t>Country_General_Manager_of_United_Kingdom_Company</t>
-  </si>
-  <si>
     <t>Head_of_Europe_Project_Management_&amp;_Enabling_Department_&amp;_Expert_Business_Development</t>
   </si>
   <si>
@@ -64,16 +61,10 @@
     <t>Head_of_Marketing_Communications_&amp;_PR_Europe</t>
   </si>
   <si>
-    <t>Head_of_SCR_Europe</t>
-  </si>
-  <si>
-    <t>Head_of_Service_Team_Norway_Company</t>
-  </si>
-  <si>
-    <t>Head_of_User_Operation_Netherlands</t>
-  </si>
-  <si>
-    <t>Head_of_User_Relationships</t>
+    <t>SCR_Leaders</t>
+  </si>
+  <si>
+    <t>HQ_&amp;_Country_User_Relation_Managers</t>
   </si>
   <si>
     <t>Intern_of_NIO_House_Specialist_Berlin</t>
@@ -214,33 +205,24 @@
     <t>Content_Writer</t>
   </si>
   <si>
-    <t>Country_General_Manager_Nertherland_Company</t>
-  </si>
-  <si>
     <t>Event_and_Marketing_Specialist</t>
   </si>
   <si>
     <t>Fleet_Manager</t>
   </si>
   <si>
-    <t>Head_of_Business_Belgium</t>
-  </si>
-  <si>
     <t>Head_of_Fleet_Management</t>
   </si>
   <si>
     <t>Head_of_Network_Development_Team</t>
   </si>
   <si>
-    <t>Head_of_Service_Operation_Denmark</t>
+    <t>Country_Head_of_Service</t>
   </si>
   <si>
     <t>Head_of_Training</t>
   </si>
   <si>
-    <t>Head_of_User_Operation_Denmark</t>
-  </si>
-  <si>
     <t>Head_of_User_Team_Norway_Company</t>
   </si>
   <si>
@@ -256,7 +238,7 @@
     <t>Lead_Advisor_Training_Germany</t>
   </si>
   <si>
-    <t>Lead_Business_Operation_Management</t>
+    <t>Service_Lead_of_Business_Operation</t>
   </si>
   <si>
     <t>Logistics_Specialist</t>
@@ -310,9 +292,6 @@
     <t>Technician_Support_Specialist-Sweden</t>
   </si>
   <si>
-    <t>User_Relationship_Manager</t>
-  </si>
-  <si>
     <t>Communication_Specialist_Netherlands</t>
   </si>
   <si>
@@ -328,7 +307,7 @@
     <t>Content_&amp;_NIO_APP_Manager_Netherlands</t>
   </si>
   <si>
-    <t>Country_General_Manager_Norway_Company</t>
+    <t>Country_General_Manager</t>
   </si>
   <si>
     <t>Delivery_Specialist</t>
@@ -343,16 +322,10 @@
     <t>Head_of_KA_Management_Team</t>
   </si>
   <si>
-    <t>Head_of_Regional_Operations_Support_Team_&amp;_Principal_Program_Management</t>
-  </si>
-  <si>
-    <t>Head_of_Service_Operation_Netherlands</t>
-  </si>
-  <si>
-    <t>Head_of_User_Development_Denmark</t>
-  </si>
-  <si>
-    <t>Head_of_User_Operation_Sweden</t>
+    <t>Head_of_Retail_Sales</t>
+  </si>
+  <si>
+    <t>Country_User_Development_Managers</t>
   </si>
   <si>
     <t>Key_Account_Manager</t>
@@ -388,9 +361,6 @@
     <t>Regional_Technician</t>
   </si>
   <si>
-    <t>SCR_English_Agent</t>
-  </si>
-  <si>
     <t>Head_of_Business_Development_Team_&amp;_Lead_Business_Development</t>
   </si>
   <si>
@@ -418,9 +388,6 @@
     <t>Training_Operations_Specialist</t>
   </si>
   <si>
-    <t>User_Relationship_Manager_Sweden</t>
-  </si>
-  <si>
     <t>Workshop_Supervisor</t>
   </si>
   <si>
@@ -466,12 +433,6 @@
     <t>Cost_Manager</t>
   </si>
   <si>
-    <t>Country_General_Manager_Sweden_Company</t>
-  </si>
-  <si>
-    <t>Country_General_Manager_Germany_Company</t>
-  </si>
-  <si>
     <t>Digital_Marketing_Specialist_User_Development</t>
   </si>
   <si>
@@ -505,25 +466,10 @@
     <t>Head_of_PMO_Infrastructure_Team_&amp;_Lead_Program_Management</t>
   </si>
   <si>
-    <t>Head_of_Revenue_Management</t>
-  </si>
-  <si>
-    <t>Head_of_Service_Operation_Germany</t>
-  </si>
-  <si>
-    <t>Head_of_Service_Operation_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>Head_of_User_Development_Netherlands</t>
-  </si>
-  <si>
-    <t>Head_of_User_Development_Germany</t>
-  </si>
-  <si>
-    <t>Head_of_User_Operation_Germany</t>
-  </si>
-  <si>
-    <t>Head_of_User_Relations_Team_&amp;_Lead_Analyst_Market_&amp;_User_Research</t>
+    <t>Head_of_Commercial_Offering</t>
+  </si>
+  <si>
+    <t>Head_of_User_Operation</t>
   </si>
   <si>
     <t>Infrastructure_Project_Management_Specialist</t>
@@ -589,10 +535,7 @@
     <t>Residual_Value_Manager</t>
   </si>
   <si>
-    <t>SCR_Agent</t>
-  </si>
-  <si>
-    <t>SCR_Onsite_Manager</t>
+    <t>SCR_-_Service_Coordinator</t>
   </si>
   <si>
     <t>Sales_Operation_Specialist</t>
@@ -655,9 +598,6 @@
     <t>UD_Specialist</t>
   </si>
   <si>
-    <t>User_Relationship_Manager_Netherlands</t>
-  </si>
-  <si>
     <t>User_Relationship_Specialist</t>
   </si>
   <si>
@@ -709,9 +649,6 @@
     <t>EU_Internal_Usage_Application_Team</t>
   </si>
   <si>
-    <t>Head_of_User_Development</t>
-  </si>
-  <si>
     <t>EU_Product_launch_Team</t>
   </si>
   <si>
@@ -733,9 +670,6 @@
     <t>Operations_Mgmt</t>
   </si>
   <si>
-    <t>Head_of_User_Development_UK</t>
-  </si>
-  <si>
     <t>Lead_Product_Manager</t>
   </si>
   <si>
@@ -754,24 +688,12 @@
     <t>Head_of_Business_Development</t>
   </si>
   <si>
-    <t>Country_General_Manager_of_Austria_Company</t>
-  </si>
-  <si>
     <t>E-mobility_Strategy</t>
   </si>
   <si>
-    <t>SCR_Team_Lead_DACH</t>
-  </si>
-  <si>
-    <t>Head_of_User_Operations</t>
-  </si>
-  <si>
     <t>Digital_Marketing_Manager_Europe</t>
   </si>
   <si>
-    <t>Head_of_Service_Operations_UK</t>
-  </si>
-  <si>
     <t>Sparks_Intern</t>
   </si>
   <si>
@@ -796,6 +718,30 @@
     <t>Head_of_Legal_EU</t>
   </si>
   <si>
+    <t>HQ_FBP_-_Finance_Business_Partner</t>
+  </si>
+  <si>
+    <t>Lead_Go_to_Market</t>
+  </si>
+  <si>
+    <t>logistic_staff_engineer</t>
+  </si>
+  <si>
+    <t>Logistic_Planning_Senior_Engineer</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager</t>
+  </si>
+  <si>
+    <t>Knowledge_library_team</t>
+  </si>
+  <si>
+    <t>Sales_Planner</t>
+  </si>
+  <si>
+    <t>Supply_Planner</t>
+  </si>
+  <si>
     <t>Europe, SME</t>
   </si>
   <si>
@@ -823,9 +769,6 @@
     <t>camilla_bowlin</t>
   </si>
   <si>
-    <t>matt_galvin</t>
-  </si>
-  <si>
     <t>erica_blomberg</t>
   </si>
   <si>
@@ -841,16 +784,10 @@
     <t>laura_peschke</t>
   </si>
   <si>
-    <t>philip_aschendorf</t>
-  </si>
-  <si>
-    <t>sadia_Aden_Mohamed</t>
-  </si>
-  <si>
-    <t>tristan_hamelink</t>
-  </si>
-  <si>
-    <t>magne_heggemoen</t>
+    <t>philip_aschendorf,marc_bloch,alvaro_garcia</t>
+  </si>
+  <si>
+    <t>magne_heggemoen,maria_bonnerup,mike_blomquist,hongyi_ji,robin_roosenstein</t>
   </si>
   <si>
     <t>sean_richardson</t>
@@ -988,33 +925,24 @@
     <t>eirik_aspaas</t>
   </si>
   <si>
-    <t>ruben_keuter</t>
-  </si>
-  <si>
     <t>marina_paradiso</t>
   </si>
   <si>
     <t>tobias_beier</t>
   </si>
   <si>
-    <t>akos_kiss</t>
-  </si>
-  <si>
     <t>kenneth_forslund</t>
   </si>
   <si>
     <t>bob_valk</t>
   </si>
   <si>
-    <t>dejvid_noinovic</t>
+    <t>dejvid_noinovic,sadia_Aden_Mohamed,onno_duimel,andreas_roehl,andreas_loeoev,jon_higgins</t>
   </si>
   <si>
     <t>scott_baines</t>
   </si>
   <si>
-    <t>rasmus_huus</t>
-  </si>
-  <si>
     <t>an_ho</t>
   </si>
   <si>
@@ -1084,9 +1012,6 @@
     <t>rashed_almawed</t>
   </si>
   <si>
-    <t>maria_bonnerup</t>
-  </si>
-  <si>
     <t>tim_noort</t>
   </si>
   <si>
@@ -1102,7 +1027,7 @@
     <t>julien_luijten</t>
   </si>
   <si>
-    <t>marius_hayler</t>
+    <t>marius_hayler,mattias_lundgren,ralph_kranz,gerald_krainer,martin_rieder,akos_kiss,ruben_keuter,matt_galvin</t>
   </si>
   <si>
     <t>stine_skyseth,manbir_singh,magnus_lovrod</t>
@@ -1117,13 +1042,7 @@
     <t>chenqi_peng</t>
   </si>
   <si>
-    <t>onno_duimel</t>
-  </si>
-  <si>
-    <t>anja_bruun</t>
-  </si>
-  <si>
-    <t>niklas_gustafson</t>
+    <t>anja_bruun,silvia_leeuw,christian_wiegand,alice_bontridder,tom_wharfe</t>
   </si>
   <si>
     <t>marcel_cucu,martin_hock,nick_nielsen,ackis_grammenidis,maarten_mulder,koen_swennen</t>
@@ -1159,9 +1078,6 @@
     <t>yoram_hout,erwin_wolting</t>
   </si>
   <si>
-    <t>mate_mester,szilard_vass</t>
-  </si>
-  <si>
     <t>sarah_opfer,qianling_duan,wanli_ren,hun_huang,zoey_li1,wenchao_cui1</t>
   </si>
   <si>
@@ -1186,9 +1102,6 @@
     <t>joris_coolen</t>
   </si>
   <si>
-    <t>mike_blomquist</t>
-  </si>
-  <si>
     <t>jonchristian_aardal</t>
   </si>
   <si>
@@ -1234,12 +1147,6 @@
     <t>connor_mccoy</t>
   </si>
   <si>
-    <t>mattias_lundgren</t>
-  </si>
-  <si>
-    <t>ralph_kranz</t>
-  </si>
-  <si>
     <t>anastasia_kozachenko</t>
   </si>
   <si>
@@ -1276,28 +1183,13 @@
     <t>paolo_cova</t>
   </si>
   <si>
-    <t>andreas_roehl</t>
-  </si>
-  <si>
-    <t>andreas_loeoev</t>
-  </si>
-  <si>
-    <t>silvia_leeuw</t>
-  </si>
-  <si>
-    <t>christian_wiegand</t>
-  </si>
-  <si>
-    <t>elise_chen</t>
-  </si>
-  <si>
-    <t>hongyi_ji</t>
+    <t>elise_chen,niklas_gustafson,an_ho,tristan_hamelink,rasmus_huus,loic_helleputte</t>
   </si>
   <si>
     <t>clare_mummery</t>
   </si>
   <si>
-    <t>joy_zhu1,chutong_liu,echo_zeng,anastasia_yu,sami_li,daisy_xiao,eunice_ho,sherry_li3,jerry_liu3,kangrui_wang,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,siyang_chen2</t>
+    <t>joy_zhu1,chutong_liu,echo_zeng,anastasia_yu,sami_li,daisy_xiao,eunice_ho,sherry_li3,jerry_liu3,kangrui_wang,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,siyang_chen2,jackson_xu1</t>
   </si>
   <si>
     <t>alissia_lehle</t>
@@ -1357,10 +1249,7 @@
     <t>fab_scognamiglio,fab_scognamiglio</t>
   </si>
   <si>
-    <t>roland_parragh,tibor_papp,hans_beyer,andre_tollefsen,attila_hudetz,dennis_mujic,gergo_almasi,martin_olsson</t>
-  </si>
-  <si>
-    <t>alvaro_garcia</t>
+    <t>roland_parragh,tibor_papp,hans_beyer,andre_tollefsen,attila_hudetz,dennis_mujic,gergo_almasi,martin_olsson,mate_mester,szilard_vass</t>
   </si>
   <si>
     <t>kjersti_naeringsrud,jimmy_nguyen</t>
@@ -1372,9 +1261,6 @@
     <t>stephanie_strobel</t>
   </si>
   <si>
-    <t>daniel_gao</t>
-  </si>
-  <si>
     <t>harald_krist</t>
   </si>
   <si>
@@ -1423,9 +1309,6 @@
     <t>ola_smines,karolina_wolnik</t>
   </si>
   <si>
-    <t>robin_roosenstein</t>
-  </si>
-  <si>
     <t>sara_meloysund</t>
   </si>
   <si>
@@ -1438,10 +1321,10 @@
     <t>love_preet</t>
   </si>
   <si>
-    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,daniel_gao,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,love_preet,ranee_miao</t>
-  </si>
-  <si>
-    <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,daniel_gao,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock,ranee_miao</t>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,love_preet,ranee_miao</t>
+  </si>
+  <si>
+    <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock,ranee_miao</t>
   </si>
   <si>
     <t>shaohua_guo,marius_hayler,mattias_lundgren,ruben_keuter,martin_rieder,akos_kiss,matt_galvin,gerald_krainer,thijs_meijling</t>
@@ -1453,7 +1336,7 @@
     <t>zhen_lai,Pallab_medhi,beckie_fan</t>
   </si>
   <si>
-    <t>marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,sarah_ding,brandy_lu</t>
+    <t>marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,sarah_ding,brandy_lu,tobias_schrempf</t>
   </si>
   <si>
     <t>brandy_lu,alexander_kunith,wouter_hollander,sarah_ding,Tina_FAN,shushan_khachatryan,dongxiao_sun,depraute_rene,matrai_peter, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich</t>
@@ -1471,9 +1354,6 @@
     <t>jessie_xu, chenfeng_zou,lina_liu</t>
   </si>
   <si>
-    <t>alice_bontridder</t>
-  </si>
-  <si>
     <t>chao_li19,yongshi_xu,wouter_hollander,shushan_khachatryan</t>
   </si>
   <si>
@@ -1495,10 +1375,7 @@
     <t>vassil_loukarsky_o,sheilla_campos_o</t>
   </si>
   <si>
-    <t>tom_wharfe</t>
-  </si>
-  <si>
-    <t>catherine_zhu</t>
+    <t>catherine_zhu,yue_ma2</t>
   </si>
   <si>
     <t>shaohua_guo</t>
@@ -1516,28 +1393,16 @@
     <t>ranee_miao</t>
   </si>
   <si>
-    <t>martin_rieder</t>
-  </si>
-  <si>
     <t>alexander_kunith</t>
   </si>
   <si>
-    <t>marc_bloch</t>
-  </si>
-  <si>
-    <t>loic_helleputte</t>
-  </si>
-  <si>
     <t>julia_lichtmannecker</t>
   </si>
   <si>
-    <t>jon_higgins</t>
-  </si>
-  <si>
     <t>jiabao_xu</t>
   </si>
   <si>
-    <t>bingqing_tong1,zoey_li1,daniela_wimmer_nio_io,yujie_jia,chengguo_shi,paolo_cova,yue_ma2,francis_ji,jackson_xu1,robert_huang,matteo_mao,zhongjie_fu,mingqiang_li,wei_li,akos_kiss,chenqi_peng,kenneth_forslund</t>
+    <t>bingqing_tong1,zoey_li1,daniela_wimmer_nio_io,yujie_jia,paolo_cova,matteo_mao,akos_kiss,chenqi_peng,kenneth_forslund</t>
   </si>
   <si>
     <t>junye_shao, haiyun_zhou,tristan_vonballuseck</t>
@@ -1558,7 +1423,31 @@
     <t>moritz_wefelscheid</t>
   </si>
   <si>
-    <t>Agent_Performance_Review,test14_process,Long_term_volume_planning,Competitor_definition,Pricing,Option_offer,GTM_cadence,GTM_milestone_adjustment</t>
+    <t>chengguo_shi</t>
+  </si>
+  <si>
+    <t>francis_ji</t>
+  </si>
+  <si>
+    <t>robert_huang</t>
+  </si>
+  <si>
+    <t>zhongjie_fu</t>
+  </si>
+  <si>
+    <t>bingqing_tong1</t>
+  </si>
+  <si>
+    <t>kasper_klint,romina_dehzani</t>
+  </si>
+  <si>
+    <t>zoey_li1</t>
+  </si>
+  <si>
+    <t>yujie_jia</t>
+  </si>
+  <si>
+    <t>test14_process,Long_term_volume_planning,Competitor_definition,Pricing,Option_offer,GTM_cadence,GTM_milestone_adjustment</t>
   </si>
   <si>
     <t>Daily_NH_Store_Closing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -1573,16 +1462,16 @@
     <t>hr_test_process</t>
   </si>
   <si>
-    <t>Fellow_complete_testdrive_process</t>
-  </si>
-  <si>
-    <t>PMK_-_EU_OTA_Process</t>
-  </si>
-  <si>
-    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
-  </si>
-  <si>
-    <t>Fellow_complete_testdrive_process,Create_a_new_promotion</t>
+    <t>OTA_Process</t>
+  </si>
+  <si>
+    <t>Manually_Hand_out_NIO_Points_to_users,User_Satisfaction_-_Service_Coordinator_-_Global_Processes</t>
+  </si>
+  <si>
+    <t>User_Closed-Loop</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
   </si>
   <si>
     <t>User_Purchase_car_after_delivery</t>
@@ -1594,25 +1483,25 @@
     <t>GTM_milestone_adjustment,GTM_cadence</t>
   </si>
   <si>
-    <t>Get_vehicles_from_CN_or_EU_hub_to_RDC</t>
-  </si>
-  <si>
-    <t>NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account</t>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Get_vehicles_from_CN_or_EU_hub_to_RDC,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Manually_Hand_out_NIO_Points_to_users</t>
   </si>
   <si>
     <t>GTM_cadence,Corporate_Changes</t>
   </si>
   <si>
-    <t>User_Closed-Loop</t>
-  </si>
-  <si>
     <t>Network_development_manager_selects_design_vendor</t>
   </si>
   <si>
-    <t>SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,Manually_Hand_out_NIO_Points_to_users,User_contacts_SCR_to_delete_NIO_account,User_Closed-Loop</t>
-  </si>
-  <si>
-    <t>GTM_cadence</t>
+    <t>GTM_cadence,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
+  </si>
+  <si>
+    <t>Fleet_and_Business_Direct_Sales_-_With_Partner,Fleet_and_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process</t>
   </si>
   <si>
     <t>User_experiences_2D_testdrive_coupon,User_experiences_normal_testdrive,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop,EB_quartlery_5_year_budget_planning_process</t>
@@ -1624,7 +1513,10 @@
     <t>Long_term_volume_planning</t>
   </si>
   <si>
-    <t>Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Commercial_condition_policies,Trade_Ins,RV_study_management</t>
+    <t>Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Commercial_condition_policies,Trade_Ins,RV_study_management,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
+  </si>
+  <si>
+    <t>Fellow_complete_testdrive_process,Create_a_new_promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Sales_Planning</t>
   </si>
   <si>
     <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Fellow_handles_a_Testdrive_Process</t>
@@ -1633,6 +1525,9 @@
     <t>Competitor_definition,Option_offer,Pricing,Product_briefing</t>
   </si>
   <si>
+    <t>Manually_Hand_out_NIO_Points_to_users,User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library</t>
+  </si>
+  <si>
     <t>MSRP_Pricing_SOP,Product_briefing,Pricing,Option_offer</t>
   </si>
   <si>
@@ -1660,7 +1555,7 @@
     <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_to_Delivery,Power_EU_Supply_Chain_Order_to_Delivery_-_PSS_Direct_to_Site,Power_EU_Supply_Chain_Order_to_Delivery_-_Batteries_Direct_to_Site,Power_EU_Supply_Chain_Order_to_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App,Power_EU_Supply_Chain_Order_to_Delivery_-_Free_Offer_with_car_pool</t>
   </si>
   <si>
-    <t>Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process</t>
+    <t>Power_EU_PUS_Leads_to_Operation_Q-300-B-1_EU_PUS_LTO,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process</t>
   </si>
   <si>
     <t>NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment</t>
@@ -1669,34 +1564,46 @@
     <t>NIO_Life_-_1900-190X_-_Internal_Application</t>
   </si>
   <si>
-    <t>NIO_Life_-_APP_sales_-_Product_launch,PMK_-_EU_OTA_Process</t>
+    <t>NIO_Life_-_APP_sales_-_Product_launch,OTA_Process</t>
   </si>
   <si>
     <t>NIO_Life_-_APP_sales_-_After_sales</t>
   </si>
   <si>
-    <t>Option_offer,Pricing,Product_briefing</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Pre_MP_and_launch_stock_ordering</t>
+    <t>Option_offer,Pricing,Product_briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning</t>
   </si>
   <si>
     <t>Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup</t>
   </si>
   <si>
-    <t>User_Closed-Loop,Option_offer,Pricing,GTM_cadence,PMK_-_EU_OTA_Process</t>
-  </si>
-  <si>
-    <t>SUD_Experience_Confirmation,PMK_-_EU_OTA_Process</t>
-  </si>
-  <si>
-    <t>Corporate_Changes,Contract_Review</t>
+    <t>User_Closed-Loop,Option_offer,Pricing,GTM_cadence,OTA_Process</t>
+  </si>
+  <si>
+    <t>SUD_Experience_Confirmation,OTA_Process</t>
+  </si>
+  <si>
+    <t>Corporate_Changes,Contract_Review,EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_NSCHUB_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network,EU_Service_-_After_service_-_Service_Partners_Cooperation,EU_Service_-_After_service_-_Service_Partners_Cooperation_-_Service_Partners_Nomination_and_Cooperation_Process</t>
   </si>
   <si>
     <t>Creation_or_update_of_Data_Deletion_and_Retention_concept</t>
   </si>
   <si>
     <t>Contract_Review</t>
+  </si>
+  <si>
+    <t>Fleet_and_Business_Direct_Sales_-_With_Partner,Fleet_and_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Sales_Planning</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2085,13 +1992,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2102,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2119,10 +2026,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2133,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2150,10 +2057,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" t="s">
-        <v>269</v>
+        <v>246</v>
+      </c>
+      <c r="F6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2164,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" t="s">
-        <v>517</v>
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2178,10 +2085,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>252</v>
+      </c>
+      <c r="F8" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2192,13 +2102,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
-      </c>
-      <c r="F9" t="s">
-        <v>518</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2209,10 +2116,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2223,13 +2130,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2240,13 +2147,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2257,13 +2164,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2274,10 +2181,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2288,13 +2195,10 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" t="s">
-        <v>522</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2305,10 +2209,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2319,10 +2223,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2333,10 +2237,13 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>262</v>
+      </c>
+      <c r="F18" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2347,10 +2254,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2361,10 +2268,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" t="s">
         <v>264</v>
-      </c>
-      <c r="E20" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2375,10 +2282,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E21" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2389,10 +2296,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E22" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2403,10 +2310,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2417,10 +2324,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2431,10 +2338,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2445,10 +2352,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E26" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2459,10 +2366,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E27" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2473,10 +2380,13 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>272</v>
+      </c>
+      <c r="F28" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2487,10 +2397,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2501,10 +2411,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2515,13 +2425,10 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
-      </c>
-      <c r="F31" t="s">
-        <v>523</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2532,10 +2439,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E32" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2546,10 +2453,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E33" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2560,10 +2467,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2574,10 +2481,10 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2588,10 +2495,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2602,10 +2509,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2616,10 +2523,10 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2630,10 +2537,10 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2644,10 +2551,10 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2658,10 +2565,10 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2672,10 +2579,10 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2686,10 +2593,10 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2700,10 +2607,10 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E44" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2714,10 +2621,10 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E45" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2728,10 +2635,10 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2742,10 +2649,10 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2756,10 +2663,10 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E48" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2770,10 +2677,10 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2784,10 +2691,13 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E50" t="s">
-        <v>312</v>
+        <v>294</v>
+      </c>
+      <c r="F50" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2798,10 +2708,10 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2812,10 +2722,10 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2826,13 +2736,13 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E53" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F53" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2843,10 +2753,10 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2857,10 +2767,10 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2871,13 +2781,10 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
-      </c>
-      <c r="F56" t="s">
-        <v>525</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2888,10 +2795,7 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2902,10 +2806,10 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E58" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2916,10 +2820,10 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2930,7 +2834,10 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>246</v>
+      </c>
+      <c r="E60" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2941,10 +2848,10 @@
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2955,10 +2862,13 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E62" t="s">
-        <v>323</v>
+        <v>305</v>
+      </c>
+      <c r="F62" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2969,10 +2879,10 @@
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E63" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2983,10 +2893,10 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E64" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2997,10 +2907,10 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E65" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3011,10 +2921,13 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E66" t="s">
-        <v>327</v>
+        <v>309</v>
+      </c>
+      <c r="F66" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3024,11 +2937,14 @@
       <c r="B67" t="s">
         <v>70</v>
       </c>
+      <c r="C67" t="s">
+        <v>242</v>
+      </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E67" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3039,10 +2955,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E68" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3053,10 +2969,10 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E69" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3067,10 +2983,10 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3081,13 +2997,13 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E71" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F71" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3098,10 +3014,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E72" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3111,14 +3027,14 @@
       <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="C73" t="s">
-        <v>260</v>
-      </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E73" t="s">
-        <v>334</v>
+        <v>316</v>
+      </c>
+      <c r="F73" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3129,10 +3045,10 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E74" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3143,10 +3059,10 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E75" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3157,10 +3073,10 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3171,13 +3087,10 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
-        <v>338</v>
-      </c>
-      <c r="F77" t="s">
-        <v>526</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3188,10 +3101,10 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E78" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3202,13 +3115,10 @@
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E79" t="s">
-        <v>340</v>
-      </c>
-      <c r="F79" t="s">
-        <v>527</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3219,10 +3129,10 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E80" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3233,10 +3143,13 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E81" t="s">
-        <v>342</v>
+        <v>324</v>
+      </c>
+      <c r="F81" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3247,10 +3160,10 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E82" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3261,10 +3174,10 @@
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E83" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3275,10 +3188,10 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E84" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3289,10 +3202,10 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E85" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3303,10 +3216,10 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E86" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3317,13 +3230,10 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E87" t="s">
-        <v>348</v>
-      </c>
-      <c r="F87" t="s">
-        <v>528</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3334,10 +3244,10 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E88" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3348,10 +3258,10 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E89" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3362,10 +3272,10 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3376,10 +3286,10 @@
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E91" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3390,10 +3300,10 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E92" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3404,10 +3314,10 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E93" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3418,10 +3328,13 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E94" t="s">
-        <v>355</v>
+        <v>337</v>
+      </c>
+      <c r="F94" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3432,13 +3345,10 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E95" t="s">
-        <v>356</v>
-      </c>
-      <c r="F95" t="s">
-        <v>529</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3449,10 +3359,7 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
-      </c>
-      <c r="E96" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3463,10 +3370,10 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E97" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3477,10 +3384,10 @@
         <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E98" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3491,10 +3398,13 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E99" t="s">
-        <v>360</v>
+        <v>341</v>
+      </c>
+      <c r="F99" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3505,10 +3415,10 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E100" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3519,10 +3429,10 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E101" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3533,10 +3443,10 @@
         <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E102" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3547,7 +3457,13 @@
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>264</v>
+        <v>246</v>
+      </c>
+      <c r="E103" t="s">
+        <v>345</v>
+      </c>
+      <c r="F103" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3558,10 +3474,10 @@
         <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E104" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3572,10 +3488,10 @@
         <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E105" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3586,10 +3502,10 @@
         <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E106" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3599,11 +3515,14 @@
       <c r="B107" t="s">
         <v>110</v>
       </c>
+      <c r="C107" t="s">
+        <v>243</v>
+      </c>
       <c r="D107" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E107" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3614,10 +3533,10 @@
         <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E108" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3628,13 +3547,10 @@
         <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E109" t="s">
-        <v>369</v>
-      </c>
-      <c r="F109" t="s">
-        <v>522</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3645,10 +3561,10 @@
         <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E110" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3659,10 +3575,10 @@
         <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E111" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3673,13 +3589,7 @@
         <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
-      </c>
-      <c r="E112" t="s">
-        <v>372</v>
-      </c>
-      <c r="F112" t="s">
-        <v>530</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3690,10 +3600,13 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E113" t="s">
-        <v>373</v>
+        <v>354</v>
+      </c>
+      <c r="F113" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3704,10 +3617,13 @@
         <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E114" t="s">
-        <v>374</v>
+        <v>355</v>
+      </c>
+      <c r="F114" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3718,10 +3634,13 @@
         <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E115" t="s">
-        <v>375</v>
+        <v>356</v>
+      </c>
+      <c r="F115" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3731,14 +3650,11 @@
       <c r="B116" t="s">
         <v>119</v>
       </c>
-      <c r="C116" t="s">
-        <v>261</v>
-      </c>
       <c r="D116" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E116" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3749,10 +3665,10 @@
         <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E117" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3763,10 +3679,10 @@
         <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E118" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3777,10 +3693,10 @@
         <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E119" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3791,10 +3707,10 @@
         <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E120" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3805,13 +3721,10 @@
         <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E121" t="s">
-        <v>381</v>
-      </c>
-      <c r="F121" t="s">
-        <v>531</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3822,7 +3735,10 @@
         <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>264</v>
+        <v>246</v>
+      </c>
+      <c r="E122" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3833,13 +3749,10 @@
         <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E123" t="s">
-        <v>382</v>
-      </c>
-      <c r="F123" t="s">
-        <v>532</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3850,13 +3763,10 @@
         <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E124" t="s">
-        <v>383</v>
-      </c>
-      <c r="F124" t="s">
-        <v>521</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3867,13 +3777,10 @@
         <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E125" t="s">
-        <v>384</v>
-      </c>
-      <c r="F125" t="s">
-        <v>521</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3884,10 +3791,10 @@
         <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E126" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3898,10 +3805,10 @@
         <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E127" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3912,13 +3819,16 @@
         <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E128" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>369</v>
+      </c>
+      <c r="F128" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3926,13 +3836,13 @@
         <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E129" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3940,13 +3850,13 @@
         <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E130" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3954,13 +3864,13 @@
         <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E131" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3968,13 +3878,13 @@
         <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E132" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3982,13 +3892,13 @@
         <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E133" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3996,13 +3906,13 @@
         <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E134" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4010,13 +3920,13 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E135" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4024,13 +3934,13 @@
         <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E136" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4038,13 +3948,13 @@
         <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E137" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4052,13 +3962,13 @@
         <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E138" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4066,13 +3976,16 @@
         <v>142</v>
       </c>
       <c r="D139" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E139" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>380</v>
+      </c>
+      <c r="F139" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4080,13 +3993,13 @@
         <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E140" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4094,13 +4007,13 @@
         <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E141" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4108,13 +4021,13 @@
         <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E142" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4122,13 +4035,16 @@
         <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E143" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>384</v>
+      </c>
+      <c r="F143" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4136,10 +4052,10 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E144" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4150,10 +4066,13 @@
         <v>148</v>
       </c>
       <c r="D145" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E145" t="s">
-        <v>404</v>
+        <v>386</v>
+      </c>
+      <c r="F145" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4164,10 +4083,10 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E146" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4178,10 +4097,13 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E147" t="s">
-        <v>406</v>
+        <v>388</v>
+      </c>
+      <c r="F147" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4192,10 +4114,13 @@
         <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E148" t="s">
-        <v>407</v>
+        <v>389</v>
+      </c>
+      <c r="F148" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4206,10 +4131,10 @@
         <v>152</v>
       </c>
       <c r="D149" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E149" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4220,10 +4145,10 @@
         <v>153</v>
       </c>
       <c r="D150" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E150" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4234,10 +4159,10 @@
         <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E151" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4248,13 +4173,10 @@
         <v>155</v>
       </c>
       <c r="D152" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E152" t="s">
-        <v>411</v>
-      </c>
-      <c r="F152" t="s">
-        <v>533</v>
+        <v>393</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4265,10 +4187,10 @@
         <v>156</v>
       </c>
       <c r="D153" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E153" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4279,10 +4201,10 @@
         <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E154" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4293,10 +4215,10 @@
         <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E155" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4307,13 +4229,10 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E156" t="s">
-        <v>415</v>
-      </c>
-      <c r="F156" t="s">
-        <v>534</v>
+        <v>397</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4324,10 +4243,10 @@
         <v>160</v>
       </c>
       <c r="D157" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E157" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4337,14 +4256,17 @@
       <c r="B158" t="s">
         <v>161</v>
       </c>
+      <c r="C158" t="s">
+        <v>244</v>
+      </c>
       <c r="D158" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E158" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F158" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4355,10 +4277,10 @@
         <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E159" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4369,13 +4291,10 @@
         <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E160" t="s">
-        <v>419</v>
-      </c>
-      <c r="F160" t="s">
-        <v>536</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,10 +4305,10 @@
         <v>164</v>
       </c>
       <c r="D161" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E161" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4400,10 +4319,10 @@
         <v>165</v>
       </c>
       <c r="D162" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E162" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,10 +4333,10 @@
         <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E163" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4428,10 +4347,10 @@
         <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E164" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4442,13 +4361,13 @@
         <v>168</v>
       </c>
       <c r="D165" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E165" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F165" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4459,10 +4378,10 @@
         <v>169</v>
       </c>
       <c r="D166" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E166" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4473,10 +4392,10 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E167" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4487,10 +4406,10 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E168" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4501,10 +4420,10 @@
         <v>172</v>
       </c>
       <c r="D169" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E169" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4515,10 +4434,13 @@
         <v>173</v>
       </c>
       <c r="D170" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E170" t="s">
-        <v>429</v>
+        <v>411</v>
+      </c>
+      <c r="F170" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4529,10 +4451,10 @@
         <v>174</v>
       </c>
       <c r="D171" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E171" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4543,10 +4465,10 @@
         <v>175</v>
       </c>
       <c r="D172" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E172" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4557,10 +4479,10 @@
         <v>176</v>
       </c>
       <c r="D173" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E173" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4571,10 +4493,7 @@
         <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>264</v>
-      </c>
-      <c r="E174" t="s">
-        <v>433</v>
+        <v>246</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4585,10 +4504,13 @@
         <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E175" t="s">
-        <v>434</v>
+        <v>415</v>
+      </c>
+      <c r="F175" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4598,17 +4520,11 @@
       <c r="B176" t="s">
         <v>179</v>
       </c>
-      <c r="C176" t="s">
-        <v>262</v>
-      </c>
       <c r="D176" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E176" t="s">
-        <v>435</v>
-      </c>
-      <c r="F176" t="s">
-        <v>537</v>
+        <v>416</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4619,10 +4535,13 @@
         <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E177" t="s">
-        <v>436</v>
+        <v>417</v>
+      </c>
+      <c r="F177" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4633,10 +4552,10 @@
         <v>181</v>
       </c>
       <c r="D178" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E178" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4647,10 +4566,10 @@
         <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E179" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4661,10 +4580,10 @@
         <v>183</v>
       </c>
       <c r="D180" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E180" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4675,10 +4594,10 @@
         <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E181" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4689,10 +4608,10 @@
         <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E182" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4703,13 +4622,10 @@
         <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E183" t="s">
-        <v>442</v>
-      </c>
-      <c r="F183" t="s">
-        <v>538</v>
+        <v>423</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4720,10 +4636,13 @@
         <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E184" t="s">
-        <v>443</v>
+        <v>424</v>
+      </c>
+      <c r="F184" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4734,10 +4653,10 @@
         <v>188</v>
       </c>
       <c r="D185" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E185" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4748,10 +4667,10 @@
         <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E186" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4762,10 +4681,13 @@
         <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E187" t="s">
-        <v>446</v>
+        <v>427</v>
+      </c>
+      <c r="F187" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4776,13 +4698,10 @@
         <v>191</v>
       </c>
       <c r="D188" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E188" t="s">
-        <v>447</v>
-      </c>
-      <c r="F188" t="s">
-        <v>521</v>
+        <v>428</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4793,13 +4712,10 @@
         <v>192</v>
       </c>
       <c r="D189" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E189" t="s">
-        <v>448</v>
-      </c>
-      <c r="F189" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4810,10 +4726,10 @@
         <v>193</v>
       </c>
       <c r="D190" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E190" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4824,10 +4740,10 @@
         <v>194</v>
       </c>
       <c r="D191" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E191" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4838,10 +4754,10 @@
         <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E192" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4852,10 +4768,7 @@
         <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>264</v>
-      </c>
-      <c r="E193" t="s">
-        <v>452</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4865,14 +4778,17 @@
       <c r="B194" t="s">
         <v>197</v>
       </c>
+      <c r="C194" t="s">
+        <v>245</v>
+      </c>
       <c r="D194" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E194" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="F194" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4883,10 +4799,10 @@
         <v>198</v>
       </c>
       <c r="D195" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E195" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4897,13 +4813,7 @@
         <v>199</v>
       </c>
       <c r="D196" t="s">
-        <v>264</v>
-      </c>
-      <c r="E196" t="s">
-        <v>455</v>
-      </c>
-      <c r="F196" t="s">
-        <v>521</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4914,10 +4824,13 @@
         <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E197" t="s">
-        <v>456</v>
+        <v>435</v>
+      </c>
+      <c r="F197" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4928,10 +4841,13 @@
         <v>201</v>
       </c>
       <c r="D198" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E198" t="s">
-        <v>457</v>
+        <v>436</v>
+      </c>
+      <c r="F198" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4942,10 +4858,13 @@
         <v>202</v>
       </c>
       <c r="D199" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E199" t="s">
-        <v>458</v>
+        <v>437</v>
+      </c>
+      <c r="F199" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4956,10 +4875,10 @@
         <v>203</v>
       </c>
       <c r="D200" t="s">
-        <v>264</v>
-      </c>
-      <c r="E200" t="s">
-        <v>459</v>
+        <v>246</v>
+      </c>
+      <c r="F200" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4970,10 +4889,13 @@
         <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E201" t="s">
-        <v>460</v>
+        <v>438</v>
+      </c>
+      <c r="F201" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4984,10 +4906,13 @@
         <v>205</v>
       </c>
       <c r="D202" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E202" t="s">
-        <v>461</v>
+        <v>439</v>
+      </c>
+      <c r="F202" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4998,13 +4923,13 @@
         <v>206</v>
       </c>
       <c r="D203" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E203" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="F203" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5015,55 +4940,40 @@
         <v>207</v>
       </c>
       <c r="D204" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E204" t="s">
-        <v>463</v>
+        <v>441</v>
+      </c>
+      <c r="F204" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
-        <v>208</v>
-      </c>
       <c r="D205" t="s">
-        <v>264</v>
-      </c>
-      <c r="E205" t="s">
-        <v>464</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
-        <v>209</v>
-      </c>
       <c r="D206" t="s">
-        <v>264</v>
-      </c>
-      <c r="E206" t="s">
-        <v>465</v>
-      </c>
-      <c r="F206" t="s">
-        <v>520</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
-        <v>210</v>
-      </c>
       <c r="D207" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E207" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5071,13 +4981,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D208" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E208" t="s">
-        <v>467</v>
+        <v>443</v>
+      </c>
+      <c r="F208" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5085,13 +4998,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D209" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E209" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5099,13 +5012,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D210" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E210" t="s">
-        <v>469</v>
+        <v>445</v>
+      </c>
+      <c r="F210" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5113,13 +5029,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D211" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E211" t="s">
-        <v>470</v>
+        <v>446</v>
+      </c>
+      <c r="F211" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5127,13 +5046,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D212" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E212" t="s">
-        <v>471</v>
+        <v>447</v>
+      </c>
+      <c r="F212" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5141,10 +5063,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D213" t="s">
-        <v>264</v>
+        <v>246</v>
+      </c>
+      <c r="E213" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5152,19 +5077,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
-      </c>
-      <c r="C214" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="D214" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E214" t="s">
-        <v>472</v>
-      </c>
-      <c r="F214" t="s">
-        <v>540</v>
+        <v>449</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5172,13 +5091,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D215" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E215" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5186,10 +5105,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D216" t="s">
-        <v>264</v>
+        <v>246</v>
+      </c>
+      <c r="E216" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5197,16 +5119,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D217" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E217" t="s">
-        <v>474</v>
-      </c>
-      <c r="F217" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5214,16 +5133,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D218" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E218" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="F218" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5231,16 +5150,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D219" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E219" t="s">
-        <v>476</v>
-      </c>
-      <c r="F219" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5248,13 +5164,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D220" t="s">
-        <v>264</v>
-      </c>
-      <c r="F220" t="s">
-        <v>544</v>
+        <v>246</v>
+      </c>
+      <c r="E220" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5262,16 +5178,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D221" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E221" t="s">
-        <v>477</v>
-      </c>
-      <c r="F221" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5279,16 +5192,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D222" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E222" t="s">
-        <v>478</v>
-      </c>
-      <c r="F222" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5296,16 +5206,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D223" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E223" t="s">
-        <v>479</v>
-      </c>
-      <c r="F223" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5313,43 +5220,58 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D224" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E224" t="s">
-        <v>480</v>
-      </c>
-      <c r="F224" t="s">
-        <v>548</v>
+        <v>459</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>223</v>
       </c>
+      <c r="B225" t="s">
+        <v>225</v>
+      </c>
       <c r="D225" t="s">
-        <v>264</v>
+        <v>246</v>
+      </c>
+      <c r="E225" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>224</v>
       </c>
+      <c r="B226" t="s">
+        <v>226</v>
+      </c>
       <c r="D226" t="s">
-        <v>264</v>
+        <v>246</v>
+      </c>
+      <c r="E226" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>225</v>
       </c>
+      <c r="B227" t="s">
+        <v>227</v>
+      </c>
       <c r="D227" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E227" t="s">
-        <v>481</v>
+        <v>462</v>
+      </c>
+      <c r="F227" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5360,13 +5282,13 @@
         <v>228</v>
       </c>
       <c r="D228" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E228" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="F228" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5377,10 +5299,13 @@
         <v>229</v>
       </c>
       <c r="D229" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E229" t="s">
-        <v>483</v>
+        <v>464</v>
+      </c>
+      <c r="F229" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5391,13 +5316,13 @@
         <v>230</v>
       </c>
       <c r="D230" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E230" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="F230" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5408,10 +5333,13 @@
         <v>231</v>
       </c>
       <c r="D231" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E231" t="s">
-        <v>485</v>
+        <v>466</v>
+      </c>
+      <c r="F231" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5422,13 +5350,13 @@
         <v>232</v>
       </c>
       <c r="D232" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E232" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="F232" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5439,13 +5367,13 @@
         <v>233</v>
       </c>
       <c r="D233" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E233" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="F233" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5456,10 +5384,13 @@
         <v>234</v>
       </c>
       <c r="D234" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E234" t="s">
-        <v>488</v>
+        <v>469</v>
+      </c>
+      <c r="F234" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5470,10 +5401,13 @@
         <v>235</v>
       </c>
       <c r="D235" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E235" t="s">
-        <v>489</v>
+        <v>470</v>
+      </c>
+      <c r="F235" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5484,10 +5418,13 @@
         <v>236</v>
       </c>
       <c r="D236" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E236" t="s">
-        <v>490</v>
+        <v>471</v>
+      </c>
+      <c r="F236" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5498,10 +5435,13 @@
         <v>237</v>
       </c>
       <c r="D237" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E237" t="s">
-        <v>491</v>
+        <v>472</v>
+      </c>
+      <c r="F237" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5512,10 +5452,13 @@
         <v>238</v>
       </c>
       <c r="D238" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E238" t="s">
-        <v>492</v>
+        <v>473</v>
+      </c>
+      <c r="F238" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5526,10 +5469,13 @@
         <v>239</v>
       </c>
       <c r="D239" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E239" t="s">
-        <v>493</v>
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5540,13 +5486,13 @@
         <v>240</v>
       </c>
       <c r="D240" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E240" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="F240" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5557,283 +5503,13 @@
         <v>241</v>
       </c>
       <c r="D241" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E241" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>242</v>
-      </c>
-      <c r="D242" t="s">
-        <v>264</v>
-      </c>
-      <c r="E242" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>243</v>
-      </c>
-      <c r="D243" t="s">
-        <v>264</v>
-      </c>
-      <c r="E243" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>244</v>
-      </c>
-      <c r="D244" t="s">
-        <v>264</v>
-      </c>
-      <c r="E244" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>245</v>
-      </c>
-      <c r="D245" t="s">
-        <v>264</v>
-      </c>
-      <c r="E245" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>246</v>
-      </c>
-      <c r="D246" t="s">
-        <v>264</v>
-      </c>
-      <c r="E246" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>247</v>
-      </c>
-      <c r="D247" t="s">
-        <v>264</v>
-      </c>
-      <c r="E247" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>248</v>
-      </c>
-      <c r="D248" t="s">
-        <v>264</v>
-      </c>
-      <c r="E248" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>249</v>
-      </c>
-      <c r="D249" t="s">
-        <v>264</v>
-      </c>
-      <c r="E249" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>250</v>
-      </c>
-      <c r="D250" t="s">
-        <v>264</v>
-      </c>
-      <c r="E250" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>251</v>
-      </c>
-      <c r="D251" t="s">
-        <v>264</v>
-      </c>
-      <c r="E251" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>252</v>
-      </c>
-      <c r="D252" t="s">
-        <v>264</v>
-      </c>
-      <c r="E252" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>253</v>
-      </c>
-      <c r="D253" t="s">
-        <v>264</v>
-      </c>
-      <c r="E253" t="s">
-        <v>507</v>
-      </c>
-      <c r="F253" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>254</v>
-      </c>
-      <c r="D254" t="s">
-        <v>264</v>
-      </c>
-      <c r="E254" t="s">
-        <v>508</v>
-      </c>
-      <c r="F254" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>255</v>
-      </c>
-      <c r="D255" t="s">
-        <v>264</v>
-      </c>
-      <c r="E255" t="s">
-        <v>509</v>
-      </c>
-      <c r="F255" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>256</v>
-      </c>
-      <c r="D256" t="s">
-        <v>264</v>
-      </c>
-      <c r="E256" t="s">
-        <v>510</v>
-      </c>
-      <c r="F256" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>257</v>
-      </c>
-      <c r="D257" t="s">
-        <v>264</v>
-      </c>
-      <c r="E257" t="s">
-        <v>511</v>
-      </c>
-      <c r="F257" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>258</v>
-      </c>
-      <c r="D258" t="s">
-        <v>264</v>
-      </c>
-      <c r="E258" t="s">
-        <v>512</v>
-      </c>
-      <c r="F258" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>259</v>
-      </c>
-      <c r="D259" t="s">
-        <v>264</v>
-      </c>
-      <c r="E259" t="s">
-        <v>513</v>
-      </c>
-      <c r="F259" t="s">
-        <v>560</v>
+        <v>476</v>
+      </c>
+      <c r="F241" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="495">
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Role Specify</t>
-  </si>
-  <si>
     <t>MC2 Link</t>
   </si>
   <si>
     <t>Has Employee</t>
   </si>
   <si>
+    <t>Country or HQ</t>
+  </si>
+  <si>
     <t>Has Process</t>
   </si>
   <si>
@@ -40,19 +40,13 @@
     <t>Business_Development_Manager</t>
   </si>
   <si>
-    <t>Content_Specialist</t>
+    <t>Country_Content_Specialist</t>
   </si>
   <si>
     <t>Head_of_Europe_Project_Management_&amp;_Enabling_Department_&amp;_Expert_Business_Development</t>
   </si>
   <si>
-    <t>Event_Manager</t>
-  </si>
-  <si>
-    <t>Fleet_Management_Specialist</t>
-  </si>
-  <si>
-    <t>Head_of_BI_&amp;_BA_for_Europe_Commercial_Operation</t>
+    <t>Head_of_BI_&amp;_BA_Europe_Commercial_Operation</t>
   </si>
   <si>
     <t>Head_of_Europe_User_Operation_Department</t>
@@ -67,9 +61,6 @@
     <t>HQ_&amp;_Country_User_Relation_Managers</t>
   </si>
   <si>
-    <t>Intern_of_NIO_House_Specialist_Berlin</t>
-  </si>
-  <si>
     <t>Lead_Advisor_Brand_Communication</t>
   </si>
   <si>
@@ -85,24 +76,15 @@
     <t>Lead_UD_Specialist</t>
   </si>
   <si>
-    <t>Manager_NIO_House_Berlin</t>
+    <t>NIO_House_Manager</t>
   </si>
   <si>
     <t>Mobile_Service_Technician</t>
   </si>
   <si>
-    <t>NIO_House_Specialist_Berlin</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
     <t>PDI_Business_Developer</t>
   </si>
   <si>
-    <t>Product_and_Training_Manager</t>
-  </si>
-  <si>
     <t>Regional_Service_Operation</t>
   </si>
   <si>
@@ -115,9 +97,6 @@
     <t>Senior_Business_Operation_Management</t>
   </si>
   <si>
-    <t>Senior_Manager_Events_Germany</t>
-  </si>
-  <si>
     <t>Senior_Technician_Manager</t>
   </si>
   <si>
@@ -130,18 +109,12 @@
     <t>Specialist_Community_Germany</t>
   </si>
   <si>
-    <t>Specialist_Marketing_Events_Germany</t>
-  </si>
-  <si>
-    <t>Store_Manager_Oslo</t>
+    <t>Country_Events_Team</t>
   </si>
   <si>
     <t>Technician_Manager_Netherlands</t>
   </si>
   <si>
-    <t>User_Development_Intern</t>
-  </si>
-  <si>
     <t>User_Representative</t>
   </si>
   <si>
@@ -160,7 +133,7 @@
     <t>Lead_Advisor_User_Satisfaction_Germany</t>
   </si>
   <si>
-    <t>Europe_NIO_House_Manager</t>
+    <t>NIO_House_Manager_HQ</t>
   </si>
   <si>
     <t>Head_of_Construction_Management_Team_&amp;_Retail_Construction_Project_Manager</t>
@@ -169,12 +142,6 @@
     <t>Lead_Sales_and_Sales_Operations</t>
   </si>
   <si>
-    <t>PR_&amp;_Event_Manager_Netherlands</t>
-  </si>
-  <si>
-    <t>Lead_Advisor_Fleet_Operation</t>
-  </si>
-  <si>
     <t>Lead_Analyst_Business_Planning</t>
   </si>
   <si>
@@ -196,31 +163,16 @@
     <t>Advisor_Network_Planning</t>
   </si>
   <si>
-    <t>Head_of_Service_&amp;_Product_PMO_Team_&amp;_Expert_Business_Planning</t>
-  </si>
-  <si>
     <t>Car_Detailer</t>
   </si>
   <si>
-    <t>Content_Writer</t>
-  </si>
-  <si>
-    <t>Event_and_Marketing_Specialist</t>
-  </si>
-  <si>
-    <t>Fleet_Manager</t>
-  </si>
-  <si>
-    <t>Head_of_Fleet_Management</t>
-  </si>
-  <si>
     <t>Head_of_Network_Development_Team</t>
   </si>
   <si>
     <t>Country_Head_of_Service</t>
   </si>
   <si>
-    <t>Head_of_Training</t>
+    <t>HQ_Trainer</t>
   </si>
   <si>
     <t>Head_of_User_Team_Norway_Company</t>
@@ -235,7 +187,7 @@
     <t>Lead_Advisor_Parts_Service</t>
   </si>
   <si>
-    <t>Lead_Advisor_Training_Germany</t>
+    <t>Country_Trainer</t>
   </si>
   <si>
     <t>Service_Lead_of_Business_Operation</t>
@@ -253,9 +205,6 @@
     <t>Network_Development_Project_Manager</t>
   </si>
   <si>
-    <t>P22</t>
-  </si>
-  <si>
     <t>Program_Manager</t>
   </si>
   <si>
@@ -271,9 +220,6 @@
     <t>Head_of_Market_Entry_PMO_Team_&amp;_Lead_PMO</t>
   </si>
   <si>
-    <t>Senior_Trainer_Germany</t>
-  </si>
-  <si>
     <t>Service_Planning_and_Strategy_Manager</t>
   </si>
   <si>
@@ -304,21 +250,12 @@
     <t>Business_Analyst</t>
   </si>
   <si>
-    <t>Content_&amp;_NIO_APP_Manager_Netherlands</t>
-  </si>
-  <si>
     <t>Country_General_Manager</t>
   </si>
   <si>
     <t>Delivery_Specialist</t>
   </si>
   <si>
-    <t>Expert_Program_Management</t>
-  </si>
-  <si>
-    <t>Fleet_Operation_Specialist</t>
-  </si>
-  <si>
     <t>Head_of_KA_Management_Team</t>
   </si>
   <si>
@@ -349,21 +286,12 @@
     <t>Manager_User_Representative</t>
   </si>
   <si>
-    <t>NIO_House_Manager_Frankfurt_am_Main</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
     <t>Project_Management_-_User_Development</t>
   </si>
   <si>
     <t>Regional_Technician</t>
   </si>
   <si>
-    <t>Head_of_Business_Development_Team_&amp;_Lead_Business_Development</t>
-  </si>
-  <si>
     <t>Senior_PMO</t>
   </si>
   <si>
@@ -376,18 +304,12 @@
     <t>Spare_Parts_&amp;_Accessories_Manager_Netherlands</t>
   </si>
   <si>
-    <t>Specialist_Fleet_Management</t>
-  </si>
-  <si>
     <t>Specialist_Vehicle_Operation</t>
   </si>
   <si>
     <t>Technician</t>
   </si>
   <si>
-    <t>Training_Operations_Specialist</t>
-  </si>
-  <si>
     <t>Workshop_Supervisor</t>
   </si>
   <si>
@@ -412,7 +334,7 @@
     <t>Commercial_and_Subscription_Manager</t>
   </si>
   <si>
-    <t>Advisor_Fleet_Operation</t>
+    <t>Country_SO_Fleet_Team</t>
   </si>
   <si>
     <t>Analyst_Business_Planning</t>
@@ -427,37 +349,25 @@
     <t>City_Manager_Berlin</t>
   </si>
   <si>
-    <t>Content_Manager_Sweden</t>
-  </si>
-  <si>
     <t>Cost_Manager</t>
   </si>
   <si>
     <t>Digital_Marketing_Specialist_User_Development</t>
   </si>
   <si>
-    <t>Event_&amp;_User_Relationship_Manager_Denmark</t>
-  </si>
-  <si>
     <t>Expert_Business_Planning</t>
   </si>
   <si>
     <t>Fellow</t>
   </si>
   <si>
-    <t>Fleet_Account_and_Company_Car_Specialist</t>
-  </si>
-  <si>
-    <t>Fleet_Operation_Manager-Denmark</t>
-  </si>
-  <si>
-    <t>Fleet_Planning_Specialist</t>
+    <t>Country_UO_Fleet_Team</t>
   </si>
   <si>
     <t>Head_of_Europe_Commercial_Operation_Department</t>
   </si>
   <si>
-    <t>Head_of_Fleet_Operations</t>
+    <t>HQ_UO_Fleet_Team</t>
   </si>
   <si>
     <t>Head_of_Market_Expansion_Planning_&amp;_Expert_Program_Management</t>
@@ -493,30 +403,18 @@
     <t>Lead_Advisor_Space_Experience_–_Architecture</t>
   </si>
   <si>
-    <t>Lead_NIO_House_Specialist</t>
-  </si>
-  <si>
-    <t>Lead_Service_Coordinator</t>
-  </si>
-  <si>
     <t>Manager_Fellow</t>
   </si>
   <si>
     <t>Manager_Spare_Parts_and_Accessories</t>
   </si>
   <si>
-    <t>NIO_House_Manager</t>
-  </si>
-  <si>
     <t>NIO_House_Specialist</t>
   </si>
   <si>
     <t>Office_Specialist</t>
   </si>
   <si>
-    <t>P23</t>
-  </si>
-  <si>
     <t>Senior_PR_Manager_Europe</t>
   </si>
   <si>
@@ -547,9 +445,6 @@
     <t>Senior_Manager_Brand_Communication_Germany</t>
   </si>
   <si>
-    <t>Head_of_Digital_Support_PMO_Team_&amp;_Lead_Program_Manager</t>
-  </si>
-  <si>
     <t>Senior_Manager_Product_Expert</t>
   </si>
   <si>
@@ -571,12 +466,6 @@
     <t>Spare_Part_Manager_Denmark</t>
   </si>
   <si>
-    <t>Specialist_Marketing_Events</t>
-  </si>
-  <si>
-    <t>Specialist_Fleet_Logistics_Germany</t>
-  </si>
-  <si>
     <t>Specialist_Insurance_Strategy_Germany</t>
   </si>
   <si>
@@ -592,9 +481,6 @@
     <t>Technician_Lead</t>
   </si>
   <si>
-    <t>Training_Manager_Netherlands</t>
-  </si>
-  <si>
     <t>UD_Specialist</t>
   </si>
   <si>
@@ -604,7 +490,7 @@
     <t>Warranty_Specialist_Sweden</t>
   </si>
   <si>
-    <t>External_Employee_Proxy</t>
+    <t>External_Employee</t>
   </si>
   <si>
     <t>Vehicle_manager</t>
@@ -613,9 +499,6 @@
     <t>NIO_Life_Specialist</t>
   </si>
   <si>
-    <t>sales_planning_manager</t>
-  </si>
-  <si>
     <t>Everybody_in_EU</t>
   </si>
   <si>
@@ -628,7 +511,7 @@
     <t>Data_Protection_Manager</t>
   </si>
   <si>
-    <t>caesar_one_person_one_role</t>
+    <t>Lead_Strategy_Analyst</t>
   </si>
   <si>
     <t>EU_Buyer</t>
@@ -655,9 +538,6 @@
     <t>EU_After_sales_Team</t>
   </si>
   <si>
-    <t>Operations_Management</t>
-  </si>
-  <si>
     <t>Lead_Advisor_Marketing_Communications</t>
   </si>
   <si>
@@ -667,9 +547,6 @@
     <t>Associate_Director_Service_PMO_Team_&amp;_Expert_Business_Planning</t>
   </si>
   <si>
-    <t>Operations_Mgmt</t>
-  </si>
-  <si>
     <t>Lead_Product_Manager</t>
   </si>
   <si>
@@ -694,9 +571,6 @@
     <t>Digital_Marketing_Manager_Europe</t>
   </si>
   <si>
-    <t>Sparks_Intern</t>
-  </si>
-  <si>
     <t>sales_planning_role_team</t>
   </si>
   <si>
@@ -715,9 +589,6 @@
     <t>Digital_Product_Owner</t>
   </si>
   <si>
-    <t>Head_of_Legal_EU</t>
-  </si>
-  <si>
     <t>HQ_FBP_-_Finance_Business_Partner</t>
   </si>
   <si>
@@ -742,16 +613,52 @@
     <t>Supply_Planner</t>
   </si>
   <si>
-    <t>Europe, SME</t>
-  </si>
-  <si>
-    <t>Berlin, Hamburg</t>
-  </si>
-  <si>
-    <t>North Germany, South Germany</t>
-  </si>
-  <si>
-    <t>Taking the response of managing vehicle for specific countries like NL/GE/SE/DK... also, help to deal with any issues related to pre-delivery.</t>
+    <t>User_OM_Team</t>
+  </si>
+  <si>
+    <t>Return_Car_&amp;_Power_Accessories_Team</t>
+  </si>
+  <si>
+    <t>Return_NIO_Life_Products_Team</t>
+  </si>
+  <si>
+    <t>NIO_Life_request_response_team</t>
+  </si>
+  <si>
+    <t>NIO_Points_support_team</t>
+  </si>
+  <si>
+    <t>Battery_Monitoring_Team</t>
+  </si>
+  <si>
+    <t>Charger_Issue_Response_Team</t>
+  </si>
+  <si>
+    <t>Deleting_Charging_&amp;_Battery_SWAP_Order_Respose_Team</t>
+  </si>
+  <si>
+    <t>Home_Charger_Activation_Response_Team</t>
+  </si>
+  <si>
+    <t>Power_Swap_Station_Issues_Response_Team</t>
+  </si>
+  <si>
+    <t>Power_Charging_Issues_Response_Team</t>
+  </si>
+  <si>
+    <t>NFC_Card_Activation_Contact_Team</t>
+  </si>
+  <si>
+    <t>Autonomous_Driving_Issues_Response_Team</t>
+  </si>
+  <si>
+    <t>HVDI_Emergency_Fault_Response_Team</t>
+  </si>
+  <si>
+    <t>Vehicle_Trouble_Shooting_Team</t>
+  </si>
+  <si>
+    <t>NIO_App_Response_Team</t>
   </si>
   <si>
     <t>Click Me</t>
@@ -766,13 +673,7 @@
     <t>lisong_meng</t>
   </si>
   <si>
-    <t>camilla_bowlin</t>
-  </si>
-  <si>
-    <t>erica_blomberg</t>
-  </si>
-  <si>
-    <t>mara_pitiriciu</t>
+    <t>camilla_bowlin,eirik_aspaas,gustaf_sjoeholm,julien_luijten</t>
   </si>
   <si>
     <t>derk_timmer</t>
@@ -784,15 +685,12 @@
     <t>laura_peschke</t>
   </si>
   <si>
-    <t>philip_aschendorf,marc_bloch,alvaro_garcia</t>
+    <t>philip_aschendorf,marc_bloch,alvaro_garcia,romina_dehzani</t>
   </si>
   <si>
     <t>magne_heggemoen,maria_bonnerup,mike_blomquist,hongyi_ji,robin_roosenstein</t>
   </si>
   <si>
-    <t>sean_richardson</t>
-  </si>
-  <si>
     <t>claudia_huebner</t>
   </si>
   <si>
@@ -808,24 +706,15 @@
     <t>vijay_sharma</t>
   </si>
   <si>
-    <t>waled_enani</t>
+    <t>waled_enani,stephane_burger,renate_eliesen1,carin_lundberg,mikkel_knagenhjelm</t>
   </si>
   <si>
     <t>roy_kern</t>
   </si>
   <si>
-    <t>francesco_mureddu,ahmad_elkadi,jacqueline_schroeder</t>
-  </si>
-  <si>
-    <t>dennis_gerhard</t>
-  </si>
-  <si>
     <t>victor_lingfjord</t>
   </si>
   <si>
-    <t>andreas_nyman</t>
-  </si>
-  <si>
     <t>benjamin_hirschfeld,stefan_pielka</t>
   </si>
   <si>
@@ -838,9 +727,6 @@
     <t>meiling_wu</t>
   </si>
   <si>
-    <t>alexander_beier</t>
-  </si>
-  <si>
     <t>fabian_holst</t>
   </si>
   <si>
@@ -853,18 +739,12 @@
     <t>karam_alnafous,patricia_hammes</t>
   </si>
   <si>
-    <t>philipp_leinekugel</t>
-  </si>
-  <si>
-    <t>mikkel_knagenhjelm</t>
+    <t>philipp_leinekugel,georgina_treen,erica_blomberg,marina_paradiso,alexander_beier,mark_heiligers,jonathan_stage</t>
   </si>
   <si>
     <t>gert_thomas</t>
   </si>
   <si>
-    <t>maxime_gottlieb</t>
-  </si>
-  <si>
     <t>sebastian_kare,hasan_abbasi,frida_eriksson,dipak_kandel,rasmus_jorgensen,adrian_kare,yaghy_peter,elias_said,santo_bravo,daan_dorp,patrick_hogenhav,leon_reiff,jilly_hu,maximilian_sand,sedat_taspinar,philipp_maier,dennis_konieczny</t>
   </si>
   <si>
@@ -892,12 +772,6 @@
     <t>monica_sand</t>
   </si>
   <si>
-    <t>mark_heiligers</t>
-  </si>
-  <si>
-    <t>marco_spiertz</t>
-  </si>
-  <si>
     <t>evelyn_zhao,sizhe_huang,wei_qiang</t>
   </si>
   <si>
@@ -922,25 +796,13 @@
     <t>karol_wodyk</t>
   </si>
   <si>
-    <t>eirik_aspaas</t>
-  </si>
-  <si>
-    <t>marina_paradiso</t>
-  </si>
-  <si>
-    <t>tobias_beier</t>
-  </si>
-  <si>
-    <t>kenneth_forslund</t>
-  </si>
-  <si>
     <t>bob_valk</t>
   </si>
   <si>
     <t>dejvid_noinovic,sadia_Aden_Mohamed,onno_duimel,andreas_roehl,andreas_loeoev,jon_higgins</t>
   </si>
   <si>
-    <t>scott_baines</t>
+    <t>scott_baines,joris_coolen</t>
   </si>
   <si>
     <t>an_ho</t>
@@ -955,7 +817,7 @@
     <t>moritz_croessmann</t>
   </si>
   <si>
-    <t>sebastian_hillenbach</t>
+    <t>sebastian_hillenbach,marlies_hagenbach,andreas_nyman,vas_morrien</t>
   </si>
   <si>
     <t>bingqing_tong1,joy_yin</t>
@@ -991,9 +853,6 @@
     <t>chen_gong</t>
   </si>
   <si>
-    <t>marlies_hagenbach</t>
-  </si>
-  <si>
     <t>roelof_kluiver</t>
   </si>
   <si>
@@ -1024,25 +883,19 @@
     <t>haakon_klem</t>
   </si>
   <si>
-    <t>julien_luijten</t>
-  </si>
-  <si>
     <t>marius_hayler,mattias_lundgren,ralph_kranz,gerald_krainer,martin_rieder,akos_kiss,ruben_keuter,matt_galvin</t>
   </si>
   <si>
     <t>stine_skyseth,manbir_singh,magnus_lovrod</t>
   </si>
   <si>
-    <t>behnoud_behmanesh</t>
-  </si>
-  <si>
-    <t>chan_jun,chan_jun</t>
+    <t>chan_jun</t>
   </si>
   <si>
     <t>chenqi_peng</t>
   </si>
   <si>
-    <t>anja_bruun,silvia_leeuw,christian_wiegand,alice_bontridder,tom_wharfe</t>
+    <t>anja_bruun,silvia_leeuw,christian_wiegand,alice_bontridder,tom_wharfe,vijay_sharma</t>
   </si>
   <si>
     <t>marcel_cucu,martin_hock,nick_nielsen,ackis_grammenidis,maarten_mulder,koen_swennen</t>
@@ -1066,12 +919,6 @@
     <t>sankari_hilael,stephan_schulz</t>
   </si>
   <si>
-    <t>stephane_burger</t>
-  </si>
-  <si>
-    <t>zakaria_khalaf</t>
-  </si>
-  <si>
     <t>veronica_akerblad</t>
   </si>
   <si>
@@ -1090,18 +937,12 @@
     <t>nadim_mohammad</t>
   </si>
   <si>
-    <t>antonia_hauf</t>
-  </si>
-  <si>
     <t>minh_tran</t>
   </si>
   <si>
     <t>tayyab_intasar</t>
   </si>
   <si>
-    <t>joris_coolen</t>
-  </si>
-  <si>
     <t>jonchristian_aardal</t>
   </si>
   <si>
@@ -1126,7 +967,7 @@
     <t>peter_marquard</t>
   </si>
   <si>
-    <t>niklas_hirth,shanan_lasrado</t>
+    <t>niklas_hirth,shanan_lasrado,tobias_beier,marco_spiertz,behnoud_behmanesh</t>
   </si>
   <si>
     <t>novak_birisic</t>
@@ -1141,37 +982,25 @@
     <t>julian_schreiner</t>
   </si>
   <si>
-    <t>gustaf_sjoeholm</t>
-  </si>
-  <si>
     <t>connor_mccoy</t>
   </si>
   <si>
     <t>anastasia_kozachenko</t>
   </si>
   <si>
-    <t>jonathan_stage</t>
-  </si>
-  <si>
     <t>justin_chen1</t>
   </si>
   <si>
-    <t>mads_laustsen,johanna_nilsson,uffe_gustafsson,daniel_saxov,robin_wiman,marie_leeuwen,ekrem_tekinoez,marco_wegner,stephan_mayer,sven_muckert,yi_shen3,tom_bauer,tobias_niederhofer,jan_bierstedt,sebastian_buesing,devis_duong,silvan_mesic</t>
-  </si>
-  <si>
-    <t>louise_johansson</t>
-  </si>
-  <si>
-    <t>christian_neergaard</t>
-  </si>
-  <si>
-    <t>minko_sijpestein</t>
+    <t>mads_laustsen,johanna_nilsson,uffe_gustafsson,daniel_saxov,robin_wiman,marie_leeuwen,ekrem_tekinoez,marco_wegner,stephan_mayer,sven_muckert,yi_shen3,tom_bauer,tobias_niederhofer,jan_bierstedt,sebastian_buesing,devis_duong,silvan_mesic,zakaria_khalaf</t>
+  </si>
+  <si>
+    <t>minko_sijpestein,jasper_deman,jan_krueger,christian_neergaard,louise_johansson,antonia_hauf,kenneth_forslund</t>
   </si>
   <si>
     <t>thijs_meijling</t>
   </si>
   <si>
-    <t>jasper_deman</t>
+    <t>jasper_deman,mara_pitiriciu</t>
   </si>
   <si>
     <t>christian_sieling</t>
@@ -1189,7 +1018,7 @@
     <t>clare_mummery</t>
   </si>
   <si>
-    <t>joy_zhu1,chutong_liu,echo_zeng,anastasia_yu,sami_li,daisy_xiao,eunice_ho,sherry_li3,jerry_liu3,kangrui_wang,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,siyang_chen2,jackson_xu1</t>
+    <t>joy_zhu1,chutong_liu,echo_zeng,anastasia_yu,sami_li,daisy_xiao,eunice_ho,sherry_li3,jerry_liu3,kangrui_wang,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,siyang_chen2,jackson_xu1,maxime_gottlieb,sean_richardson,jiabao_xu</t>
   </si>
   <si>
     <t>alissia_lehle</t>
@@ -1207,22 +1036,13 @@
     <t>gregory_anderson</t>
   </si>
   <si>
-    <t>renate_eliesen1</t>
-  </si>
-  <si>
-    <t>romina_dehzani</t>
-  </si>
-  <si>
     <t>tobias_elie,bjoern_baumann</t>
   </si>
   <si>
     <t>julien_braunholz</t>
   </si>
   <si>
-    <t>carin_lundberg</t>
-  </si>
-  <si>
-    <t>jingyi_qu,sunniva_leonsen,marthe_grindalen,drazen_duric,ted_olsthoorn,simon_rask</t>
+    <t>jingyi_qu,sunniva_leonsen,marthe_grindalen,drazen_duric,ted_olsthoorn,simon_rask,francesco_mureddu,ahmad_elkadi,jacqueline_schroeder,dennis_gerhard</t>
   </si>
   <si>
     <t>christel_molin</t>
@@ -1249,7 +1069,7 @@
     <t>fab_scognamiglio,fab_scognamiglio</t>
   </si>
   <si>
-    <t>roland_parragh,tibor_papp,hans_beyer,andre_tollefsen,attila_hudetz,dennis_mujic,gergo_almasi,martin_olsson,mate_mester,szilard_vass</t>
+    <t>roland_parragh,tibor_papp,hans_beyer,andre_tollefsen,attila_hudetz,dennis_mujic,gergo_almasi,martin_olsson,mate_mester,szilard_vass,erik_penning,ana_bjelcic_o,fredrik_aslund1,sheilla_campos_o,vassil_loukarsky_o,juliane_weinschenk</t>
   </si>
   <si>
     <t>kjersti_naeringsrud,jimmy_nguyen</t>
@@ -1282,12 +1102,6 @@
     <t>marc_hatt</t>
   </si>
   <si>
-    <t>georgina_treen</t>
-  </si>
-  <si>
-    <t>jan_krueger</t>
-  </si>
-  <si>
     <t>patrick_mitchell</t>
   </si>
   <si>
@@ -1303,9 +1117,6 @@
     <t>daniel_dalsgaard,rabih_botrous</t>
   </si>
   <si>
-    <t>vas_morrien</t>
-  </si>
-  <si>
     <t>ola_smines,karolina_wolnik</t>
   </si>
   <si>
@@ -1318,10 +1129,10 @@
     <t>minko_sijpestein,christian_neergaard,minh_tran,daniel_erdtman</t>
   </si>
   <si>
-    <t>love_preet</t>
-  </si>
-  <si>
-    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,No_One,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,love_preet,ranee_miao</t>
+    <t>lovepreet_singh</t>
+  </si>
+  <si>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,ranee_miao, lovepreet_singh</t>
   </si>
   <si>
     <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock,ranee_miao</t>
@@ -1339,10 +1150,7 @@
     <t>marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,sarah_ding,brandy_lu,tobias_schrempf</t>
   </si>
   <si>
-    <t>brandy_lu,alexander_kunith,wouter_hollander,sarah_ding,Tina_FAN,shushan_khachatryan,dongxiao_sun,depraute_rene,matrai_peter, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich</t>
-  </si>
-  <si>
-    <t>Harry_Meng</t>
+    <t>brandy_lu,alexander_kunith,wouter_hollander,sarah_ding,tina_fan,shushan_khachatryan,dongxiao_sun,depraute_rene,matrai_peter, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich</t>
   </si>
   <si>
     <t>robbie_maes, lovepreet_singh, sharon_zhou, finn_xue,amber_zhu, berry_spee</t>
@@ -1360,9 +1168,6 @@
     <t>jiajun_yuan</t>
   </si>
   <si>
-    <t>ana_bjelcic_o,fredrik_aslund1</t>
-  </si>
-  <si>
     <t>anja_plank1,charilaos_kantas</t>
   </si>
   <si>
@@ -1372,9 +1177,6 @@
     <t>wenlu_ma</t>
   </si>
   <si>
-    <t>vassil_loukarsky_o,sheilla_campos_o</t>
-  </si>
-  <si>
     <t>catherine_zhu,yue_ma2</t>
   </si>
   <si>
@@ -1399,9 +1201,6 @@
     <t>julia_lichtmannecker</t>
   </si>
   <si>
-    <t>jiabao_xu</t>
-  </si>
-  <si>
     <t>bingqing_tong1,zoey_li1,daniela_wimmer_nio_io,yujie_jia,paolo_cova,matteo_mao,akos_kiss,chenqi_peng,kenneth_forslund</t>
   </si>
   <si>
@@ -1414,22 +1213,19 @@
     <t>sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak</t>
   </si>
   <si>
-    <t>lukas_storch</t>
+    <t>lukas_storch,moritz_wefelscheid, tino_tezel</t>
   </si>
   <si>
     <t>henry_shen</t>
   </si>
   <si>
-    <t>moritz_wefelscheid</t>
-  </si>
-  <si>
     <t>chengguo_shi</t>
   </si>
   <si>
     <t>francis_ji</t>
   </si>
   <si>
-    <t>robert_huang</t>
+    <t>robert_huang,mingqiang_li</t>
   </si>
   <si>
     <t>zhongjie_fu</t>
@@ -1447,163 +1243,262 @@
     <t>yujie_jia</t>
   </si>
   <si>
-    <t>test14_process,Long_term_volume_planning,Competitor_definition,Pricing,Option_offer,GTM_cadence,GTM_milestone_adjustment</t>
-  </si>
-  <si>
-    <t>Daily_NH_Store_Closing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
-  </si>
-  <si>
-    <t>Daily_NH_Store_Closing_SOP,test14_process</t>
-  </si>
-  <si>
-    <t>GTM_milestone_adjustment</t>
-  </si>
-  <si>
-    <t>hr_test_process</t>
+    <t>erik_penning,alvaro_garcia</t>
+  </si>
+  <si>
+    <t>nioreturn@lux-mate_net,eu_partslogistics,alvaro_garcia</t>
+  </si>
+  <si>
+    <t>lovepreet_singh, syang_liu,richard_vermeulen</t>
+  </si>
+  <si>
+    <t>lovepreet_singh,juliane_weinschenk</t>
+  </si>
+  <si>
+    <t>sheilla_campos_o,emilia_dera_o,sara_meloysund</t>
+  </si>
+  <si>
+    <t>jingqi_zhuang,marin_scholz</t>
+  </si>
+  <si>
+    <t>quinten_robertz,juliane_weinschenk</t>
+  </si>
+  <si>
+    <t>usman_abbas1,romina_dehzani,monica_sand,sadia_Aden_Mohamed,marianne_moelmen,dongxiao_sun, fangpin_weng,quinten_robertz, magne_heggemoen</t>
+  </si>
+  <si>
+    <t>rutger_berg,juliane_weinschenk</t>
+  </si>
+  <si>
+    <t>usman_abbas1,philip_aschendorf,quinten_robertz, fangpin_weng</t>
+  </si>
+  <si>
+    <t>fredrik_aslund1,peng_wang17</t>
+  </si>
+  <si>
+    <t>yalcin_parlak,vince_bi,carole_zhang</t>
+  </si>
+  <si>
+    <t>michael_hathaway,andrew_parsons,julien_jung,onno_duimel,roelof_kluiver,gert_thomas,adem_yerlikaya,daniel_dalsgaard,frederik_rorth,adam_ghadban,karzan_mirza,rabih_botrous,rashed_almawed,jenny_samuelsson,janerik_eriksson,sadia_Aden_Mohamed,jonchristian_aardal,zhongye_xue1,mohamed_rizwan,gavin_hu,meng_li3,yongmou_huang</t>
+  </si>
+  <si>
+    <t>alvaro_garcia</t>
+  </si>
+  <si>
+    <t>hans_beyer</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Country,HQ</t>
+  </si>
+  <si>
+    <t>HQ,Country</t>
+  </si>
+  <si>
+    <t>Test14_Process,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,Gtm_Cadence,Gtm_Milestone_Adjustment</t>
+  </si>
+  <si>
+    <t>Daily_Nh_Store_Closing_Sop,User Behavior Tracking System (Ubts),Market_Intelligence_EURope</t>
+  </si>
+  <si>
+    <t>Daily_Nh_Store_Closing_Sop,Test14_Process</t>
+  </si>
+  <si>
+    <t>Gtm_Milestone_Adjustment</t>
   </si>
   <si>
     <t>OTA_Process</t>
   </si>
   <si>
-    <t>Manually_Hand_out_NIO_Points_to_users,User_Satisfaction_-_Service_Coordinator_-_Global_Processes</t>
+    <t>Manually_Hand_Out_NIO_Points_To_Users,User_Satisfaction_-_Service_Coordinator_-_Global_Processes</t>
   </si>
   <si>
     <t>User_Closed-Loop</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
-  </si>
-  <si>
-    <t>User_Purchase_car_after_delivery</t>
-  </si>
-  <si>
-    <t>ud_publishes_a_pgc</t>
-  </si>
-  <si>
-    <t>GTM_milestone_adjustment,GTM_cadence</t>
+    <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>User_PURchase_Car_After_Delivery</t>
+  </si>
+  <si>
+    <t>Ud_Publishes_A_Pgc</t>
+  </si>
+  <si>
+    <t>Gtm_Milestone_Adjustment,Gtm_Cadence</t>
+  </si>
+  <si>
+    <t>Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Manually_Hand_Out_NIO_Points_To_Users</t>
+  </si>
+  <si>
+    <t>Gtm_Cadence,Corporate_Changes</t>
   </si>
   <si>
     <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
   </si>
   <si>
-    <t>Get_vehicles_from_CN_or_EU_hub_to_RDC,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
-  </si>
-  <si>
-    <t>Manually_Hand_out_NIO_Points_to_users</t>
-  </si>
-  <si>
-    <t>GTM_cadence,Corporate_Changes</t>
-  </si>
-  <si>
-    <t>Network_development_manager_selects_design_vendor</t>
-  </si>
-  <si>
-    <t>GTM_cadence,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
-  </si>
-  <si>
-    <t>Fleet_and_Business_Direct_Sales_-_With_Partner,Fleet_and_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process</t>
-  </si>
-  <si>
-    <t>User_experiences_2D_testdrive_coupon,User_experiences_normal_testdrive,User_wants_to_book_testdrive_online,User_returns_a_Purchase_car,User_Purchase_car_after_delivery,Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop,EB_quartlery_5_year_budget_planning_process</t>
-  </si>
-  <si>
-    <t>Pre_MP_and_launch_stock_ordering</t>
-  </si>
-  <si>
-    <t>Long_term_volume_planning</t>
-  </si>
-  <si>
-    <t>Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Commercial_condition_policies,Trade_Ins,RV_study_management,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
-  </si>
-  <si>
-    <t>Fellow_complete_testdrive_process,Create_a_new_promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Fellow_handles_a_Testdrive_Process</t>
-  </si>
-  <si>
-    <t>Competitor_definition,Option_offer,Pricing,Product_briefing</t>
-  </si>
-  <si>
-    <t>Manually_Hand_out_NIO_Points_to_users,User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library</t>
-  </si>
-  <si>
-    <t>MSRP_Pricing_SOP,Product_briefing,Pricing,Option_offer</t>
-  </si>
-  <si>
-    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Receive_subscription_order_from_user,Get_vehicles_from_CN_or_EU_hub_to_RDC,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
-  </si>
-  <si>
-    <t>Maintenance of Register of Processing Activities (RoPA),Complete_Purchasing_process</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_PIA,Creation_or_update_of_Data_Deletion_and_Retention_concept,Contract_Review</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_PIA,Corporate_Changes</t>
-  </si>
-  <si>
-    <t>Maintenance of Register of Processing Activities (RoPA),Creation_or_update_of_Data_Deletion_and_Retention_concept</t>
-  </si>
-  <si>
-    <t>5yr_planning_flow</t>
-  </si>
-  <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard_Process,Power_Procurement_-_Authorized_Process</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_to_Delivery,Power_EU_Supply_Chain_Order_to_Delivery_-_PSS_Direct_to_Site,Power_EU_Supply_Chain_Order_to_Delivery_-_Batteries_Direct_to_Site,Power_EU_Supply_Chain_Order_to_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App,Power_EU_Supply_Chain_Order_to_Delivery_-_Free_Offer_with_car_pool</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_to_Operation_Q-300-B-1_EU_PUS_LTO,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment</t>
+    <t>Network_Development_Manager_Selects_Design_Vendor</t>
+  </si>
+  <si>
+    <t>Gtm_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process</t>
+  </si>
+  <si>
+    <t>User_Experiences_2D_Testdrive_Coupon,User_Experiences_Normal_Testdrive,User_Wants_To_Book_Testdrive_Online,User_RetURns_A_PURchase_Car,User_PURchase_Car_After_Delivery,Test_Drive_Outbound_Call_And_Communication_Post-Test_Drive_Follow-Up_Process,Fellow_Complete_Testdrive_Process,Fellow_Manually_Books_Testdrive_For_User,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Test_Process,Fellow_Handles_A_Testdrive_Process,Fellow_Test_Drive_Follow_Up_Sop,Eb_Quartlery_5_Year_Budget_Planning_Process</t>
+  </si>
+  <si>
+    <t>Pre_Mp_And_Launch_Stock_Ordering</t>
+  </si>
+  <si>
+    <t>Long_Term_Volume_Planning</t>
+  </si>
+  <si>
+    <t>SubSCRiption_Pricing_Definition,SubSCRipiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees_Management,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_Ins,Rv_Study_Management,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive_Process,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive_Process,Fellow_Manually_Books_Testdrive_For_User,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Fellow_Handles_A_Testdrive_Process</t>
+  </si>
+  <si>
+    <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
+  </si>
+  <si>
+    <t>Manually_Hand_Out_NIO_Points_To_Users,User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Sales (Uo),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Sota&amp;Fota Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+  </si>
+  <si>
+    <t>Msrp_Pricing_Sop,Product_Briefing,Pricing,Option_Offer</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues,Receive_SubSCRiption_Order_From_User,Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,Send_Vehicle_Preparation_Order_To_Rdc_And_The_Registration_Order_To_Dad,Deliver_SubSCRiption_Cars,SubSCRiption_Cars_Delivery-Related</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Of Processing Activities (Ropa),Complete_PURchasing_Process</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Of Processing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+  </si>
+  <si>
+    <t>5Yr_Planning_Flow</t>
+  </si>
+  <si>
+    <t>Power_ProcURement,Power_ProcURement_-_Standard_Process,Power_ProcURement_-_Authorized_Process</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_LTO,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval_Process</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment</t>
   </si>
   <si>
     <t>NIO_Life_-_1900-190X_-_Internal_Application</t>
   </si>
   <si>
-    <t>NIO_Life_-_APP_sales_-_Product_launch,OTA_Process</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_APP_sales_-_After_sales</t>
-  </si>
-  <si>
-    <t>Option_offer,Pricing,Product_briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup</t>
-  </si>
-  <si>
-    <t>User_Closed-Loop,Option_offer,Pricing,GTM_cadence,OTA_Process</t>
-  </si>
-  <si>
-    <t>SUD_Experience_Confirmation,OTA_Process</t>
-  </si>
-  <si>
-    <t>Corporate_Changes,Contract_Review,EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_NSCHUB_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network,EU_Service_-_After_service_-_Service_Partners_Cooperation,EU_Service_-_After_service_-_Service_Partners_Cooperation_-_Service_Partners_Nomination_and_Cooperation_Process</t>
-  </si>
-  <si>
-    <t>Creation_or_update_of_Data_Deletion_and_Retention_concept</t>
-  </si>
-  <si>
-    <t>Contract_Review</t>
-  </si>
-  <si>
-    <t>Fleet_and_Business_Direct_Sales_-_With_Partner,Fleet_and_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Sales_Planning</t>
+    <t>NIO_Life_-_App_Sales_-_Product_Launch,OTA_Process</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_App_Sales_-_After_Sales</t>
+  </si>
+  <si>
+    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
+  </si>
+  <si>
+    <t>EURope_Market_Planning,EURope_Market_Planning_-_5_Yrs_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_FutURe_Portfolio_Mapping,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_InfrastURcutre,EURope_Market_Planning_-_Wave2_Market_Entry_Pmo,EURope_Market_Planning_-_Governance_Pmo,EURope_Market_Planning_-_Governance_Pmo_-_Entity_Setup</t>
+  </si>
+  <si>
+    <t>User_Closed-Loop,Option_Offer,Pricing,Gtm_Cadence,OTA_Process</t>
+  </si>
+  <si>
+    <t>Sud_Experience_Confirmation,OTA_Process</t>
+  </si>
+  <si>
+    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_NscHub_Planning_And_Operation_Preparation_Process,Service_Network,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process</t>
+  </si>
+  <si>
+    <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library</t>
   </si>
   <si>
     <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_User_Om_Way_Of_Working</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_RetURn_NIO_Life_Products</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_NIO_Life</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Distribution</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Deleting Charging &amp; Battery Swap Order</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Swap Station(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Charging(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO_App(In Progress)</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1991,14 +1886,17 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>424</v>
       </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2008,14 +1906,17 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>424</v>
       </c>
       <c r="F3" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2025,11 +1926,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2039,14 +1943,17 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="F5" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2056,11 +1963,11 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>246</v>
+      <c r="C6" t="s">
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2070,11 +1977,14 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2084,14 +1994,14 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2101,11 +2011,17 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>424</v>
+      </c>
+      <c r="F9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2115,11 +2031,17 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>426</v>
+      </c>
+      <c r="F10" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2129,14 +2051,17 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="F11" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2146,14 +2071,14 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2163,14 +2088,14 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2180,11 +2105,14 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2194,11 +2122,17 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>424</v>
+      </c>
+      <c r="F15" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2208,11 +2142,14 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2222,11 +2159,14 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
+      <c r="C17" t="s">
+        <v>215</v>
+      </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2236,14 +2176,14 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2253,11 +2193,14 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2267,11 +2210,14 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
-        <v>264</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2281,11 +2227,14 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>265</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2295,11 +2244,17 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E22" t="s">
-        <v>266</v>
+        <v>425</v>
+      </c>
+      <c r="F22" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2309,11 +2264,11 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
       <c r="D23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E23" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2323,11 +2278,14 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
       <c r="D24" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2337,11 +2295,14 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2351,11 +2312,14 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2365,11 +2329,14 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2379,14 +2346,14 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
-      </c>
-      <c r="F28" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2396,11 +2363,14 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
+      <c r="C29" t="s">
+        <v>215</v>
+      </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>273</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2410,11 +2380,14 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2424,11 +2397,14 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2438,235 +2414,292 @@
       <c r="B32" t="s">
         <v>35</v>
       </c>
+      <c r="C32" t="s">
+        <v>215</v>
+      </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
       <c r="D33" t="s">
         <v>246</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
+      <c r="C36" t="s">
+        <v>215</v>
+      </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
+      <c r="C37" t="s">
+        <v>215</v>
+      </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>424</v>
+      </c>
+      <c r="F39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
+      <c r="C40" t="s">
+        <v>215</v>
+      </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
+      <c r="C41" t="s">
+        <v>215</v>
+      </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E42" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>424</v>
+      </c>
+      <c r="F42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
+      <c r="C43" t="s">
+        <v>215</v>
+      </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
       <c r="D44" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E44" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
+      <c r="C45" t="s">
+        <v>215</v>
+      </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E46" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
+      <c r="C47" t="s">
+        <v>215</v>
+      </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
+      <c r="C48" t="s">
+        <v>215</v>
+      </c>
       <c r="D48" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2676,11 +2709,14 @@
       <c r="B49" t="s">
         <v>52</v>
       </c>
+      <c r="C49" t="s">
+        <v>215</v>
+      </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2690,14 +2726,17 @@
       <c r="B50" t="s">
         <v>53</v>
       </c>
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2707,11 +2746,14 @@
       <c r="B51" t="s">
         <v>54</v>
       </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2721,11 +2763,14 @@
       <c r="B52" t="s">
         <v>55</v>
       </c>
+      <c r="C52" t="s">
+        <v>215</v>
+      </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="E52" t="s">
-        <v>296</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2735,14 +2780,14 @@
       <c r="B53" t="s">
         <v>56</v>
       </c>
+      <c r="C53" t="s">
+        <v>215</v>
+      </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="E53" t="s">
-        <v>297</v>
-      </c>
-      <c r="F53" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2752,11 +2797,14 @@
       <c r="B54" t="s">
         <v>57</v>
       </c>
+      <c r="C54" t="s">
+        <v>215</v>
+      </c>
       <c r="D54" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>298</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2766,11 +2814,17 @@
       <c r="B55" t="s">
         <v>58</v>
       </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>299</v>
+        <v>424</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2780,11 +2834,14 @@
       <c r="B56" t="s">
         <v>59</v>
       </c>
+      <c r="C56" t="s">
+        <v>215</v>
+      </c>
       <c r="D56" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2794,8 +2851,17 @@
       <c r="B57" t="s">
         <v>60</v>
       </c>
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>270</v>
+      </c>
+      <c r="E57" t="s">
+        <v>425</v>
+      </c>
+      <c r="F57" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2805,11 +2871,14 @@
       <c r="B58" t="s">
         <v>61</v>
       </c>
+      <c r="C58" t="s">
+        <v>215</v>
+      </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2819,11 +2888,14 @@
       <c r="B59" t="s">
         <v>62</v>
       </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2831,13 +2903,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E60" t="s">
-        <v>303</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2845,13 +2920,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2859,16 +2937,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="E62" t="s">
-        <v>305</v>
-      </c>
-      <c r="F62" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2876,13 +2954,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E63" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2890,13 +2971,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="E64" t="s">
-        <v>307</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2904,13 +2988,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>424</v>
+      </c>
+      <c r="F65" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2918,16 +3008,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
-      </c>
-      <c r="F66" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2935,16 +3025,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2952,13 +3042,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2966,13 +3059,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="E69" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2980,13 +3076,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>215</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2994,16 +3093,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="E71" t="s">
-        <v>314</v>
-      </c>
-      <c r="F71" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3011,13 +3110,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3025,16 +3127,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
-      </c>
-      <c r="F73" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3042,13 +3144,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>215</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3056,13 +3161,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>215</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3070,13 +3178,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>215</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>425</v>
+      </c>
+      <c r="F76" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3084,13 +3198,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>215</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="E77" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3098,13 +3215,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>215</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3112,13 +3232,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="E79" t="s">
-        <v>322</v>
+        <v>424</v>
+      </c>
+      <c r="F79" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3126,13 +3252,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>215</v>
       </c>
       <c r="D80" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="E80" t="s">
-        <v>323</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3140,16 +3269,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="E81" t="s">
-        <v>324</v>
-      </c>
-      <c r="F81" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3157,13 +3286,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="E82" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3171,13 +3303,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="E83" t="s">
-        <v>326</v>
+        <v>424</v>
+      </c>
+      <c r="F83" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3185,13 +3323,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>215</v>
       </c>
       <c r="D84" t="s">
-        <v>246</v>
-      </c>
-      <c r="E84" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3199,13 +3337,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>215</v>
       </c>
       <c r="D85" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
-        <v>328</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3213,13 +3354,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>215</v>
       </c>
       <c r="D86" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="E86" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3227,13 +3371,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>215</v>
       </c>
       <c r="D87" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="E87" t="s">
-        <v>330</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3241,13 +3388,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>215</v>
       </c>
       <c r="D88" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="E88" t="s">
-        <v>331</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3255,13 +3405,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>215</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="E89" t="s">
-        <v>332</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3269,13 +3422,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>215</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="E90" t="s">
-        <v>333</v>
+        <v>424</v>
+      </c>
+      <c r="F90" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3283,13 +3442,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="E91" t="s">
-        <v>334</v>
+        <v>424</v>
+      </c>
+      <c r="F91" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3297,13 +3462,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="E92" t="s">
-        <v>335</v>
+        <v>425</v>
+      </c>
+      <c r="F92" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3311,13 +3482,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>215</v>
       </c>
       <c r="D93" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="E93" t="s">
-        <v>336</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3325,16 +3499,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="E94" t="s">
-        <v>337</v>
-      </c>
-      <c r="F94" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3342,13 +3516,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>215</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="E95" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3356,10 +3533,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>215</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>309</v>
+      </c>
+      <c r="E96" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3367,13 +3550,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="E97" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3381,13 +3567,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>215</v>
       </c>
       <c r="D98" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="E98" t="s">
-        <v>340</v>
+        <v>424</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3395,16 +3584,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>215</v>
       </c>
       <c r="D99" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="E99" t="s">
-        <v>341</v>
-      </c>
-      <c r="F99" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3412,13 +3601,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="E100" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3426,13 +3618,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="E101" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3440,13 +3635,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>215</v>
       </c>
       <c r="D102" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="E102" t="s">
-        <v>344</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3454,16 +3652,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>215</v>
       </c>
       <c r="D103" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="E103" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="F103" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3471,13 +3672,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3485,13 +3689,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="E105" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3499,13 +3706,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
       </c>
       <c r="D106" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="E106" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3513,16 +3723,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="E107" t="s">
-        <v>349</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3530,13 +3740,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="E108" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3544,13 +3757,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>215</v>
       </c>
       <c r="D109" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="E109" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3558,13 +3774,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>215</v>
       </c>
       <c r="D110" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="E110" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3572,13 +3791,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="E111" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3586,10 +3808,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>325</v>
+      </c>
+      <c r="E112" t="s">
+        <v>425</v>
+      </c>
+      <c r="F112" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3597,16 +3828,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
       </c>
       <c r="D113" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="E113" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="F113" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3614,16 +3848,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>215</v>
       </c>
       <c r="D114" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="E114" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="F114" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3631,16 +3868,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>215</v>
       </c>
       <c r="D115" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="E115" t="s">
-        <v>356</v>
-      </c>
-      <c r="F115" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3648,13 +3885,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>215</v>
       </c>
       <c r="D116" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="E116" t="s">
-        <v>357</v>
+        <v>424</v>
+      </c>
+      <c r="F116" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3662,13 +3905,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>215</v>
       </c>
       <c r="D117" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="E117" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3676,13 +3922,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>215</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="E118" t="s">
-        <v>359</v>
+        <v>424</v>
+      </c>
+      <c r="F118" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3690,13 +3942,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>215</v>
       </c>
       <c r="D119" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E119" t="s">
-        <v>360</v>
+        <v>425</v>
+      </c>
+      <c r="F119" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3704,13 +3962,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
       </c>
       <c r="D120" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="E120" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3718,13 +3979,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>215</v>
       </c>
       <c r="D121" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="E121" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3732,13 +3996,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>215</v>
       </c>
       <c r="D122" t="s">
-        <v>246</v>
+        <v>335</v>
       </c>
       <c r="E122" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3746,13 +4013,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>215</v>
       </c>
       <c r="D123" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="E123" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3760,13 +4030,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="E124" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3774,13 +4047,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>215</v>
       </c>
       <c r="D125" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="E125" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3788,13 +4064,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="C126" t="s">
+        <v>215</v>
       </c>
       <c r="D126" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="E126" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3802,13 +4081,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>215</v>
       </c>
       <c r="D127" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="E127" t="s">
-        <v>368</v>
+        <v>425</v>
+      </c>
+      <c r="F127" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3816,16 +4101,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>215</v>
       </c>
       <c r="D128" t="s">
-        <v>246</v>
+        <v>341</v>
       </c>
       <c r="E128" t="s">
-        <v>369</v>
-      </c>
-      <c r="F128" t="s">
-        <v>495</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3833,13 +4118,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>215</v>
       </c>
       <c r="D129" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="E129" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3847,13 +4135,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>215</v>
       </c>
       <c r="D130" t="s">
-        <v>246</v>
+        <v>343</v>
       </c>
       <c r="E130" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3861,13 +4152,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>43</v>
+      </c>
+      <c r="C131" t="s">
+        <v>215</v>
       </c>
       <c r="D131" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="E131" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3875,13 +4169,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="C132" t="s">
+        <v>215</v>
       </c>
       <c r="D132" t="s">
-        <v>246</v>
+        <v>345</v>
       </c>
       <c r="E132" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3889,13 +4186,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="C133" t="s">
+        <v>215</v>
       </c>
       <c r="D133" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="E133" t="s">
-        <v>374</v>
+        <v>425</v>
+      </c>
+      <c r="F133" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3903,13 +4206,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>215</v>
       </c>
       <c r="D134" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
       <c r="E134" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3917,13 +4223,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C135" t="s">
+        <v>215</v>
       </c>
       <c r="D135" t="s">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="E135" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3931,13 +4240,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="C136" t="s">
+        <v>215</v>
       </c>
       <c r="D136" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="E136" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3945,13 +4257,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C137" t="s">
+        <v>215</v>
       </c>
       <c r="D137" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="E137" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3959,13 +4274,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="C138" t="s">
+        <v>215</v>
       </c>
       <c r="D138" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="E138" t="s">
-        <v>379</v>
+        <v>424</v>
+      </c>
+      <c r="F138" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3973,16 +4294,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>215</v>
       </c>
       <c r="D139" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="E139" t="s">
-        <v>380</v>
-      </c>
-      <c r="F139" t="s">
-        <v>496</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3990,13 +4311,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="C140" t="s">
+        <v>215</v>
       </c>
       <c r="D140" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="E140" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4004,13 +4328,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="C141" t="s">
+        <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="E141" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4018,13 +4345,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="C142" t="s">
+        <v>215</v>
       </c>
       <c r="D142" t="s">
-        <v>246</v>
+        <v>355</v>
       </c>
       <c r="E142" t="s">
-        <v>383</v>
+        <v>425</v>
+      </c>
+      <c r="F142" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4032,16 +4365,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="C143" t="s">
+        <v>215</v>
       </c>
       <c r="D143" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="E143" t="s">
-        <v>384</v>
-      </c>
-      <c r="F143" t="s">
-        <v>497</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4049,13 +4382,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>215</v>
       </c>
       <c r="D144" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="E144" t="s">
-        <v>385</v>
+        <v>425</v>
+      </c>
+      <c r="F144" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,16 +4402,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C145" t="s">
+        <v>215</v>
       </c>
       <c r="D145" t="s">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="E145" t="s">
-        <v>386</v>
-      </c>
-      <c r="F145" t="s">
-        <v>498</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4080,13 +4419,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="C146" t="s">
+        <v>215</v>
       </c>
       <c r="D146" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="E146" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,16 +4436,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="C147" t="s">
+        <v>215</v>
       </c>
       <c r="D147" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="E147" t="s">
-        <v>388</v>
-      </c>
-      <c r="F147" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4111,16 +4453,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="C148" t="s">
+        <v>215</v>
       </c>
       <c r="D148" t="s">
-        <v>246</v>
+        <v>361</v>
       </c>
       <c r="E148" t="s">
-        <v>389</v>
-      </c>
-      <c r="F148" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4128,13 +4470,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="C149" t="s">
+        <v>215</v>
       </c>
       <c r="D149" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="E149" t="s">
-        <v>390</v>
+        <v>425</v>
+      </c>
+      <c r="F149" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4142,13 +4490,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>215</v>
       </c>
       <c r="D150" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
       <c r="E150" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4156,13 +4507,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="C151" t="s">
+        <v>215</v>
       </c>
       <c r="D151" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="E151" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4170,13 +4524,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="C152" t="s">
+        <v>215</v>
       </c>
       <c r="D152" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>393</v>
+        <v>425</v>
+      </c>
+      <c r="F152" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4184,13 +4544,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="C153" t="s">
+        <v>215</v>
       </c>
       <c r="D153" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4198,13 +4561,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="C154" t="s">
+        <v>215</v>
       </c>
       <c r="D154" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
       <c r="E154" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4212,13 +4578,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+      <c r="C155" t="s">
+        <v>215</v>
       </c>
       <c r="D155" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="E155" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4226,13 +4595,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>215</v>
       </c>
       <c r="D156" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="E156" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4240,13 +4612,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
-      </c>
-      <c r="D157" t="s">
-        <v>246</v>
-      </c>
-      <c r="E157" t="s">
-        <v>398</v>
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4254,19 +4623,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="D158" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="E158" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F158" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4274,13 +4643,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="C159" t="s">
+        <v>215</v>
       </c>
       <c r="D159" t="s">
-        <v>246</v>
+        <v>371</v>
       </c>
       <c r="E159" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4288,13 +4660,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>215</v>
       </c>
       <c r="D160" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="E160" t="s">
-        <v>401</v>
+        <v>427</v>
+      </c>
+      <c r="F160" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4302,13 +4680,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="C161" t="s">
+        <v>215</v>
       </c>
       <c r="D161" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="E161" t="s">
-        <v>402</v>
+        <v>427</v>
+      </c>
+      <c r="F161" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4316,13 +4700,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>215</v>
       </c>
       <c r="D162" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="E162" t="s">
-        <v>403</v>
+        <v>427</v>
+      </c>
+      <c r="F162" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4330,13 +4720,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
-      </c>
-      <c r="D163" t="s">
-        <v>246</v>
-      </c>
-      <c r="E163" t="s">
-        <v>404</v>
+        <v>164</v>
+      </c>
+      <c r="C163" t="s">
+        <v>215</v>
+      </c>
+      <c r="F163" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4344,13 +4734,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="C164" t="s">
+        <v>215</v>
       </c>
       <c r="D164" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="E164" t="s">
-        <v>405</v>
+        <v>424</v>
+      </c>
+      <c r="F164" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4358,16 +4754,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="C165" t="s">
+        <v>215</v>
       </c>
       <c r="D165" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="E165" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="F165" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4375,13 +4774,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="C166" t="s">
+        <v>215</v>
       </c>
       <c r="D166" t="s">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="E166" t="s">
-        <v>407</v>
+        <v>424</v>
+      </c>
+      <c r="F166" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4389,13 +4794,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="C167" t="s">
+        <v>215</v>
       </c>
       <c r="D167" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="E167" t="s">
-        <v>408</v>
+        <v>424</v>
+      </c>
+      <c r="F167" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4403,13 +4814,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="C168" t="s">
+        <v>215</v>
       </c>
       <c r="D168" t="s">
-        <v>246</v>
+        <v>379</v>
       </c>
       <c r="E168" t="s">
-        <v>409</v>
+        <v>424</v>
+      </c>
+      <c r="F168" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4417,13 +4834,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="C169" t="s">
+        <v>215</v>
       </c>
       <c r="D169" t="s">
-        <v>246</v>
+        <v>380</v>
       </c>
       <c r="E169" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4431,16 +4851,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="C170" t="s">
+        <v>215</v>
       </c>
       <c r="D170" t="s">
-        <v>246</v>
+        <v>381</v>
       </c>
       <c r="E170" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="F170" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4448,13 +4871,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="C171" t="s">
+        <v>215</v>
       </c>
       <c r="D171" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="E171" t="s">
-        <v>412</v>
+        <v>424</v>
+      </c>
+      <c r="F171" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4462,13 +4891,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="C172" t="s">
+        <v>215</v>
       </c>
       <c r="D172" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="E172" t="s">
-        <v>413</v>
+        <v>424</v>
+      </c>
+      <c r="F172" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4476,13 +4911,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="C173" t="s">
+        <v>215</v>
       </c>
       <c r="D173" t="s">
-        <v>246</v>
+        <v>384</v>
       </c>
       <c r="E173" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4490,10 +4928,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="C174" t="s">
+        <v>215</v>
       </c>
       <c r="D174" t="s">
-        <v>246</v>
+        <v>385</v>
+      </c>
+      <c r="E174" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4501,16 +4945,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="C175" t="s">
+        <v>215</v>
       </c>
       <c r="D175" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
       <c r="E175" t="s">
-        <v>415</v>
-      </c>
-      <c r="F175" t="s">
-        <v>504</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4518,13 +4962,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="C176" t="s">
+        <v>215</v>
       </c>
       <c r="D176" t="s">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="E176" t="s">
-        <v>416</v>
+        <v>424</v>
+      </c>
+      <c r="F176" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4532,16 +4982,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="C177" t="s">
+        <v>215</v>
       </c>
       <c r="D177" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="E177" t="s">
-        <v>417</v>
-      </c>
-      <c r="F177" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4549,13 +4999,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="C178" t="s">
+        <v>215</v>
       </c>
       <c r="D178" t="s">
-        <v>246</v>
+        <v>389</v>
       </c>
       <c r="E178" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4563,13 +5016,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="C179" t="s">
+        <v>215</v>
       </c>
       <c r="D179" t="s">
-        <v>246</v>
+        <v>390</v>
       </c>
       <c r="E179" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4577,13 +5033,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="C180" t="s">
+        <v>215</v>
       </c>
       <c r="D180" t="s">
-        <v>246</v>
+        <v>391</v>
       </c>
       <c r="E180" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4591,13 +5050,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="C181" t="s">
+        <v>215</v>
       </c>
       <c r="D181" t="s">
-        <v>246</v>
+        <v>392</v>
       </c>
       <c r="E181" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4605,13 +5067,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="C182" t="s">
+        <v>215</v>
       </c>
       <c r="D182" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="E182" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4619,13 +5084,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C183" t="s">
+        <v>215</v>
       </c>
       <c r="D183" t="s">
-        <v>246</v>
+        <v>394</v>
       </c>
       <c r="E183" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4633,16 +5101,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C184" t="s">
+        <v>215</v>
       </c>
       <c r="D184" t="s">
-        <v>246</v>
+        <v>395</v>
       </c>
       <c r="E184" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F184" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4650,13 +5121,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="C185" t="s">
+        <v>215</v>
       </c>
       <c r="D185" t="s">
-        <v>246</v>
+        <v>396</v>
       </c>
       <c r="E185" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="F185" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4664,13 +5141,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="C186" t="s">
+        <v>215</v>
       </c>
       <c r="D186" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="E186" t="s">
-        <v>426</v>
+        <v>424</v>
+      </c>
+      <c r="F186" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4678,16 +5161,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="C187" t="s">
+        <v>215</v>
       </c>
       <c r="D187" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="E187" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F187" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4695,13 +5181,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="C188" t="s">
+        <v>215</v>
       </c>
       <c r="D188" t="s">
-        <v>246</v>
+        <v>399</v>
       </c>
       <c r="E188" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="F188" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4709,13 +5201,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="C189" t="s">
+        <v>215</v>
       </c>
       <c r="D189" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="E189" t="s">
-        <v>429</v>
+        <v>424</v>
+      </c>
+      <c r="F189" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4723,13 +5221,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="C190" t="s">
+        <v>215</v>
       </c>
       <c r="D190" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
       <c r="E190" t="s">
-        <v>430</v>
+        <v>424</v>
+      </c>
+      <c r="F190" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4737,13 +5241,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="C191" t="s">
+        <v>215</v>
       </c>
       <c r="D191" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="E191" t="s">
-        <v>431</v>
+        <v>424</v>
+      </c>
+      <c r="F191" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4751,13 +5261,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="C192" t="s">
+        <v>215</v>
       </c>
       <c r="D192" t="s">
-        <v>246</v>
+        <v>403</v>
       </c>
       <c r="E192" t="s">
-        <v>432</v>
+        <v>424</v>
+      </c>
+      <c r="F192" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4765,10 +5281,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="C193" t="s">
+        <v>215</v>
       </c>
       <c r="D193" t="s">
-        <v>246</v>
+        <v>404</v>
+      </c>
+      <c r="E193" t="s">
+        <v>424</v>
+      </c>
+      <c r="F193" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4776,19 +5301,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D194" t="s">
-        <v>246</v>
+        <v>405</v>
       </c>
       <c r="E194" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F194" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4796,13 +5321,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="C195" t="s">
+        <v>215</v>
       </c>
       <c r="D195" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="E195" t="s">
-        <v>434</v>
+        <v>427</v>
+      </c>
+      <c r="F195" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4810,10 +5341,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="C196" t="s">
+        <v>215</v>
       </c>
       <c r="D196" t="s">
-        <v>246</v>
+        <v>407</v>
+      </c>
+      <c r="E196" t="s">
+        <v>424</v>
+      </c>
+      <c r="F196" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4821,16 +5361,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="C197" t="s">
+        <v>215</v>
       </c>
       <c r="D197" t="s">
-        <v>246</v>
+        <v>408</v>
       </c>
       <c r="E197" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F197" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4838,16 +5381,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="C198" t="s">
+        <v>215</v>
       </c>
       <c r="D198" t="s">
-        <v>246</v>
+        <v>409</v>
       </c>
       <c r="E198" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F198" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4855,16 +5401,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="C199" t="s">
+        <v>215</v>
       </c>
       <c r="D199" t="s">
-        <v>246</v>
+        <v>410</v>
       </c>
       <c r="E199" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F199" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4872,13 +5421,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="C200" t="s">
+        <v>215</v>
       </c>
       <c r="D200" t="s">
-        <v>246</v>
+        <v>411</v>
+      </c>
+      <c r="E200" t="s">
+        <v>424</v>
       </c>
       <c r="F200" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4886,16 +5441,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="C201" t="s">
+        <v>215</v>
       </c>
       <c r="D201" t="s">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="E201" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F201" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4903,16 +5461,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="C202" t="s">
+        <v>215</v>
       </c>
       <c r="D202" t="s">
-        <v>246</v>
+        <v>413</v>
       </c>
       <c r="E202" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F202" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4920,16 +5481,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="C203" t="s">
+        <v>215</v>
       </c>
       <c r="D203" t="s">
-        <v>246</v>
+        <v>414</v>
       </c>
       <c r="E203" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="F203" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4937,43 +5501,79 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="C204" t="s">
+        <v>215</v>
       </c>
       <c r="D204" t="s">
-        <v>246</v>
+        <v>415</v>
       </c>
       <c r="E204" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F204" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
+      <c r="B205" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" t="s">
+        <v>215</v>
+      </c>
       <c r="D205" t="s">
-        <v>246</v>
+        <v>416</v>
+      </c>
+      <c r="E205" t="s">
+        <v>426</v>
+      </c>
+      <c r="F205" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
+      <c r="B206" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" t="s">
+        <v>215</v>
+      </c>
       <c r="D206" t="s">
-        <v>246</v>
+        <v>415</v>
+      </c>
+      <c r="E206" t="s">
+        <v>424</v>
+      </c>
+      <c r="F206" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
+      <c r="B207" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207" t="s">
+        <v>215</v>
+      </c>
       <c r="D207" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="E207" t="s">
-        <v>442</v>
+        <v>424</v>
+      </c>
+      <c r="F207" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4981,16 +5581,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="C208" t="s">
+        <v>215</v>
       </c>
       <c r="D208" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="E208" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F208" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4998,13 +5601,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="C209" t="s">
+        <v>215</v>
       </c>
       <c r="D209" t="s">
-        <v>246</v>
+        <v>419</v>
       </c>
       <c r="E209" t="s">
-        <v>444</v>
+        <v>424</v>
+      </c>
+      <c r="F209" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5012,16 +5621,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="C210" t="s">
+        <v>215</v>
       </c>
       <c r="D210" t="s">
-        <v>246</v>
+        <v>420</v>
       </c>
       <c r="E210" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="F210" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5029,16 +5641,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="C211" t="s">
+        <v>215</v>
       </c>
       <c r="D211" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="E211" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="F211" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5046,16 +5661,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="C212" t="s">
+        <v>215</v>
       </c>
       <c r="D212" t="s">
-        <v>246</v>
+        <v>422</v>
       </c>
       <c r="E212" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="F212" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5063,453 +5681,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="C213" t="s">
+        <v>215</v>
       </c>
       <c r="D213" t="s">
-        <v>246</v>
+        <v>423</v>
       </c>
       <c r="E213" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" t="s">
-        <v>214</v>
-      </c>
-      <c r="D214" t="s">
-        <v>246</v>
-      </c>
-      <c r="E214" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>215</v>
-      </c>
-      <c r="D215" t="s">
-        <v>246</v>
-      </c>
-      <c r="E215" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" t="s">
-        <v>216</v>
-      </c>
-      <c r="D216" t="s">
-        <v>246</v>
-      </c>
-      <c r="E216" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217" t="s">
-        <v>217</v>
-      </c>
-      <c r="D217" t="s">
-        <v>246</v>
-      </c>
-      <c r="E217" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218" t="s">
-        <v>218</v>
-      </c>
-      <c r="D218" t="s">
-        <v>246</v>
-      </c>
-      <c r="E218" t="s">
-        <v>453</v>
-      </c>
-      <c r="F218" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219" t="s">
-        <v>219</v>
-      </c>
-      <c r="D219" t="s">
-        <v>246</v>
-      </c>
-      <c r="E219" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220" t="s">
-        <v>220</v>
-      </c>
-      <c r="D220" t="s">
-        <v>246</v>
-      </c>
-      <c r="E220" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>221</v>
-      </c>
-      <c r="D221" t="s">
-        <v>246</v>
-      </c>
-      <c r="E221" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" t="s">
-        <v>222</v>
-      </c>
-      <c r="D222" t="s">
-        <v>246</v>
-      </c>
-      <c r="E222" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" t="s">
-        <v>223</v>
-      </c>
-      <c r="D223" t="s">
-        <v>246</v>
-      </c>
-      <c r="E223" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" t="s">
-        <v>224</v>
-      </c>
-      <c r="D224" t="s">
-        <v>246</v>
-      </c>
-      <c r="E224" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" t="s">
-        <v>225</v>
-      </c>
-      <c r="D225" t="s">
-        <v>246</v>
-      </c>
-      <c r="E225" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" t="s">
-        <v>226</v>
-      </c>
-      <c r="D226" t="s">
-        <v>246</v>
-      </c>
-      <c r="E226" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>227</v>
-      </c>
-      <c r="D227" t="s">
-        <v>246</v>
-      </c>
-      <c r="E227" t="s">
-        <v>462</v>
-      </c>
-      <c r="F227" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" t="s">
-        <v>228</v>
-      </c>
-      <c r="D228" t="s">
-        <v>246</v>
-      </c>
-      <c r="E228" t="s">
-        <v>463</v>
-      </c>
-      <c r="F228" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>229</v>
-      </c>
-      <c r="D229" t="s">
-        <v>246</v>
-      </c>
-      <c r="E229" t="s">
-        <v>464</v>
-      </c>
-      <c r="F229" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>230</v>
-      </c>
-      <c r="D230" t="s">
-        <v>246</v>
-      </c>
-      <c r="E230" t="s">
-        <v>465</v>
-      </c>
-      <c r="F230" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>231</v>
-      </c>
-      <c r="D231" t="s">
-        <v>246</v>
-      </c>
-      <c r="E231" t="s">
-        <v>466</v>
-      </c>
-      <c r="F231" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" t="s">
-        <v>232</v>
-      </c>
-      <c r="D232" t="s">
-        <v>246</v>
-      </c>
-      <c r="E232" t="s">
-        <v>467</v>
-      </c>
-      <c r="F232" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>233</v>
-      </c>
-      <c r="D233" t="s">
-        <v>246</v>
-      </c>
-      <c r="E233" t="s">
-        <v>468</v>
-      </c>
-      <c r="F233" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>234</v>
-      </c>
-      <c r="D234" t="s">
-        <v>246</v>
-      </c>
-      <c r="E234" t="s">
-        <v>469</v>
-      </c>
-      <c r="F234" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>235</v>
-      </c>
-      <c r="D235" t="s">
-        <v>246</v>
-      </c>
-      <c r="E235" t="s">
-        <v>470</v>
-      </c>
-      <c r="F235" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>236</v>
-      </c>
-      <c r="D236" t="s">
-        <v>246</v>
-      </c>
-      <c r="E236" t="s">
-        <v>471</v>
-      </c>
-      <c r="F236" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>237</v>
-      </c>
-      <c r="D237" t="s">
-        <v>246</v>
-      </c>
-      <c r="E237" t="s">
-        <v>472</v>
-      </c>
-      <c r="F237" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>238</v>
-      </c>
-      <c r="D238" t="s">
-        <v>246</v>
-      </c>
-      <c r="E238" t="s">
-        <v>473</v>
-      </c>
-      <c r="F238" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>239</v>
-      </c>
-      <c r="D239" t="s">
-        <v>246</v>
-      </c>
-      <c r="E239" t="s">
-        <v>474</v>
-      </c>
-      <c r="F239" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>240</v>
-      </c>
-      <c r="D240" t="s">
-        <v>246</v>
-      </c>
-      <c r="E240" t="s">
-        <v>475</v>
-      </c>
-      <c r="F240" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>241</v>
-      </c>
-      <c r="D241" t="s">
-        <v>246</v>
-      </c>
-      <c r="E241" t="s">
-        <v>476</v>
-      </c>
-      <c r="F241" t="s">
-        <v>529</v>
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -1300,46 +1300,46 @@
     <t>HQ,Country</t>
   </si>
   <si>
-    <t>Test14_Process,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,Gtm_Cadence,Gtm_Milestone_Adjustment</t>
-  </si>
-  <si>
-    <t>Daily_Nh_Store_Closing_Sop,User Behavior Tracking System (Ubts),Market_Intelligence_EURope</t>
-  </si>
-  <si>
-    <t>Daily_Nh_Store_Closing_Sop,Test14_Process</t>
-  </si>
-  <si>
-    <t>Gtm_Milestone_Adjustment</t>
-  </si>
-  <si>
-    <t>OTA_Process</t>
-  </si>
-  <si>
-    <t>Manually_Hand_Out_NIO_Points_To_Users,User_Satisfaction_-_Service_Coordinator_-_Global_Processes</t>
+    <t>Test14,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment</t>
+  </si>
+  <si>
+    <t>Daily_NH_Store_Closing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
+  </si>
+  <si>
+    <t>Daily_NH_Store_Closing_SOP,Test14</t>
+  </si>
+  <si>
+    <t>GTM_Milestone_Adjustment</t>
+  </si>
+  <si>
+    <t>OTA</t>
+  </si>
+  <si>
+    <t>Manually_Hand_Out_NIO_Points_To_Users,User_Satisfaction_-_Service_Coordinator_-_Globales</t>
   </si>
   <si>
     <t>User_Closed-Loop</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>User_PURchase_Car_After_Delivery</t>
-  </si>
-  <si>
-    <t>Ud_Publishes_A_Pgc</t>
-  </si>
-  <si>
-    <t>Gtm_Milestone_Adjustment,Gtm_Cadence</t>
-  </si>
-  <si>
-    <t>Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+    <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>User_Purchase_Car_After_Delivery</t>
+  </si>
+  <si>
+    <t>Ud_Publishes_A_PGC</t>
+  </si>
+  <si>
+    <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
+  </si>
+  <si>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
   </si>
   <si>
     <t>Manually_Hand_Out_NIO_Points_To_Users</t>
   </si>
   <si>
-    <t>Gtm_Cadence,Corporate_Changes</t>
+    <t>GTM_Cadence,Corporate_Changes</t>
   </si>
   <si>
     <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
@@ -1348,43 +1348,43 @@
     <t>Network_Development_Manager_Selects_Design_Vendor</t>
   </si>
   <si>
-    <t>Gtm_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process</t>
-  </si>
-  <si>
-    <t>User_Experiences_2D_Testdrive_Coupon,User_Experiences_Normal_Testdrive,User_Wants_To_Book_Testdrive_Online,User_RetURns_A_PURchase_Car,User_PURchase_Car_After_Delivery,Test_Drive_Outbound_Call_And_Communication_Post-Test_Drive_Follow-Up_Process,Fellow_Complete_Testdrive_Process,Fellow_Manually_Books_Testdrive_For_User,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Test_Process,Fellow_Handles_A_Testdrive_Process,Fellow_Test_Drive_Follow_Up_Sop,Eb_Quartlery_5_Year_Budget_Planning_Process</t>
-  </si>
-  <si>
-    <t>Pre_Mp_And_Launch_Stock_Ordering</t>
+    <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval</t>
+  </si>
+  <si>
+    <t>User_Experiences_2D_Testdrive_Coupon,User_Experiences_Normal_Testdrive,User_Wants_To_Book_Testdrive_Online,User_Returns_A_Purchase_Car,User_Purchase_Car_After_Delivery,Test_Drive_Outbound_Call_And_Communication_Post-Test_Drive_Follow-Up,Fellow_Complete_Testdrive,Fellow_Manually_Books_Testdrive_For_User,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Test,Fellow_Handles_A_Testdrive,Fellow_Test_Drive_Follow_Up_SOP,EB_Quartlery_5_Year_Budget_Planning</t>
+  </si>
+  <si>
+    <t>Pre_MP_And_Launch_Stock_Ordering</t>
   </si>
   <si>
     <t>Long_Term_Volume_Planning</t>
   </si>
   <si>
-    <t>SubSCRiption_Pricing_Definition,SubSCRipiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees_Management,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_Ins,Rv_Study_Management,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive_Process,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive_Process,Fellow_Manually_Books_Testdrive_For_User,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Fellow_Handles_A_Testdrive_Process</t>
+    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Fellow_Manually_Books_Testdrive_For_User,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Fellow_Handles_A_Testdrive</t>
   </si>
   <si>
     <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
   </si>
   <si>
-    <t>Manually_Hand_Out_NIO_Points_To_Users,User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Sales (Uo),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Sota&amp;Fota Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
-  </si>
-  <si>
-    <t>Msrp_Pricing_Sop,Product_Briefing,Pricing,Option_Offer</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues,Receive_SubSCRiption_Order_From_User,Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,Send_Vehicle_Preparation_Order_To_Rdc_And_The_Registration_Order_To_Dad,Deliver_SubSCRiption_Cars,SubSCRiption_Cars_Delivery-Related</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Of Processing Activities (Ropa),Complete_PURchasing_Process</t>
+    <t>Manually_Hand_Out_NIO_Points_To_Users,User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Receive_Subscription_Order_From_User,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Send_Vehicle_Preparation_Order_To_RDC_And_The_Registration_Order_To_Dad,Deliver_Subscription_Cars,Subscription_Cars_Delivery-Related</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing</t>
   </si>
   <si>
     <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review</t>
@@ -1393,19 +1393,19 @@
     <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
   </si>
   <si>
-    <t>Maintenance Of Register Of Processing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
     <t>5Yr_Planning_Flow</t>
   </si>
   <si>
-    <t>Power_ProcURement,Power_ProcURement_-_Standard_Process,Power_ProcURement_-_Authorized_Process</t>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_LTO,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval_Process</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
   </si>
   <si>
     <t>NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment</t>
@@ -1414,91 +1414,91 @@
     <t>NIO_Life_-_1900-190X_-_Internal_Application</t>
   </si>
   <si>
-    <t>NIO_Life_-_App_Sales_-_Product_Launch,OTA_Process</t>
+    <t>NIO_Life_-_App_Sales_-_Product_Launch,OTA</t>
   </si>
   <si>
     <t>NIO_Life_-_App_Sales_-_After_Sales</t>
   </si>
   <si>
-    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
-  </si>
-  <si>
-    <t>EURope_Market_Planning,EURope_Market_Planning_-_5_Yrs_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_FutURe_Portfolio_Mapping,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_InfrastURcutre,EURope_Market_Planning_-_Wave2_Market_Entry_Pmo,EURope_Market_Planning_-_Governance_Pmo,EURope_Market_Planning_-_Governance_Pmo_-_Entity_Setup</t>
-  </si>
-  <si>
-    <t>User_Closed-Loop,Option_Offer,Pricing,Gtm_Cadence,OTA_Process</t>
-  </si>
-  <si>
-    <t>Sud_Experience_Confirmation,OTA_Process</t>
-  </si>
-  <si>
-    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_NscHub_Planning_And_Operation_Preparation_Process,Service_Network,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process</t>
+    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
+  </si>
+  <si>
+    <t>User_Closed-Loop,Option_Offer,Pricing,GTM_Cadence,OTA</t>
+  </si>
+  <si>
+    <t>Sud_Experience_Confirmation,OTA</t>
+  </si>
+  <si>
+    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_NSCHub_Planning_And_Operation_Preparation,Service_Network,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
   </si>
   <si>
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library</t>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library</t>
   </si>
   <si>
     <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_User_Om_Way_Of_Working</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_RetURn_NIO_Life_Products</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_NIO_Life</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Distribution</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Deleting Charging &amp; Battery Swap Order</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Swap Station(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Charging(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO_App(In Progress)</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
   </si>
 </sst>
 </file>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="497">
   <si>
     <t>Role</t>
   </si>
@@ -661,6 +661,12 @@
     <t>NIO_App_Response_Team</t>
   </si>
   <si>
+    <t>Power_Netherlands</t>
+  </si>
+  <si>
+    <t>Head_of_Power</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -1288,6 +1294,9 @@
     <t>hans_beyer</t>
   </si>
   <si>
+    <t>daniel_groot,espen_byrjall,kajsa_ivansson,mads_pedersen,ralph_kranz-acting</t>
+  </si>
+  <si>
     <t>HQ</t>
   </si>
   <si>
@@ -1300,22 +1309,22 @@
     <t>HQ,Country</t>
   </si>
   <si>
-    <t>Test14,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment</t>
-  </si>
-  <si>
-    <t>Daily_NH_Store_Closing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
-  </si>
-  <si>
-    <t>Daily_NH_Store_Closing_SOP,Test14</t>
+    <t>Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval</t>
+  </si>
+  <si>
+    <t>User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
   </si>
   <si>
     <t>GTM_Milestone_Adjustment</t>
   </si>
   <si>
+    <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
+  </si>
+  <si>
     <t>OTA</t>
   </si>
   <si>
-    <t>Manually_Hand_Out_NIO_Points_To_Users,User_Satisfaction_-_Service_Coordinator_-_Globales</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales</t>
   </si>
   <si>
     <t>User_Closed-Loop</t>
@@ -1324,105 +1333,102 @@
     <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
-    <t>User_Purchase_Car_After_Delivery</t>
-  </si>
-  <si>
-    <t>Ud_Publishes_A_PGC</t>
-  </si>
-  <si>
     <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
   </si>
   <si>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,Bulk_Deal_Offer_Approval</t>
+  </si>
+  <si>
     <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
   </si>
   <si>
-    <t>Manually_Hand_Out_NIO_Points_To_Users</t>
-  </si>
-  <si>
     <t>GTM_Cadence,Corporate_Changes</t>
   </si>
   <si>
     <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
   </si>
   <si>
-    <t>Network_Development_Manager_Selects_Design_Vendor</t>
-  </si>
-  <si>
     <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
+    <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+  </si>
+  <si>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+  </si>
+  <si>
+    <t>Pre_MP_And_Launch_Stock_Ordering</t>
+  </si>
+  <si>
+    <t>Long_Term_Volume_Planning</t>
+  </si>
+  <si>
+    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
+  </si>
+  <si>
+    <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
+  </si>
+  <si>
+    <t>User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+  </si>
+  <si>
+    <t>5Yr_Planning_Flow</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_1900-190X_-_Internal_Application</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_App_Sales_-_Product_Launch,OTA</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_App_Sales_-_After_Sales</t>
+  </si>
+  <si>
+    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
+  </si>
+  <si>
     <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval</t>
   </si>
   <si>
-    <t>User_Experiences_2D_Testdrive_Coupon,User_Experiences_Normal_Testdrive,User_Wants_To_Book_Testdrive_Online,User_Returns_A_Purchase_Car,User_Purchase_Car_After_Delivery,Test_Drive_Outbound_Call_And_Communication_Post-Test_Drive_Follow-Up,Fellow_Complete_Testdrive,Fellow_Manually_Books_Testdrive_For_User,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Test,Fellow_Handles_A_Testdrive,Fellow_Test_Drive_Follow_Up_SOP,EB_Quartlery_5_Year_Budget_Planning</t>
-  </si>
-  <si>
-    <t>Pre_MP_And_Launch_Stock_Ordering</t>
-  </si>
-  <si>
-    <t>Long_Term_Volume_Planning</t>
-  </si>
-  <si>
-    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Fellow_Manually_Books_Testdrive_For_User,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Fellow_Handles_A_Testdrive</t>
-  </si>
-  <si>
-    <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
-  </si>
-  <si>
-    <t>Manually_Hand_Out_NIO_Points_To_Users,User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
-  </si>
-  <si>
-    <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Receive_Subscription_Order_From_User,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Send_Vehicle_Preparation_Order_To_RDC_And_The_Registration_Order_To_Dad,Deliver_Subscription_Cars,Subscription_Cars_Delivery-Related</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
-  </si>
-  <si>
-    <t>5Yr_Planning_Flow</t>
-  </si>
-  <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_1900-190X_-_Internal_Application</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_App_Sales_-_Product_Launch,OTA</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_App_Sales_-_After_Sales</t>
-  </si>
-  <si>
-    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
-  </si>
-  <si>
     <t>Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
   </si>
   <si>
@@ -1438,7 +1444,7 @@
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
   </si>
   <si>
     <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
@@ -1856,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1887,16 +1893,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1907,16 +1913,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1927,13 +1933,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1944,16 +1950,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1964,10 +1967,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1978,13 +1981,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1995,13 +1998,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>425</v>
+        <v>428</v>
+      </c>
+      <c r="F8" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2012,16 +2018,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2032,16 +2038,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2052,16 +2058,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2072,13 +2078,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2089,13 +2095,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2106,13 +2112,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2123,16 +2129,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F15" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2143,16 +2149,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E16" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2160,16 +2166,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2177,16 +2183,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E18" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2194,16 +2200,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E19" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2211,16 +2217,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2228,16 +2234,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2245,19 +2251,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>425</v>
-      </c>
-      <c r="F22" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2265,13 +2268,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2279,16 +2282,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2296,16 +2299,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2313,16 +2316,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2330,16 +2333,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2347,16 +2350,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2364,16 +2367,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E29" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2381,16 +2384,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E30" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2398,16 +2401,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2415,13 +2418,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E32" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2432,13 +2435,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2449,13 +2452,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E34" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2466,13 +2469,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E35" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2483,13 +2486,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2500,13 +2503,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E37" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2517,13 +2520,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2534,16 +2537,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E39" t="s">
-        <v>424</v>
-      </c>
-      <c r="F39" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2554,13 +2554,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E40" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2571,13 +2571,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D41" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2588,16 +2588,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E42" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F42" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2608,13 +2608,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E43" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2625,13 +2625,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E44" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2642,13 +2642,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2659,13 +2659,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E46" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2676,13 +2676,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E47" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2693,13 +2693,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E48" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2710,13 +2710,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2727,16 +2727,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E50" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F50" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2747,13 +2747,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E51" t="s">
-        <v>424</v>
+        <v>427</v>
+      </c>
+      <c r="F51" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2764,13 +2767,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E52" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2781,13 +2784,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E53" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2798,13 +2801,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2815,16 +2818,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D55" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E55" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2835,13 +2838,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E56" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2852,16 +2855,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E57" t="s">
-        <v>425</v>
-      </c>
-      <c r="F57" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2872,13 +2872,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D58" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2889,13 +2889,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2906,13 +2906,13 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D60" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2923,13 +2923,13 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E61" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2940,13 +2940,13 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E62" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2957,13 +2957,13 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2974,13 +2974,13 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2991,16 +2991,16 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3011,13 +3011,13 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E66" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3028,13 +3028,13 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D67" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E67" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3045,13 +3045,13 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E68" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3062,13 +3062,13 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3079,13 +3079,13 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3096,13 +3096,13 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3113,13 +3113,13 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3130,13 +3130,13 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E73" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3147,13 +3147,13 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E74" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3164,13 +3164,13 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3181,16 +3181,16 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F76" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3201,13 +3201,13 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E77" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3218,13 +3218,13 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E78" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3235,16 +3235,16 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E79" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F79" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3255,13 +3255,13 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E80" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3272,13 +3272,13 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E81" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3289,13 +3289,13 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E82" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3306,16 +3306,13 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D83" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s">
-        <v>424</v>
-      </c>
-      <c r="F83" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3326,10 +3323,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3340,13 +3337,13 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3357,13 +3354,13 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E86" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3374,13 +3371,13 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D87" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E87" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3391,13 +3388,13 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D88" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E88" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3408,13 +3405,13 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D89" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E89" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3425,13 +3422,13 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E90" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F90" t="s">
         <v>444</v>
@@ -3445,16 +3442,13 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E91" t="s">
-        <v>424</v>
-      </c>
-      <c r="F91" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3465,16 +3459,13 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D92" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E92" t="s">
-        <v>425</v>
-      </c>
-      <c r="F92" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3485,13 +3476,13 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E93" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3502,13 +3493,13 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E94" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3519,13 +3510,13 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3536,13 +3527,13 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E96" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3553,13 +3544,13 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E97" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3570,13 +3561,13 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D98" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E98" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3587,13 +3578,13 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D99" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E99" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3604,13 +3595,13 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D100" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E100" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3621,13 +3612,13 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D101" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E101" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3638,13 +3629,13 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D102" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E102" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3655,16 +3646,13 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E103" t="s">
-        <v>425</v>
-      </c>
-      <c r="F103" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3675,13 +3663,16 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E104" t="s">
-        <v>425</v>
+        <v>428</v>
+      </c>
+      <c r="F104" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3692,13 +3683,13 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D105" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E105" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3709,13 +3700,13 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D106" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E106" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3726,13 +3717,13 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D107" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E107" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3743,13 +3734,13 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E108" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3760,13 +3751,13 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D109" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E109" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3777,13 +3768,13 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D110" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E110" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3794,13 +3785,13 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D111" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E111" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3811,13 +3802,13 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E112" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F112" t="s">
         <v>446</v>
@@ -3831,16 +3822,16 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D113" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E113" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F113" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3851,16 +3842,16 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E114" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F114" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3871,13 +3862,16 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E115" t="s">
-        <v>424</v>
+        <v>427</v>
+      </c>
+      <c r="F115" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3888,16 +3882,16 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D116" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E116" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F116" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3908,13 +3902,13 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E117" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3925,16 +3919,16 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D118" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E118" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F118" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3945,16 +3939,16 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D119" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E119" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F119" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3965,13 +3959,13 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D120" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E120" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3982,13 +3976,13 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D121" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E121" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3999,13 +3993,13 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D122" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E122" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4016,13 +4010,13 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D123" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E123" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4033,13 +4027,13 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D124" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E124" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4050,13 +4044,13 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D125" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E125" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4067,13 +4061,13 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D126" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E126" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4084,16 +4078,16 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E127" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F127" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4104,13 +4098,13 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D128" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E128" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4121,13 +4115,13 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D129" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E129" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4138,13 +4132,13 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D130" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E130" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4155,13 +4149,13 @@
         <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D131" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E131" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4172,13 +4166,13 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D132" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E132" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4189,16 +4183,16 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D133" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E133" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F133" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4209,13 +4203,13 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D134" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E134" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4226,13 +4220,13 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D135" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E135" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4243,13 +4237,13 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D136" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E136" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4260,13 +4254,13 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D137" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E137" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4277,16 +4271,16 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D138" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E138" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F138" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4297,13 +4291,13 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D139" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E139" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4314,13 +4308,13 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D140" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E140" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4331,13 +4325,13 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D141" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E141" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4348,16 +4342,16 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D142" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E142" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F142" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4368,13 +4362,13 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D143" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E143" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4385,16 +4379,13 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D144" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E144" t="s">
-        <v>425</v>
-      </c>
-      <c r="F144" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4405,13 +4396,13 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D145" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E145" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4422,13 +4413,13 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D146" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E146" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4439,13 +4430,13 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D147" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E147" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4456,13 +4447,13 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D148" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E148" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4473,16 +4464,13 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D149" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E149" t="s">
-        <v>425</v>
-      </c>
-      <c r="F149" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4493,13 +4481,13 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D150" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E150" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4510,13 +4498,13 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D151" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E151" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4527,16 +4515,16 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D152" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E152" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F152" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4547,13 +4535,13 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D153" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E153" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4564,13 +4552,13 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D154" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E154" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4581,13 +4569,13 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D155" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E155" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4598,13 +4586,13 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D156" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E156" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4615,7 +4603,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4626,16 +4614,16 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D158" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E158" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F158" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4646,13 +4634,13 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D159" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E159" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4663,16 +4651,16 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D160" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E160" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F160" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4683,16 +4671,16 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D161" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E161" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F161" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4703,16 +4691,16 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D162" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E162" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F162" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4723,10 +4711,10 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F163" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4737,16 +4725,16 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D164" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E164" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F164" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4757,16 +4745,16 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D165" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E165" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F165" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4777,16 +4765,16 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D166" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E166" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F166" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4797,16 +4785,16 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D167" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E167" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F167" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4817,16 +4805,16 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D168" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E168" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F168" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4837,13 +4825,13 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D169" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E169" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4854,16 +4842,16 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D170" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E170" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F170" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4874,16 +4862,16 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D171" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E171" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F171" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4894,16 +4882,16 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D172" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E172" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F172" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4914,13 +4902,13 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D173" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E173" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4931,13 +4919,13 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D174" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E174" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4948,13 +4936,13 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D175" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E175" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4965,16 +4953,16 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D176" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E176" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F176" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4985,13 +4973,13 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D177" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E177" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5002,13 +4990,13 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D178" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E178" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5019,13 +5007,13 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D179" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E179" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5036,13 +5024,16 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D180" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E180" t="s">
-        <v>424</v>
+        <v>427</v>
+      </c>
+      <c r="F180" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5053,13 +5044,13 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D181" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E181" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5070,13 +5061,13 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D182" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E182" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5087,13 +5078,13 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D183" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E183" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5104,16 +5095,16 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D184" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E184" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F184" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5124,16 +5115,16 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D185" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E185" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F185" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5144,16 +5135,16 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D186" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E186" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F186" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5164,16 +5155,16 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D187" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E187" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F187" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5184,16 +5175,16 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D188" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E188" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F188" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5204,16 +5195,16 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D189" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E189" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F189" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5224,16 +5215,16 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D190" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E190" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F190" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5244,16 +5235,16 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E191" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F191" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5264,16 +5255,16 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E192" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F192" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5284,16 +5275,16 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E193" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F193" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5304,16 +5295,16 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D194" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E194" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F194" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5324,16 +5315,16 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D195" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E195" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F195" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5344,16 +5335,16 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D196" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E196" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F196" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5364,16 +5355,16 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D197" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E197" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F197" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5384,16 +5375,16 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D198" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E198" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F198" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5404,16 +5395,16 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D199" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E199" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F199" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5424,16 +5415,16 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D200" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E200" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F200" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5444,16 +5435,16 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D201" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E201" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F201" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5464,16 +5455,16 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D202" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E202" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F202" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5484,16 +5475,16 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D203" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E203" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F203" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5504,16 +5495,16 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D204" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E204" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F204" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5524,16 +5515,16 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D205" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E205" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F205" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5544,16 +5535,16 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D206" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E206" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F206" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5564,16 +5555,16 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D207" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E207" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F207" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5584,16 +5575,16 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D208" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E208" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F208" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5604,16 +5595,16 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D209" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E209" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F209" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5624,16 +5615,16 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D210" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E210" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F210" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5644,16 +5635,16 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D211" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E211" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F211" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5664,16 +5655,16 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D212" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E212" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F212" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5684,16 +5675,44 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
+        <v>217</v>
+      </c>
+      <c r="D213" t="s">
+        <v>425</v>
+      </c>
+      <c r="E213" t="s">
+        <v>427</v>
+      </c>
+      <c r="F213" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
         <v>215</v>
       </c>
-      <c r="D213" t="s">
-        <v>423</v>
-      </c>
-      <c r="E213" t="s">
-        <v>424</v>
-      </c>
-      <c r="F213" t="s">
-        <v>494</v>
+      <c r="C214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215" t="s">
+        <v>217</v>
+      </c>
+      <c r="D215" t="s">
+        <v>426</v>
+      </c>
+      <c r="E215" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -31,7 +31,7 @@
     <t>Has Process</t>
   </si>
   <si>
-    <t>AVP_Europe_Business_&amp;_Senior_Expert_Strategic_Planning</t>
+    <t>Head_of_EB</t>
   </si>
   <si>
     <t>Analyst_Market_&amp;_User_Research</t>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="499">
   <si>
     <t>Role</t>
   </si>
@@ -523,7 +523,7 @@
     <t>EU_PUS_LTO_Teams</t>
   </si>
   <si>
-    <t>EU_offline_store_team</t>
+    <t>NIO_Life_Team</t>
   </si>
   <si>
     <t>Revenue_&amp;_Pricing_Manager_Europe</t>
@@ -1333,6 +1333,12 @@
     <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
+    <t>NIO_Life_-_Offline_Display,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
     <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
   </si>
   <si>
@@ -1348,6 +1354,9 @@
     <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
   </si>
   <si>
+    <t>NIO_Life_-_Export_-_Planned_Export</t>
+  </si>
+  <si>
     <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
@@ -1366,6 +1375,9 @@
     <t>Long_Term_Volume_Planning</t>
   </si>
   <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
     <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
@@ -1375,6 +1387,9 @@
     <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
   </si>
   <si>
+    <t>NIO_Life_-_Offline_Display</t>
+  </si>
+  <si>
     <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
   </si>
   <si>
@@ -1411,16 +1426,7 @@
     <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
   </si>
   <si>
-    <t>NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_1900-190X_-_Internal_Application</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_App_Sales_-_Product_Launch,OTA</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_App_Sales_-_After_Sales</t>
+    <t>NIO_Life_-_Internal_Application</t>
   </si>
   <si>
     <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
@@ -2158,7 +2164,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2174,8 +2180,11 @@
       <c r="E17" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2308,7 +2317,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2325,7 +2334,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2342,7 +2351,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2359,7 +2368,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2410,7 +2419,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2494,6 +2503,9 @@
       <c r="E36" t="s">
         <v>427</v>
       </c>
+      <c r="F36" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
@@ -2597,7 +2609,7 @@
         <v>427</v>
       </c>
       <c r="F42" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2756,7 +2768,7 @@
         <v>427</v>
       </c>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2827,7 +2839,7 @@
         <v>427</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3000,7 +3012,7 @@
         <v>427</v>
       </c>
       <c r="F65" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3190,7 +3202,7 @@
         <v>428</v>
       </c>
       <c r="F76" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3244,7 +3256,7 @@
         <v>427</v>
       </c>
       <c r="F79" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3263,6 +3275,9 @@
       <c r="E80" t="s">
         <v>428</v>
       </c>
+      <c r="F80" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
@@ -3431,7 +3446,7 @@
         <v>427</v>
       </c>
       <c r="F90" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3672,7 +3687,7 @@
         <v>428</v>
       </c>
       <c r="F104" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3811,7 +3826,7 @@
         <v>428</v>
       </c>
       <c r="F112" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3831,7 +3846,7 @@
         <v>429</v>
       </c>
       <c r="F113" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3851,7 +3866,7 @@
         <v>427</v>
       </c>
       <c r="F114" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3871,7 +3886,7 @@
         <v>427</v>
       </c>
       <c r="F115" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3891,7 +3906,7 @@
         <v>427</v>
       </c>
       <c r="F116" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3910,6 +3925,9 @@
       <c r="E117" t="s">
         <v>427</v>
       </c>
+      <c r="F117" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
@@ -3928,7 +3946,7 @@
         <v>427</v>
       </c>
       <c r="F118" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3948,7 +3966,7 @@
         <v>428</v>
       </c>
       <c r="F119" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4087,7 +4105,7 @@
         <v>428</v>
       </c>
       <c r="F127" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4123,6 +4141,9 @@
       <c r="E129" t="s">
         <v>428</v>
       </c>
+      <c r="F129" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
@@ -4192,7 +4213,7 @@
         <v>428</v>
       </c>
       <c r="F133" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4280,7 +4301,7 @@
         <v>427</v>
       </c>
       <c r="F138" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4351,7 +4372,7 @@
         <v>428</v>
       </c>
       <c r="F142" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4623,7 +4644,7 @@
         <v>428</v>
       </c>
       <c r="F158" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4660,7 +4681,7 @@
         <v>430</v>
       </c>
       <c r="F160" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4680,7 +4701,7 @@
         <v>430</v>
       </c>
       <c r="F161" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4700,7 +4721,7 @@
         <v>430</v>
       </c>
       <c r="F162" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4714,7 +4735,7 @@
         <v>217</v>
       </c>
       <c r="F163" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4734,7 +4755,7 @@
         <v>427</v>
       </c>
       <c r="F164" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4754,7 +4775,7 @@
         <v>427</v>
       </c>
       <c r="F165" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4774,7 +4795,7 @@
         <v>427</v>
       </c>
       <c r="F166" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4794,7 +4815,7 @@
         <v>427</v>
       </c>
       <c r="F167" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4814,7 +4835,7 @@
         <v>427</v>
       </c>
       <c r="F168" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4851,7 +4872,7 @@
         <v>427</v>
       </c>
       <c r="F170" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4871,7 +4892,7 @@
         <v>427</v>
       </c>
       <c r="F171" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4890,9 +4911,6 @@
       <c r="E172" t="s">
         <v>427</v>
       </c>
-      <c r="F172" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
@@ -4962,7 +4980,7 @@
         <v>427</v>
       </c>
       <c r="F176" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5033,7 +5051,7 @@
         <v>427</v>
       </c>
       <c r="F180" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5104,7 +5122,7 @@
         <v>430</v>
       </c>
       <c r="F184" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5124,7 +5142,7 @@
         <v>427</v>
       </c>
       <c r="F185" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5144,7 +5162,7 @@
         <v>427</v>
       </c>
       <c r="F186" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5164,7 +5182,7 @@
         <v>427</v>
       </c>
       <c r="F187" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5184,7 +5202,7 @@
         <v>427</v>
       </c>
       <c r="F188" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5204,7 +5222,7 @@
         <v>427</v>
       </c>
       <c r="F189" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5224,7 +5242,7 @@
         <v>427</v>
       </c>
       <c r="F190" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5244,7 +5262,7 @@
         <v>427</v>
       </c>
       <c r="F191" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5264,7 +5282,7 @@
         <v>427</v>
       </c>
       <c r="F192" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5284,7 +5302,7 @@
         <v>427</v>
       </c>
       <c r="F193" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5304,7 +5322,7 @@
         <v>427</v>
       </c>
       <c r="F194" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5324,7 +5342,7 @@
         <v>430</v>
       </c>
       <c r="F195" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5344,7 +5362,7 @@
         <v>427</v>
       </c>
       <c r="F196" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5364,7 +5382,7 @@
         <v>427</v>
       </c>
       <c r="F197" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5384,7 +5402,7 @@
         <v>427</v>
       </c>
       <c r="F198" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5404,7 +5422,7 @@
         <v>427</v>
       </c>
       <c r="F199" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5424,7 +5442,7 @@
         <v>427</v>
       </c>
       <c r="F200" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5444,7 +5462,7 @@
         <v>427</v>
       </c>
       <c r="F201" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5464,7 +5482,7 @@
         <v>429</v>
       </c>
       <c r="F202" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5484,7 +5502,7 @@
         <v>427</v>
       </c>
       <c r="F203" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5504,7 +5522,7 @@
         <v>427</v>
       </c>
       <c r="F204" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5524,7 +5542,7 @@
         <v>429</v>
       </c>
       <c r="F205" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5544,7 +5562,7 @@
         <v>427</v>
       </c>
       <c r="F206" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5564,7 +5582,7 @@
         <v>427</v>
       </c>
       <c r="F207" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5584,7 +5602,7 @@
         <v>430</v>
       </c>
       <c r="F208" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5604,7 +5622,7 @@
         <v>427</v>
       </c>
       <c r="F209" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5624,7 +5642,7 @@
         <v>427</v>
       </c>
       <c r="F210" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5644,7 +5662,7 @@
         <v>429</v>
       </c>
       <c r="F211" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5664,7 +5682,7 @@
         <v>427</v>
       </c>
       <c r="F212" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5684,7 +5702,7 @@
         <v>427</v>
       </c>
       <c r="F213" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="214" spans="1:6">

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="505">
   <si>
     <t>Role</t>
   </si>
@@ -217,7 +217,7 @@
     <t>Senior_Executive_Assistant_Europe_Business</t>
   </si>
   <si>
-    <t>Head_of_Market_Entry_PMO_Team_&amp;_Lead_PMO</t>
+    <t>Head_of_Market_Entry_PMO</t>
   </si>
   <si>
     <t>Service_Planning_and_Strategy_Manager</t>
@@ -589,7 +589,7 @@
     <t>Digital_Product_Owner</t>
   </si>
   <si>
-    <t>HQ_FBP_-_Finance_Business_Partner</t>
+    <t>HQ_&amp;_Country_FBP_-_Finance_Business_Partner</t>
   </si>
   <si>
     <t>Lead_Go_to_Market</t>
@@ -667,6 +667,9 @@
     <t>Head_of_Power</t>
   </si>
   <si>
+    <t>Head_of_Europe_Business_Operation</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -1138,7 +1141,7 @@
     <t>lovepreet_singh</t>
   </si>
   <si>
-    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,ranee_miao, lovepreet_singh</t>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,ranee_miao, lovepreet_singh,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
   </si>
   <si>
     <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock,ranee_miao</t>
@@ -1225,7 +1228,7 @@
     <t>henry_shen</t>
   </si>
   <si>
-    <t>chengguo_shi</t>
+    <t>chengguo_shi,arnaud_rongy,chris_di, fatima_galean, katalin_konye,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
   </si>
   <si>
     <t>francis_ji</t>
@@ -1297,6 +1300,9 @@
     <t>daniel_groot,espen_byrjall,kajsa_ivansson,mads_pedersen,ralph_kranz-acting</t>
   </si>
   <si>
+    <t>matt_galvin</t>
+  </si>
+  <si>
     <t>HQ</t>
   </si>
   <si>
@@ -1327,7 +1333,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales</t>
   </si>
   <si>
-    <t>User_Closed-Loop</t>
+    <t>User_Closed-Loop,Marketing_Expenses</t>
   </si>
   <si>
     <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
@@ -1348,13 +1354,16 @@
     <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
   </si>
   <si>
-    <t>GTM_Cadence,Corporate_Changes</t>
+    <t>GTM_Cadence,Corporate_Changes,Marketing_Expenses</t>
   </si>
   <si>
     <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
   </si>
   <si>
-    <t>NIO_Life_-_Export_-_Planned_Export</t>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Export_-_Planned_Export,Marketing_Expenses</t>
   </si>
   <si>
     <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
@@ -1369,72 +1378,78 @@
     <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
+    <t>Pre_MP_And_Launch_Stock_Ordering,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>Long_Term_Volume_Planning</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display</t>
+  </si>
+  <si>
+    <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
+  </si>
+  <si>
+    <t>User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+  </si>
+  <si>
+    <t>5Yr_Planning_Flow</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Internal_Application</t>
+  </si>
+  <si>
+    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval</t>
+  </si>
+  <si>
     <t>Pre_MP_And_Launch_Stock_Ordering</t>
   </si>
   <si>
-    <t>Long_Term_Volume_Planning</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Offline_Display</t>
-  </si>
-  <si>
-    <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
-  </si>
-  <si>
-    <t>User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
-  </si>
-  <si>
-    <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
-  </si>
-  <si>
-    <t>5Yr_Planning_Flow</t>
-  </si>
-  <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Internal_Application</t>
-  </si>
-  <si>
-    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval</t>
-  </si>
-  <si>
     <t>Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
   </si>
   <si>
@@ -1450,7 +1465,7 @@
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses</t>
   </si>
   <si>
     <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
@@ -1511,6 +1526,9 @@
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1899,16 +1917,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1919,16 +1937,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1939,13 +1957,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1956,13 +1974,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1973,10 +1991,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1987,13 +2005,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2004,16 +2022,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2024,16 +2042,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2044,16 +2062,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2064,16 +2082,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2084,13 +2102,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2101,13 +2119,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2118,13 +2136,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2135,16 +2153,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2155,13 +2173,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2172,16 +2190,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2192,13 +2210,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2209,13 +2227,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2226,13 +2244,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2243,13 +2261,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2260,13 +2278,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2277,10 +2295,10 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2291,13 +2309,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2308,13 +2326,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E25" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2325,13 +2343,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2342,13 +2360,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2359,13 +2377,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2376,13 +2394,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2393,13 +2411,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E30" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2410,13 +2428,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2427,13 +2445,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2444,13 +2462,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E33" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2461,13 +2479,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2478,13 +2496,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E35" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2495,16 +2513,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E36" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F36" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2515,13 +2533,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E37" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2532,13 +2550,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2549,13 +2567,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E39" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2566,13 +2584,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2583,13 +2601,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E41" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2600,16 +2618,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F42" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2620,13 +2638,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2637,13 +2655,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E44" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2654,13 +2672,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E45" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2671,13 +2689,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E46" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2688,13 +2706,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D47" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E47" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2705,13 +2723,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2722,13 +2740,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2739,16 +2757,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2759,16 +2777,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E51" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2779,13 +2797,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2796,13 +2814,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E53" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2813,13 +2831,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2830,16 +2848,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E55" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2850,13 +2868,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D56" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E56" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2867,13 +2885,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2884,13 +2902,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2901,13 +2919,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E59" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2918,13 +2936,13 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E60" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2935,13 +2953,13 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2952,13 +2970,13 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2969,13 +2987,13 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2986,13 +3004,13 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3003,16 +3021,16 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E65" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3023,13 +3041,13 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3040,13 +3058,13 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E67" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3057,13 +3075,13 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E68" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3074,13 +3092,13 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3091,13 +3109,13 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3108,13 +3126,13 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E71" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3125,13 +3143,13 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3142,13 +3160,13 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E73" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3159,13 +3177,13 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E74" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3176,13 +3194,13 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E75" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3193,16 +3211,16 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F76" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3213,13 +3231,13 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3230,13 +3248,13 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E78" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3247,16 +3265,16 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E79" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F79" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3267,16 +3285,16 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E80" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F80" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3287,13 +3305,13 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E81" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3304,13 +3322,13 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3321,13 +3339,13 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E83" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3338,10 +3356,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3352,13 +3370,13 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E85" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3369,13 +3387,13 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E86" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3386,13 +3404,13 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D87" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E87" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3403,13 +3421,13 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E88" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3420,13 +3438,13 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E89" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3437,16 +3455,16 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D90" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F90" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3457,13 +3475,13 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D91" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E91" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3474,13 +3492,13 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E92" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3491,13 +3509,13 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E93" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3508,13 +3526,13 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E94" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3525,13 +3543,13 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D95" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E95" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3542,13 +3560,13 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D96" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E96" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3559,13 +3577,13 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E97" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3576,13 +3594,13 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D98" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E98" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3593,13 +3611,13 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E99" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3610,13 +3628,13 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D100" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E100" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3627,13 +3645,13 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E101" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3644,13 +3662,13 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E102" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3661,13 +3679,13 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E103" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3678,16 +3696,16 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E104" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F104" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3698,13 +3716,13 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3715,13 +3733,13 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D106" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E106" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3732,13 +3750,13 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E107" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3749,13 +3767,13 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E108" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3766,13 +3784,13 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E109" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3783,13 +3801,13 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E110" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3800,13 +3818,13 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E111" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3817,16 +3835,16 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D112" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E112" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F112" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3837,16 +3855,16 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E113" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F113" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3857,16 +3875,16 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D114" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E114" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F114" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3877,16 +3895,16 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D115" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E115" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F115" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3897,16 +3915,16 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D116" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E116" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F116" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3917,16 +3935,16 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E117" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F117" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3937,16 +3955,16 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D118" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E118" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F118" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3957,16 +3975,16 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D119" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E119" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F119" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3977,13 +3995,13 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D120" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E120" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3994,13 +4012,13 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D121" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E121" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4011,13 +4029,13 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E122" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4028,13 +4046,13 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D123" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E123" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4045,13 +4063,13 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E124" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4062,13 +4080,13 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D125" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E125" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4079,13 +4097,13 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D126" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E126" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4096,16 +4114,16 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E127" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F127" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4116,13 +4134,13 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D128" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E128" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4133,16 +4151,16 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D129" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E129" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F129" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4153,13 +4171,13 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E130" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4170,13 +4188,13 @@
         <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D131" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E131" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4187,13 +4205,13 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D132" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E132" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4204,16 +4222,16 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D133" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E133" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F133" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4224,13 +4242,13 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D134" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E134" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4241,13 +4259,13 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D135" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E135" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4258,13 +4276,13 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D136" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E136" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4275,13 +4293,13 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D137" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E137" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4292,16 +4310,16 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D138" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E138" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F138" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4312,13 +4330,13 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D139" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E139" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4329,13 +4347,13 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D140" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E140" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4346,13 +4364,13 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D141" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E141" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4363,16 +4381,16 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D142" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E142" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F142" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4383,13 +4401,13 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D143" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E143" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4400,13 +4418,13 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D144" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E144" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4417,13 +4435,13 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D145" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E145" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4434,13 +4452,13 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D146" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E146" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4451,13 +4469,13 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D147" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E147" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4468,13 +4486,13 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D148" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E148" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4485,13 +4503,13 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D149" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E149" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4502,13 +4520,13 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D150" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E150" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4519,13 +4537,13 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D151" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E151" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4536,16 +4554,16 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D152" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E152" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F152" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4556,13 +4574,13 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D153" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E153" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4573,13 +4591,13 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D154" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E154" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4590,13 +4608,13 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D155" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E155" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4607,13 +4625,13 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D156" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E156" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4624,7 +4642,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4635,16 +4653,16 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D158" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E158" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F158" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4655,13 +4673,13 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D159" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E159" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4672,16 +4690,16 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D160" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E160" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F160" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4692,16 +4710,16 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D161" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E161" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F161" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4712,16 +4730,16 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D162" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E162" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F162" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4732,10 +4750,10 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F163" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4746,16 +4764,16 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D164" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E164" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F164" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4766,16 +4784,16 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D165" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E165" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F165" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4786,16 +4804,16 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D166" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E166" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F166" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4806,16 +4824,16 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D167" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E167" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F167" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4826,16 +4844,16 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D168" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E168" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F168" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4846,13 +4864,13 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D169" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E169" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4863,16 +4881,16 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D170" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E170" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F170" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4883,16 +4901,16 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D171" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E171" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F171" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4903,13 +4921,13 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D172" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E172" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4920,13 +4938,13 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D173" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E173" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4937,13 +4955,13 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D174" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E174" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4954,13 +4972,13 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D175" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E175" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4971,16 +4989,16 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D176" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E176" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F176" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4991,13 +5009,13 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D177" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E177" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5008,13 +5026,13 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E178" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5025,13 +5043,13 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D179" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E179" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5042,16 +5060,16 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D180" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E180" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F180" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5062,13 +5080,13 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D181" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E181" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5079,13 +5097,13 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D182" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E182" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5096,13 +5114,13 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D183" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E183" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5113,16 +5131,16 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D184" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E184" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F184" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5133,16 +5151,16 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D185" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E185" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F185" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5153,16 +5171,16 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D186" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E186" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F186" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5173,16 +5191,16 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D187" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E187" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F187" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5193,16 +5211,16 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D188" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E188" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F188" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5213,16 +5231,16 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D189" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E189" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F189" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5233,16 +5251,16 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D190" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E190" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F190" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5253,16 +5271,16 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D191" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E191" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F191" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5273,16 +5291,16 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D192" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E192" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F192" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5293,16 +5311,16 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D193" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E193" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F193" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5313,16 +5331,16 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D194" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E194" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F194" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5333,16 +5351,16 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D195" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E195" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F195" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5353,16 +5371,16 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D196" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E196" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F196" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5373,16 +5391,16 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D197" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E197" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F197" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5393,16 +5411,16 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D198" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E198" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F198" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5413,16 +5431,16 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D199" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E199" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F199" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5433,16 +5451,16 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D200" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E200" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F200" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5453,16 +5471,16 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D201" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E201" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F201" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5473,16 +5491,16 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D202" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E202" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F202" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5493,16 +5511,16 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D203" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E203" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F203" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5513,16 +5531,16 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D204" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E204" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F204" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5533,16 +5551,16 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D205" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E205" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F205" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5553,16 +5571,16 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D206" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E206" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F206" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5573,16 +5591,16 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D207" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E207" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F207" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5593,16 +5611,16 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D208" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E208" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F208" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5613,16 +5631,16 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D209" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E209" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F209" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5633,16 +5651,16 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D210" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E210" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F210" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5653,16 +5671,16 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D211" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E211" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F211" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5673,16 +5691,16 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D212" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E212" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F212" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5693,16 +5711,16 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D213" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E213" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F213" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5713,7 +5731,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5724,13 +5742,33 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" t="s">
+        <v>427</v>
+      </c>
+      <c r="E215" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
         <v>217</v>
       </c>
-      <c r="D215" t="s">
-        <v>426</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="C216" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216" t="s">
         <v>428</v>
+      </c>
+      <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="504">
   <si>
     <t>Role</t>
   </si>
@@ -487,9 +487,6 @@
     <t>User_Relationship_Specialist</t>
   </si>
   <si>
-    <t>Warranty_Specialist_Sweden</t>
-  </si>
-  <si>
     <t>External_Employee</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
     <t>Head_of_Europe_Business_Operation</t>
   </si>
   <si>
+    <t>Head_of_European_Service_Operation_-_ESO</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>gert_thomas</t>
   </si>
   <si>
-    <t>sebastian_kare,hasan_abbasi,frida_eriksson,dipak_kandel,rasmus_jorgensen,adrian_kare,yaghy_peter,elias_said,santo_bravo,daan_dorp,patrick_hogenhav,leon_reiff,jilly_hu,maximilian_sand,sedat_taspinar,philipp_maier,dennis_konieczny</t>
+    <t>sebastian_kare,hasan_abbasi,frida_eriksson,dipak_kandel,rasmus_jorgensen,adrian_kare,yaghy_peter,elias_said,santo_bravo,daan_dorp,patrick_hogenhav,leon_reiff,jilly_hu,maximilian_sand,sedat_taspinar,philipp_maier,dennis_konieczny,dawid_mindur</t>
   </si>
   <si>
     <t>daniel_erdtman</t>
@@ -784,7 +784,7 @@
     <t>evelyn_zhao,sizhe_huang,wei_qiang</t>
   </si>
   <si>
-    <t>stefan_gerea,stig_lura,tanja_pyka</t>
+    <t>stefan_gerea,stig_lura,tanja_pyka,christian_almind,jenny_samuelsson</t>
   </si>
   <si>
     <t>asbjoern_mitusch</t>
@@ -844,9 +844,6 @@
     <t>simone_barnabei,pepijn_gregorowitsch</t>
   </si>
   <si>
-    <t>dawid_mindur</t>
-  </si>
-  <si>
     <t>zitong_pan,charlotte_liu1,jing_hu,jessica_fu</t>
   </si>
   <si>
@@ -1057,9 +1054,6 @@
     <t>christel_molin</t>
   </si>
   <si>
-    <t>christian_almind</t>
-  </si>
-  <si>
     <t>julia_bock</t>
   </si>
   <si>
@@ -1075,7 +1069,7 @@
     <t>frederik_rorth</t>
   </si>
   <si>
-    <t>fab_scognamiglio,fab_scognamiglio</t>
+    <t>fab_scognamiglio</t>
   </si>
   <si>
     <t>roland_parragh,tibor_papp,hans_beyer,andre_tollefsen,attila_hudetz,dennis_mujic,gergo_almasi,martin_olsson,mate_mester,szilard_vass,erik_penning,ana_bjelcic_o,fredrik_aslund1,sheilla_campos_o,vassil_loukarsky_o,juliane_weinschenk</t>
@@ -1132,16 +1126,13 @@
     <t>sara_meloysund</t>
   </si>
   <si>
-    <t>jenny_samuelsson</t>
-  </si>
-  <si>
     <t>minko_sijpestein,christian_neergaard,minh_tran,daniel_erdtman</t>
   </si>
   <si>
     <t>lovepreet_singh</t>
   </si>
   <si>
-    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,fab_scognamiglio,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy,chris_di, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,ranee_miao, lovepreet_singh,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,ranee_miao, lovepreet_singh,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
   </si>
   <si>
     <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock,ranee_miao</t>
@@ -1156,13 +1147,13 @@
     <t>zhen_lai,Pallab_medhi,beckie_fan</t>
   </si>
   <si>
-    <t>marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,sarah_ding,brandy_lu,tobias_schrempf</t>
+    <t>marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin,paula_ramirez,renata_wolak,vincent_wen,sarah_ding,brandy_lu,tobias_schrempf,kajsa_ivansson</t>
   </si>
   <si>
     <t>brandy_lu,alexander_kunith,wouter_hollander,sarah_ding,tina_fan,shushan_khachatryan,dongxiao_sun,depraute_rene,matrai_peter, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich</t>
   </si>
   <si>
-    <t>robbie_maes, lovepreet_singh, sharon_zhou, finn_xue,amber_zhu, berry_spee</t>
+    <t>robbie_maes, lovepreet_singh, sharon_zhou,amber_zhu, berry_spee,finn_xue</t>
   </si>
   <si>
     <t>aldo_rosales</t>
@@ -1171,7 +1162,7 @@
     <t>jessie_xu, chenfeng_zou,lina_liu</t>
   </si>
   <si>
-    <t>chao_li19,yongshi_xu,wouter_hollander,shushan_khachatryan</t>
+    <t>chao_li19,yongshi_xu,shushan_khachatryan</t>
   </si>
   <si>
     <t>jiajun_yuan</t>
@@ -1228,7 +1219,7 @@
     <t>henry_shen</t>
   </si>
   <si>
-    <t>chengguo_shi,arnaud_rongy,chris_di, fatima_galean, katalin_konye,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
+    <t>chengguo_shi,arnaud_rongy, fatima_galean, katalin_konye,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
   </si>
   <si>
     <t>francis_ji</t>
@@ -1273,7 +1264,7 @@
     <t>quinten_robertz,juliane_weinschenk</t>
   </si>
   <si>
-    <t>usman_abbas1,romina_dehzani,monica_sand,sadia_Aden_Mohamed,marianne_moelmen,dongxiao_sun, fangpin_weng,quinten_robertz, magne_heggemoen</t>
+    <t>usman_abbas1,romina_dehzani,monica_sand,sadia_Aden_Mohamed,marianne_moelmen,dongxiao_sun, fangpin_weng,quinten_robertz</t>
   </si>
   <si>
     <t>rutger_berg,juliane_weinschenk</t>
@@ -1315,7 +1306,7 @@
     <t>HQ,Country</t>
   </si>
   <si>
-    <t>Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval</t>
+    <t>Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
   </si>
   <si>
     <t>User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -1333,7 +1324,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales</t>
   </si>
   <si>
-    <t>User_Closed-Loop,Marketing_Expenses</t>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Marketing_Expenses</t>
   </si>
   <si>
     <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
@@ -1345,6 +1336,9 @@
     <t>NIO_Life_-_Offline_Display,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
   </si>
   <si>
+    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
+  </si>
+  <si>
     <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
   </si>
   <si>
@@ -1402,7 +1396,7 @@
     <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
   </si>
   <si>
-    <t>User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
   </si>
   <si>
     <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
@@ -1441,7 +1435,7 @@
     <t>NIO_Life_-_Internal_Application</t>
   </si>
   <si>
-    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
+    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning</t>
   </si>
   <si>
     <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval</t>
@@ -1453,19 +1447,19 @@
     <t>Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
   </si>
   <si>
-    <t>User_Closed-Loop,Option_Offer,Pricing,GTM_Cadence,OTA</t>
-  </si>
-  <si>
-    <t>Sud_Experience_Confirmation,OTA</t>
-  </si>
-  <si>
-    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_NSCHub_Planning_And_Operation_Preparation,Service_Network,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Option_Offer,Pricing,GTM_Cadence,OTA</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
+  </si>
+  <si>
+    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
   </si>
   <si>
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses</t>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
   </si>
   <si>
     <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
@@ -1529,6 +1523,9 @@
   </si>
   <si>
     <t>Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>Service_Network_-_ASC_and_ASC_Lite_Planning</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1923,10 +1920,10 @@
         <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1943,10 +1940,10 @@
         <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1963,7 +1960,7 @@
         <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1980,7 +1977,7 @@
         <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1994,7 +1991,7 @@
         <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2011,7 +2008,7 @@
         <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2028,10 +2025,10 @@
         <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2048,10 +2045,10 @@
         <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2068,10 +2065,10 @@
         <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2088,10 +2085,10 @@
         <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2108,7 +2105,7 @@
         <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2125,7 +2122,7 @@
         <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2142,7 +2139,7 @@
         <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2159,10 +2156,10 @@
         <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2179,7 +2176,7 @@
         <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2196,10 +2193,10 @@
         <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F17" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2216,7 +2213,7 @@
         <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2233,7 +2230,7 @@
         <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2250,7 +2247,7 @@
         <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2267,7 +2264,7 @@
         <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2284,7 +2281,7 @@
         <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2315,7 +2312,7 @@
         <v>240</v>
       </c>
       <c r="E24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2332,7 +2329,7 @@
         <v>241</v>
       </c>
       <c r="E25" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2349,7 +2346,7 @@
         <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2366,7 +2363,7 @@
         <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2383,7 +2380,7 @@
         <v>244</v>
       </c>
       <c r="E28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2400,7 +2397,7 @@
         <v>245</v>
       </c>
       <c r="E29" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2417,7 +2414,7 @@
         <v>246</v>
       </c>
       <c r="E30" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2434,7 +2431,7 @@
         <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2451,7 +2448,7 @@
         <v>248</v>
       </c>
       <c r="E32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2468,7 +2465,7 @@
         <v>249</v>
       </c>
       <c r="E33" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2485,7 +2482,7 @@
         <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2502,7 +2499,7 @@
         <v>251</v>
       </c>
       <c r="E35" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2519,10 +2516,10 @@
         <v>252</v>
       </c>
       <c r="E36" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F36" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2539,7 +2536,10 @@
         <v>253</v>
       </c>
       <c r="E37" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="F37" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2556,7 +2556,7 @@
         <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2573,7 +2573,7 @@
         <v>255</v>
       </c>
       <c r="E39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2590,7 +2590,7 @@
         <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2607,7 +2607,7 @@
         <v>257</v>
       </c>
       <c r="E41" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2624,10 +2624,10 @@
         <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2644,7 +2644,7 @@
         <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2661,7 +2661,7 @@
         <v>260</v>
       </c>
       <c r="E44" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2678,7 +2678,7 @@
         <v>261</v>
       </c>
       <c r="E45" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2695,7 +2695,7 @@
         <v>262</v>
       </c>
       <c r="E46" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2712,7 +2712,7 @@
         <v>263</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2729,7 +2729,10 @@
         <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="F48" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2746,7 +2749,7 @@
         <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2763,10 +2766,10 @@
         <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2783,10 +2786,10 @@
         <v>267</v>
       </c>
       <c r="E51" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2803,7 +2806,7 @@
         <v>268</v>
       </c>
       <c r="E52" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2820,7 +2823,7 @@
         <v>269</v>
       </c>
       <c r="E53" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2837,7 +2840,7 @@
         <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2854,10 +2857,10 @@
         <v>271</v>
       </c>
       <c r="E55" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2874,7 +2877,7 @@
         <v>272</v>
       </c>
       <c r="E56" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2891,7 +2894,7 @@
         <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2908,7 +2911,7 @@
         <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2925,7 +2928,7 @@
         <v>275</v>
       </c>
       <c r="E59" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2933,7 +2936,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>218</v>
@@ -2942,7 +2945,7 @@
         <v>276</v>
       </c>
       <c r="E60" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2950,7 +2953,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>218</v>
@@ -2959,7 +2962,7 @@
         <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2967,7 +2970,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>218</v>
@@ -2976,7 +2979,7 @@
         <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2984,7 +2987,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>218</v>
@@ -2993,7 +2996,7 @@
         <v>279</v>
       </c>
       <c r="E63" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3001,7 +3004,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>218</v>
@@ -3010,7 +3013,10 @@
         <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="F64" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3018,7 +3024,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>218</v>
@@ -3027,10 +3033,7 @@
         <v>281</v>
       </c>
       <c r="E65" t="s">
-        <v>429</v>
-      </c>
-      <c r="F65" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3038,7 +3041,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
         <v>218</v>
@@ -3047,7 +3050,7 @@
         <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3055,7 +3058,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
         <v>218</v>
@@ -3064,7 +3067,7 @@
         <v>283</v>
       </c>
       <c r="E67" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3072,7 +3075,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
         <v>218</v>
@@ -3081,7 +3084,7 @@
         <v>284</v>
       </c>
       <c r="E68" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3089,7 +3092,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
         <v>218</v>
@@ -3098,7 +3101,7 @@
         <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3106,7 +3109,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>218</v>
@@ -3115,7 +3118,7 @@
         <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3123,7 +3126,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
         <v>218</v>
@@ -3132,7 +3135,7 @@
         <v>287</v>
       </c>
       <c r="E71" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3140,7 +3143,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
         <v>218</v>
@@ -3149,7 +3152,7 @@
         <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3157,7 +3160,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>218</v>
@@ -3166,7 +3169,7 @@
         <v>289</v>
       </c>
       <c r="E73" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3174,7 +3177,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
         <v>218</v>
@@ -3183,7 +3186,7 @@
         <v>290</v>
       </c>
       <c r="E74" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3191,7 +3194,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
         <v>218</v>
@@ -3200,7 +3203,10 @@
         <v>291</v>
       </c>
       <c r="E75" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="F75" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3208,7 +3214,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
         <v>218</v>
@@ -3217,10 +3223,7 @@
         <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>430</v>
-      </c>
-      <c r="F76" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3228,7 +3231,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
         <v>218</v>
@@ -3237,7 +3240,7 @@
         <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3245,7 +3248,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>218</v>
@@ -3254,7 +3257,10 @@
         <v>294</v>
       </c>
       <c r="E78" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="F78" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3262,7 +3268,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
         <v>218</v>
@@ -3271,10 +3277,10 @@
         <v>295</v>
       </c>
       <c r="E79" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3282,7 +3288,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
         <v>218</v>
@@ -3291,10 +3297,7 @@
         <v>296</v>
       </c>
       <c r="E80" t="s">
-        <v>430</v>
-      </c>
-      <c r="F80" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3302,7 +3305,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
         <v>218</v>
@@ -3311,7 +3314,7 @@
         <v>297</v>
       </c>
       <c r="E81" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3319,7 +3322,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
         <v>218</v>
@@ -3328,7 +3331,7 @@
         <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3336,16 +3339,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
         <v>218</v>
       </c>
       <c r="D83" t="s">
         <v>299</v>
-      </c>
-      <c r="E83" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3353,13 +3353,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
         <v>218</v>
       </c>
       <c r="D84" t="s">
         <v>300</v>
+      </c>
+      <c r="E84" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3367,7 +3370,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
         <v>218</v>
@@ -3376,7 +3379,7 @@
         <v>301</v>
       </c>
       <c r="E85" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3384,7 +3387,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
         <v>218</v>
@@ -3393,7 +3396,7 @@
         <v>302</v>
       </c>
       <c r="E86" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3401,7 +3404,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
         <v>218</v>
@@ -3410,7 +3413,7 @@
         <v>303</v>
       </c>
       <c r="E87" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3418,7 +3421,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
         <v>218</v>
@@ -3427,7 +3430,7 @@
         <v>304</v>
       </c>
       <c r="E88" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3435,7 +3438,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
         <v>218</v>
@@ -3444,7 +3447,10 @@
         <v>305</v>
       </c>
       <c r="E89" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F89" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3452,7 +3458,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
         <v>218</v>
@@ -3461,10 +3467,7 @@
         <v>306</v>
       </c>
       <c r="E90" t="s">
-        <v>429</v>
-      </c>
-      <c r="F90" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3472,7 +3475,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
         <v>218</v>
@@ -3481,7 +3484,7 @@
         <v>307</v>
       </c>
       <c r="E91" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3489,7 +3492,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
         <v>218</v>
@@ -3498,7 +3501,7 @@
         <v>308</v>
       </c>
       <c r="E92" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3506,7 +3509,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
         <v>218</v>
@@ -3515,7 +3518,7 @@
         <v>309</v>
       </c>
       <c r="E93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3523,7 +3526,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
         <v>218</v>
@@ -3532,7 +3535,7 @@
         <v>310</v>
       </c>
       <c r="E94" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3540,7 +3543,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
         <v>218</v>
@@ -3549,7 +3552,7 @@
         <v>311</v>
       </c>
       <c r="E95" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3557,7 +3560,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
         <v>218</v>
@@ -3566,7 +3569,7 @@
         <v>312</v>
       </c>
       <c r="E96" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3574,7 +3577,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
         <v>218</v>
@@ -3583,7 +3586,7 @@
         <v>313</v>
       </c>
       <c r="E97" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3591,7 +3594,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
         <v>218</v>
@@ -3600,7 +3603,7 @@
         <v>314</v>
       </c>
       <c r="E98" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3608,7 +3611,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
         <v>218</v>
@@ -3617,7 +3620,7 @@
         <v>315</v>
       </c>
       <c r="E99" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3625,7 +3628,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
         <v>218</v>
@@ -3634,7 +3637,7 @@
         <v>316</v>
       </c>
       <c r="E100" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3642,7 +3645,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
         <v>218</v>
@@ -3651,7 +3654,7 @@
         <v>317</v>
       </c>
       <c r="E101" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3659,7 +3662,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
         <v>218</v>
@@ -3668,7 +3671,7 @@
         <v>318</v>
       </c>
       <c r="E102" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3676,7 +3679,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
         <v>218</v>
@@ -3685,7 +3688,10 @@
         <v>319</v>
       </c>
       <c r="E103" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="F103" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3693,7 +3699,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
         <v>218</v>
@@ -3702,10 +3708,7 @@
         <v>320</v>
       </c>
       <c r="E104" t="s">
-        <v>430</v>
-      </c>
-      <c r="F104" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3713,7 +3716,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
         <v>218</v>
@@ -3722,7 +3725,7 @@
         <v>321</v>
       </c>
       <c r="E105" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3730,7 +3733,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
         <v>218</v>
@@ -3739,7 +3742,7 @@
         <v>322</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3747,7 +3750,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
         <v>218</v>
@@ -3756,7 +3759,7 @@
         <v>323</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3764,7 +3767,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
         <v>218</v>
@@ -3773,7 +3776,7 @@
         <v>324</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3781,7 +3784,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
         <v>218</v>
@@ -3790,7 +3793,7 @@
         <v>325</v>
       </c>
       <c r="E109" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3798,7 +3801,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
         <v>218</v>
@@ -3807,7 +3810,7 @@
         <v>326</v>
       </c>
       <c r="E110" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3815,7 +3818,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
         <v>218</v>
@@ -3824,7 +3827,10 @@
         <v>327</v>
       </c>
       <c r="E111" t="s">
-        <v>429</v>
+        <v>427</v>
+      </c>
+      <c r="F111" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3832,7 +3838,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
         <v>218</v>
@@ -3841,10 +3847,10 @@
         <v>328</v>
       </c>
       <c r="E112" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F112" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3852,7 +3858,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
         <v>218</v>
@@ -3861,10 +3867,10 @@
         <v>329</v>
       </c>
       <c r="E113" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F113" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3872,7 +3878,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
         <v>218</v>
@@ -3881,10 +3887,10 @@
         <v>330</v>
       </c>
       <c r="E114" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F114" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3892,7 +3898,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
         <v>218</v>
@@ -3901,10 +3907,10 @@
         <v>331</v>
       </c>
       <c r="E115" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F115" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3912,7 +3918,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
         <v>218</v>
@@ -3921,10 +3927,10 @@
         <v>332</v>
       </c>
       <c r="E116" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F116" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3932,7 +3938,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
         <v>218</v>
@@ -3941,10 +3947,10 @@
         <v>333</v>
       </c>
       <c r="E117" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F117" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3952,7 +3958,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
         <v>218</v>
@@ -3961,10 +3967,10 @@
         <v>334</v>
       </c>
       <c r="E118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3972,7 +3978,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
         <v>218</v>
@@ -3981,10 +3987,7 @@
         <v>335</v>
       </c>
       <c r="E119" t="s">
-        <v>430</v>
-      </c>
-      <c r="F119" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3992,7 +3995,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
         <v>218</v>
@@ -4001,7 +4004,7 @@
         <v>336</v>
       </c>
       <c r="E120" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4009,7 +4012,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
         <v>218</v>
@@ -4018,7 +4021,7 @@
         <v>337</v>
       </c>
       <c r="E121" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4026,7 +4029,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
         <v>218</v>
@@ -4035,7 +4038,7 @@
         <v>338</v>
       </c>
       <c r="E122" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4043,7 +4046,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
         <v>218</v>
@@ -4052,7 +4055,7 @@
         <v>339</v>
       </c>
       <c r="E123" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4060,7 +4063,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
         <v>218</v>
@@ -4069,7 +4072,7 @@
         <v>340</v>
       </c>
       <c r="E124" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4077,7 +4080,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
         <v>218</v>
@@ -4086,7 +4089,7 @@
         <v>341</v>
       </c>
       <c r="E125" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4094,7 +4097,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
         <v>218</v>
@@ -4103,7 +4106,10 @@
         <v>342</v>
       </c>
       <c r="E126" t="s">
-        <v>429</v>
+        <v>427</v>
+      </c>
+      <c r="F126" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4111,7 +4117,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
         <v>218</v>
@@ -4120,10 +4126,7 @@
         <v>343</v>
       </c>
       <c r="E127" t="s">
-        <v>430</v>
-      </c>
-      <c r="F127" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4131,7 +4134,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
         <v>218</v>
@@ -4140,7 +4143,10 @@
         <v>344</v>
       </c>
       <c r="E128" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="F128" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4148,7 +4154,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
         <v>218</v>
@@ -4157,10 +4163,7 @@
         <v>345</v>
       </c>
       <c r="E129" t="s">
-        <v>430</v>
-      </c>
-      <c r="F129" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4168,7 +4171,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
         <v>218</v>
@@ -4177,7 +4180,7 @@
         <v>346</v>
       </c>
       <c r="E130" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4185,7 +4188,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
         <v>218</v>
@@ -4194,7 +4197,10 @@
         <v>347</v>
       </c>
       <c r="E131" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="F131" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4202,7 +4208,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
         <v>218</v>
@@ -4211,7 +4217,7 @@
         <v>348</v>
       </c>
       <c r="E132" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4219,7 +4225,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
         <v>218</v>
@@ -4228,10 +4234,7 @@
         <v>349</v>
       </c>
       <c r="E133" t="s">
-        <v>430</v>
-      </c>
-      <c r="F133" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4239,7 +4242,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
         <v>218</v>
@@ -4248,7 +4251,7 @@
         <v>350</v>
       </c>
       <c r="E134" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4256,7 +4259,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
         <v>218</v>
@@ -4265,7 +4268,7 @@
         <v>351</v>
       </c>
       <c r="E135" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4273,7 +4276,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
         <v>218</v>
@@ -4282,7 +4285,10 @@
         <v>352</v>
       </c>
       <c r="E136" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F136" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4290,7 +4296,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
         <v>218</v>
@@ -4299,7 +4305,7 @@
         <v>353</v>
       </c>
       <c r="E137" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4307,7 +4313,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
         <v>218</v>
@@ -4316,10 +4322,7 @@
         <v>354</v>
       </c>
       <c r="E138" t="s">
-        <v>429</v>
-      </c>
-      <c r="F138" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4327,7 +4330,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
         <v>218</v>
@@ -4336,7 +4339,7 @@
         <v>355</v>
       </c>
       <c r="E139" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4344,7 +4347,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
         <v>218</v>
@@ -4353,7 +4356,10 @@
         <v>356</v>
       </c>
       <c r="E140" t="s">
-        <v>429</v>
+        <v>427</v>
+      </c>
+      <c r="F140" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4361,7 +4367,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
         <v>218</v>
@@ -4370,7 +4376,7 @@
         <v>357</v>
       </c>
       <c r="E141" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4378,7 +4384,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
         <v>218</v>
@@ -4387,10 +4393,7 @@
         <v>358</v>
       </c>
       <c r="E142" t="s">
-        <v>430</v>
-      </c>
-      <c r="F142" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4398,7 +4401,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
         <v>218</v>
@@ -4407,7 +4410,7 @@
         <v>359</v>
       </c>
       <c r="E143" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4415,7 +4418,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
         <v>218</v>
@@ -4424,7 +4427,7 @@
         <v>360</v>
       </c>
       <c r="E144" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4432,7 +4435,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
         <v>218</v>
@@ -4441,7 +4444,7 @@
         <v>361</v>
       </c>
       <c r="E145" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4449,7 +4452,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
         <v>218</v>
@@ -4458,7 +4461,7 @@
         <v>362</v>
       </c>
       <c r="E146" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4466,7 +4469,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
         <v>218</v>
@@ -4475,7 +4478,7 @@
         <v>363</v>
       </c>
       <c r="E147" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4483,7 +4486,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
         <v>218</v>
@@ -4492,7 +4495,7 @@
         <v>364</v>
       </c>
       <c r="E148" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4500,7 +4503,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
         <v>218</v>
@@ -4509,7 +4512,7 @@
         <v>365</v>
       </c>
       <c r="E149" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4517,7 +4520,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
         <v>218</v>
@@ -4526,7 +4529,10 @@
         <v>366</v>
       </c>
       <c r="E150" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="F150" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4534,7 +4540,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
         <v>218</v>
@@ -4543,7 +4549,7 @@
         <v>367</v>
       </c>
       <c r="E151" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4551,7 +4557,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
         <v>218</v>
@@ -4560,10 +4566,7 @@
         <v>368</v>
       </c>
       <c r="E152" t="s">
-        <v>430</v>
-      </c>
-      <c r="F152" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4571,7 +4574,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
         <v>218</v>
@@ -4580,7 +4583,7 @@
         <v>369</v>
       </c>
       <c r="E153" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4588,16 +4591,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
         <v>218</v>
-      </c>
-      <c r="D154" t="s">
-        <v>370</v>
-      </c>
-      <c r="E154" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4605,16 +4602,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
         <v>218</v>
       </c>
       <c r="D155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E155" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="F155" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4622,16 +4622,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
         <v>218</v>
       </c>
       <c r="D156" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E156" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4639,10 +4639,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
         <v>218</v>
+      </c>
+      <c r="D157" t="s">
+        <v>372</v>
+      </c>
+      <c r="E157" t="s">
+        <v>429</v>
+      </c>
+      <c r="F157" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4650,7 +4659,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
         <v>218</v>
@@ -4659,7 +4668,7 @@
         <v>373</v>
       </c>
       <c r="E158" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F158" t="s">
         <v>464</v>
@@ -4670,7 +4679,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
         <v>218</v>
@@ -4680,6 +4689,9 @@
       </c>
       <c r="E159" t="s">
         <v>429</v>
+      </c>
+      <c r="F159" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4687,19 +4699,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
         <v>218</v>
       </c>
-      <c r="D160" t="s">
-        <v>375</v>
-      </c>
-      <c r="E160" t="s">
-        <v>432</v>
-      </c>
       <c r="F160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4707,19 +4713,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
         <v>218</v>
       </c>
       <c r="D161" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E161" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F161" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4727,19 +4733,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
         <v>218</v>
       </c>
       <c r="D162" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E162" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F162" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4747,13 +4753,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
         <v>218</v>
       </c>
+      <c r="D163" t="s">
+        <v>377</v>
+      </c>
+      <c r="E163" t="s">
+        <v>429</v>
+      </c>
       <c r="F163" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4761,7 +4773,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
         <v>218</v>
@@ -4770,10 +4782,10 @@
         <v>378</v>
       </c>
       <c r="E164" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F164" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4781,7 +4793,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
         <v>218</v>
@@ -4790,10 +4802,10 @@
         <v>379</v>
       </c>
       <c r="E165" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F165" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4801,7 +4813,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
         <v>218</v>
@@ -4810,10 +4822,7 @@
         <v>380</v>
       </c>
       <c r="E166" t="s">
-        <v>429</v>
-      </c>
-      <c r="F166" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4821,7 +4830,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
         <v>218</v>
@@ -4830,7 +4839,7 @@
         <v>381</v>
       </c>
       <c r="E167" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F167" t="s">
         <v>472</v>
@@ -4841,7 +4850,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
         <v>218</v>
@@ -4850,10 +4859,10 @@
         <v>382</v>
       </c>
       <c r="E168" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F168" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4861,7 +4870,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
         <v>218</v>
@@ -4870,7 +4879,7 @@
         <v>383</v>
       </c>
       <c r="E169" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4878,7 +4887,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
         <v>218</v>
@@ -4887,10 +4896,7 @@
         <v>384</v>
       </c>
       <c r="E170" t="s">
-        <v>429</v>
-      </c>
-      <c r="F170" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4898,7 +4904,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
         <v>218</v>
@@ -4907,10 +4913,7 @@
         <v>385</v>
       </c>
       <c r="E171" t="s">
-        <v>429</v>
-      </c>
-      <c r="F171" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4918,7 +4921,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
         <v>218</v>
@@ -4927,7 +4930,7 @@
         <v>386</v>
       </c>
       <c r="E172" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4935,7 +4938,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
         <v>218</v>
@@ -4944,7 +4947,10 @@
         <v>387</v>
       </c>
       <c r="E173" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="F173" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4952,7 +4958,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
         <v>218</v>
@@ -4961,7 +4967,10 @@
         <v>388</v>
       </c>
       <c r="E174" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="F174" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4969,7 +4978,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
         <v>218</v>
@@ -4978,7 +4987,7 @@
         <v>389</v>
       </c>
       <c r="E175" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4986,7 +4995,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
         <v>218</v>
@@ -4995,10 +5004,7 @@
         <v>390</v>
       </c>
       <c r="E176" t="s">
-        <v>429</v>
-      </c>
-      <c r="F176" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5006,7 +5012,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
         <v>218</v>
@@ -5015,7 +5021,10 @@
         <v>391</v>
       </c>
       <c r="E177" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="F177" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5023,7 +5032,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
         <v>218</v>
@@ -5032,7 +5041,7 @@
         <v>392</v>
       </c>
       <c r="E178" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5040,7 +5049,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
         <v>218</v>
@@ -5049,7 +5058,7 @@
         <v>393</v>
       </c>
       <c r="E179" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5057,7 +5066,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
         <v>218</v>
@@ -5066,10 +5075,7 @@
         <v>394</v>
       </c>
       <c r="E180" t="s">
-        <v>429</v>
-      </c>
-      <c r="F180" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5077,7 +5083,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
         <v>218</v>
@@ -5087,6 +5093,9 @@
       </c>
       <c r="E181" t="s">
         <v>429</v>
+      </c>
+      <c r="F181" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5094,7 +5103,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
         <v>218</v>
@@ -5103,7 +5112,10 @@
         <v>396</v>
       </c>
       <c r="E182" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="F182" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5111,7 +5123,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C183" t="s">
         <v>218</v>
@@ -5120,7 +5132,10 @@
         <v>397</v>
       </c>
       <c r="E183" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="F183" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5128,7 +5143,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
         <v>218</v>
@@ -5137,10 +5152,10 @@
         <v>398</v>
       </c>
       <c r="E184" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F184" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5148,7 +5163,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
         <v>218</v>
@@ -5157,10 +5172,10 @@
         <v>399</v>
       </c>
       <c r="E185" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F185" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5168,7 +5183,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
         <v>218</v>
@@ -5177,10 +5192,10 @@
         <v>400</v>
       </c>
       <c r="E186" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F186" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5188,7 +5203,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
         <v>218</v>
@@ -5197,10 +5212,10 @@
         <v>401</v>
       </c>
       <c r="E187" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F187" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5208,7 +5223,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
         <v>218</v>
@@ -5217,10 +5232,10 @@
         <v>402</v>
       </c>
       <c r="E188" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F188" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5228,7 +5243,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
         <v>218</v>
@@ -5237,7 +5252,7 @@
         <v>403</v>
       </c>
       <c r="E189" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F189" t="s">
         <v>482</v>
@@ -5248,7 +5263,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
         <v>218</v>
@@ -5257,10 +5272,10 @@
         <v>404</v>
       </c>
       <c r="E190" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F190" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5268,7 +5283,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
         <v>218</v>
@@ -5277,10 +5292,10 @@
         <v>405</v>
       </c>
       <c r="E191" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F191" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5288,7 +5303,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
         <v>218</v>
@@ -5308,7 +5323,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
         <v>218</v>
@@ -5317,10 +5332,10 @@
         <v>407</v>
       </c>
       <c r="E193" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F193" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5328,7 +5343,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
         <v>218</v>
@@ -5337,7 +5352,7 @@
         <v>408</v>
       </c>
       <c r="E194" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F194" t="s">
         <v>485</v>
@@ -5348,7 +5363,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
         <v>218</v>
@@ -5357,7 +5372,7 @@
         <v>409</v>
       </c>
       <c r="E195" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F195" t="s">
         <v>486</v>
@@ -5368,7 +5383,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
         <v>218</v>
@@ -5377,7 +5392,7 @@
         <v>410</v>
       </c>
       <c r="E196" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F196" t="s">
         <v>487</v>
@@ -5388,7 +5403,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
         <v>218</v>
@@ -5397,10 +5412,10 @@
         <v>411</v>
       </c>
       <c r="E197" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F197" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5408,7 +5423,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
         <v>218</v>
@@ -5417,10 +5432,10 @@
         <v>412</v>
       </c>
       <c r="E198" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F198" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5428,7 +5443,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
         <v>218</v>
@@ -5437,10 +5452,10 @@
         <v>413</v>
       </c>
       <c r="E199" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F199" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5448,7 +5463,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
         <v>218</v>
@@ -5457,10 +5472,10 @@
         <v>414</v>
       </c>
       <c r="E200" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F200" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5468,7 +5483,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
         <v>218</v>
@@ -5477,10 +5492,10 @@
         <v>415</v>
       </c>
       <c r="E201" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F201" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5488,7 +5503,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
         <v>218</v>
@@ -5497,10 +5512,10 @@
         <v>416</v>
       </c>
       <c r="E202" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F202" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5508,19 +5523,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
         <v>218</v>
       </c>
       <c r="D203" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E203" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F203" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5528,19 +5543,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
         <v>218</v>
       </c>
       <c r="D204" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E204" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F204" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5548,19 +5563,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C205" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E205" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F205" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5568,19 +5583,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s">
         <v>218</v>
       </c>
       <c r="D206" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E206" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F206" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5588,7 +5603,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
         <v>218</v>
@@ -5597,10 +5612,10 @@
         <v>420</v>
       </c>
       <c r="E207" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F207" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5608,7 +5623,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C208" t="s">
         <v>218</v>
@@ -5617,10 +5632,10 @@
         <v>421</v>
       </c>
       <c r="E208" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F208" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5628,7 +5643,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C209" t="s">
         <v>218</v>
@@ -5637,10 +5652,10 @@
         <v>422</v>
       </c>
       <c r="E209" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F209" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5648,7 +5663,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C210" t="s">
         <v>218</v>
@@ -5657,10 +5672,10 @@
         <v>423</v>
       </c>
       <c r="E210" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F210" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5668,19 +5683,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
-      </c>
-      <c r="D211" t="s">
-        <v>424</v>
-      </c>
-      <c r="E211" t="s">
-        <v>431</v>
-      </c>
-      <c r="F211" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5688,19 +5694,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C212" t="s">
         <v>218</v>
       </c>
       <c r="D212" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E212" t="s">
-        <v>429</v>
-      </c>
-      <c r="F212" t="s">
-        <v>502</v>
+        <v>427</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5708,19 +5711,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C213" t="s">
         <v>218</v>
       </c>
       <c r="D213" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E213" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F213" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5728,47 +5731,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>216</v>
-      </c>
-      <c r="C215" t="s">
-        <v>218</v>
-      </c>
-      <c r="D215" t="s">
-        <v>427</v>
-      </c>
-      <c r="E215" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" t="s">
-        <v>217</v>
-      </c>
-      <c r="C216" t="s">
-        <v>218</v>
-      </c>
-      <c r="D216" t="s">
-        <v>428</v>
-      </c>
-      <c r="E216" t="s">
-        <v>430</v>
-      </c>
-      <c r="F216" t="s">
-        <v>504</v>
+      <c r="D214" t="s">
+        <v>219</v>
+      </c>
+      <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="506">
   <si>
     <t>Role</t>
   </si>
@@ -1342,6 +1342,9 @@
     <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
   </si>
   <si>
+    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+  </si>
+  <si>
     <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,Bulk_Deal_Offer_Approval</t>
   </si>
   <si>
@@ -1402,6 +1405,9 @@
     <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
   </si>
   <si>
+    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+  </si>
+  <si>
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
   </si>
   <si>
@@ -1420,7 +1426,7 @@
     <t>5Yr_Planning_Flow</t>
   </si>
   <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
@@ -1453,13 +1459,13 @@
     <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
   </si>
   <si>
-    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
   </si>
   <si>
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
   </si>
   <si>
     <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
@@ -1525,7 +1531,7 @@
     <t>Marketing_Expenses</t>
   </si>
   <si>
-    <t>Service_Network_-_ASC_and_ASC_Lite_Planning</t>
+    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
   </si>
 </sst>
 </file>
@@ -2732,7 +2738,7 @@
         <v>427</v>
       </c>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2789,7 +2795,7 @@
         <v>426</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2860,7 +2866,7 @@
         <v>426</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3016,7 +3022,7 @@
         <v>426</v>
       </c>
       <c r="F64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3206,7 +3212,7 @@
         <v>427</v>
       </c>
       <c r="F75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3260,7 +3266,7 @@
         <v>426</v>
       </c>
       <c r="F78" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3280,7 +3286,7 @@
         <v>427</v>
       </c>
       <c r="F79" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3450,7 +3456,7 @@
         <v>426</v>
       </c>
       <c r="F89" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3691,7 +3697,7 @@
         <v>427</v>
       </c>
       <c r="F103" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3830,7 +3836,7 @@
         <v>427</v>
       </c>
       <c r="F111" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3850,7 +3856,7 @@
         <v>428</v>
       </c>
       <c r="F112" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3870,7 +3876,7 @@
         <v>426</v>
       </c>
       <c r="F113" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3890,7 +3896,7 @@
         <v>426</v>
       </c>
       <c r="F114" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3910,7 +3916,7 @@
         <v>426</v>
       </c>
       <c r="F115" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3930,7 +3936,7 @@
         <v>426</v>
       </c>
       <c r="F116" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3950,7 +3956,7 @@
         <v>426</v>
       </c>
       <c r="F117" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3970,7 +3976,7 @@
         <v>427</v>
       </c>
       <c r="F118" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4109,7 +4115,7 @@
         <v>427</v>
       </c>
       <c r="F126" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4146,7 +4152,7 @@
         <v>427</v>
       </c>
       <c r="F128" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4200,7 +4206,7 @@
         <v>427</v>
       </c>
       <c r="F131" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4288,7 +4294,7 @@
         <v>426</v>
       </c>
       <c r="F136" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4359,7 +4365,7 @@
         <v>427</v>
       </c>
       <c r="F140" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4480,6 +4486,9 @@
       <c r="E147" t="s">
         <v>427</v>
       </c>
+      <c r="F147" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
@@ -4614,7 +4623,7 @@
         <v>427</v>
       </c>
       <c r="F155" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4651,7 +4660,7 @@
         <v>429</v>
       </c>
       <c r="F157" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4671,7 +4680,7 @@
         <v>429</v>
       </c>
       <c r="F158" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4691,7 +4700,7 @@
         <v>429</v>
       </c>
       <c r="F159" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4705,7 +4714,7 @@
         <v>218</v>
       </c>
       <c r="F160" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4725,7 +4734,7 @@
         <v>426</v>
       </c>
       <c r="F161" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4745,7 +4754,7 @@
         <v>426</v>
       </c>
       <c r="F162" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4765,7 +4774,7 @@
         <v>429</v>
       </c>
       <c r="F163" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4785,7 +4794,7 @@
         <v>426</v>
       </c>
       <c r="F164" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4805,7 +4814,7 @@
         <v>426</v>
       </c>
       <c r="F165" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4842,7 +4851,7 @@
         <v>426</v>
       </c>
       <c r="F167" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4950,7 +4959,7 @@
         <v>426</v>
       </c>
       <c r="F173" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5024,7 +5033,7 @@
         <v>426</v>
       </c>
       <c r="F177" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5095,7 +5104,7 @@
         <v>429</v>
       </c>
       <c r="F181" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5115,7 +5124,7 @@
         <v>426</v>
       </c>
       <c r="F182" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5135,7 +5144,7 @@
         <v>426</v>
       </c>
       <c r="F183" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5155,7 +5164,7 @@
         <v>426</v>
       </c>
       <c r="F184" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5175,7 +5184,7 @@
         <v>426</v>
       </c>
       <c r="F185" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5195,7 +5204,7 @@
         <v>426</v>
       </c>
       <c r="F186" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5215,7 +5224,7 @@
         <v>426</v>
       </c>
       <c r="F187" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5235,7 +5244,7 @@
         <v>426</v>
       </c>
       <c r="F188" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5255,7 +5264,7 @@
         <v>426</v>
       </c>
       <c r="F189" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5275,7 +5284,7 @@
         <v>426</v>
       </c>
       <c r="F190" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5295,7 +5304,7 @@
         <v>426</v>
       </c>
       <c r="F191" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5315,7 +5324,7 @@
         <v>429</v>
       </c>
       <c r="F192" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5335,7 +5344,7 @@
         <v>426</v>
       </c>
       <c r="F193" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5355,7 +5364,7 @@
         <v>426</v>
       </c>
       <c r="F194" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5375,7 +5384,7 @@
         <v>426</v>
       </c>
       <c r="F195" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5395,7 +5404,7 @@
         <v>426</v>
       </c>
       <c r="F196" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5415,7 +5424,7 @@
         <v>426</v>
       </c>
       <c r="F197" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5435,7 +5444,7 @@
         <v>426</v>
       </c>
       <c r="F198" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5455,7 +5464,7 @@
         <v>428</v>
       </c>
       <c r="F199" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5475,7 +5484,7 @@
         <v>426</v>
       </c>
       <c r="F200" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5495,7 +5504,7 @@
         <v>426</v>
       </c>
       <c r="F201" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5515,7 +5524,7 @@
         <v>428</v>
       </c>
       <c r="F202" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5535,7 +5544,7 @@
         <v>426</v>
       </c>
       <c r="F203" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5555,7 +5564,7 @@
         <v>426</v>
       </c>
       <c r="F204" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5575,7 +5584,7 @@
         <v>429</v>
       </c>
       <c r="F205" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5595,7 +5604,7 @@
         <v>426</v>
       </c>
       <c r="F206" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5615,7 +5624,7 @@
         <v>426</v>
       </c>
       <c r="F207" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5635,7 +5644,7 @@
         <v>428</v>
       </c>
       <c r="F208" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5655,7 +5664,7 @@
         <v>426</v>
       </c>
       <c r="F209" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5675,7 +5684,7 @@
         <v>426</v>
       </c>
       <c r="F210" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5723,7 +5732,7 @@
         <v>427</v>
       </c>
       <c r="F213" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5743,7 +5752,7 @@
         <v>426</v>
       </c>
       <c r="F214" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="523">
   <si>
     <t>Role</t>
   </si>
@@ -196,7 +196,7 @@
     <t>Logistics_Specialist</t>
   </si>
   <si>
-    <t>Manager_Service_Planning_and_Strategy</t>
+    <t>Service_Operation</t>
   </si>
   <si>
     <t>Mobile_Technician</t>
@@ -670,6 +670,15 @@
     <t>Head_of_European_Service_Operation_-_ESO</t>
   </si>
   <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>CMQ_Assurance</t>
+  </si>
+  <si>
+    <t>RSA_Supplier</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -835,7 +844,7 @@
     <t>tom_brueland</t>
   </si>
   <si>
-    <t>julien_jung</t>
+    <t>julien_jung,roelof_kluiver,pernille_vive,janerik_eriksson</t>
   </si>
   <si>
     <t>saeed_erfani,alexander_kern,sefa_cabar,karzan_mirza</t>
@@ -937,7 +946,7 @@
     <t>juliane_weinschenk,kasper_klint,melissa_cs,richard_vermeulen,daniel_wijers,daniel_nielsen,erik_penning,chi_lo_o,emilia_dera_o</t>
   </si>
   <si>
-    <t>sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,adem_yerlikaya,per_brandvik</t>
+    <t>sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,adem_yerlikaya,per_brandvik,julien_jung,pernille_vive,janerik_eriksson</t>
   </si>
   <si>
     <t>nadim_mohammad</t>
@@ -1294,6 +1303,9 @@
     <t>matt_galvin</t>
   </si>
   <si>
+    <t>brett_pan</t>
+  </si>
+  <si>
     <t>HQ</t>
   </si>
   <si>
@@ -1318,129 +1330,165 @@
     <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
   </si>
   <si>
+    <t>OTA,EB_User_Operation_-_Partner_Strategy</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy</t>
+  </si>
+  <si>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
+  </si>
+  <si>
+    <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
+  </si>
+  <si>
+    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,Bulk_Deal_Offer_Approval,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
+  </si>
+  <si>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
+  </si>
+  <si>
+    <t>GTM_Cadence,Corporate_Changes,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Export_-_Planned_Export,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
+  </si>
+  <si>
+    <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
+  </si>
+  <si>
+    <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>Pre_MP_And_Launch_Stock_Ordering,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+  </si>
+  <si>
+    <t>Long_Term_Volume_Planning</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display</t>
+  </si>
+  <si>
+    <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
+  </si>
+  <si>
+    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+  </si>
+  <si>
+    <t>OTA,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation</t>
+  </si>
+  <si>
+    <t>5Yr_Planning_Flow</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Internal_Application</t>
+  </si>
+  <si>
     <t>OTA</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales</t>
-  </si>
-  <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Offline_Display,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Offline_Display,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
-  </si>
-  <si>
-    <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
-  </si>
-  <si>
-    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,Bulk_Deal_Offer_Approval</t>
-  </si>
-  <si>
-    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
-  </si>
-  <si>
-    <t>GTM_Cadence,Corporate_Changes,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Export_-_Planned_Export,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
-  </si>
-  <si>
-    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
-  </si>
-  <si>
-    <t>Pre_MP_And_Launch_Stock_Ordering,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Long_Term_Volume_Planning</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Offline_Display</t>
-  </si>
-  <si>
-    <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
-  </si>
-  <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
-  </si>
-  <si>
-    <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
-  </si>
-  <si>
-    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
-  </si>
-  <si>
-    <t>5Yr_Planning_Flow</t>
-  </si>
-  <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Internal_Application</t>
-  </si>
-  <si>
     <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning</t>
   </si>
   <si>
@@ -1459,13 +1507,13 @@
     <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
   </si>
   <si>
-    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution</t>
   </si>
   <si>
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation</t>
   </si>
   <si>
     <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
@@ -1532,6 +1580,9 @@
   </si>
   <si>
     <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+  </si>
+  <si>
+    <t>Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,16 +1971,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1940,16 +1991,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1960,13 +2011,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1977,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1994,10 +2045,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2008,13 +2059,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2025,16 +2076,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2045,16 +2096,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F9" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2065,16 +2116,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F10" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2085,16 +2136,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F11" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2105,13 +2156,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F12" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2122,13 +2176,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F13" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2139,13 +2196,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F14" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2156,16 +2216,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E15" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2176,13 +2236,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F16" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2193,16 +2256,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E17" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F17" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2213,13 +2276,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2230,13 +2296,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E19" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2247,13 +2313,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2264,13 +2330,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2281,13 +2347,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2298,10 +2364,10 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2312,13 +2378,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F24" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2329,13 +2398,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2346,13 +2415,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2363,13 +2432,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E27" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2380,13 +2449,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2397,13 +2466,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F29" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2414,13 +2486,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F30" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2431,13 +2506,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2448,13 +2523,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2465,13 +2540,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E33" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2482,13 +2557,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2499,13 +2574,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E35" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2516,16 +2591,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E36" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F36" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2536,16 +2611,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F37" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2556,13 +2631,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E38" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2573,13 +2648,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E39" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2590,13 +2665,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E40" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2607,13 +2682,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E41" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2624,16 +2699,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E42" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F42" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2644,13 +2719,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E43" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2661,13 +2736,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E44" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F44" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2678,13 +2756,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2695,13 +2773,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2712,13 +2790,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2729,16 +2807,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E48" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F48" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2749,13 +2827,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E49" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2766,16 +2844,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F50" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2786,16 +2864,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E51" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F51" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2806,13 +2884,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E52" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2823,13 +2901,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E53" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F53" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2840,13 +2921,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2857,16 +2938,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F55" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2877,13 +2958,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E56" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2894,13 +2975,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F57" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2911,13 +2995,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E58" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F58" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2928,13 +3015,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D59" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2945,13 +3032,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2962,13 +3049,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E61" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2979,13 +3066,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E62" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2996,13 +3083,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E63" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3013,16 +3100,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E64" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F64" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3033,13 +3120,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E65" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3050,13 +3137,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D66" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E66" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3067,13 +3154,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E67" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3084,13 +3171,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E68" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3101,13 +3188,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3118,13 +3205,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F70" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3135,13 +3225,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E71" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3152,13 +3242,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3169,13 +3259,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3186,13 +3276,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3203,16 +3293,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E75" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3223,13 +3313,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E76" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3240,13 +3330,13 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E77" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3257,16 +3347,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D78" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F78" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3277,16 +3367,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3297,13 +3387,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E80" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F80" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3314,13 +3407,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E81" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F81" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3331,13 +3427,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E82" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3348,10 +3444,10 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3362,13 +3458,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D84" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E84" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3379,13 +3475,13 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D85" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E85" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3396,13 +3492,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E86" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3413,13 +3509,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E87" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3430,13 +3526,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D88" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E88" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F88" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3447,16 +3546,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E89" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F89" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3467,13 +3566,13 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D90" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E90" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3484,13 +3583,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D91" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E91" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F91" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3501,13 +3603,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D92" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E92" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F92" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3518,13 +3623,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D93" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E93" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3535,13 +3640,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D94" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E94" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F94" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3552,13 +3660,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E95" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3569,13 +3677,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E96" t="s">
-        <v>426</v>
+        <v>430</v>
+      </c>
+      <c r="F96" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3586,13 +3697,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E97" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3603,13 +3714,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E98" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F98" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3620,13 +3734,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E99" t="s">
-        <v>426</v>
+        <v>430</v>
+      </c>
+      <c r="F99" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3637,13 +3754,13 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E100" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3654,13 +3771,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E101" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3671,13 +3788,13 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D102" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E102" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3688,16 +3805,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D103" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E103" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F103" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3708,13 +3825,13 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D104" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E104" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3725,13 +3842,13 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E105" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3742,13 +3859,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E106" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3759,13 +3876,13 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E107" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3776,13 +3893,13 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D108" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E108" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3793,13 +3910,13 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D109" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E109" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3810,13 +3927,13 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D110" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E110" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3827,16 +3944,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D111" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E111" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F111" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3847,16 +3964,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D112" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E112" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F112" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3867,16 +3984,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D113" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E113" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F113" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3887,16 +4004,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E114" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F114" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3907,16 +4024,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D115" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E115" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F115" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3927,16 +4044,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D116" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E116" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F116" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3947,16 +4064,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D117" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E117" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F117" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3967,16 +4084,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D118" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E118" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F118" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3987,13 +4104,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D119" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E119" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4004,13 +4121,13 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D120" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E120" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4021,13 +4138,13 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D121" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E121" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4038,13 +4155,13 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D122" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E122" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4055,13 +4172,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E123" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F123" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4072,13 +4192,13 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D124" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E124" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4089,13 +4209,13 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D125" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E125" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4106,16 +4226,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D126" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E126" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F126" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4126,13 +4246,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D127" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E127" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F127" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4143,16 +4266,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D128" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E128" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F128" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4163,13 +4286,13 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D129" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E129" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4180,13 +4303,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D130" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E130" t="s">
-        <v>426</v>
+        <v>430</v>
+      </c>
+      <c r="F130" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4197,16 +4323,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D131" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E131" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F131" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4217,13 +4343,13 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D132" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E132" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4234,13 +4360,13 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D133" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E133" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4251,13 +4377,13 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D134" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E134" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4268,13 +4394,13 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D135" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E135" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4285,16 +4411,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D136" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E136" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F136" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4305,13 +4431,13 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E137" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4322,13 +4448,13 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D138" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E138" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4339,13 +4465,13 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D139" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E139" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4356,16 +4482,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D140" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E140" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F140" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4376,13 +4502,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D141" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E141" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F141" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4393,13 +4522,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D142" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E142" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4410,13 +4539,13 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D143" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E143" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4427,13 +4556,13 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D144" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E144" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4444,13 +4573,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D145" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E145" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F145" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4461,13 +4593,13 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D146" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E146" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4478,16 +4610,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D147" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E147" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F147" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4498,13 +4630,13 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D148" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E148" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4515,13 +4647,13 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D149" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E149" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4532,16 +4664,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D150" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E150" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F150" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4552,13 +4684,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D151" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E151" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F151" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4569,13 +4704,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D152" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E152" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="F152" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4586,13 +4724,13 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D153" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E153" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4603,7 +4741,7 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4614,16 +4752,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D155" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E155" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F155" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4634,13 +4772,13 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D156" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E156" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4651,16 +4789,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D157" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F157" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4671,16 +4809,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D158" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E158" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F158" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4691,16 +4829,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D159" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E159" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F159" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4711,10 +4849,10 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F160" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4725,16 +4863,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D161" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E161" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F161" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4745,16 +4883,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D162" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F162" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4765,16 +4903,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D163" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E163" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F163" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4785,16 +4923,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D164" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E164" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F164" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4805,16 +4943,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D165" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E165" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F165" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4825,13 +4963,13 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D166" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E166" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4842,16 +4980,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D167" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E167" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F167" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4862,16 +5000,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D168" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E168" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F168" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4882,13 +5020,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D169" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E169" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4899,13 +5037,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D170" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E170" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4916,13 +5054,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D171" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E171" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4933,13 +5071,13 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D172" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E172" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4950,16 +5088,16 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D173" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E173" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F173" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4970,16 +5108,16 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D174" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E174" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F174" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4990,13 +5128,13 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D175" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E175" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5007,13 +5145,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D176" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E176" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5024,16 +5162,16 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D177" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E177" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F177" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5044,13 +5182,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D178" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E178" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5061,13 +5199,13 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D179" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E179" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5078,13 +5216,13 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D180" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E180" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5095,16 +5233,16 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D181" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E181" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F181" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5115,16 +5253,16 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D182" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E182" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F182" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5135,16 +5273,16 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D183" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E183" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F183" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5155,16 +5293,16 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D184" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E184" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F184" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5175,16 +5313,16 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D185" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E185" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F185" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5195,16 +5333,16 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D186" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E186" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F186" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5215,16 +5353,16 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D187" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E187" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F187" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5235,16 +5373,16 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D188" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E188" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F188" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5255,16 +5393,16 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D189" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E189" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F189" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5275,16 +5413,16 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D190" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E190" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F190" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5295,16 +5433,16 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D191" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E191" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F191" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5315,16 +5453,16 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D192" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E192" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F192" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5335,16 +5473,16 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D193" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E193" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F193" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5355,16 +5493,16 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D194" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E194" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F194" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5375,16 +5513,16 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D195" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E195" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F195" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5395,16 +5533,16 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D196" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E196" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F196" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5415,16 +5553,16 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D197" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E197" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F197" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5435,16 +5573,16 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D198" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E198" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F198" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5455,16 +5593,16 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D199" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E199" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F199" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5475,16 +5613,16 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D200" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E200" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F200" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5495,16 +5633,16 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D201" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E201" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F201" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5515,16 +5653,16 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D202" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E202" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F202" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5535,16 +5673,16 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D203" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E203" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F203" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5555,16 +5693,16 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D204" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E204" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F204" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5575,16 +5713,16 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D205" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E205" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F205" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5595,16 +5733,16 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D206" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E206" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F206" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5615,16 +5753,16 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D207" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E207" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F207" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5635,16 +5773,16 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D208" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E208" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F208" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5655,16 +5793,16 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D209" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E209" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F209" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5675,16 +5813,16 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D210" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E210" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F210" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5695,7 +5833,7 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5706,13 +5844,13 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D212" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E212" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5723,16 +5861,16 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D213" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E213" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F213" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5743,16 +5881,61 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
+        <v>221</v>
+      </c>
+      <c r="D214" t="s">
+        <v>222</v>
+      </c>
+      <c r="E214" t="s">
+        <v>430</v>
+      </c>
+      <c r="F214" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
         <v>218</v>
       </c>
-      <c r="D214" t="s">
+      <c r="C215" t="s">
+        <v>221</v>
+      </c>
+      <c r="F215" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
         <v>219</v>
       </c>
-      <c r="E214" t="s">
-        <v>426</v>
-      </c>
-      <c r="F214" t="s">
-        <v>505</v>
+      <c r="C216" t="s">
+        <v>221</v>
+      </c>
+      <c r="D216" t="s">
+        <v>429</v>
+      </c>
+      <c r="F216" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" t="s">
+        <v>221</v>
+      </c>
+      <c r="F217" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="531">
   <si>
     <t>Role</t>
   </si>
@@ -679,6 +679,12 @@
     <t>RSA_Supplier</t>
   </si>
   <si>
+    <t>Market_Entry_PMO_Team</t>
+  </si>
+  <si>
+    <t>5-Star_user_journey_&amp;_launch_schedule_team</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -1306,6 +1312,12 @@
     <t>brett_pan</t>
   </si>
   <si>
+    <t>ziye_chen,qianling_duan,wanli_ren,sarah_opfer,winnie_wu1,di_hu1</t>
+  </si>
+  <si>
+    <t>meiling_wu,bingqiu_hou, jason_tang1,jorry_zhou,hongyi_ji</t>
+  </si>
+  <si>
     <t>HQ</t>
   </si>
   <si>
@@ -1327,117 +1339,123 @@
     <t>GTM_Milestone_Adjustment</t>
   </si>
   <si>
-    <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
-  </si>
-  <si>
-    <t>OTA,EB_User_Operation_-_Partner_Strategy</t>
+    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
+  </si>
+  <si>
+    <t>OTA,EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
   </si>
   <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Marketing_Expenses</t>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Marketing_Expenses,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
+  </si>
+  <si>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
+  </si>
+  <si>
+    <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
+  </si>
+  <si>
+    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,Bulk_Deal_Offer_Approval,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
+  </si>
+  <si>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
+  </si>
+  <si>
+    <t>GTM_Cadence,Corporate_Changes,Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry</t>
+  </si>
+  <si>
+    <t>EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Export_-_Planned_Export,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
+  </si>
+  <si>
+    <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
+  </si>
+  <si>
+    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>Pre_MP_And_Launch_Stock_Ordering,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+  </si>
+  <si>
+    <t>Long_Term_Volume_Planning</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display</t>
   </si>
   <si>
     <t>EB_User_Operation_-_Partner_Strategy</t>
   </si>
   <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Offline_Display,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Offline_Display,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
-  </si>
-  <si>
-    <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
-  </si>
-  <si>
-    <t>EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
-  </si>
-  <si>
-    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,Bulk_Deal_Offer_Approval,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
-  </si>
-  <si>
-    <t>Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
-  </si>
-  <si>
-    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
-  </si>
-  <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
-  </si>
-  <si>
-    <t>GTM_Cadence,Corporate_Changes,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Export_-_Planned_Export,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
-  </si>
-  <si>
-    <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
-  </si>
-  <si>
-    <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
-  </si>
-  <si>
-    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
-  </si>
-  <si>
-    <t>Pre_MP_And_Launch_Stock_Ordering,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
-  </si>
-  <si>
-    <t>Long_Term_Volume_Planning</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Offline_Display</t>
-  </si>
-  <si>
     <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
   </si>
   <si>
@@ -1513,7 +1531,7 @@
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation</t>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation</t>
   </si>
   <si>
     <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
@@ -1583,6 +1601,12 @@
   </si>
   <si>
     <t>Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
+  </si>
+  <si>
+    <t>EB_-_Europe_Business_Enabling_-_Market_Entry</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1971,16 +1995,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1991,16 +2015,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2011,13 +2035,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2028,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2045,10 +2069,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2059,13 +2083,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2076,16 +2100,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2096,16 +2120,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2116,16 +2140,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2136,16 +2160,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2156,16 +2180,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F12" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2176,16 +2200,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2196,16 +2220,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2216,16 +2240,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2236,16 +2260,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F16" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2256,16 +2280,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F17" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2276,16 +2300,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F18" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2296,13 +2320,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2313,13 +2337,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2330,13 +2354,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2347,13 +2371,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2364,10 +2388,10 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2378,16 +2402,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F24" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2398,13 +2422,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2415,13 +2439,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2432,13 +2456,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2449,13 +2473,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2466,16 +2490,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F29" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2486,16 +2510,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F30" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2506,13 +2530,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2523,13 +2547,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2540,13 +2564,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E33" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2557,13 +2581,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2574,13 +2598,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2591,16 +2615,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E36" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F36" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2611,16 +2635,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E37" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F37" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2631,13 +2655,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E38" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2648,13 +2672,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2665,13 +2689,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E40" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2682,13 +2706,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E41" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2699,16 +2723,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E42" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F42" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2719,13 +2743,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E43" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2736,16 +2760,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F44" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2756,13 +2780,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E45" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2773,13 +2797,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D46" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E46" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2790,13 +2814,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2807,16 +2831,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E48" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F48" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2827,13 +2851,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2844,16 +2868,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E50" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F50" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2864,16 +2888,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F51" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2884,13 +2908,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D52" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2901,16 +2925,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F53" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2921,13 +2945,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2938,16 +2962,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F55" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2958,13 +2982,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2975,16 +2999,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F57" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2995,16 +3019,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E58" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F58" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3015,13 +3039,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3032,13 +3056,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3049,13 +3073,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E61" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3066,13 +3090,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E62" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3083,13 +3107,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D63" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E63" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3100,16 +3124,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D64" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E64" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F64" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3120,13 +3144,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3137,13 +3161,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E66" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3154,13 +3178,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E67" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3171,13 +3195,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E68" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3188,13 +3212,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E69" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3205,16 +3229,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E70" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F70" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3225,13 +3249,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D71" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E71" t="s">
-        <v>431</v>
+        <v>435</v>
+      </c>
+      <c r="F71" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3242,13 +3269,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E72" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3259,13 +3286,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D73" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3276,13 +3303,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3293,16 +3320,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3313,13 +3340,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E76" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3330,13 +3357,13 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E77" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3347,16 +3374,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E78" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F78" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3367,16 +3394,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E79" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3387,16 +3414,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E80" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F80" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3407,16 +3434,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D81" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E81" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F81" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3427,13 +3454,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E82" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3444,10 +3471,10 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D83" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3458,13 +3485,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E84" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3475,13 +3502,13 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D85" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E85" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3492,13 +3519,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E86" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3509,13 +3536,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E87" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3526,16 +3553,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E88" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F88" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3546,16 +3573,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E89" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F89" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3566,13 +3593,13 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E90" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3583,16 +3610,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E91" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F91" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3603,16 +3630,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E92" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F92" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3623,13 +3650,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E93" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3640,16 +3667,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E94" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F94" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3660,13 +3687,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D95" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E95" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3677,16 +3704,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D96" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E96" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F96" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3697,13 +3724,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D97" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E97" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3714,16 +3741,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D98" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E98" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F98" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3734,16 +3761,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E99" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F99" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3754,13 +3781,13 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E100" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3771,13 +3798,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E101" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3788,13 +3815,13 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E102" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3805,16 +3832,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D103" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E103" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F103" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3825,13 +3852,13 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D104" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E104" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3842,13 +3869,13 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D105" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E105" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3859,13 +3886,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D106" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E106" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3876,13 +3903,13 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D107" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E107" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3893,13 +3920,13 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D108" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3910,13 +3937,13 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E109" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3927,13 +3954,13 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D110" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E110" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3944,16 +3971,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D111" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E111" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F111" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3964,16 +3991,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D112" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E112" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F112" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3984,16 +4011,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D113" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E113" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F113" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4004,16 +4031,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D114" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E114" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4024,16 +4051,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D115" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F115" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4044,16 +4071,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D116" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E116" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F116" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4064,16 +4091,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D117" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E117" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F117" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4084,16 +4111,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E118" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F118" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4104,13 +4131,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D119" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E119" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4121,13 +4148,13 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D120" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E120" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4138,13 +4165,13 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D121" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E121" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4155,13 +4182,13 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D122" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E122" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4172,16 +4199,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D123" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E123" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F123" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4192,13 +4219,13 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D124" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E124" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4209,13 +4236,13 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D125" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E125" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4226,16 +4253,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D126" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E126" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F126" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4246,16 +4273,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D127" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E127" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F127" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4266,16 +4293,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D128" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E128" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F128" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4286,13 +4313,13 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D129" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E129" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4303,16 +4330,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D130" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E130" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F130" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4323,16 +4350,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D131" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E131" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F131" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4343,13 +4370,13 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D132" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E132" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4360,13 +4387,13 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D133" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E133" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4377,13 +4404,13 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D134" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E134" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4394,13 +4421,13 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E135" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4411,16 +4438,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D136" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E136" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F136" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4431,13 +4458,13 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D137" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E137" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4448,13 +4475,13 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D138" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E138" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4465,13 +4492,13 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D139" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E139" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4482,16 +4509,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D140" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E140" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F140" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4502,16 +4529,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D141" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E141" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F141" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4522,13 +4549,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D142" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E142" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4539,13 +4566,13 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D143" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E143" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4556,13 +4583,13 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D144" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E144" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4573,16 +4600,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D145" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E145" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F145" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4593,13 +4620,13 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D146" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E146" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4610,16 +4637,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D147" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E147" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F147" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4630,13 +4657,13 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D148" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E148" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4647,13 +4674,13 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D149" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E149" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4664,16 +4691,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D150" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E150" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F150" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4684,16 +4711,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D151" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E151" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F151" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4704,16 +4731,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D152" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E152" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F152" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4724,13 +4751,13 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D153" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E153" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4741,7 +4768,7 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4752,16 +4779,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D155" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E155" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F155" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4772,13 +4799,13 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D156" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E156" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4789,16 +4816,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D157" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E157" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F157" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4809,16 +4836,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D158" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E158" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F158" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4829,16 +4856,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D159" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F159" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4849,10 +4876,10 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F160" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4863,16 +4890,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D161" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E161" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F161" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4883,16 +4910,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D162" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E162" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F162" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4903,16 +4930,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D163" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E163" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F163" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4923,16 +4950,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D164" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E164" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F164" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4943,16 +4970,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D165" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E165" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F165" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4963,13 +4990,13 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D166" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E166" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4980,16 +5007,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D167" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E167" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F167" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5000,16 +5027,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D168" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E168" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F168" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5020,13 +5047,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D169" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E169" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5037,13 +5064,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D170" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E170" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5054,13 +5081,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D171" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E171" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5071,13 +5098,13 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D172" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E172" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5088,16 +5115,16 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D173" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E173" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F173" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5108,16 +5135,16 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D174" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E174" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F174" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5128,13 +5155,13 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D175" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E175" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5145,13 +5172,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D176" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E176" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5162,16 +5189,16 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D177" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E177" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F177" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5182,13 +5209,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D178" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E178" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5199,13 +5226,13 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D179" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E179" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5216,13 +5243,13 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D180" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E180" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5233,16 +5260,16 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D181" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E181" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F181" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5253,16 +5280,16 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D182" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E182" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F182" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5273,16 +5300,16 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D183" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E183" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F183" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5293,16 +5320,16 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D184" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E184" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F184" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5313,16 +5340,16 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D185" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E185" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F185" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5333,16 +5360,16 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D186" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E186" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F186" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5353,16 +5380,16 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D187" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E187" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F187" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5373,16 +5400,16 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D188" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E188" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F188" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5393,16 +5420,16 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D189" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E189" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F189" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5413,16 +5440,16 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D190" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E190" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F190" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5433,16 +5460,16 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D191" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E191" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F191" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5453,16 +5480,16 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D192" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E192" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F192" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5473,16 +5500,16 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D193" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E193" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F193" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5493,16 +5520,16 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D194" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E194" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F194" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5513,16 +5540,16 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D195" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E195" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F195" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5533,16 +5560,16 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D196" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E196" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F196" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5553,16 +5580,16 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D197" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E197" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F197" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5573,16 +5600,16 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D198" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E198" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F198" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5593,16 +5620,16 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D199" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E199" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F199" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5613,16 +5640,16 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D200" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E200" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F200" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5633,16 +5660,16 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D201" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E201" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F201" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5653,16 +5680,16 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D202" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E202" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F202" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5673,16 +5700,16 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D203" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E203" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F203" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5693,16 +5720,16 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D204" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E204" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F204" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5713,16 +5740,16 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D205" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E205" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F205" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5733,16 +5760,16 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D206" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E206" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F206" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5753,16 +5780,16 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D207" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E207" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F207" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5773,16 +5800,16 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D208" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E208" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F208" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5793,16 +5820,16 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D209" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E209" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F209" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5813,16 +5840,16 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D210" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E210" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F210" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5833,7 +5860,7 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5844,13 +5871,13 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D212" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E212" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5861,16 +5888,16 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D213" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E213" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F213" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5881,16 +5908,16 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D214" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E214" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F214" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5901,10 +5928,10 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F215" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5915,13 +5942,13 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D216" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F216" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5932,10 +5959,50 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
+        <v>223</v>
+      </c>
+      <c r="F217" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
         <v>221</v>
       </c>
-      <c r="F217" t="s">
-        <v>455</v>
+      <c r="C218" t="s">
+        <v>223</v>
+      </c>
+      <c r="D218" t="s">
+        <v>432</v>
+      </c>
+      <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219" t="s">
+        <v>223</v>
+      </c>
+      <c r="D219" t="s">
+        <v>433</v>
+      </c>
+      <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="547">
   <si>
     <t>Role</t>
   </si>
@@ -661,7 +661,7 @@
     <t>Power_Netherlands</t>
   </si>
   <si>
-    <t>Head_of_Power</t>
+    <t>Head_of_Power_-_HOP</t>
   </si>
   <si>
     <t>Head_of_Europe_Business_Operation</t>
@@ -685,6 +685,27 @@
     <t>5-Star_user_journey_&amp;_launch_schedule_team</t>
   </si>
   <si>
+    <t>Point_and_Coupon_Team</t>
+  </si>
+  <si>
+    <t>EPO_logistics_Contact</t>
+  </si>
+  <si>
+    <t>Power_Infrastructure_Network</t>
+  </si>
+  <si>
+    <t>Power_Accessory_Team</t>
+  </si>
+  <si>
+    <t>Head_of_Global_Power</t>
+  </si>
+  <si>
+    <t>Power_Network_Development_Lead</t>
+  </si>
+  <si>
+    <t>LTO_-_PMO</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -1318,6 +1339,27 @@
     <t>meiling_wu,bingqiu_hou, jason_tang1,jorry_zhou,hongyi_ji</t>
   </si>
   <si>
+    <t>chengguo_shi,jorry_zhou,daniela_gasch,meiling_wu,hongyi_ji</t>
+  </si>
+  <si>
+    <t>sarah_ding,vincent_wen</t>
+  </si>
+  <si>
+    <t>marianne_moelmen,daniel_medawar,richard_wijk, michael_salomon, rikard_svensson</t>
+  </si>
+  <si>
+    <t>steinar_sundelin,tobias_schrempf,renata_wolak, michael_salomon,paula_ramirez</t>
+  </si>
+  <si>
+    <t>fei_shen</t>
+  </si>
+  <si>
+    <t>bas_oorschot, marcella_gaeb,george_wagenberg,david_holmbom,eleanor_sands</t>
+  </si>
+  <si>
+    <t>tina_fan,shushan_khachatryan</t>
+  </si>
+  <si>
     <t>HQ</t>
   </si>
   <si>
@@ -1330,7 +1372,7 @@
     <t>HQ,Country</t>
   </si>
   <si>
-    <t>Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment</t>
   </si>
   <si>
     <t>User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -1339,22 +1381,22 @@
     <t>GTM_Milestone_Adjustment</t>
   </si>
   <si>
-    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
-  </si>
-  <si>
-    <t>OTA,EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
-  </si>
-  <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Marketing_Expenses,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
-  </si>
-  <si>
-    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
-  </si>
-  <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
+    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,OTA</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
+  </si>
+  <si>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
   </si>
   <si>
     <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
@@ -1363,49 +1405,49 @@
     <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing</t>
   </si>
   <si>
-    <t>NIO_Life_-_Offline_Display,NIO_Life_-_Replenishment</t>
+    <t>NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
   </si>
   <si>
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
   </si>
   <si>
-    <t>NIO_Life_-_Offline_Display,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning</t>
-  </si>
-  <si>
-    <t>GTM_Milestone_Adjustment,GTM_Cadence</t>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning</t>
+  </si>
+  <si>
+    <t>GTM_Cadence,GTM_Milestone_Adjustment</t>
   </si>
   <si>
     <t>EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
   </si>
   <si>
-    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,Bulk_Deal_Offer_Approval,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
   </si>
   <si>
     <t>Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
   </si>
   <si>
-    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+    <t>Sales_Planning_-_Sales_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
   </si>
   <si>
-    <t>GTM_Cadence,Corporate_Changes,Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry</t>
-  </si>
-  <si>
-    <t>EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,Marketing_Expenses</t>
+    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,GTM_Cadence,Corporate_Changes</t>
+  </si>
+  <si>
+    <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Marketing_Expenses,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
   </si>
   <si>
     <t>NIO_Life_-_Export_-_Planned_Export,Marketing_Expenses</t>
@@ -1414,25 +1456,25 @@
     <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
   </si>
   <si>
-    <t>GTM_Cadence,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
-  </si>
-  <si>
-    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+    <t>Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,GTM_Cadence</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
     <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
-  </si>
-  <si>
-    <t>Pre_MP_And_Launch_Stock_Ordering,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses,Pre_MP_And_Launch_Stock_Ordering</t>
+  </si>
+  <si>
+    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
     <t>Long_Term_Volume_Planning</t>
@@ -1441,172 +1483,178 @@
     <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
   </si>
   <si>
-    <t>Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Create_A_New_Promotion,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses</t>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Sales_Planning,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Sales_Planning_-_Sales_Planning,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Fellow_Complete_Testdrive,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Create_A_New_Promotion</t>
   </si>
   <si>
     <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
   </si>
   <si>
-    <t>NIO_Life_-_Offline_Display</t>
+    <t>NIO_Life_-_Offline_Display,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
   </si>
   <si>
     <t>EB_User_Operation_-_Partner_Strategy</t>
   </si>
   <si>
-    <t>Competitor_Definition,Option_Offer,Pricing,Product_Briefing</t>
-  </si>
-  <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
-  </si>
-  <si>
-    <t>MSRP_Pricing_SOP,Product_Briefing,Pricing,Option_Offer</t>
-  </si>
-  <si>
-    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
-  </si>
-  <si>
-    <t>OTA,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Training_-_Technical_Training_Management</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Contract_Review,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Corporate_Changes,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation</t>
+    <t>Competitor_Definition,Pricing,Option_Offer,Product_Briefing</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,Pricing,Option_Offer,Product_Briefing</t>
+  </si>
+  <si>
+    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,OTA</t>
+  </si>
+  <si>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing_Process</t>
+  </si>
+  <si>
+    <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+  </si>
+  <si>
+    <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,Maintenance Of Register Ofing Activities (Ropa),EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
     <t>5Yr_Planning_Flow</t>
   </si>
   <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Internal_Application</t>
+  </si>
+  <si>
+    <t>OTA</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Pricing,Option_Offer,Product_Briefing</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner</t>
+  </si>
+  <si>
+    <t>Pre_MP_And_Launch_Stock_Ordering</t>
+  </si>
+  <si>
+    <t>Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Pricing,Option_Offer,GTM_Cadence,OTA</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
+  </si>
+  <si>
+    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,Corporate_Changes</t>
+  </si>
+  <si>
+    <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
+  </si>
+  <si>
+    <t>EB_-_Europe_Business_Enabling_-_Market_Entry</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Internal_Application</t>
-  </si>
-  <si>
-    <t>OTA</t>
-  </si>
-  <si>
-    <t>Option_Offer,Pricing,Product_Briefing,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval</t>
-  </si>
-  <si>
-    <t>Pre_MP_And_Launch_Stock_Ordering</t>
-  </si>
-  <si>
-    <t>Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
-  </si>
-  <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Option_Offer,Pricing,GTM_Cadence,OTA</t>
-  </si>
-  <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
-  </si>
-  <si>
-    <t>Corporate_Changes,Contract_Review,Service_Network_-_RDC_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution</t>
-  </si>
-  <si>
-    <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Fleet_And_Business_Weekly_Governance_And_Reporting,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Sales_Planning</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
-  </si>
-  <si>
-    <t>Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
-  </si>
-  <si>
-    <t>Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
-  </si>
-  <si>
-    <t>EB_-_Europe_Business_Enabling_-_Market_Entry</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +2012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1995,16 +2043,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F2" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2015,16 +2063,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2035,13 +2083,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2052,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2069,10 +2117,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2083,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2100,16 +2148,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2120,16 +2168,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F9" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2140,16 +2188,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F10" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2160,16 +2208,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F11" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2180,16 +2228,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F12" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2200,16 +2248,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F13" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2220,16 +2268,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2240,16 +2288,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F15" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2260,16 +2308,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2280,16 +2328,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E17" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2300,16 +2348,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F18" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2320,13 +2368,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E19" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2337,13 +2385,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2354,13 +2402,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2371,13 +2419,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2388,10 +2436,10 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2402,16 +2450,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F24" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2422,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E25" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2439,13 +2487,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E26" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2456,13 +2504,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2473,13 +2521,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E28" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2490,16 +2538,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F29" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2510,16 +2558,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F30" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2530,13 +2578,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2547,13 +2595,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2564,13 +2612,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E33" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2581,13 +2629,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E34" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2598,13 +2646,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2615,16 +2663,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F36" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2635,16 +2683,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E37" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F37" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2655,13 +2703,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E38" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2672,13 +2720,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E39" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2689,13 +2737,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E40" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2706,13 +2754,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E41" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2723,16 +2771,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E42" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F42" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2743,13 +2791,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E43" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2760,16 +2808,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F44" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2780,13 +2828,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2797,13 +2845,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E46" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2814,13 +2862,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2831,16 +2879,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F48" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2851,13 +2899,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E49" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2868,16 +2916,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2888,16 +2936,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E51" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2908,13 +2956,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2925,16 +2973,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E53" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F53" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2945,13 +2993,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E54" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2962,16 +3010,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E55" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F55" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2982,13 +3030,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E56" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2999,16 +3047,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3019,16 +3067,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3039,13 +3087,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E59" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3056,13 +3104,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3073,13 +3121,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D61" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E61" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3090,13 +3138,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D62" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E62" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3107,13 +3155,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D63" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E63" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3124,16 +3172,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D64" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E64" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F64" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3144,13 +3192,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E65" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3161,13 +3209,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E66" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3178,13 +3226,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E67" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3195,13 +3243,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D68" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3212,13 +3260,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E69" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3229,16 +3277,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E70" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F70" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3249,16 +3297,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D71" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E71" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F71" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3269,13 +3317,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3286,13 +3334,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D73" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E73" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3303,13 +3351,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E74" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3320,16 +3368,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E75" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F75" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3340,13 +3388,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D76" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E76" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3357,13 +3405,13 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D77" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E77" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3374,16 +3422,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D78" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E78" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F78" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3394,16 +3442,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E79" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F79" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3414,16 +3462,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D80" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E80" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F80" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3434,16 +3482,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D81" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E81" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F81" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3454,13 +3502,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D82" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3471,10 +3519,10 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D83" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3485,13 +3533,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E84" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3502,13 +3550,13 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E85" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3519,13 +3567,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E86" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3536,13 +3584,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D87" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E87" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3553,16 +3601,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E88" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F88" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3573,16 +3621,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D89" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E89" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F89" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3593,13 +3641,13 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D90" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E90" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3610,16 +3658,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D91" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E91" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F91" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3630,16 +3678,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D92" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E92" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F92" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3650,13 +3698,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E93" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3667,16 +3715,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D94" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E94" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F94" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3687,13 +3735,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E95" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3704,16 +3752,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E96" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F96" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3724,13 +3772,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D97" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E97" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3741,16 +3789,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E98" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F98" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3761,16 +3809,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D99" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E99" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F99" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3781,13 +3829,13 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E100" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3798,13 +3846,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D101" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E101" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3815,13 +3863,13 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D102" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E102" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3832,16 +3880,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D103" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E103" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F103" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3852,13 +3900,13 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E104" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3869,13 +3917,13 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E105" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3886,13 +3934,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D106" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E106" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3903,13 +3951,13 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E107" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3920,13 +3968,13 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D108" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E108" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3937,13 +3985,13 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D109" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E109" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3954,13 +4002,13 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D110" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E110" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3971,16 +4019,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D111" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E111" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F111" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3991,16 +4039,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D112" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E112" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F112" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4011,16 +4059,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D113" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E113" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F113" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4031,16 +4079,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D114" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E114" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F114" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4051,16 +4099,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D115" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E115" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F115" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4071,16 +4119,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D116" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E116" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F116" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4091,16 +4139,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D117" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E117" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F117" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4111,16 +4159,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D118" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E118" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F118" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4131,13 +4179,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D119" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E119" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4148,13 +4196,13 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D120" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E120" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4165,13 +4213,13 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D121" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E121" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4182,13 +4230,13 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D122" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E122" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4199,16 +4247,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D123" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E123" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F123" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4219,13 +4267,13 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D124" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E124" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4236,13 +4284,13 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D125" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E125" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4253,16 +4301,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D126" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E126" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F126" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4273,16 +4321,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D127" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E127" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F127" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4293,16 +4341,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D128" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E128" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F128" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4313,13 +4361,13 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D129" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E129" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4330,16 +4378,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D130" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E130" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F130" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4350,16 +4398,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D131" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E131" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F131" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4370,13 +4418,13 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D132" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E132" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4387,13 +4435,13 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D133" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E133" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4404,13 +4452,13 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D134" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E134" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4421,13 +4469,13 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D135" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E135" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4438,16 +4486,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D136" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E136" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F136" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4458,13 +4506,13 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D137" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E137" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4475,13 +4523,13 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D138" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E138" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4492,13 +4540,13 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D139" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E139" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4509,16 +4557,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D140" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E140" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F140" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4529,16 +4577,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D141" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E141" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F141" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4549,13 +4597,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E142" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4566,13 +4614,13 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D143" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E143" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4583,13 +4631,13 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D144" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E144" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4600,16 +4648,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D145" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E145" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F145" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4620,13 +4668,13 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D146" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E146" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4637,16 +4685,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D147" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E147" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F147" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4657,13 +4705,13 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D148" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E148" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4674,13 +4722,13 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D149" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E149" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4691,16 +4739,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D150" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E150" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F150" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4711,16 +4759,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D151" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E151" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F151" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4731,16 +4779,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D152" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E152" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F152" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4751,13 +4799,13 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D153" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E153" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4768,7 +4816,7 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4779,16 +4827,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D155" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E155" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F155" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4799,13 +4847,13 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D156" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E156" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4816,16 +4864,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D157" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E157" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F157" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4836,16 +4884,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D158" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E158" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F158" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4856,16 +4904,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D159" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E159" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F159" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4876,10 +4924,10 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F160" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4890,16 +4938,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D161" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E161" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F161" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4910,16 +4958,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D162" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E162" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F162" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4930,16 +4978,13 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D163" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E163" t="s">
-        <v>437</v>
-      </c>
-      <c r="F163" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4950,16 +4995,13 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D164" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E164" t="s">
-        <v>434</v>
-      </c>
-      <c r="F164" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4970,16 +5012,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D165" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E165" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F165" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4990,13 +5032,13 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D166" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E166" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5007,16 +5049,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D167" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E167" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F167" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5027,16 +5069,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D168" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E168" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F168" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5047,13 +5089,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D169" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E169" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5064,13 +5106,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D170" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E170" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5081,13 +5123,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D171" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E171" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5098,13 +5140,13 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D172" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E172" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5115,16 +5157,16 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D173" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E173" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F173" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5135,16 +5177,16 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D174" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E174" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F174" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5155,13 +5197,13 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D175" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E175" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5172,13 +5214,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D176" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E176" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5189,16 +5231,16 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D177" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E177" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F177" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5209,13 +5251,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D178" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E178" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5226,13 +5268,13 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D179" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E179" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5243,13 +5285,13 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D180" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E180" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5260,16 +5302,16 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D181" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E181" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F181" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5280,16 +5322,16 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D182" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E182" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F182" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5300,16 +5342,16 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D183" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E183" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F183" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5320,16 +5362,16 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D184" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E184" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F184" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5340,16 +5382,16 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D185" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E185" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F185" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5360,16 +5402,16 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D186" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E186" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F186" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5380,16 +5422,16 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D187" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E187" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F187" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5400,16 +5442,16 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D188" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E188" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F188" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5420,16 +5462,16 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D189" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E189" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F189" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5440,16 +5482,16 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D190" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E190" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F190" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5460,16 +5502,16 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D191" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E191" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F191" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5480,16 +5522,16 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D192" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E192" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F192" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5500,16 +5542,16 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D193" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E193" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F193" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5520,16 +5562,16 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D194" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E194" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F194" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5540,16 +5582,16 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D195" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E195" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F195" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5560,16 +5602,16 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D196" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E196" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F196" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5580,16 +5622,16 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D197" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E197" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F197" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5600,16 +5642,16 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D198" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E198" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F198" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5620,16 +5662,16 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D199" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E199" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F199" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5640,16 +5682,16 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D200" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E200" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F200" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5660,16 +5702,16 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D201" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E201" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F201" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5680,16 +5722,16 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D202" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E202" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F202" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5700,16 +5742,16 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D203" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E203" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F203" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5720,16 +5762,16 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D204" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E204" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F204" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5740,16 +5782,16 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D205" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E205" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F205" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5760,16 +5802,16 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D206" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E206" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F206" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5780,16 +5822,16 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D207" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E207" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F207" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5800,16 +5842,16 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D208" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E208" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F208" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5820,16 +5862,16 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D209" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E209" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F209" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5840,16 +5882,16 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D210" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E210" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F210" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5860,7 +5902,7 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5871,13 +5913,16 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D212" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E212" t="s">
-        <v>435</v>
+        <v>449</v>
+      </c>
+      <c r="F212" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5888,16 +5933,16 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D213" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E213" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F213" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5908,16 +5953,16 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D214" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E214" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F214" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5928,10 +5973,10 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F215" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5942,13 +5987,13 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D216" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F216" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5959,10 +6004,10 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F217" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5973,16 +6018,16 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D218" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E218" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F218" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5993,16 +6038,161 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
+        <v>230</v>
+      </c>
+      <c r="D219" t="s">
+        <v>440</v>
+      </c>
+      <c r="E219" t="s">
+        <v>448</v>
+      </c>
+      <c r="F219" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
         <v>223</v>
       </c>
-      <c r="D219" t="s">
-        <v>433</v>
-      </c>
-      <c r="E219" t="s">
-        <v>434</v>
-      </c>
-      <c r="F219" t="s">
-        <v>530</v>
+      <c r="C220" t="s">
+        <v>230</v>
+      </c>
+      <c r="D220" t="s">
+        <v>441</v>
+      </c>
+      <c r="E220" t="s">
+        <v>448</v>
+      </c>
+      <c r="F220" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" t="s">
+        <v>230</v>
+      </c>
+      <c r="D221" t="s">
+        <v>442</v>
+      </c>
+      <c r="E221" t="s">
+        <v>448</v>
+      </c>
+      <c r="F221" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222" t="s">
+        <v>230</v>
+      </c>
+      <c r="D222" t="s">
+        <v>443</v>
+      </c>
+      <c r="E222" t="s">
+        <v>448</v>
+      </c>
+      <c r="F222" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" t="s">
+        <v>230</v>
+      </c>
+      <c r="D223" t="s">
+        <v>444</v>
+      </c>
+      <c r="E223" t="s">
+        <v>448</v>
+      </c>
+      <c r="F223" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" t="s">
+        <v>230</v>
+      </c>
+      <c r="D224" t="s">
+        <v>445</v>
+      </c>
+      <c r="F224" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" t="s">
+        <v>230</v>
+      </c>
+      <c r="D226" t="s">
+        <v>446</v>
+      </c>
+      <c r="F226" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" t="s">
+        <v>230</v>
+      </c>
+      <c r="D227" t="s">
+        <v>447</v>
+      </c>
+      <c r="E227" t="s">
+        <v>448</v>
+      </c>
+      <c r="F227" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="552">
   <si>
     <t>Role</t>
   </si>
@@ -118,9 +118,6 @@
     <t>User_Representative</t>
   </si>
   <si>
-    <t>Vehicle_Management_Manager</t>
-  </si>
-  <si>
     <t>Lead_PMO</t>
   </si>
   <si>
@@ -169,7 +166,7 @@
     <t>Head_of_Network_Development_Team</t>
   </si>
   <si>
-    <t>Country_Head_of_Service</t>
+    <t>Country_Head_of_Service_-_service_manager</t>
   </si>
   <si>
     <t>HQ_Trainer</t>
@@ -298,9 +295,6 @@
     <t>Service_Coordinator_Representative</t>
   </si>
   <si>
-    <t>Service_Representative</t>
-  </si>
-  <si>
     <t>Spare_Parts_&amp;_Accessories_Manager_Netherlands</t>
   </si>
   <si>
@@ -598,9 +592,6 @@
     <t>Logistic_Planning_Senior_Engineer</t>
   </si>
   <si>
-    <t>Vehicle_Manager</t>
-  </si>
-  <si>
     <t>Knowledge_library_team</t>
   </si>
   <si>
@@ -706,6 +697,9 @@
     <t>LTO_-_PMO</t>
   </si>
   <si>
+    <t>Head_of_EU_PMK</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -793,9 +787,6 @@
     <t>sebastian_kare,hasan_abbasi,frida_eriksson,dipak_kandel,rasmus_jorgensen,adrian_kare,yaghy_peter,elias_said,santo_bravo,daan_dorp,patrick_hogenhav,leon_reiff,jilly_hu,maximilian_sand,sedat_taspinar,philipp_maier,dennis_konieczny,dawid_mindur</t>
   </si>
   <si>
-    <t>daniel_erdtman</t>
-  </si>
-  <si>
     <t>tristan_vonballuseck</t>
   </si>
   <si>
@@ -973,9 +964,6 @@
     <t>juliane_weinschenk,kasper_klint,melissa_cs,richard_vermeulen,daniel_wijers,daniel_nielsen,erik_penning,chi_lo_o,emilia_dera_o</t>
   </si>
   <si>
-    <t>sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,adem_yerlikaya,per_brandvik,julien_jung,pernille_vive,janerik_eriksson</t>
-  </si>
-  <si>
     <t>nadim_mohammad</t>
   </si>
   <si>
@@ -1108,7 +1096,7 @@
     <t>fab_scognamiglio</t>
   </si>
   <si>
-    <t>roland_parragh,tibor_papp,hans_beyer,andre_tollefsen,attila_hudetz,dennis_mujic,gergo_almasi,martin_olsson,mate_mester,szilard_vass,erik_penning,ana_bjelcic_o,fredrik_aslund1,sheilla_campos_o,vassil_loukarsky_o,juliane_weinschenk</t>
+    <t>roland_parragh,tibor_papp,hans_beyer,andre_tollefsen,attila_hudetz,dennis_mujic,gergo_almasi,martin_olsson,mate_mester,szilard_vass,erik_penning,ana_bjelcic_o,fredrik_aslund1,sheilla_campos_o,vassil_loukarsky_o,juliane_weinschenk,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,adem_yerlikaya,per_brandvik,julien_jung,pernille_vive,janerik_eriksson</t>
   </si>
   <si>
     <t>kjersti_naeringsrud,jimmy_nguyen</t>
@@ -1162,7 +1150,7 @@
     <t>sara_meloysund</t>
   </si>
   <si>
-    <t>minko_sijpestein,christian_neergaard,minh_tran,daniel_erdtman</t>
+    <t>minko_sijpestein,christian_neergaard,minh_tran,daniel_erdtman,bingqing_tong1</t>
   </si>
   <si>
     <t>lovepreet_singh</t>
@@ -1267,9 +1255,6 @@
     <t>zhongjie_fu</t>
   </si>
   <si>
-    <t>bingqing_tong1</t>
-  </si>
-  <si>
     <t>kasper_klint,romina_dehzani</t>
   </si>
   <si>
@@ -1360,6 +1345,9 @@
     <t>tina_fan,shushan_khachatryan</t>
   </si>
   <si>
+    <t>niklas_andersson</t>
+  </si>
+  <si>
     <t>HQ</t>
   </si>
   <si>
@@ -1372,7 +1360,7 @@
     <t>HQ,Country</t>
   </si>
   <si>
-    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment</t>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
   </si>
   <si>
     <t>User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -1384,264 +1372,285 @@
     <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
   </si>
   <si>
-    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,OTA</t>
-  </si>
-  <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales</t>
-  </si>
-  <si>
-    <t>Marketing_Expenses,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop</t>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,OTA,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Emergency_Response_-_EU_Emergency_Response</t>
   </si>
   <si>
     <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
   </si>
   <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Operation</t>
   </si>
   <si>
     <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
-    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
+  </si>
+  <si>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
+  </si>
+  <si>
+    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display</t>
+  </si>
+  <si>
+    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning</t>
+  </si>
+  <si>
+    <t>GTM_Cadence,GTM_Milestone_Adjustment</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Sales_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU,Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,GTM_Cadence,Corporate_Changes</t>
+  </si>
+  <si>
+    <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Marketing_Expenses,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Export_-_Planned_Export,Marketing_Expenses,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,GTM_Cadence</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+  </si>
+  <si>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Management,Fleet_Operation</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses,Pre_MP_And_Launch_Stock_Ordering</t>
+  </si>
+  <si>
+    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+  </si>
+  <si>
+    <t>Long_Term_Volume_Planning</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
+  </si>
+  <si>
+    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Sales_Planning,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Sales_Planning_-_Sales_Planning,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Create_A_New_Promotion</t>
+  </si>
+  <si>
+    <t>Fellow_Handles_A_Testdrive,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Management,Fleet_Operation</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Offline_Display</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy</t>
+  </si>
+  <si>
+    <t>Competitor_Definition,Pricing,Option_Offer,Product_Briefing,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,Pricing,Option_Offer,Product_Briefing</t>
+  </si>
+  <si>
+    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,OTA,Technical_Operation</t>
+  </si>
+  <si>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Management,Fleet_Operation</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing_Process</t>
+  </si>
+  <si>
+    <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,EU_Legal_-_Data_Protection</t>
+  </si>
+  <si>
+    <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
+  </si>
+  <si>
+    <t>EB_User_Operation_-_Partner_Strategy,Maintenance Of Register Ofing Activities (Ropa),EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+  </si>
+  <si>
+    <t>5Yr_Planning_Flow</t>
+  </si>
+  <si>
+    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Internal_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using</t>
+  </si>
+  <si>
+    <t>OTA</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Pricing,Option_Offer,Product_Briefing</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner</t>
+  </si>
+  <si>
+    <t>Pre_MP_And_Launch_Stock_Ordering</t>
+  </si>
+  <si>
+    <t>Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Pricing,Option_Offer,GTM_Cadence,OTA,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
+  </si>
+  <si>
+    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation</t>
+  </si>
+  <si>
+    <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses</t>
+  </si>
+  <si>
+    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using</t>
   </si>
   <si>
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
   </si>
   <si>
-    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning</t>
-  </si>
-  <si>
-    <t>GTM_Cadence,GTM_Milestone_Adjustment</t>
-  </si>
-  <si>
-    <t>EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
-  </si>
-  <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
-  </si>
-  <si>
-    <t>Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Sales_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+    <t>Service_Campaign_-_Service_Campaign_Release_And_Operation,EU_Quality_Issue_Management,Quality_Issue_Management,Quality</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
   </si>
   <si>
-    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,GTM_Cadence,Corporate_Changes</t>
-  </si>
-  <si>
-    <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Marketing_Expenses,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Export_-_Planned_Export,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,GTM_Cadence</t>
-  </si>
-  <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
-  </si>
-  <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
-  </si>
-  <si>
-    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
-  </si>
-  <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
-  </si>
-  <si>
-    <t>Marketing_Expenses,Pre_MP_And_Launch_Stock_Ordering</t>
-  </si>
-  <si>
-    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
-  </si>
-  <si>
-    <t>Long_Term_Volume_Planning</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
-  </si>
-  <si>
-    <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Sales_Planning,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Sales_Planning_-_Sales_Planning,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Fellow_Complete_Testdrive,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Create_A_New_Promotion</t>
-  </si>
-  <si>
-    <t>Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Offline_Display,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>EB_User_Operation_-_Partner_Strategy</t>
-  </si>
-  <si>
-    <t>Competitor_Definition,Pricing,Option_Offer,Product_Briefing</t>
-  </si>
-  <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop</t>
-  </si>
-  <si>
-    <t>MSRP_Pricing_SOP,Pricing,Option_Offer,Product_Briefing</t>
-  </si>
-  <si>
-    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
-  </si>
-  <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,OTA</t>
-  </si>
-  <si>
-    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing_Process</t>
-  </si>
-  <si>
-    <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
-  </si>
-  <si>
-    <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
-  </si>
-  <si>
-    <t>EB_User_Operation_-_Partner_Strategy,Maintenance Of Register Ofing Activities (Ropa),EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
-  </si>
-  <si>
-    <t>5Yr_Planning_Flow</t>
-  </si>
-  <si>
-    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Internal_Application</t>
-  </si>
-  <si>
-    <t>OTA</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Pricing,Option_Offer,Product_Briefing</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner</t>
-  </si>
-  <si>
-    <t>Pre_MP_And_Launch_Stock_Ordering</t>
-  </si>
-  <si>
-    <t>Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
-  </si>
-  <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Pricing,Option_Offer,GTM_Cadence,OTA</t>
-  </si>
-  <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
-  </si>
-  <si>
-    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,Corporate_Changes</t>
-  </si>
-  <si>
-    <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto</t>
-  </si>
-  <si>
-    <t>Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
-  </si>
-  <si>
-    <t>Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
-  </si>
-  <si>
     <t>EB_-_Europe_Business_Enabling_-_Market_Entry</t>
   </si>
   <si>
@@ -1654,7 +1663,13 @@
     <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2027,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2043,16 +2058,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" t="s">
         <v>448</v>
-      </c>
-      <c r="F2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2063,16 +2078,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
         <v>230</v>
       </c>
-      <c r="D3" t="s">
-        <v>232</v>
-      </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2083,13 +2098,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2100,13 +2115,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2117,10 +2132,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2131,13 +2146,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2148,16 +2163,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2168,16 +2183,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2188,16 +2203,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2208,16 +2223,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2228,16 +2243,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2248,16 +2263,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2268,16 +2283,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2288,16 +2303,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2308,16 +2323,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E16" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F16" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2328,16 +2343,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2348,16 +2363,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2368,13 +2383,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2385,13 +2400,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E20" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F20" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2402,13 +2420,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2419,13 +2437,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E22" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F22" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2436,10 +2457,10 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2450,16 +2471,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F24" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2470,13 +2491,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2487,13 +2508,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E26" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F26" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2504,13 +2528,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2521,13 +2545,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E28" t="s">
-        <v>450</v>
+        <v>446</v>
+      </c>
+      <c r="F28" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2538,16 +2565,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E29" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F29" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2558,13 +2585,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E30" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F30" t="s">
         <v>464</v>
@@ -2578,13 +2605,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E31" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2595,13 +2622,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2612,13 +2639,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E33" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F33" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2629,13 +2659,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2646,13 +2676,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E35" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="F35" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2663,16 +2696,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F36" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2683,16 +2716,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E37" t="s">
-        <v>448</v>
-      </c>
-      <c r="F37" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2703,13 +2733,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2720,13 +2750,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E39" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2737,13 +2767,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E40" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2754,13 +2784,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E41" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="F41" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2771,16 +2804,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E42" t="s">
-        <v>448</v>
-      </c>
-      <c r="F42" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2791,13 +2821,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E43" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F43" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2808,16 +2841,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E44" t="s">
-        <v>449</v>
-      </c>
-      <c r="F44" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2828,13 +2858,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2845,13 +2875,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2862,13 +2892,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F47" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2879,16 +2912,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>449</v>
-      </c>
-      <c r="F48" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2899,13 +2929,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E49" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F49" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2916,16 +2949,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F50" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2936,16 +2969,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E51" t="s">
-        <v>448</v>
-      </c>
-      <c r="F51" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2956,13 +2986,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E52" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F52" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2973,16 +3006,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E53" t="s">
-        <v>449</v>
-      </c>
-      <c r="F53" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2993,13 +3023,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="F54" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3010,16 +3043,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
-      </c>
-      <c r="F55" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3030,13 +3060,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E56" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F56" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3047,16 +3080,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E57" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3067,16 +3100,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>449</v>
-      </c>
-      <c r="F58" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3087,13 +3117,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3104,13 +3134,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F60" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3121,13 +3154,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D61" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E61" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3138,13 +3171,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E62" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3155,13 +3188,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E63" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="F63" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3172,16 +3208,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E64" t="s">
-        <v>448</v>
-      </c>
-      <c r="F64" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3192,13 +3225,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E65" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F65" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3209,13 +3245,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E66" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3226,13 +3262,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E67" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3243,13 +3279,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D68" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E68" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3260,13 +3296,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D69" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F69" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3277,16 +3316,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E70" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F70" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3297,16 +3336,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E71" t="s">
-        <v>449</v>
-      </c>
-      <c r="F71" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3317,13 +3353,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E72" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F72" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3334,13 +3373,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E73" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3351,13 +3390,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E74" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F74" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3368,16 +3410,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E75" t="s">
-        <v>449</v>
-      </c>
-      <c r="F75" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3388,13 +3427,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E76" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3405,13 +3444,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E77" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="F77" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3422,16 +3464,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E78" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F78" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3442,16 +3484,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E79" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F79" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3462,16 +3504,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E80" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F80" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3482,16 +3524,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E81" t="s">
-        <v>449</v>
-      </c>
-      <c r="F81" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3502,13 +3541,10 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
-      </c>
-      <c r="E82" t="s">
-        <v>448</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3519,10 +3555,13 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="E83" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3533,13 +3572,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E84" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3550,13 +3589,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E85" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F85" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3567,13 +3609,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E86" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3584,13 +3626,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F87" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3601,16 +3646,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D88" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E88" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F88" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3621,16 +3666,13 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E89" t="s">
-        <v>448</v>
-      </c>
-      <c r="F89" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3641,13 +3683,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D90" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E90" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F90" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3658,16 +3703,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D91" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E91" t="s">
-        <v>449</v>
-      </c>
-      <c r="F91" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3678,16 +3720,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D92" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E92" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F92" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3698,13 +3740,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D93" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E93" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3715,16 +3757,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E94" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F94" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3735,13 +3777,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D95" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E95" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3752,13 +3794,13 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D96" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E96" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F96" t="s">
         <v>471</v>
@@ -3772,13 +3814,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D97" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E97" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="F97" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3789,16 +3834,13 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D98" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>449</v>
-      </c>
-      <c r="F98" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3809,16 +3851,13 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E99" t="s">
-        <v>448</v>
-      </c>
-      <c r="F99" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3829,13 +3868,13 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E100" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3846,13 +3885,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D101" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E101" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F101" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3863,13 +3905,13 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D102" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E102" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3880,16 +3922,13 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E103" t="s">
-        <v>449</v>
-      </c>
-      <c r="F103" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3900,13 +3939,13 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D104" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E104" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3917,13 +3956,13 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E105" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3934,13 +3973,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D106" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E106" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3951,13 +3990,13 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D107" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E107" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3968,13 +4007,13 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D108" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E108" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3985,13 +4024,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D109" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E109" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F109" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4002,13 +4044,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D110" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E110" t="s">
-        <v>448</v>
+        <v>446</v>
+      </c>
+      <c r="F110" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4019,16 +4064,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D111" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E111" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F111" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4039,16 +4084,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D112" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E112" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F112" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4059,16 +4104,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D113" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E113" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F113" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4079,16 +4124,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D114" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E114" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F114" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4099,16 +4144,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D115" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E115" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F115" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4119,16 +4164,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D116" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E116" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F116" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4139,16 +4184,13 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D117" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E117" t="s">
-        <v>448</v>
-      </c>
-      <c r="F117" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4159,16 +4201,13 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D118" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E118" t="s">
-        <v>449</v>
-      </c>
-      <c r="F118" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4179,13 +4218,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D119" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E119" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4196,13 +4235,13 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D120" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E120" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4213,13 +4252,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D121" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E121" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F121" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4230,13 +4272,13 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D122" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E122" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4247,16 +4289,13 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D123" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E123" t="s">
-        <v>449</v>
-      </c>
-      <c r="F123" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4267,13 +4306,16 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D124" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E124" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F124" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4284,13 +4326,16 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D125" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E125" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F125" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4301,16 +4346,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D126" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E126" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F126" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4321,16 +4366,13 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D127" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E127" t="s">
-        <v>449</v>
-      </c>
-      <c r="F127" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4341,16 +4383,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D128" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E128" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F128" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4361,13 +4403,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D129" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E129" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F129" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4378,16 +4423,13 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D130" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
-      </c>
-      <c r="F130" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4398,16 +4440,13 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D131" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E131" t="s">
-        <v>449</v>
-      </c>
-      <c r="F131" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4418,13 +4457,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D132" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E132" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F132" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4435,13 +4477,13 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D133" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E133" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4452,13 +4494,16 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D134" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E134" t="s">
-        <v>449</v>
+        <v>447</v>
+      </c>
+      <c r="F134" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4469,13 +4514,13 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D135" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E135" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4486,16 +4531,13 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D136" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E136" t="s">
-        <v>448</v>
-      </c>
-      <c r="F136" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4506,13 +4548,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D137" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E137" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F137" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4523,13 +4568,16 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D138" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E138" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F138" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4540,13 +4588,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D139" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E139" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F139" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4557,16 +4608,13 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D140" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E140" t="s">
-        <v>449</v>
-      </c>
-      <c r="F140" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4577,16 +4625,13 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D141" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E141" t="s">
-        <v>449</v>
-      </c>
-      <c r="F141" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4597,13 +4642,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D142" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E142" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4614,13 +4659,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D143" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E143" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F143" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4631,13 +4679,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E144" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F144" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4648,16 +4699,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D145" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E145" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F145" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4668,13 +4719,13 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D146" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E146" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4685,16 +4736,13 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D147" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E147" t="s">
-        <v>449</v>
-      </c>
-      <c r="F147" t="s">
-        <v>497</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4705,13 +4753,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D148" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E148" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F148" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4722,13 +4773,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D149" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E149" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="F149" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4739,16 +4793,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D150" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E150" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F150" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4759,16 +4813,13 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D151" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E151" t="s">
-        <v>449</v>
-      </c>
-      <c r="F151" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4779,16 +4830,7 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>230</v>
-      </c>
-      <c r="D152" t="s">
-        <v>380</v>
-      </c>
-      <c r="E152" t="s">
-        <v>449</v>
-      </c>
-      <c r="F152" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4799,13 +4841,16 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D153" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E153" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="F153" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4816,7 +4861,13 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="D154" t="s">
+        <v>379</v>
+      </c>
+      <c r="E154" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4827,16 +4878,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D155" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E155" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F155" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4847,13 +4898,16 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D156" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E156" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="F156" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4864,16 +4918,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D157" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E157" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F157" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4884,16 +4938,10 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>230</v>
-      </c>
-      <c r="D158" t="s">
-        <v>385</v>
-      </c>
-      <c r="E158" t="s">
-        <v>451</v>
+        <v>228</v>
       </c>
       <c r="F158" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4904,16 +4952,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D159" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E159" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F159" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4924,10 +4972,16 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="D160" t="s">
+        <v>384</v>
+      </c>
+      <c r="E160" t="s">
+        <v>444</v>
       </c>
       <c r="F160" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4938,16 +4992,13 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D161" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E161" t="s">
-        <v>448</v>
-      </c>
-      <c r="F161" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4958,16 +5009,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D162" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E162" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F162" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4978,13 +5029,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D163" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E163" t="s">
-        <v>451</v>
+        <v>444</v>
+      </c>
+      <c r="F163" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4995,13 +5049,13 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D164" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E164" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5012,16 +5066,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D165" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E165" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F165" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5032,13 +5086,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D166" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E166" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="F166" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5049,16 +5106,13 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D167" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E167" t="s">
-        <v>448</v>
-      </c>
-      <c r="F167" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5069,16 +5123,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D168" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E168" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F168" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5089,13 +5143,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D169" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E169" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5106,13 +5160,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D170" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E170" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5123,13 +5177,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D171" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E171" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="F171" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5140,13 +5197,16 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D172" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E172" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="F172" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5157,16 +5217,13 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D173" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E173" t="s">
-        <v>448</v>
-      </c>
-      <c r="F173" t="s">
-        <v>509</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5177,16 +5234,13 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D174" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E174" t="s">
-        <v>448</v>
-      </c>
-      <c r="F174" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5197,13 +5251,16 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D175" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E175" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="F175" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5214,13 +5271,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D176" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E176" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5231,16 +5288,13 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D177" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E177" t="s">
-        <v>448</v>
-      </c>
-      <c r="F177" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5251,13 +5305,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D178" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E178" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5268,13 +5322,16 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D179" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E179" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="F179" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5285,13 +5342,16 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D180" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E180" t="s">
-        <v>448</v>
+        <v>444</v>
+      </c>
+      <c r="F180" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5302,16 +5362,16 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D181" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E181" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F181" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5322,16 +5382,16 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D182" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E182" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F182" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5342,16 +5402,16 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D183" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E183" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F183" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5362,16 +5422,16 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D184" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E184" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F184" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5382,16 +5442,16 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D185" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E185" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F185" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5402,16 +5462,16 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D186" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E186" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F186" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5422,16 +5482,16 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D187" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E187" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F187" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5442,16 +5502,16 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D188" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E188" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F188" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5462,16 +5522,16 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D189" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E189" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F189" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5482,16 +5542,16 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D190" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E190" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F190" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5502,16 +5562,16 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D191" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E191" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F191" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5522,16 +5582,16 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D192" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E192" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F192" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5542,16 +5602,16 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D193" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E193" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F193" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5562,16 +5622,16 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D194" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E194" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F194" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5582,16 +5642,16 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D195" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E195" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F195" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5602,16 +5662,16 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D196" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E196" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F196" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5622,16 +5682,16 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D197" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E197" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F197" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5642,16 +5702,16 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D198" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E198" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F198" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5662,16 +5722,16 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D199" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E199" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F199" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5682,16 +5742,16 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D200" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E200" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F200" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5702,16 +5762,16 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D201" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E201" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F201" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5722,16 +5782,16 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D202" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E202" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F202" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5742,16 +5802,16 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D203" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E203" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F203" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5762,16 +5822,16 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D204" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E204" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F204" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5782,16 +5842,16 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D205" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E205" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F205" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5802,16 +5862,16 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D206" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E206" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F206" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5822,16 +5882,16 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D207" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E207" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F207" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5842,16 +5902,7 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>230</v>
-      </c>
-      <c r="D208" t="s">
-        <v>433</v>
-      </c>
-      <c r="E208" t="s">
-        <v>450</v>
-      </c>
-      <c r="F208" t="s">
-        <v>535</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5862,16 +5913,16 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D209" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E209" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F209" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5882,16 +5933,16 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D210" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E210" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F210" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5902,7 +5953,16 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="D211" t="s">
+        <v>229</v>
+      </c>
+      <c r="E211" t="s">
+        <v>444</v>
+      </c>
+      <c r="F211" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5913,16 +5973,10 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>230</v>
-      </c>
-      <c r="D212" t="s">
-        <v>436</v>
-      </c>
-      <c r="E212" t="s">
-        <v>449</v>
+        <v>228</v>
       </c>
       <c r="F212" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5933,16 +5987,13 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D213" t="s">
-        <v>437</v>
-      </c>
-      <c r="E213" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F213" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5953,16 +6004,10 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>230</v>
-      </c>
-      <c r="D214" t="s">
-        <v>231</v>
-      </c>
-      <c r="E214" t="s">
-        <v>448</v>
+        <v>228</v>
       </c>
       <c r="F214" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5973,10 +6018,16 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="D215" t="s">
+        <v>434</v>
+      </c>
+      <c r="E215" t="s">
+        <v>444</v>
       </c>
       <c r="F215" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5987,13 +6038,16 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D216" t="s">
-        <v>438</v>
+        <v>435</v>
+      </c>
+      <c r="E216" t="s">
+        <v>444</v>
       </c>
       <c r="F216" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6004,10 +6058,16 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="D217" t="s">
+        <v>436</v>
+      </c>
+      <c r="E217" t="s">
+        <v>444</v>
       </c>
       <c r="F217" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6018,16 +6078,16 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D218" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E218" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F218" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6038,16 +6098,16 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D219" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E219" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F219" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6058,16 +6118,16 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D220" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E220" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F220" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6078,16 +6138,13 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D221" t="s">
-        <v>442</v>
-      </c>
-      <c r="E221" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F221" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6095,19 +6152,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>230</v>
-      </c>
-      <c r="D222" t="s">
-        <v>443</v>
-      </c>
-      <c r="E222" t="s">
-        <v>448</v>
-      </c>
-      <c r="F222" t="s">
-        <v>545</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6115,19 +6163,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D223" t="s">
-        <v>444</v>
-      </c>
-      <c r="E223" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F223" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6135,16 +6180,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D224" t="s">
-        <v>445</v>
+        <v>442</v>
+      </c>
+      <c r="E224" t="s">
+        <v>444</v>
       </c>
       <c r="F224" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6155,44 +6203,16 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" t="s">
-        <v>228</v>
-      </c>
-      <c r="C226" t="s">
-        <v>230</v>
-      </c>
-      <c r="D226" t="s">
-        <v>446</v>
-      </c>
-      <c r="F226" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>229</v>
-      </c>
-      <c r="C227" t="s">
-        <v>230</v>
-      </c>
-      <c r="D227" t="s">
-        <v>447</v>
-      </c>
-      <c r="E227" t="s">
-        <v>448</v>
-      </c>
-      <c r="F227" t="s">
-        <v>546</v>
+        <v>228</v>
+      </c>
+      <c r="D225" t="s">
+        <v>443</v>
+      </c>
+      <c r="E225" t="s">
+        <v>444</v>
+      </c>
+      <c r="F225" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="552">
   <si>
     <t>Role</t>
   </si>
@@ -1360,10 +1360,10 @@
     <t>HQ,Country</t>
   </si>
   <si>
-    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>User_Behavior_Tracking_System_-_UBTS,Market_Intelligence_Europe</t>
   </si>
   <si>
     <t>GTM_Milestone_Adjustment</t>
@@ -1447,7 +1447,7 @@
     <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Marketing_Expenses,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
@@ -1501,7 +1501,7 @@
     <t>Competitor_Definition,Pricing,Option_Offer,Product_Briefing,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive</t>
   </si>
   <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
   </si>
   <si>
     <t>MSRP_Pricing_SOP,Pricing,Option_Offer,Product_Briefing</t>
@@ -1516,7 +1516,7 @@
     <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Management,Fleet_Operation</t>
   </si>
   <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),Complete_Purchasing_Process</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,Complete_Purchasing_Process</t>
   </si>
   <si>
     <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,EU_Legal_-_Data_Protection</t>
@@ -1525,7 +1525,7 @@
     <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
   </si>
   <si>
-    <t>EB_User_Operation_-_Partner_Strategy,Maintenance Of Register Ofing Activities (Ropa),EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+    <t>EB_User_Operation_-_Partner_Strategy,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
     <t>5Yr_Planning_Flow</t>
@@ -1603,7 +1603,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues)</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order</t>
@@ -1612,10 +1612,10 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues)</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
@@ -1630,10 +1630,10 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response</t>
   </si>
   <si>
     <t>Marketing_Expenses</t>
@@ -1663,10 +1663,10 @@
     <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
   </si>
   <si>
     <t>FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
@@ -2027,7 +2027,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6152,10 +6152,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C222" t="s">
         <v>228</v>
+      </c>
+      <c r="D222" t="s">
+        <v>441</v>
+      </c>
+      <c r="F222" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6163,16 +6169,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C223" t="s">
         <v>228</v>
       </c>
       <c r="D223" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="E223" t="s">
+        <v>444</v>
       </c>
       <c r="F223" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6180,38 +6189,18 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C224" t="s">
         <v>228</v>
       </c>
       <c r="D224" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E224" t="s">
         <v>444</v>
       </c>
       <c r="F224" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C225" t="s">
-        <v>228</v>
-      </c>
-      <c r="D225" t="s">
-        <v>443</v>
-      </c>
-      <c r="E225" t="s">
-        <v>444</v>
-      </c>
-      <c r="F225" t="s">
         <v>551</v>
       </c>
     </row>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="554">
   <si>
     <t>Role</t>
   </si>
@@ -1360,13 +1360,13 @@
     <t>HQ,Country</t>
   </si>
   <si>
-    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Long_Term_Volume_Planning,Competitor_Definition,Pricing,Option_Offer,GTM_Cadence,GTM_Milestone_Adjustment,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>User_Behavior_Tracking_System_-_UBTS,Market_Intelligence_Europe</t>
-  </si>
-  <si>
-    <t>GTM_Milestone_Adjustment</t>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment</t>
   </si>
   <si>
     <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
@@ -1390,7 +1390,7 @@
     <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
-    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process</t>
   </si>
   <si>
     <t>NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display</t>
@@ -1399,7 +1399,7 @@
     <t>Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
   </si>
   <si>
-    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive</t>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car</t>
   </si>
   <si>
     <t>Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
@@ -1408,7 +1408,7 @@
     <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
   </si>
   <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive</t>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car</t>
   </si>
   <si>
     <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display</t>
@@ -1417,7 +1417,7 @@
     <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning</t>
   </si>
   <si>
-    <t>GTM_Cadence,GTM_Milestone_Adjustment</t>
+    <t>COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment</t>
   </si>
   <si>
     <t>EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation</t>
@@ -1435,19 +1435,19 @@
     <t>Sales_Planning_-_Sales_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU,Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
-  </si>
-  <si>
-    <t>Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation</t>
-  </si>
-  <si>
-    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,GTM_Cadence,Corporate_Changes</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation</t>
+  </si>
+  <si>
+    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,Corporate_Changes</t>
   </si>
   <si>
     <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Marketing_Expenses,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
@@ -1459,25 +1459,25 @@
     <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation</t>
   </si>
   <si>
-    <t>Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,GTM_Cadence</t>
+    <t>Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,COE_Product_Design_-_PMK_EU_-_GTM_Cadence</t>
   </si>
   <si>
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
-    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive,EB_Quartlery_5_Year_Budget_Planning,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Management,Fleet_Operation</t>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,EB_Quartlery_5_Year_Budget_Planning,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
   </si>
   <si>
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
   </si>
   <si>
-    <t>Marketing_Expenses,Pre_MP_And_Launch_Stock_Ordering</t>
+    <t>Marketing_Expenses,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering</t>
   </si>
   <si>
     <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
-    <t>Long_Term_Volume_Planning</t>
+    <t>COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process</t>
   </si>
   <si>
     <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment</t>
@@ -1489,7 +1489,7 @@
     <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Sales_Planning,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Sales_Planning_-_Sales_Planning,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Create_A_New_Promotion</t>
   </si>
   <si>
-    <t>Fellow_Handles_A_Testdrive,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Management,Fleet_Operation</t>
+    <t>Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
   </si>
   <si>
     <t>NIO_Life_-_Offline_Display</t>
@@ -1498,13 +1498,13 @@
     <t>EB_User_Operation_-_Partner_Strategy</t>
   </si>
   <si>
-    <t>Competitor_Definition,Pricing,Option_Offer,Product_Briefing,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive</t>
+    <t>Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car</t>
   </si>
   <si>
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
   </si>
   <si>
-    <t>MSRP_Pricing_SOP,Pricing,Option_Offer,Product_Briefing</t>
+    <t>COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing</t>
   </si>
   <si>
     <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
@@ -1513,7 +1513,7 @@
     <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,OTA,Technical_Operation</t>
   </si>
   <si>
-    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Management,Fleet_Operation</t>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
   </si>
   <si>
     <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,Complete_Purchasing_Process</t>
@@ -1531,10 +1531,13 @@
     <t>5Yr_Planning_Flow</t>
   </si>
   <si>
-    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
-  </si>
-  <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
+    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,EU_Power_Procurement_&amp;_Finance_Overview</t>
+  </si>
+  <si>
+    <t>PUS_Operation_Approval_Process,EU_Power_VOC_War_Room</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Power_Procurement_&amp;_Finance_Overview,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room</t>
   </si>
   <si>
     <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application</t>
@@ -1546,31 +1549,31 @@
     <t>OTA</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Pricing,Option_Offer,Product_Briefing</t>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing</t>
   </si>
   <si>
     <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner</t>
   </si>
   <si>
-    <t>Pre_MP_And_Launch_Stock_Ordering</t>
+    <t>COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering</t>
   </si>
   <si>
     <t>Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
   </si>
   <si>
-    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Pricing,Option_Offer,GTM_Cadence,OTA,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation</t>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,OTA,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation</t>
   </si>
   <si>
     <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
   </si>
   <si>
-    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation</t>
+    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,Bi_-_Weekly_Project_Approval_Process</t>
   </si>
   <si>
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+    <t>Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,EU_Power_Procurement_&amp;_Finance_Overview</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation</t>
@@ -1633,13 +1636,13 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO</t>
   </si>
   <si>
     <t>Marketing_Expenses</t>
   </si>
   <si>
-    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using</t>
+    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using</t>
   </si>
   <si>
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
@@ -1660,16 +1663,19 @@
     <t>User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction</t>
   </si>
   <si>
-    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+    <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,EU_Power_Supply_Chain_-_Order_to_Delivery</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
   </si>
   <si>
-    <t>FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
+    <t>FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process</t>
   </si>
 </sst>
 </file>
@@ -5000,6 +5006,9 @@
       <c r="E161" t="s">
         <v>447</v>
       </c>
+      <c r="F161" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
@@ -5018,7 +5027,7 @@
         <v>444</v>
       </c>
       <c r="F162" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5038,7 +5047,7 @@
         <v>444</v>
       </c>
       <c r="F163" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5075,7 +5084,7 @@
         <v>444</v>
       </c>
       <c r="F165" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5095,7 +5104,7 @@
         <v>444</v>
       </c>
       <c r="F166" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5186,7 +5195,7 @@
         <v>444</v>
       </c>
       <c r="F171" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5260,7 +5269,7 @@
         <v>444</v>
       </c>
       <c r="F175" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5331,7 +5340,7 @@
         <v>447</v>
       </c>
       <c r="F179" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5351,7 +5360,7 @@
         <v>444</v>
       </c>
       <c r="F180" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5371,7 +5380,7 @@
         <v>444</v>
       </c>
       <c r="F181" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5391,7 +5400,7 @@
         <v>444</v>
       </c>
       <c r="F182" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5411,7 +5420,7 @@
         <v>444</v>
       </c>
       <c r="F183" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5431,7 +5440,7 @@
         <v>444</v>
       </c>
       <c r="F184" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5451,7 +5460,7 @@
         <v>444</v>
       </c>
       <c r="F185" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5471,7 +5480,7 @@
         <v>444</v>
       </c>
       <c r="F186" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5491,7 +5500,7 @@
         <v>444</v>
       </c>
       <c r="F187" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5511,7 +5520,7 @@
         <v>444</v>
       </c>
       <c r="F188" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5531,7 +5540,7 @@
         <v>447</v>
       </c>
       <c r="F189" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5551,7 +5560,7 @@
         <v>444</v>
       </c>
       <c r="F190" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5571,7 +5580,7 @@
         <v>444</v>
       </c>
       <c r="F191" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5591,7 +5600,7 @@
         <v>444</v>
       </c>
       <c r="F192" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5611,7 +5620,7 @@
         <v>444</v>
       </c>
       <c r="F193" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5631,7 +5640,7 @@
         <v>444</v>
       </c>
       <c r="F194" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5651,7 +5660,7 @@
         <v>444</v>
       </c>
       <c r="F195" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5671,7 +5680,7 @@
         <v>446</v>
       </c>
       <c r="F196" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5691,7 +5700,7 @@
         <v>444</v>
       </c>
       <c r="F197" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5711,7 +5720,7 @@
         <v>444</v>
       </c>
       <c r="F198" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5731,7 +5740,7 @@
         <v>446</v>
       </c>
       <c r="F199" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5751,7 +5760,7 @@
         <v>444</v>
       </c>
       <c r="F200" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5771,7 +5780,7 @@
         <v>444</v>
       </c>
       <c r="F201" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5791,7 +5800,7 @@
         <v>447</v>
       </c>
       <c r="F202" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5811,7 +5820,7 @@
         <v>444</v>
       </c>
       <c r="F203" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5831,7 +5840,7 @@
         <v>444</v>
       </c>
       <c r="F204" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5851,7 +5860,7 @@
         <v>446</v>
       </c>
       <c r="F205" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5871,7 +5880,7 @@
         <v>444</v>
       </c>
       <c r="F206" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5891,7 +5900,7 @@
         <v>444</v>
       </c>
       <c r="F207" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5922,7 +5931,7 @@
         <v>445</v>
       </c>
       <c r="F209" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5942,7 +5951,7 @@
         <v>445</v>
       </c>
       <c r="F210" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5962,7 +5971,7 @@
         <v>444</v>
       </c>
       <c r="F211" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5976,7 +5985,7 @@
         <v>228</v>
       </c>
       <c r="F212" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5993,7 +6002,7 @@
         <v>433</v>
       </c>
       <c r="F213" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6007,7 +6016,7 @@
         <v>228</v>
       </c>
       <c r="F214" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6027,7 +6036,7 @@
         <v>444</v>
       </c>
       <c r="F215" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6047,7 +6056,7 @@
         <v>444</v>
       </c>
       <c r="F216" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6067,7 +6076,7 @@
         <v>444</v>
       </c>
       <c r="F217" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6087,7 +6096,7 @@
         <v>444</v>
       </c>
       <c r="F218" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6107,7 +6116,7 @@
         <v>444</v>
       </c>
       <c r="F219" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6127,7 +6136,7 @@
         <v>444</v>
       </c>
       <c r="F220" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6144,7 +6153,7 @@
         <v>440</v>
       </c>
       <c r="F221" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6161,7 +6170,7 @@
         <v>441</v>
       </c>
       <c r="F222" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6181,7 +6190,7 @@
         <v>444</v>
       </c>
       <c r="F223" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6201,7 +6210,7 @@
         <v>444</v>
       </c>
       <c r="F224" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -1465,7 +1465,7 @@
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
-    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,EB_Quartlery_5_Year_Budget_Planning,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
   </si>
   <si>
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
@@ -1534,10 +1534,10 @@
     <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,EU_Power_Procurement_&amp;_Finance_Overview</t>
   </si>
   <si>
-    <t>PUS_Operation_Approval_Process,EU_Power_VOC_War_Room</t>
-  </si>
-  <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Power_Procurement_&amp;_Finance_Overview,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room</t>
+    <t>PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Power_Procurement_&amp;_Finance_Overview,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
   </si>
   <si>
     <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application</t>
@@ -1666,7 +1666,7 @@
     <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,EU_Power_Supply_Chain_-_Order_to_Delivery</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO</t>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -1501,7 +1501,7 @@
     <t>Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car</t>
   </si>
   <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,Service_SOP_-_Blue_Book_-_Accident_Service_Operation</t>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General</t>
   </si>
   <si>
     <t>COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing</t>
@@ -1582,22 +1582,22 @@
     <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution</t>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -1501,7 +1501,7 @@
     <t>Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car</t>
   </si>
   <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General</t>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,Emergency_Response_-_EU_Emergency_Response,EU_Quality_Issue_Management,Quality_Issue_Management,Quality,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
   </si>
   <si>
     <t>COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing</t>
@@ -1516,7 +1516,7 @@
     <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
   </si>
   <si>
-    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,Complete_Purchasing_Process</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,Complete_Purchasing_Process,Interview_Process_in_EU ,Internal_Referral_Process</t>
   </si>
   <si>
     <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,EU_Legal_-_Data_Protection</t>
@@ -1624,13 +1624,13 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -1516,7 +1516,7 @@
     <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
   </si>
   <si>
-    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,Complete_Purchasing_Process,Interview_Process_in_EU ,Internal_Referral_Process</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,Complete_Purchasing_Process,Interview_Process_in_EU ,Internal_Referral_Process ,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management</t>
   </si>
   <si>
     <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,EU_Legal_-_Data_Protection</t>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="555">
   <si>
     <t>Role</t>
   </si>
@@ -700,6 +700,9 @@
     <t>Head_of_EU_PMK</t>
   </si>
   <si>
+    <t>Translation_response_team</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -1441,7 +1444,7 @@
     <t>Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation</t>
   </si>
   <si>
-    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,Corporate_Changes</t>
+    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,EU_Legal_-_Corporate_Changes</t>
   </si>
   <si>
     <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
@@ -1522,7 +1525,7 @@
     <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,EU_Legal_-_Data_Protection</t>
   </si>
   <si>
-    <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,Corporate_Changes</t>
+    <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Corporate_Changes</t>
   </si>
   <si>
     <t>EB_User_Operation_-_Partner_Strategy,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
@@ -1567,7 +1570,7 @@
     <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
   </si>
   <si>
-    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,Bi_-_Weekly_Project_Approval_Process</t>
+    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,EU_Legal_-_Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,Bi_-_Weekly_Project_Approval_Process</t>
   </si>
   <si>
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
@@ -2033,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F224"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2064,16 +2067,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2084,16 +2087,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2104,13 +2107,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2121,13 +2124,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2138,10 +2141,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2152,13 +2155,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2169,16 +2172,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2189,16 +2192,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2209,16 +2212,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2229,16 +2232,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2249,16 +2252,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2269,16 +2272,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2289,16 +2292,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2309,16 +2312,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2329,16 +2332,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F16" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2349,16 +2352,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F17" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2369,16 +2372,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2389,13 +2392,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2406,16 +2409,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2426,13 +2429,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2443,16 +2446,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2463,10 +2466,10 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2477,16 +2480,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2497,13 +2500,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2514,16 +2517,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2534,13 +2537,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2551,16 +2554,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2571,16 +2574,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2591,16 +2594,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2611,13 +2614,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2628,13 +2631,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2645,16 +2648,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2665,13 +2668,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2682,16 +2685,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E35" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2702,16 +2705,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E36" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F36" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2722,13 +2725,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2739,13 +2742,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E38" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2756,13 +2759,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2773,13 +2776,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2790,16 +2793,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E41" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F41" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2810,13 +2813,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E42" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2827,16 +2830,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F43" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2847,13 +2850,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E44" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2864,13 +2867,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2881,13 +2884,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2898,16 +2901,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F47" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2918,13 +2921,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2935,16 +2938,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F49" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2955,16 +2958,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F50" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2975,13 +2978,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2992,16 +2995,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E52" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F52" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3012,13 +3015,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E53" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3029,16 +3032,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E54" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3049,13 +3052,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E55" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3066,16 +3069,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D56" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E56" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F56" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3086,16 +3089,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E57" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F57" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3106,13 +3109,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E58" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3123,13 +3126,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3140,16 +3143,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E60" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F60" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3160,13 +3163,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E61" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3177,13 +3180,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3194,16 +3197,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3214,13 +3217,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3231,16 +3234,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F65" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3251,13 +3254,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E66" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3268,13 +3271,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E67" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3285,13 +3288,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E68" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3302,16 +3305,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F69" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3322,16 +3325,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D70" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E70" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F70" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3342,13 +3345,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D71" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E71" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3359,16 +3362,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E72" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F72" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3379,13 +3382,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E73" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3396,16 +3399,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E74" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F74" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3416,13 +3419,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3433,13 +3436,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3450,16 +3453,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E77" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F77" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3470,16 +3473,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F78" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3490,16 +3493,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E79" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F79" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3510,16 +3513,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F80" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3530,13 +3533,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E81" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3547,10 +3550,10 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3561,13 +3564,13 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E83" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3578,13 +3581,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3595,16 +3598,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E85" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F85" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3615,13 +3618,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E86" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3632,16 +3635,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D87" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E87" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F87" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3652,16 +3655,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E88" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F88" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3672,13 +3675,13 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E89" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3689,16 +3692,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D90" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E90" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3709,13 +3712,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D91" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E91" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3726,16 +3729,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D92" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E92" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3746,13 +3749,13 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E93" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3763,16 +3766,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E94" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F94" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3783,13 +3786,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E95" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3800,16 +3803,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E96" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F96" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3820,16 +3823,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F97" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3840,13 +3843,13 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E98" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3857,13 +3860,13 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D99" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E99" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3874,13 +3877,13 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E100" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3891,16 +3894,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D101" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E101" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F101" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3911,13 +3914,13 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D102" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E102" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3928,13 +3931,13 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D103" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E103" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3945,13 +3948,13 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E104" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3962,13 +3965,13 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E105" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3979,13 +3982,13 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D106" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3996,13 +3999,13 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D107" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E107" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4013,13 +4016,13 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D108" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E108" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4030,16 +4033,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D109" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E109" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F109" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4050,16 +4053,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D110" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E110" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F110" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4070,16 +4073,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E111" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F111" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4090,16 +4093,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D112" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E112" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F112" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4110,16 +4113,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D113" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E113" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F113" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4130,16 +4133,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E114" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F114" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4150,16 +4153,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E115" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F115" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4170,16 +4173,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D116" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E116" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F116" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4190,13 +4193,13 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D117" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E117" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4207,13 +4210,13 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D118" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E118" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4224,13 +4227,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D119" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E119" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4241,13 +4244,13 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D120" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E120" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4258,16 +4261,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D121" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E121" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F121" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4278,13 +4281,13 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D122" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4295,13 +4298,13 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D123" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E123" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4312,16 +4315,16 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D124" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E124" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F124" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4332,16 +4335,16 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D125" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E125" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F125" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4352,16 +4355,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D126" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E126" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F126" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4372,13 +4375,13 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D127" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E127" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4389,16 +4392,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D128" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E128" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F128" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4409,16 +4412,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D129" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E129" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F129" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4429,13 +4432,13 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D130" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E130" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4446,13 +4449,13 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D131" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E131" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4463,16 +4466,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D132" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E132" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F132" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4483,13 +4486,13 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D133" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E133" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4500,16 +4503,16 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D134" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E134" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F134" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4520,13 +4523,13 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D135" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E135" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4537,13 +4540,13 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D136" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E136" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4554,16 +4557,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D137" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E137" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F137" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4574,16 +4577,16 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D138" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E138" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F138" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4594,16 +4597,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D139" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E139" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F139" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4614,13 +4617,13 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D140" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E140" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4631,13 +4634,13 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4648,13 +4651,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D142" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E142" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4665,16 +4668,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E143" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F143" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4685,16 +4688,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D144" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F144" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4705,16 +4708,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D145" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E145" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F145" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4725,13 +4728,13 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D146" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E146" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4742,13 +4745,13 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D147" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E147" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4759,16 +4762,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D148" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E148" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F148" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4779,16 +4782,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D149" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E149" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F149" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4799,16 +4802,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D150" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E150" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F150" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4819,13 +4822,13 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D151" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E151" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4836,7 +4839,7 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4847,16 +4850,16 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D153" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E153" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F153" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4867,13 +4870,13 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D154" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E154" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4884,16 +4887,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D155" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E155" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F155" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4904,16 +4907,16 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D156" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E156" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F156" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4924,16 +4927,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D157" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E157" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F157" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4944,10 +4947,10 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F158" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4958,16 +4961,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D159" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E159" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F159" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4978,16 +4981,16 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D160" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E160" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F160" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4998,16 +5001,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D161" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E161" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F161" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5018,16 +5021,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D162" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E162" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F162" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5038,16 +5041,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D163" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E163" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F163" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5058,13 +5061,13 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D164" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E164" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5075,16 +5078,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D165" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E165" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F165" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5095,16 +5098,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D166" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F166" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5115,13 +5118,13 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D167" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E167" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5132,16 +5135,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D168" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E168" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F168" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5152,13 +5155,13 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D169" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5169,13 +5172,13 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D170" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E170" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5186,16 +5189,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D171" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E171" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F171" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5206,16 +5209,16 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D172" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E172" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F172" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5226,13 +5229,13 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D173" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E173" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5243,13 +5246,13 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D174" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E174" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5260,16 +5263,16 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D175" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E175" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F175" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5280,13 +5283,13 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D176" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E176" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5297,13 +5300,13 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D177" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E177" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5314,13 +5317,13 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D178" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E178" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5331,16 +5334,16 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D179" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E179" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F179" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5351,16 +5354,16 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D180" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E180" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F180" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5371,16 +5374,16 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D181" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E181" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F181" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5391,16 +5394,16 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D182" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E182" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F182" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5411,16 +5414,16 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D183" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E183" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F183" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5431,16 +5434,16 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D184" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E184" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F184" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5451,16 +5454,16 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D185" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E185" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F185" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5471,16 +5474,16 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D186" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E186" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F186" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5491,16 +5494,16 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D187" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E187" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F187" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5511,16 +5514,16 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D188" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E188" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F188" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5531,16 +5534,16 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D189" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E189" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F189" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5551,16 +5554,16 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D190" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E190" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F190" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5571,16 +5574,16 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D191" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E191" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F191" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5591,16 +5594,16 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D192" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E192" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F192" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5611,16 +5614,16 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D193" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E193" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F193" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5631,16 +5634,16 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D194" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E194" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F194" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5651,16 +5654,16 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D195" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E195" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F195" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5671,16 +5674,16 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D196" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E196" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F196" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5691,16 +5694,16 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D197" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E197" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F197" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5711,16 +5714,16 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D198" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E198" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F198" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5731,16 +5734,16 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D199" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E199" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F199" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5751,16 +5754,16 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D200" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E200" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F200" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5771,16 +5774,16 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D201" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E201" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F201" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5791,16 +5794,16 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D202" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E202" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F202" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5811,16 +5814,16 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D203" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E203" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F203" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5831,16 +5834,16 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D204" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E204" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F204" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5851,16 +5854,16 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D205" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E205" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F205" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5871,16 +5874,16 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D206" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E206" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F206" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5891,16 +5894,16 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D207" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E207" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F207" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5911,7 +5914,7 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5922,16 +5925,16 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D209" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E209" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F209" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5942,16 +5945,16 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D210" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E210" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F210" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5962,16 +5965,16 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D211" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E211" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F211" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5982,10 +5985,10 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F212" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5996,13 +5999,13 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D213" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F213" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6013,10 +6016,10 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F214" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6027,16 +6030,16 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D215" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E215" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F215" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6047,16 +6050,16 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D216" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E216" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F216" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6067,16 +6070,16 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D217" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E217" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F217" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6087,16 +6090,16 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D218" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E218" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F218" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6107,16 +6110,16 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D219" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E219" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F219" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6127,16 +6130,16 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D220" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E220" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F220" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6147,13 +6150,13 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D221" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F221" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6164,13 +6167,13 @@
         <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D222" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F222" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6181,16 +6184,16 @@
         <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D223" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E223" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F223" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6201,16 +6204,27 @@
         <v>227</v>
       </c>
       <c r="C224" t="s">
+        <v>229</v>
+      </c>
+      <c r="D224" t="s">
+        <v>444</v>
+      </c>
+      <c r="E224" t="s">
+        <v>445</v>
+      </c>
+      <c r="F224" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
         <v>228</v>
       </c>
-      <c r="D224" t="s">
-        <v>443</v>
-      </c>
-      <c r="E224" t="s">
-        <v>444</v>
-      </c>
-      <c r="F224" t="s">
-        <v>553</v>
+      <c r="C225" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="557">
   <si>
     <t>Role</t>
   </si>
@@ -703,6 +703,9 @@
     <t>Translation_response_team</t>
   </si>
   <si>
+    <t>Head_of_Data_Privacy_Europe</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -724,9 +727,6 @@
     <t>gerald_krainer</t>
   </si>
   <si>
-    <t>laura_peschke</t>
-  </si>
-  <si>
     <t>philip_aschendorf,marc_bloch,alvaro_garcia,romina_dehzani</t>
   </si>
   <si>
@@ -1159,10 +1159,10 @@
     <t>lovepreet_singh</t>
   </si>
   <si>
-    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,laura_peschke,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,ranee_miao, lovepreet_singh,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
-  </si>
-  <si>
-    <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,laura_peschke,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock,ranee_miao</t>
+    <t>an_ho,andreas_loeoev,andreas_roehl,anja_bruun,bob_valk,brian_zhang,chan_jun,chen_gong,chengguo_shi,chenqi_peng,chris_chen1,christian_sieling,christian_wiegand,dejvid_noinovic,elise_chen,erica_blomberg,gerald_krainer,hongyi_ji,johan_emanuelsson,kenneth_forslund,luis_portas,marius_hayler,mattias_lundgren,niklas_gustafson,onno_duimel,paolo_cova,philip_aschendorf,ralph_kranz,rasmus_huus,robin_roosenstein,ruben_keuter,sadia_Aden_Mohamed,scott_baines,shaohua_guo,silvia_leeuw,sizhe_huang,thijs_meijling,tristan_hamelink,wenlu_ma,yu_huang6,sven_conrad,novak_birisic,jorry_zhou,di_hu1,hiroshi_watari,lisong_meng,anastasiia_kovalenko,connor_mccoy,matt_galvin,anastasia_kozachenko,joachim_pach,johnny_cheung,marina_paradiso,justin_chen1,dale_li,mara_pitiriciu,derk_timmer,akos_kiss,jasper_deman,clare_mummery,kangrui_wang,chutong_liu,sherry_li3,joy_zhu1,jerry_liu3,wenchao_cui1,sami_li,anastasia_yu,daisy_xiao,eunice_ho,echo_zeng,jochen_elster,ryan_stodden,arun_paragh,alissia_lehle,yang_huang,simon_mueller,tim_weener,fernanda_mejia,gregory_anderson,wei_qiang,evelyn_zhao,yujie_jia,maxine_yu,liam_lu,bingqing_tong1,joy_yin,daniel_wadle,tristan_vonballuseck,ziye_chen,effy_song,caesar_qian,timo_herrmann,hailee_han,julie_jiang,pepijn_gregorowitsch,simone_barnabei,julia_bock,jing_hu,charlotte_liu1,zitong_pan,jessica_fu,winnie_wu1,veronica_akerblad,koen_peters,manuel_endres,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,boris_mihailovic,meiling_wu,bana_boubou,sarah_opfer,qianling_duan,wanli_ren,zoey_li1,hun_huang,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk,joris_coolen,niklas_hirth,shanan_lasrado,christian_bode,haakon_klem,karol_wodyk,julian_schreiner,willemien_hobbelink,peter_marquard,danni_dahl,tim_noort,julien_luijten,gustaf_sjoeholm,camilla_bowlin,eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,jonathan_stage,mads_laustsen,uffe_gustafsson,robin_wiman,johanna_nilsson,marie_leeuwen,daniel_saxov,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,louise_johansson,tobias_beier,christian_neergaard,behnoud_behmanesh,minko_sijpestein,magne_heggemoen,sean_richardson,martin_hock,ackis_grammenidis,nick_nielsen,marcel_cucu,koen_swennen,maarten_mulder,claudia_huebner,marco_spiertz,belinda_ulrich,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,wadim_buchmueller,daniel_mergler,daniel_sturm,matthias_becher,moritz_croessmann,michael_hathaway,andrew_parsons,sebastian_hillenbach,isabell_delitz,simon_fiala,andreas_sedlak,renate_eliesen1,monica_sand,farid_ofkir,romina_dehzani,vijay_sharma,tom_brueland,tobias_elie,jan_bode,bjoern_baumann,waled_enani,julien_jung,julien_braunholz,sankari_hilael,stephan_schulz,roy_kern,sefa_cabar,karzan_mirza,alexander_kern,saeed_erfani,carin_lundberg,stephane_burger,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,ted_olsthoorn,jacqueline_schroeder,ahmad_elkadi,christel_molin,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,christian_almind,jan_bierstedt,victor_lingfjord,jermaine_odom,josephus_padilla,roberto_pavon,mark_heiligers,faiz_aslam,artem_garibian,marcel_rooijen,ali_kazmi,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,benjamin_hirschfeld,stefan_pielka,robert_said,frederik_rorth,erwin_wolting,yoram_hout,ruven_waldner,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,stephanie_strobel,alexander_beier,harald_krist,mathias_lindbeck,fabian_holst,marlies_hagenbach,kristiane_larsson,marco_verweij,janerik_eriksson,roelof_kluiver,pernille_vive,per_brandvik,sammy_hussain,adem_yerlikaya,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,david_jonsson,sam_lindfors,marc_hatt,nadim_mohammad,georgina_treen,patricia_hammes,karam_alnafous,emilie_jung,jan_krueger,antonia_hauf,patrick_mitchell,philipp_leinekugel,marcel_bartelik,claudio_felice,minh_tran,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,beier_zhang,kai_parsa,tayyab_intasar,daniel_dalsgaard,rabih_botrous,gert_thomas,rashed_almawed,vas_morrien,ola_smines,karolina_wolnik,maxime_gottlieb,maria_bonnerup,mike_blomquist,sara_meloysund,rasmus_jorgensen,sebastian_kare,adrian_kare,elias_said,frida_eriksson,hasan_abbasi,daan_dorp,patrick_hogenhav,santo_bravo,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff,daniel_erdtman,stig_lura,stefan_gerea,tanja_pyka,jenny_samuelsson,jonchristian_aardal,helen_baerbock,niklas_andersson,benjamin_steinmetz,zhen_lai,yue_ma2,dongxiao_sun,sarah_ding,arnaud_rongy, fatima_galean, katalin_konye,finn_xue,moritz_wefelscheid,henry_shen,ranee_miao, lovepreet_singh,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
+  </si>
+  <si>
+    <t>yu_huang6,tristan_hamelink,thijs_meijling,silvia_leeuw,shaohua_guo,scott_baines,sadia_Aden_Mohamed,robin_roosenstein,rasmus_huus,ralph_kranz,philip_aschendorf,paolo_cova,onno_duimel,niklas_gustafson,mattias_lundgren,luis_portas,kenneth_forslund,johan_emanuelsson,hongyi_ji,erica_blomberg,elise_chen,dejvid_noinovic,christian_wiegand,christian_sieling,chenqi_peng,chengguo_shi,chen_gong,chan_jun,brian_zhang,bob_valk,anja_bruun,andreas_roehl,andreas_loeoev,an_ho,johnny_cheung,joachim_pach,derk_timmer,jasper_deman,henry_shen,moritz_wefelscheid,finn_xue,sarah_ding,dongxiao_sun,yue_ma2,zhen_lai,benjamin_steinmetz,niklas_andersson,helen_baerbock,ranee_miao</t>
   </si>
   <si>
     <t>shaohua_guo,marius_hayler,mattias_lundgren,ruben_keuter,martin_rieder,akos_kiss,matt_galvin,gerald_krainer,thijs_meijling</t>
@@ -1369,7 +1369,7 @@
     <t>COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe</t>
   </si>
   <si>
-    <t>COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment</t>
+    <t>COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,EBE_Collection_Of_Large_2B_Transactions</t>
   </si>
   <si>
     <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
@@ -1387,13 +1387,16 @@
     <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
   </si>
   <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_User_Development_-_Communication_&amp;_Events_-_Seeds</t>
+  </si>
+  <si>
     <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management,Technical_Operation</t>
   </si>
   <si>
     <t>Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
-    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process</t>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Signing,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,EB_User_Development_-_Communication_&amp;_Events_-_Seeds</t>
   </si>
   <si>
     <t>NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display</t>
@@ -1444,7 +1447,7 @@
     <t>Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation</t>
   </si>
   <si>
-    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,EU_Legal_-_Corporate_Changes</t>
+    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,EU_Legal_-_Corporate_Changes,EBE_Collection_Of_Large_2B_Transactions</t>
   </si>
   <si>
     <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
@@ -1519,7 +1522,7 @@
     <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
   </si>
   <si>
-    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,Complete_Purchasing_Process,Interview_Process_in_EU ,Internal_Referral_Process ,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,Complete_Purchasing_Process,Interview_Process_in_EU,Internal_Referral_Process,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management</t>
   </si>
   <si>
     <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,EU_Legal_-_Data_Protection</t>
@@ -1528,7 +1531,7 @@
     <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Corporate_Changes</t>
   </si>
   <si>
-    <t>EB_User_Operation_-_Partner_Strategy,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
+    <t>EB_User_Operation_-_Partner_Strategy,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,ROPA_Reporting</t>
   </si>
   <si>
     <t>5Yr_Planning_Flow</t>
@@ -1570,7 +1573,7 @@
     <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
   </si>
   <si>
-    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,EU_Legal_-_Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,Bi_-_Weekly_Project_Approval_Process</t>
+    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,EU_Legal_-_Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,Bi_-_Weekly_Project_Approval_Process,General_Requests_To_Legal_Department</t>
   </si>
   <si>
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
@@ -1657,7 +1660,7 @@
     <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
   </si>
   <si>
-    <t>EB_-_Europe_Business_Enabling_-_Market_Entry</t>
+    <t>EB_-_Europe_Business_Enabling_-_Market_Entry,EBE_Collection_Of_Large_2B_Transactions</t>
   </si>
   <si>
     <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
@@ -1679,6 +1682,9 @@
   </si>
   <si>
     <t>FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process</t>
+  </si>
+  <si>
+    <t>ROPA_Reporting</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2067,10 +2073,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
         <v>445</v>
@@ -2087,10 +2093,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
         <v>445</v>
@@ -2107,10 +2113,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
         <v>445</v>
@@ -2124,10 +2130,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
         <v>446</v>
@@ -2141,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
         <v>451</v>
@@ -2155,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
         <v>445</v>
@@ -2172,10 +2178,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
         <v>446</v>
@@ -2192,13 +2198,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" t="s">
-        <v>445</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
         <v>453</v>
@@ -2212,7 +2212,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
         <v>237</v>
@@ -2232,7 +2232,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
         <v>238</v>
@@ -2252,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
         <v>239</v>
@@ -2272,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
         <v>240</v>
@@ -2281,7 +2281,7 @@
         <v>446</v>
       </c>
       <c r="F13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2292,7 +2292,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
         <v>241</v>
@@ -2301,7 +2301,7 @@
         <v>446</v>
       </c>
       <c r="F14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2312,7 +2312,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
         <v>242</v>
@@ -2321,7 +2321,7 @@
         <v>445</v>
       </c>
       <c r="F15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2332,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
         <v>243</v>
@@ -2341,7 +2341,7 @@
         <v>446</v>
       </c>
       <c r="F16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2352,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
         <v>244</v>
@@ -2361,7 +2361,7 @@
         <v>446</v>
       </c>
       <c r="F17" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2372,7 +2372,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
         <v>245</v>
@@ -2381,7 +2381,7 @@
         <v>446</v>
       </c>
       <c r="F18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2392,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
         <v>246</v>
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
         <v>247</v>
@@ -2418,7 +2418,7 @@
         <v>446</v>
       </c>
       <c r="F20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2429,7 +2429,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
         <v>248</v>
@@ -2446,7 +2446,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
         <v>249</v>
@@ -2455,7 +2455,7 @@
         <v>446</v>
       </c>
       <c r="F22" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
         <v>250</v>
@@ -2480,7 +2480,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
         <v>251</v>
@@ -2489,7 +2489,7 @@
         <v>446</v>
       </c>
       <c r="F24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2500,7 +2500,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
         <v>252</v>
@@ -2517,7 +2517,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
         <v>253</v>
@@ -2526,7 +2526,7 @@
         <v>446</v>
       </c>
       <c r="F26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2537,7 +2537,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
         <v>254</v>
@@ -2554,7 +2554,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
         <v>255</v>
@@ -2563,7 +2563,7 @@
         <v>447</v>
       </c>
       <c r="F28" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
         <v>256</v>
@@ -2583,7 +2583,7 @@
         <v>446</v>
       </c>
       <c r="F29" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D30" t="s">
         <v>257</v>
@@ -2603,7 +2603,7 @@
         <v>446</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
         <v>258</v>
@@ -2631,7 +2631,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
         <v>259</v>
@@ -2648,7 +2648,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D33" t="s">
         <v>260</v>
@@ -2657,7 +2657,7 @@
         <v>446</v>
       </c>
       <c r="F33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2668,7 +2668,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
         <v>261</v>
@@ -2685,7 +2685,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
         <v>262</v>
@@ -2694,7 +2694,7 @@
         <v>445</v>
       </c>
       <c r="F35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2705,7 +2705,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D36" t="s">
         <v>263</v>
@@ -2714,7 +2714,7 @@
         <v>445</v>
       </c>
       <c r="F36" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2725,7 +2725,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
         <v>264</v>
@@ -2742,7 +2742,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D38" t="s">
         <v>265</v>
@@ -2759,7 +2759,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D39" t="s">
         <v>266</v>
@@ -2776,7 +2776,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D40" t="s">
         <v>267</v>
@@ -2793,7 +2793,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
         <v>268</v>
@@ -2802,7 +2802,7 @@
         <v>445</v>
       </c>
       <c r="F41" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2813,7 +2813,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
         <v>269</v>
@@ -2830,7 +2830,7 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
         <v>270</v>
@@ -2839,7 +2839,7 @@
         <v>446</v>
       </c>
       <c r="F43" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2850,7 +2850,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
         <v>271</v>
@@ -2867,7 +2867,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D45" t="s">
         <v>272</v>
@@ -2884,7 +2884,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D46" t="s">
         <v>273</v>
@@ -2901,7 +2901,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
         <v>274</v>
@@ -2910,7 +2910,7 @@
         <v>446</v>
       </c>
       <c r="F47" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2921,7 +2921,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
         <v>275</v>
@@ -2938,7 +2938,7 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D49" t="s">
         <v>276</v>
@@ -2947,7 +2947,7 @@
         <v>446</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2958,7 +2958,7 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
         <v>277</v>
@@ -2967,7 +2967,7 @@
         <v>445</v>
       </c>
       <c r="F50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2978,7 +2978,7 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D51" t="s">
         <v>278</v>
@@ -2995,7 +2995,7 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
         <v>279</v>
@@ -3004,7 +3004,7 @@
         <v>446</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3015,7 +3015,7 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
         <v>280</v>
@@ -3032,7 +3032,7 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D54" t="s">
         <v>281</v>
@@ -3041,7 +3041,7 @@
         <v>445</v>
       </c>
       <c r="F54" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3052,7 +3052,7 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s">
         <v>282</v>
@@ -3069,7 +3069,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D56" t="s">
         <v>283</v>
@@ -3078,7 +3078,7 @@
         <v>446</v>
       </c>
       <c r="F56" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3089,7 +3089,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
         <v>284</v>
@@ -3098,7 +3098,7 @@
         <v>446</v>
       </c>
       <c r="F57" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3109,7 +3109,7 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
         <v>285</v>
@@ -3126,7 +3126,7 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D59" t="s">
         <v>286</v>
@@ -3143,7 +3143,7 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D60" t="s">
         <v>287</v>
@@ -3152,7 +3152,7 @@
         <v>446</v>
       </c>
       <c r="F60" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3163,7 +3163,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D61" t="s">
         <v>288</v>
@@ -3180,7 +3180,7 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D62" t="s">
         <v>289</v>
@@ -3197,7 +3197,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D63" t="s">
         <v>290</v>
@@ -3206,7 +3206,7 @@
         <v>445</v>
       </c>
       <c r="F63" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3217,7 +3217,7 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D64" t="s">
         <v>291</v>
@@ -3234,7 +3234,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
         <v>292</v>
@@ -3243,7 +3243,7 @@
         <v>446</v>
       </c>
       <c r="F65" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
         <v>293</v>
@@ -3271,7 +3271,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
         <v>294</v>
@@ -3288,7 +3288,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D68" t="s">
         <v>295</v>
@@ -3305,7 +3305,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
         <v>296</v>
@@ -3314,7 +3314,7 @@
         <v>446</v>
       </c>
       <c r="F69" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3325,7 +3325,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
         <v>297</v>
@@ -3334,7 +3334,7 @@
         <v>446</v>
       </c>
       <c r="F70" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3345,7 +3345,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D71" t="s">
         <v>298</v>
@@ -3362,7 +3362,7 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
         <v>299</v>
@@ -3371,7 +3371,7 @@
         <v>446</v>
       </c>
       <c r="F72" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3382,7 +3382,7 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D73" t="s">
         <v>300</v>
@@ -3399,7 +3399,7 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
         <v>301</v>
@@ -3408,7 +3408,7 @@
         <v>446</v>
       </c>
       <c r="F74" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3419,7 +3419,7 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D75" t="s">
         <v>302</v>
@@ -3436,7 +3436,7 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D76" t="s">
         <v>303</v>
@@ -3453,7 +3453,7 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3462,7 +3462,7 @@
         <v>445</v>
       </c>
       <c r="F77" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3473,7 +3473,7 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" t="s">
         <v>305</v>
@@ -3482,7 +3482,7 @@
         <v>446</v>
       </c>
       <c r="F78" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3493,7 +3493,7 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
         <v>306</v>
@@ -3502,7 +3502,7 @@
         <v>446</v>
       </c>
       <c r="F79" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3513,7 +3513,7 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" t="s">
         <v>307</v>
@@ -3522,7 +3522,7 @@
         <v>446</v>
       </c>
       <c r="F80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3533,7 +3533,7 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" t="s">
         <v>308</v>
@@ -3550,7 +3550,7 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" t="s">
         <v>309</v>
@@ -3564,7 +3564,7 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D83" t="s">
         <v>310</v>
@@ -3581,7 +3581,7 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
         <v>311</v>
@@ -3598,7 +3598,7 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
         <v>312</v>
@@ -3607,7 +3607,7 @@
         <v>446</v>
       </c>
       <c r="F85" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3618,7 +3618,7 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
         <v>313</v>
@@ -3635,7 +3635,7 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D87" t="s">
         <v>314</v>
@@ -3644,7 +3644,7 @@
         <v>446</v>
       </c>
       <c r="F87" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3655,7 +3655,7 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D88" t="s">
         <v>315</v>
@@ -3664,7 +3664,7 @@
         <v>445</v>
       </c>
       <c r="F88" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3675,7 +3675,7 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D89" t="s">
         <v>316</v>
@@ -3692,7 +3692,7 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D90" t="s">
         <v>317</v>
@@ -3701,7 +3701,7 @@
         <v>446</v>
       </c>
       <c r="F90" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3712,7 +3712,7 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D91" t="s">
         <v>318</v>
@@ -3729,7 +3729,7 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D92" t="s">
         <v>319</v>
@@ -3738,7 +3738,7 @@
         <v>446</v>
       </c>
       <c r="F92" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3749,7 +3749,7 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D93" t="s">
         <v>320</v>
@@ -3766,7 +3766,7 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D94" t="s">
         <v>321</v>
@@ -3775,7 +3775,7 @@
         <v>445</v>
       </c>
       <c r="F94" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D95" t="s">
         <v>322</v>
@@ -3803,7 +3803,7 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D96" t="s">
         <v>323</v>
@@ -3812,7 +3812,7 @@
         <v>446</v>
       </c>
       <c r="F96" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3823,7 +3823,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D97" t="s">
         <v>324</v>
@@ -3832,7 +3832,7 @@
         <v>445</v>
       </c>
       <c r="F97" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3843,7 +3843,7 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
         <v>325</v>
@@ -3860,7 +3860,7 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D99" t="s">
         <v>326</v>
@@ -3877,7 +3877,7 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D100" t="s">
         <v>327</v>
@@ -3894,7 +3894,7 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D101" t="s">
         <v>328</v>
@@ -3903,7 +3903,7 @@
         <v>446</v>
       </c>
       <c r="F101" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D102" t="s">
         <v>329</v>
@@ -3931,7 +3931,7 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D103" t="s">
         <v>330</v>
@@ -3948,7 +3948,7 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
         <v>331</v>
@@ -3965,7 +3965,7 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s">
         <v>332</v>
@@ -3982,7 +3982,7 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D106" t="s">
         <v>333</v>
@@ -3999,7 +3999,7 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s">
         <v>334</v>
@@ -4016,7 +4016,7 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D108" t="s">
         <v>335</v>
@@ -4033,7 +4033,7 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D109" t="s">
         <v>336</v>
@@ -4042,7 +4042,7 @@
         <v>446</v>
       </c>
       <c r="F109" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4053,7 +4053,7 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D110" t="s">
         <v>337</v>
@@ -4062,7 +4062,7 @@
         <v>447</v>
       </c>
       <c r="F110" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4073,7 +4073,7 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D111" t="s">
         <v>338</v>
@@ -4082,7 +4082,7 @@
         <v>445</v>
       </c>
       <c r="F111" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4093,7 +4093,7 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D112" t="s">
         <v>339</v>
@@ -4102,7 +4102,7 @@
         <v>445</v>
       </c>
       <c r="F112" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4113,7 +4113,7 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D113" t="s">
         <v>340</v>
@@ -4122,7 +4122,7 @@
         <v>445</v>
       </c>
       <c r="F113" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4133,7 +4133,7 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D114" t="s">
         <v>341</v>
@@ -4142,7 +4142,7 @@
         <v>445</v>
       </c>
       <c r="F114" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4153,7 +4153,7 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D115" t="s">
         <v>342</v>
@@ -4162,7 +4162,7 @@
         <v>445</v>
       </c>
       <c r="F115" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4173,7 +4173,7 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D116" t="s">
         <v>343</v>
@@ -4182,7 +4182,7 @@
         <v>446</v>
       </c>
       <c r="F116" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4193,7 +4193,7 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D117" t="s">
         <v>344</v>
@@ -4210,7 +4210,7 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D118" t="s">
         <v>345</v>
@@ -4227,7 +4227,7 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D119" t="s">
         <v>346</v>
@@ -4244,7 +4244,7 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D120" t="s">
         <v>347</v>
@@ -4261,7 +4261,7 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D121" t="s">
         <v>348</v>
@@ -4270,7 +4270,7 @@
         <v>446</v>
       </c>
       <c r="F121" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4281,7 +4281,7 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D122" t="s">
         <v>349</v>
@@ -4298,7 +4298,7 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D123" t="s">
         <v>350</v>
@@ -4315,7 +4315,7 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D124" t="s">
         <v>351</v>
@@ -4324,7 +4324,7 @@
         <v>446</v>
       </c>
       <c r="F124" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4335,7 +4335,7 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D125" t="s">
         <v>352</v>
@@ -4344,7 +4344,7 @@
         <v>446</v>
       </c>
       <c r="F125" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4355,7 +4355,7 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D126" t="s">
         <v>353</v>
@@ -4364,7 +4364,7 @@
         <v>446</v>
       </c>
       <c r="F126" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4375,7 +4375,7 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D127" t="s">
         <v>354</v>
@@ -4392,7 +4392,7 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D128" t="s">
         <v>355</v>
@@ -4401,7 +4401,7 @@
         <v>445</v>
       </c>
       <c r="F128" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4412,7 +4412,7 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D129" t="s">
         <v>356</v>
@@ -4421,7 +4421,7 @@
         <v>446</v>
       </c>
       <c r="F129" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4432,7 +4432,7 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D130" t="s">
         <v>357</v>
@@ -4449,7 +4449,7 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D131" t="s">
         <v>358</v>
@@ -4466,7 +4466,7 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D132" t="s">
         <v>359</v>
@@ -4475,7 +4475,7 @@
         <v>446</v>
       </c>
       <c r="F132" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D133" t="s">
         <v>360</v>
@@ -4503,7 +4503,7 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D134" t="s">
         <v>361</v>
@@ -4512,7 +4512,7 @@
         <v>448</v>
       </c>
       <c r="F134" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4523,7 +4523,7 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D135" t="s">
         <v>362</v>
@@ -4540,7 +4540,7 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D136" t="s">
         <v>363</v>
@@ -4557,7 +4557,7 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D137" t="s">
         <v>364</v>
@@ -4566,7 +4566,7 @@
         <v>446</v>
       </c>
       <c r="F137" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4577,7 +4577,7 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D138" t="s">
         <v>365</v>
@@ -4586,7 +4586,7 @@
         <v>446</v>
       </c>
       <c r="F138" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4597,7 +4597,7 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D139" t="s">
         <v>366</v>
@@ -4606,7 +4606,7 @@
         <v>446</v>
       </c>
       <c r="F139" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4617,7 +4617,7 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D140" t="s">
         <v>367</v>
@@ -4634,7 +4634,7 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D141" t="s">
         <v>368</v>
@@ -4651,7 +4651,7 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D142" t="s">
         <v>369</v>
@@ -4668,7 +4668,7 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D143" t="s">
         <v>370</v>
@@ -4677,7 +4677,7 @@
         <v>446</v>
       </c>
       <c r="F143" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4688,7 +4688,7 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D144" t="s">
         <v>371</v>
@@ -4697,7 +4697,7 @@
         <v>446</v>
       </c>
       <c r="F144" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4708,7 +4708,7 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D145" t="s">
         <v>372</v>
@@ -4717,7 +4717,7 @@
         <v>446</v>
       </c>
       <c r="F145" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4728,7 +4728,7 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D146" t="s">
         <v>373</v>
@@ -4745,7 +4745,7 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D147" t="s">
         <v>374</v>
@@ -4762,7 +4762,7 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D148" t="s">
         <v>375</v>
@@ -4771,7 +4771,7 @@
         <v>446</v>
       </c>
       <c r="F148" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4782,7 +4782,7 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D149" t="s">
         <v>376</v>
@@ -4791,7 +4791,7 @@
         <v>446</v>
       </c>
       <c r="F149" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4802,7 +4802,7 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D150" t="s">
         <v>377</v>
@@ -4811,7 +4811,7 @@
         <v>446</v>
       </c>
       <c r="F150" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4822,7 +4822,7 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D151" t="s">
         <v>378</v>
@@ -4839,7 +4839,7 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4850,7 +4850,7 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D153" t="s">
         <v>379</v>
@@ -4859,7 +4859,7 @@
         <v>447</v>
       </c>
       <c r="F153" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4870,7 +4870,7 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D154" t="s">
         <v>380</v>
@@ -4887,7 +4887,7 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D155" t="s">
         <v>381</v>
@@ -4896,7 +4896,7 @@
         <v>448</v>
       </c>
       <c r="F155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4907,7 +4907,7 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D156" t="s">
         <v>382</v>
@@ -4916,7 +4916,7 @@
         <v>448</v>
       </c>
       <c r="F156" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4927,7 +4927,7 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D157" t="s">
         <v>383</v>
@@ -4936,7 +4936,7 @@
         <v>448</v>
       </c>
       <c r="F157" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4947,10 +4947,10 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F158" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4961,7 +4961,7 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D159" t="s">
         <v>384</v>
@@ -4970,7 +4970,7 @@
         <v>445</v>
       </c>
       <c r="F159" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4981,7 +4981,7 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D160" t="s">
         <v>385</v>
@@ -4990,7 +4990,7 @@
         <v>445</v>
       </c>
       <c r="F160" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5001,7 +5001,7 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D161" t="s">
         <v>386</v>
@@ -5010,7 +5010,7 @@
         <v>448</v>
       </c>
       <c r="F161" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5021,7 +5021,7 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D162" t="s">
         <v>387</v>
@@ -5030,7 +5030,7 @@
         <v>445</v>
       </c>
       <c r="F162" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5041,7 +5041,7 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D163" t="s">
         <v>388</v>
@@ -5050,7 +5050,7 @@
         <v>445</v>
       </c>
       <c r="F163" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5061,7 +5061,7 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D164" t="s">
         <v>389</v>
@@ -5078,7 +5078,7 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D165" t="s">
         <v>390</v>
@@ -5087,7 +5087,7 @@
         <v>445</v>
       </c>
       <c r="F165" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5098,7 +5098,7 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D166" t="s">
         <v>391</v>
@@ -5107,7 +5107,7 @@
         <v>445</v>
       </c>
       <c r="F166" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5118,7 +5118,7 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D167" t="s">
         <v>392</v>
@@ -5135,7 +5135,7 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D168" t="s">
         <v>393</v>
@@ -5144,7 +5144,7 @@
         <v>445</v>
       </c>
       <c r="F168" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5155,7 +5155,7 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D169" t="s">
         <v>394</v>
@@ -5172,7 +5172,7 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D170" t="s">
         <v>395</v>
@@ -5189,7 +5189,7 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D171" t="s">
         <v>396</v>
@@ -5198,7 +5198,7 @@
         <v>445</v>
       </c>
       <c r="F171" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5209,7 +5209,7 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D172" t="s">
         <v>397</v>
@@ -5218,7 +5218,7 @@
         <v>445</v>
       </c>
       <c r="F172" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5229,7 +5229,7 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D173" t="s">
         <v>398</v>
@@ -5246,7 +5246,7 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D174" t="s">
         <v>399</v>
@@ -5263,7 +5263,7 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D175" t="s">
         <v>400</v>
@@ -5272,7 +5272,7 @@
         <v>445</v>
       </c>
       <c r="F175" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5283,7 +5283,7 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D176" t="s">
         <v>401</v>
@@ -5300,7 +5300,7 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D177" t="s">
         <v>402</v>
@@ -5317,7 +5317,7 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D178" t="s">
         <v>403</v>
@@ -5334,7 +5334,7 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D179" t="s">
         <v>404</v>
@@ -5343,7 +5343,7 @@
         <v>448</v>
       </c>
       <c r="F179" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D180" t="s">
         <v>405</v>
@@ -5363,7 +5363,7 @@
         <v>445</v>
       </c>
       <c r="F180" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D181" t="s">
         <v>406</v>
@@ -5383,7 +5383,7 @@
         <v>445</v>
       </c>
       <c r="F181" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D182" t="s">
         <v>407</v>
@@ -5403,7 +5403,7 @@
         <v>445</v>
       </c>
       <c r="F182" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D183" t="s">
         <v>408</v>
@@ -5423,7 +5423,7 @@
         <v>445</v>
       </c>
       <c r="F183" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D184" t="s">
         <v>409</v>
@@ -5443,7 +5443,7 @@
         <v>445</v>
       </c>
       <c r="F184" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D185" t="s">
         <v>410</v>
@@ -5463,7 +5463,7 @@
         <v>445</v>
       </c>
       <c r="F185" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D186" t="s">
         <v>411</v>
@@ -5483,7 +5483,7 @@
         <v>445</v>
       </c>
       <c r="F186" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D187" t="s">
         <v>412</v>
@@ -5503,7 +5503,7 @@
         <v>445</v>
       </c>
       <c r="F187" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D188" t="s">
         <v>413</v>
@@ -5523,7 +5523,7 @@
         <v>445</v>
       </c>
       <c r="F188" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D189" t="s">
         <v>414</v>
@@ -5543,7 +5543,7 @@
         <v>448</v>
       </c>
       <c r="F189" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D190" t="s">
         <v>415</v>
@@ -5563,7 +5563,7 @@
         <v>445</v>
       </c>
       <c r="F190" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D191" t="s">
         <v>416</v>
@@ -5583,7 +5583,7 @@
         <v>445</v>
       </c>
       <c r="F191" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D192" t="s">
         <v>417</v>
@@ -5603,7 +5603,7 @@
         <v>445</v>
       </c>
       <c r="F192" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D193" t="s">
         <v>418</v>
@@ -5623,7 +5623,7 @@
         <v>445</v>
       </c>
       <c r="F193" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D194" t="s">
         <v>419</v>
@@ -5643,7 +5643,7 @@
         <v>445</v>
       </c>
       <c r="F194" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D195" t="s">
         <v>420</v>
@@ -5663,7 +5663,7 @@
         <v>445</v>
       </c>
       <c r="F195" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D196" t="s">
         <v>421</v>
@@ -5683,7 +5683,7 @@
         <v>447</v>
       </c>
       <c r="F196" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D197" t="s">
         <v>422</v>
@@ -5703,7 +5703,7 @@
         <v>445</v>
       </c>
       <c r="F197" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D198" t="s">
         <v>423</v>
@@ -5723,7 +5723,7 @@
         <v>445</v>
       </c>
       <c r="F198" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D199" t="s">
         <v>424</v>
@@ -5743,7 +5743,7 @@
         <v>447</v>
       </c>
       <c r="F199" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D200" t="s">
         <v>423</v>
@@ -5763,7 +5763,7 @@
         <v>445</v>
       </c>
       <c r="F200" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D201" t="s">
         <v>425</v>
@@ -5783,7 +5783,7 @@
         <v>445</v>
       </c>
       <c r="F201" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D202" t="s">
         <v>426</v>
@@ -5803,7 +5803,7 @@
         <v>448</v>
       </c>
       <c r="F202" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D203" t="s">
         <v>427</v>
@@ -5823,7 +5823,7 @@
         <v>445</v>
       </c>
       <c r="F203" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D204" t="s">
         <v>428</v>
@@ -5843,7 +5843,7 @@
         <v>445</v>
       </c>
       <c r="F204" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D205" t="s">
         <v>429</v>
@@ -5863,7 +5863,7 @@
         <v>447</v>
       </c>
       <c r="F205" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D206" t="s">
         <v>430</v>
@@ -5883,7 +5883,7 @@
         <v>445</v>
       </c>
       <c r="F206" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D207" t="s">
         <v>431</v>
@@ -5903,7 +5903,7 @@
         <v>445</v>
       </c>
       <c r="F207" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5925,7 +5925,7 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D209" t="s">
         <v>432</v>
@@ -5934,7 +5934,7 @@
         <v>446</v>
       </c>
       <c r="F209" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5945,7 +5945,7 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D210" t="s">
         <v>433</v>
@@ -5954,7 +5954,7 @@
         <v>446</v>
       </c>
       <c r="F210" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5965,16 +5965,16 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D211" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E211" t="s">
         <v>445</v>
       </c>
       <c r="F211" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5985,10 +5985,10 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F212" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5999,13 +5999,13 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D213" t="s">
         <v>434</v>
       </c>
       <c r="F213" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6016,10 +6016,10 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F214" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6030,7 +6030,7 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D215" t="s">
         <v>435</v>
@@ -6039,7 +6039,7 @@
         <v>445</v>
       </c>
       <c r="F215" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6050,7 +6050,7 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D216" t="s">
         <v>436</v>
@@ -6059,7 +6059,7 @@
         <v>445</v>
       </c>
       <c r="F216" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6070,7 +6070,7 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D217" t="s">
         <v>437</v>
@@ -6079,7 +6079,7 @@
         <v>445</v>
       </c>
       <c r="F217" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6090,7 +6090,7 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D218" t="s">
         <v>438</v>
@@ -6099,7 +6099,7 @@
         <v>445</v>
       </c>
       <c r="F218" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6110,7 +6110,7 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D219" t="s">
         <v>439</v>
@@ -6119,7 +6119,7 @@
         <v>445</v>
       </c>
       <c r="F219" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6130,7 +6130,7 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D220" t="s">
         <v>440</v>
@@ -6139,7 +6139,7 @@
         <v>445</v>
       </c>
       <c r="F220" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6150,13 +6150,13 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D221" t="s">
         <v>441</v>
       </c>
       <c r="F221" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6167,13 +6167,13 @@
         <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D222" t="s">
         <v>442</v>
       </c>
       <c r="F222" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6184,7 +6184,7 @@
         <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D223" t="s">
         <v>443</v>
@@ -6193,7 +6193,7 @@
         <v>445</v>
       </c>
       <c r="F223" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6204,7 +6204,7 @@
         <v>227</v>
       </c>
       <c r="C224" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D224" t="s">
         <v>444</v>
@@ -6213,10 +6213,10 @@
         <v>445</v>
       </c>
       <c r="F224" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6224,7 +6224,21 @@
         <v>228</v>
       </c>
       <c r="C225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
         <v>229</v>
+      </c>
+      <c r="C226" t="s">
+        <v>230</v>
+      </c>
+      <c r="F226" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="558">
   <si>
     <t>Role</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>shaohua_guo,marius_hayler,mattias_lundgren,ruben_keuter,martin_rieder,akos_kiss,matt_galvin,gerald_krainer,thijs_meijling</t>
+  </si>
+  <si>
+    <t>tino_tezel</t>
   </si>
   <si>
     <t>caesar_qian</t>
@@ -2079,10 +2082,10 @@
         <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2099,10 +2102,10 @@
         <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2119,7 +2122,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2136,7 +2139,7 @@
         <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2150,7 +2153,7 @@
         <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2167,7 +2170,7 @@
         <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2184,10 +2187,10 @@
         <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2201,7 +2204,7 @@
         <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2218,10 +2221,10 @@
         <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2238,10 +2241,10 @@
         <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2258,10 +2261,10 @@
         <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2278,10 +2281,10 @@
         <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2298,10 +2301,10 @@
         <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2318,10 +2321,10 @@
         <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2338,10 +2341,10 @@
         <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2358,10 +2361,10 @@
         <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2378,10 +2381,10 @@
         <v>245</v>
       </c>
       <c r="E18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2398,7 +2401,7 @@
         <v>246</v>
       </c>
       <c r="E19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2415,10 +2418,10 @@
         <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2435,7 +2438,7 @@
         <v>248</v>
       </c>
       <c r="E21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2452,10 +2455,10 @@
         <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2486,10 +2489,10 @@
         <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2506,7 +2509,7 @@
         <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2523,10 +2526,10 @@
         <v>253</v>
       </c>
       <c r="E26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2543,7 +2546,7 @@
         <v>254</v>
       </c>
       <c r="E27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2560,10 +2563,10 @@
         <v>255</v>
       </c>
       <c r="E28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F28" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2580,10 +2583,10 @@
         <v>256</v>
       </c>
       <c r="E29" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F29" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2600,10 +2603,10 @@
         <v>257</v>
       </c>
       <c r="E30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2620,7 +2623,7 @@
         <v>258</v>
       </c>
       <c r="E31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2637,7 +2640,7 @@
         <v>259</v>
       </c>
       <c r="E32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2654,10 +2657,10 @@
         <v>260</v>
       </c>
       <c r="E33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F33" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2674,7 +2677,7 @@
         <v>261</v>
       </c>
       <c r="E34" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2691,10 +2694,10 @@
         <v>262</v>
       </c>
       <c r="E35" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2711,10 +2714,10 @@
         <v>263</v>
       </c>
       <c r="E36" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F36" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2731,7 +2734,7 @@
         <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2748,7 +2751,7 @@
         <v>265</v>
       </c>
       <c r="E38" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2765,7 +2768,7 @@
         <v>266</v>
       </c>
       <c r="E39" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2782,7 +2785,7 @@
         <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2799,10 +2802,10 @@
         <v>268</v>
       </c>
       <c r="E41" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F41" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2819,7 +2822,7 @@
         <v>269</v>
       </c>
       <c r="E42" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2836,10 +2839,10 @@
         <v>270</v>
       </c>
       <c r="E43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F43" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2856,7 +2859,7 @@
         <v>271</v>
       </c>
       <c r="E44" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2873,7 +2876,7 @@
         <v>272</v>
       </c>
       <c r="E45" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2890,7 +2893,7 @@
         <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2907,10 +2910,10 @@
         <v>274</v>
       </c>
       <c r="E47" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F47" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2927,7 +2930,7 @@
         <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2944,10 +2947,10 @@
         <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F49" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2964,10 +2967,10 @@
         <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F50" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2984,7 +2987,7 @@
         <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3001,10 +3004,10 @@
         <v>279</v>
       </c>
       <c r="E52" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F52" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3021,7 +3024,7 @@
         <v>280</v>
       </c>
       <c r="E53" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3038,10 +3041,10 @@
         <v>281</v>
       </c>
       <c r="E54" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F54" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3058,7 +3061,7 @@
         <v>282</v>
       </c>
       <c r="E55" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3075,10 +3078,10 @@
         <v>283</v>
       </c>
       <c r="E56" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F56" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3095,10 +3098,10 @@
         <v>284</v>
       </c>
       <c r="E57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3115,7 +3118,7 @@
         <v>285</v>
       </c>
       <c r="E58" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3132,7 +3135,7 @@
         <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3149,10 +3152,10 @@
         <v>287</v>
       </c>
       <c r="E60" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3169,7 +3172,7 @@
         <v>288</v>
       </c>
       <c r="E61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3186,7 +3189,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3203,10 +3206,10 @@
         <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3223,7 +3226,7 @@
         <v>291</v>
       </c>
       <c r="E64" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3240,10 +3243,10 @@
         <v>292</v>
       </c>
       <c r="E65" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F65" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3260,7 +3263,7 @@
         <v>293</v>
       </c>
       <c r="E66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3277,7 +3280,7 @@
         <v>294</v>
       </c>
       <c r="E67" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3294,7 +3297,7 @@
         <v>295</v>
       </c>
       <c r="E68" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3311,10 +3314,10 @@
         <v>296</v>
       </c>
       <c r="E69" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3331,10 +3334,10 @@
         <v>297</v>
       </c>
       <c r="E70" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3351,7 +3354,7 @@
         <v>298</v>
       </c>
       <c r="E71" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3368,10 +3371,10 @@
         <v>299</v>
       </c>
       <c r="E72" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F72" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3388,7 +3391,7 @@
         <v>300</v>
       </c>
       <c r="E73" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3405,10 +3408,10 @@
         <v>301</v>
       </c>
       <c r="E74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F74" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3425,7 +3428,7 @@
         <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3442,7 +3445,7 @@
         <v>303</v>
       </c>
       <c r="E76" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3459,10 +3462,10 @@
         <v>304</v>
       </c>
       <c r="E77" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F77" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3479,10 +3482,10 @@
         <v>305</v>
       </c>
       <c r="E78" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F78" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3499,10 +3502,10 @@
         <v>306</v>
       </c>
       <c r="E79" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F79" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3519,10 +3522,10 @@
         <v>307</v>
       </c>
       <c r="E80" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3539,7 +3542,7 @@
         <v>308</v>
       </c>
       <c r="E81" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3570,7 +3573,7 @@
         <v>310</v>
       </c>
       <c r="E83" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3587,7 +3590,7 @@
         <v>311</v>
       </c>
       <c r="E84" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3604,10 +3607,10 @@
         <v>312</v>
       </c>
       <c r="E85" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F85" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3624,7 +3627,7 @@
         <v>313</v>
       </c>
       <c r="E86" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3641,10 +3644,10 @@
         <v>314</v>
       </c>
       <c r="E87" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F87" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3661,10 +3664,10 @@
         <v>315</v>
       </c>
       <c r="E88" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F88" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3681,7 +3684,7 @@
         <v>316</v>
       </c>
       <c r="E89" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3698,10 +3701,10 @@
         <v>317</v>
       </c>
       <c r="E90" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F90" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3718,7 +3721,7 @@
         <v>318</v>
       </c>
       <c r="E91" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3735,10 +3738,10 @@
         <v>319</v>
       </c>
       <c r="E92" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F92" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3755,7 +3758,7 @@
         <v>320</v>
       </c>
       <c r="E93" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3772,10 +3775,10 @@
         <v>321</v>
       </c>
       <c r="E94" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F94" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3792,7 +3795,7 @@
         <v>322</v>
       </c>
       <c r="E95" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3809,10 +3812,10 @@
         <v>323</v>
       </c>
       <c r="E96" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F96" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3829,10 +3832,10 @@
         <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3849,7 +3852,7 @@
         <v>325</v>
       </c>
       <c r="E98" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3866,7 +3869,7 @@
         <v>326</v>
       </c>
       <c r="E99" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3883,7 +3886,7 @@
         <v>327</v>
       </c>
       <c r="E100" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3900,10 +3903,10 @@
         <v>328</v>
       </c>
       <c r="E101" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F101" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3920,7 +3923,7 @@
         <v>329</v>
       </c>
       <c r="E102" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3937,7 +3940,7 @@
         <v>330</v>
       </c>
       <c r="E103" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3954,7 +3957,7 @@
         <v>331</v>
       </c>
       <c r="E104" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3971,7 +3974,7 @@
         <v>332</v>
       </c>
       <c r="E105" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3988,7 +3991,7 @@
         <v>333</v>
       </c>
       <c r="E106" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4005,7 +4008,7 @@
         <v>334</v>
       </c>
       <c r="E107" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4022,7 +4025,7 @@
         <v>335</v>
       </c>
       <c r="E108" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4039,10 +4042,10 @@
         <v>336</v>
       </c>
       <c r="E109" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F109" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4059,10 +4062,10 @@
         <v>337</v>
       </c>
       <c r="E110" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F110" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4079,10 +4082,10 @@
         <v>338</v>
       </c>
       <c r="E111" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F111" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4099,10 +4102,10 @@
         <v>339</v>
       </c>
       <c r="E112" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F112" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4119,10 +4122,10 @@
         <v>340</v>
       </c>
       <c r="E113" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F113" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4139,10 +4142,10 @@
         <v>341</v>
       </c>
       <c r="E114" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F114" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4159,10 +4162,10 @@
         <v>342</v>
       </c>
       <c r="E115" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F115" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4179,10 +4182,10 @@
         <v>343</v>
       </c>
       <c r="E116" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F116" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4199,7 +4202,7 @@
         <v>344</v>
       </c>
       <c r="E117" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4216,7 +4219,7 @@
         <v>345</v>
       </c>
       <c r="E118" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4233,7 +4236,7 @@
         <v>346</v>
       </c>
       <c r="E119" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4250,7 +4253,7 @@
         <v>347</v>
       </c>
       <c r="E120" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4267,10 +4270,10 @@
         <v>348</v>
       </c>
       <c r="E121" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4287,7 +4290,7 @@
         <v>349</v>
       </c>
       <c r="E122" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4304,7 +4307,7 @@
         <v>350</v>
       </c>
       <c r="E123" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4321,10 +4324,10 @@
         <v>351</v>
       </c>
       <c r="E124" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4341,10 +4344,10 @@
         <v>352</v>
       </c>
       <c r="E125" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F125" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4361,10 +4364,10 @@
         <v>353</v>
       </c>
       <c r="E126" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F126" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4381,7 +4384,7 @@
         <v>354</v>
       </c>
       <c r="E127" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4398,10 +4401,10 @@
         <v>355</v>
       </c>
       <c r="E128" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F128" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4418,10 +4421,10 @@
         <v>356</v>
       </c>
       <c r="E129" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F129" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4438,7 +4441,7 @@
         <v>357</v>
       </c>
       <c r="E130" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4455,7 +4458,7 @@
         <v>358</v>
       </c>
       <c r="E131" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4472,10 +4475,10 @@
         <v>359</v>
       </c>
       <c r="E132" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F132" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4492,7 +4495,7 @@
         <v>360</v>
       </c>
       <c r="E133" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4509,10 +4512,10 @@
         <v>361</v>
       </c>
       <c r="E134" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F134" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4529,7 +4532,7 @@
         <v>362</v>
       </c>
       <c r="E135" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4546,7 +4549,7 @@
         <v>363</v>
       </c>
       <c r="E136" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4563,10 +4566,10 @@
         <v>364</v>
       </c>
       <c r="E137" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4583,10 +4586,10 @@
         <v>365</v>
       </c>
       <c r="E138" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F138" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4603,10 +4606,10 @@
         <v>366</v>
       </c>
       <c r="E139" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F139" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4623,7 +4626,7 @@
         <v>367</v>
       </c>
       <c r="E140" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4640,7 +4643,7 @@
         <v>368</v>
       </c>
       <c r="E141" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4657,7 +4660,7 @@
         <v>369</v>
       </c>
       <c r="E142" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4674,10 +4677,10 @@
         <v>370</v>
       </c>
       <c r="E143" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F143" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4694,10 +4697,10 @@
         <v>371</v>
       </c>
       <c r="E144" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F144" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4714,10 +4717,10 @@
         <v>372</v>
       </c>
       <c r="E145" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F145" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4734,7 +4737,7 @@
         <v>373</v>
       </c>
       <c r="E146" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4751,7 +4754,7 @@
         <v>374</v>
       </c>
       <c r="E147" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4768,10 +4771,10 @@
         <v>375</v>
       </c>
       <c r="E148" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F148" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4788,10 +4791,10 @@
         <v>376</v>
       </c>
       <c r="E149" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F149" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4808,10 +4811,10 @@
         <v>377</v>
       </c>
       <c r="E150" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F150" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4828,7 +4831,7 @@
         <v>378</v>
       </c>
       <c r="E151" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4856,10 +4859,10 @@
         <v>379</v>
       </c>
       <c r="E153" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F153" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4876,7 +4879,7 @@
         <v>380</v>
       </c>
       <c r="E154" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4893,10 +4896,10 @@
         <v>381</v>
       </c>
       <c r="E155" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F155" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4913,10 +4916,10 @@
         <v>382</v>
       </c>
       <c r="E156" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F156" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4933,10 +4936,10 @@
         <v>383</v>
       </c>
       <c r="E157" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F157" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4949,8 +4952,14 @@
       <c r="C158" t="s">
         <v>230</v>
       </c>
+      <c r="D158" t="s">
+        <v>384</v>
+      </c>
+      <c r="E158" t="s">
+        <v>446</v>
+      </c>
       <c r="F158" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4964,13 +4973,13 @@
         <v>230</v>
       </c>
       <c r="D159" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E159" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F159" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4984,13 +4993,13 @@
         <v>230</v>
       </c>
       <c r="D160" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E160" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F160" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5004,13 +5013,13 @@
         <v>230</v>
       </c>
       <c r="D161" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E161" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F161" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5024,13 +5033,13 @@
         <v>230</v>
       </c>
       <c r="D162" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E162" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F162" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5044,13 +5053,13 @@
         <v>230</v>
       </c>
       <c r="D163" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E163" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F163" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5064,10 +5073,10 @@
         <v>230</v>
       </c>
       <c r="D164" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E164" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5081,13 +5090,13 @@
         <v>230</v>
       </c>
       <c r="D165" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E165" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F165" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5101,13 +5110,13 @@
         <v>230</v>
       </c>
       <c r="D166" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E166" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F166" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5121,10 +5130,10 @@
         <v>230</v>
       </c>
       <c r="D167" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5138,13 +5147,13 @@
         <v>230</v>
       </c>
       <c r="D168" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F168" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5158,10 +5167,10 @@
         <v>230</v>
       </c>
       <c r="D169" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E169" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5175,10 +5184,10 @@
         <v>230</v>
       </c>
       <c r="D170" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E170" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5192,13 +5201,13 @@
         <v>230</v>
       </c>
       <c r="D171" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E171" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F171" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5212,13 +5221,13 @@
         <v>230</v>
       </c>
       <c r="D172" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E172" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F172" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5232,10 +5241,10 @@
         <v>230</v>
       </c>
       <c r="D173" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E173" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5249,10 +5258,10 @@
         <v>230</v>
       </c>
       <c r="D174" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E174" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5266,13 +5275,13 @@
         <v>230</v>
       </c>
       <c r="D175" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E175" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F175" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5286,10 +5295,10 @@
         <v>230</v>
       </c>
       <c r="D176" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E176" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5303,10 +5312,10 @@
         <v>230</v>
       </c>
       <c r="D177" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E177" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5320,10 +5329,10 @@
         <v>230</v>
       </c>
       <c r="D178" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E178" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5337,13 +5346,13 @@
         <v>230</v>
       </c>
       <c r="D179" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E179" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F179" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5357,13 +5366,13 @@
         <v>230</v>
       </c>
       <c r="D180" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E180" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F180" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5377,13 +5386,13 @@
         <v>230</v>
       </c>
       <c r="D181" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E181" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F181" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5397,13 +5406,13 @@
         <v>230</v>
       </c>
       <c r="D182" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E182" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F182" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5417,13 +5426,13 @@
         <v>230</v>
       </c>
       <c r="D183" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E183" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F183" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5437,13 +5446,13 @@
         <v>230</v>
       </c>
       <c r="D184" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E184" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F184" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5457,13 +5466,13 @@
         <v>230</v>
       </c>
       <c r="D185" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E185" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F185" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5477,13 +5486,13 @@
         <v>230</v>
       </c>
       <c r="D186" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E186" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F186" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5497,13 +5506,13 @@
         <v>230</v>
       </c>
       <c r="D187" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E187" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F187" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5517,13 +5526,13 @@
         <v>230</v>
       </c>
       <c r="D188" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E188" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F188" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5537,13 +5546,13 @@
         <v>230</v>
       </c>
       <c r="D189" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E189" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F189" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5557,13 +5566,13 @@
         <v>230</v>
       </c>
       <c r="D190" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E190" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F190" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5577,13 +5586,13 @@
         <v>230</v>
       </c>
       <c r="D191" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E191" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F191" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5597,13 +5606,13 @@
         <v>230</v>
       </c>
       <c r="D192" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E192" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F192" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5617,13 +5626,13 @@
         <v>230</v>
       </c>
       <c r="D193" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E193" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F193" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5637,13 +5646,13 @@
         <v>230</v>
       </c>
       <c r="D194" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E194" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F194" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5657,13 +5666,13 @@
         <v>230</v>
       </c>
       <c r="D195" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E195" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F195" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5677,13 +5686,13 @@
         <v>230</v>
       </c>
       <c r="D196" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E196" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F196" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5697,13 +5706,13 @@
         <v>230</v>
       </c>
       <c r="D197" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E197" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F197" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5717,13 +5726,13 @@
         <v>230</v>
       </c>
       <c r="D198" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E198" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F198" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5737,13 +5746,13 @@
         <v>230</v>
       </c>
       <c r="D199" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E199" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F199" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5757,13 +5766,13 @@
         <v>230</v>
       </c>
       <c r="D200" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E200" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F200" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5777,13 +5786,13 @@
         <v>230</v>
       </c>
       <c r="D201" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E201" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F201" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5797,13 +5806,13 @@
         <v>230</v>
       </c>
       <c r="D202" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E202" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F202" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5817,13 +5826,13 @@
         <v>230</v>
       </c>
       <c r="D203" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E203" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F203" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5837,13 +5846,13 @@
         <v>230</v>
       </c>
       <c r="D204" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E204" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F204" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5857,13 +5866,13 @@
         <v>230</v>
       </c>
       <c r="D205" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E205" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F205" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5877,13 +5886,13 @@
         <v>230</v>
       </c>
       <c r="D206" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E206" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F206" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5897,13 +5906,13 @@
         <v>230</v>
       </c>
       <c r="D207" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E207" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F207" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5928,13 +5937,13 @@
         <v>230</v>
       </c>
       <c r="D209" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E209" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F209" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5948,13 +5957,13 @@
         <v>230</v>
       </c>
       <c r="D210" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E210" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F210" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5971,10 +5980,10 @@
         <v>231</v>
       </c>
       <c r="E211" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F211" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5988,7 +5997,7 @@
         <v>230</v>
       </c>
       <c r="F212" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6002,10 +6011,10 @@
         <v>230</v>
       </c>
       <c r="D213" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F213" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6019,7 +6028,7 @@
         <v>230</v>
       </c>
       <c r="F214" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6033,13 +6042,13 @@
         <v>230</v>
       </c>
       <c r="D215" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E215" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F215" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6053,13 +6062,13 @@
         <v>230</v>
       </c>
       <c r="D216" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E216" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F216" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6073,13 +6082,13 @@
         <v>230</v>
       </c>
       <c r="D217" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E217" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F217" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6093,13 +6102,13 @@
         <v>230</v>
       </c>
       <c r="D218" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E218" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F218" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6113,13 +6122,13 @@
         <v>230</v>
       </c>
       <c r="D219" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E219" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F219" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6133,13 +6142,13 @@
         <v>230</v>
       </c>
       <c r="D220" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E220" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F220" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6153,10 +6162,10 @@
         <v>230</v>
       </c>
       <c r="D221" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F221" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6170,10 +6179,10 @@
         <v>230</v>
       </c>
       <c r="D222" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F222" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6187,13 +6196,13 @@
         <v>230</v>
       </c>
       <c r="D223" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F223" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6207,13 +6216,13 @@
         <v>230</v>
       </c>
       <c r="D224" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F224" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6238,7 +6247,7 @@
         <v>230</v>
       </c>
       <c r="F226" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -1450,13 +1450,13 @@
     <t>Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price,Accessory_Planning_&amp;_Operation</t>
   </si>
   <si>
-    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,EU_Legal_-_Corporate_Changes,EBE_Collection_Of_Large_2B_Transactions</t>
+    <t>Marketing_Expenses,EB_-_Europe_Business_Enabling_-_Market_Entry,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,EU_Legal_-_Corporate_Changes,EBE_Collection_Of_Large_2B_Transactions,User_Term_Changes</t>
   </si>
   <si>
     <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Emergency_Response_-_EU_Emergency_Response,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Mail_Intake</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Marketing_Expenses,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
@@ -1534,7 +1534,7 @@
     <t>Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,Privacy_Impact_Assessment_-_Pia,EU_Legal_-_Corporate_Changes</t>
   </si>
   <si>
-    <t>EB_User_Operation_-_Partner_Strategy,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,ROPA_Reporting</t>
+    <t>EB_User_Operation_-_Partner_Strategy,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,ROPA_Reporting,Contract_Review</t>
   </si>
   <si>
     <t>5Yr_Planning_Flow</t>
@@ -1576,7 +1576,7 @@
     <t>COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,OTA</t>
   </si>
   <si>
-    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,EU_Legal_-_Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,Bi_-_Weekly_Project_Approval_Process,General_Requests_To_Legal_Department</t>
+    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Dissolution,Contract_Review,EU_Legal_-_Corporate_Changes,Emergency_Response_-_EU_Emergency_Response,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,Bi_-_Weekly_Project_Approval_Process,General_Requests_To_Legal_Department,Mail_Intake,User_Term_Changes</t>
   </si>
   <si>
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
@@ -1663,7 +1663,7 @@
     <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA</t>
   </si>
   <si>
-    <t>EB_-_Europe_Business_Enabling_-_Market_Entry,EBE_Collection_Of_Large_2B_Transactions</t>
+    <t>EB_-_Europe_Business_Enabling_-_Market_Entry,EBE_Collection_Of_Large_2B_Transactions,User_Term_Changes</t>
   </si>
   <si>
     <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
@@ -1687,7 +1687,7 @@
     <t>FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process</t>
   </si>
   <si>
-    <t>ROPA_Reporting</t>
+    <t>ROPA_Reporting,Mail_Intake,Contract_Review</t>
   </si>
 </sst>
 </file>

--- a/helper/Role.xlsx
+++ b/helper/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="562">
   <si>
     <t>Role</t>
   </si>
@@ -706,6 +706,12 @@
     <t>Head_of_Data_Privacy_Europe</t>
   </si>
   <si>
+    <t>HRBP</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -1495,7 +1501,7 @@
     <t>Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
   </si>
   <si>
-    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Sales_Planning,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Sales_Planning_-_Sales_Planning,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Create_A_New_Promotion</t>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Sales_Planning,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Sales_Planning_-_Sales_Planning,Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Create_A_New_Promotion,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount</t>
   </si>
   <si>
     <t>Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Operation</t>
@@ -1543,10 +1549,10 @@
     <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,EU_Power_Procurement_&amp;_Finance_Overview</t>
   </si>
   <si>
-    <t>PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
-  </si>
-  <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Power_Procurement_&amp;_Finance_Overview,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
+    <t>PUS_Operation_Approval_Process_-_OPA,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Power_Procurement_&amp;_Finance_Overview,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process_-_OPA,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
   </si>
   <si>
     <t>NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application</t>
@@ -1582,7 +1588,7 @@
     <t>Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept</t>
   </si>
   <si>
-    <t>Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,EU_Power_Procurement_&amp;_Finance_Overview</t>
+    <t>Fleet_And_Business_Weekly_Governance_And_Reporting,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,EB_User_Operation_-_Partner_Strategy,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,EU_Power_Procurement_&amp;_Finance_Overview,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop,FOTA_Operation</t>
@@ -1675,7 +1681,7 @@
     <t>Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,EU_Power_Supply_Chain_-_Order_to_Delivery</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process_-_OPA,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO</t>
@@ -1688,6 +1694,12 @@
   </si>
   <si>
     <t>ROPA_Reporting,Mail_Intake,Contract_Review</t>
+  </si>
+  <si>
+    <t>NIO_Value_Evaluation_and_Development_Season,EU_standard_offboarding_process,EU_standard_probation_process</t>
+  </si>
+  <si>
+    <t>EU_standard_onboarding_process</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2076,16 +2088,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2096,16 +2108,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2116,13 +2128,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2133,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2150,10 +2162,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2164,13 +2176,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2181,16 +2193,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2201,10 +2213,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2215,16 +2227,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2235,16 +2247,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2255,16 +2267,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F12" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2275,16 +2287,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F13" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2295,16 +2307,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2315,16 +2327,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F15" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2335,16 +2347,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2355,16 +2367,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2375,16 +2387,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F18" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2395,13 +2407,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2412,16 +2424,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F20" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2432,13 +2444,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2449,16 +2461,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F22" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2469,10 +2481,10 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2483,16 +2495,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2503,13 +2515,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2520,16 +2532,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F26" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2540,13 +2552,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2557,16 +2569,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F28" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2577,16 +2589,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2597,16 +2609,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F30" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2617,13 +2629,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2634,13 +2646,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D32" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E32" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2651,16 +2663,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E33" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F33" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2671,13 +2683,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E34" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2688,16 +2700,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2708,16 +2720,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E36" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2728,13 +2740,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E37" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2745,13 +2757,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2762,13 +2774,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E39" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2779,13 +2791,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2796,16 +2808,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E41" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F41" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2816,13 +2828,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2833,16 +2845,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F43" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2853,13 +2865,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2870,13 +2882,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2887,13 +2899,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2904,16 +2916,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E47" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F47" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2924,13 +2936,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2941,16 +2953,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F49" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2961,16 +2973,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E50" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F50" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2981,13 +2993,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E51" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2998,16 +3010,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E52" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F52" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3018,13 +3030,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3035,16 +3047,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E54" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F54" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3055,13 +3067,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E55" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3072,16 +3084,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E56" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F56" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3092,16 +3104,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3112,13 +3124,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E58" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3129,13 +3141,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3146,16 +3158,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E60" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F60" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3166,13 +3178,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E61" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3183,13 +3195,13 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E62" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3200,16 +3212,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E63" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F63" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3220,13 +3232,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3237,16 +3249,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E65" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F65" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3257,13 +3269,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D66" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E66" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3274,13 +3286,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E67" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3291,13 +3303,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E68" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3308,16 +3320,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E69" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F69" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3328,16 +3340,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F70" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3348,13 +3360,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E71" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3365,16 +3377,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E72" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F72" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3385,13 +3397,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E73" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3402,16 +3414,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E74" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F74" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3422,13 +3434,13 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D75" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3439,13 +3451,13 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E76" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3456,16 +3468,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E77" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F77" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3476,16 +3488,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E78" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F78" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3496,16 +3508,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E79" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F79" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3516,16 +3528,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E80" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F80" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3536,13 +3548,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E81" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3553,10 +3565,10 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3567,13 +3579,13 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E83" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3584,13 +3596,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E84" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="